--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="325">
   <si>
     <t>PE</t>
   </si>
@@ -1260,74 +1260,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/25
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/4/26
 </t>
   </si>
   <si>
@@ -1996,460 +1928,460 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,454 +2396,454 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86000</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88000</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90000</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92000</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94000</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96000</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98000</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100000</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102000</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104000</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106000</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108000</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>110000</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112000</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114000</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116000</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>118000</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>120000</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>122000</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>124000</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>126000</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>128000</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>130000</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>132000</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>134000</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>136000</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>138000</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>140000</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>142000</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>144000</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>146000</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>148000</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>150000</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>152000</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>154000</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>156000</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>158000</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>160000</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>162000</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>164000</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>166000</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>168000</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>170000</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>172000</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174000</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>176000</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>178000</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>180000</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>182000</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>184000</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>186000</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188000</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>190000</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>192000</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>194000</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196000</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198000</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>200000</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>202000</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>204000</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>206000</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>208000</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>210000</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>212000</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>214000</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>216000</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>218000</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>220000</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>222000</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>224000</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>226000</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>228000</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>230000</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>232000</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>234000</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>236000</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>238000</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>240000</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>242000</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>244000</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>246000</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>248000</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>250000</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>252000</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>254000</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>256000</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>258000</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>260000</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>262000</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>264000</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>266000</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>268000</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>270000</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>272000</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>274000</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>276000</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>278000</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>280000</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>282000</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>284000</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>286000</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>288000</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>290000</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>292000</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>294000</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>296000</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>298000</c:v>
+                  <c:v>462155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>300000</c:v>
+                  <c:v>456260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>302000</c:v>
+                  <c:v>453061.48338996636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,460 +2885,460 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,457 +3350,457 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>462155.90490155248</c:v>
+                  <c:v>164155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>456260.50288029009</c:v>
+                  <c:v>156260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>453061.48338996636</c:v>
+                  <c:v>151061.48338996636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3910,460 +3842,460 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4372,460 +4304,460 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>16.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>14.94</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>13.310000419616699</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>13.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>12.899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>12.840000152587891</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>12.390000343322754</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>12.949999809265137</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>12.039999961853027</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>12.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>11.460000040000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>11.14000034</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>10.93999958</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>12.100000380000001</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>11.239999770000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>11.100000380000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>10.3500003814697</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>9.3900003430000005</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>10.380000109999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>10.72999954</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>164155.90490155248</c:v>
+                  <c:v>11.390000343322754</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>156260.50288029009</c:v>
+                  <c:v>11.27000046</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>151061.48338996636</c:v>
+                  <c:v>11.30000019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4847,17 +4779,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252792192"/>
-        <c:axId val="252954112"/>
+        <c:axId val="36730752"/>
+        <c:axId val="36737024"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="252792192"/>
+      <c:catAx>
+        <c:axId val="36730752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4894,14 +4826,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252954112"/>
+        <c:crossAx val="36737024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="252954112"/>
+        <c:axId val="36737024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,7 +4885,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252792192"/>
+        <c:crossAx val="36730752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5360,7 +5293,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -5388,31 +5321,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -5426,7 +5359,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5468,25 +5401,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -5956,7 +5889,7 @@
         <v>40543</v>
       </c>
       <c r="X9" s="1">
-        <f>VLOOKUP(W9,L:M,2)</f>
+        <f t="shared" ref="X9:X14" si="2">VLOOKUP(W9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y9" s="1">
@@ -5967,7 +5900,7 @@
         <v>40543</v>
       </c>
       <c r="AA9" s="1">
-        <f>VLOOKUP(Z9,L:M,2)</f>
+        <f t="shared" ref="AA9:AA15" si="3">VLOOKUP(Z9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB9" s="1">
@@ -6036,29 +5969,29 @@
         <v>24000</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ref="V10:V13" si="2">-U10</f>
+        <f t="shared" ref="V10:V13" si="4">-U10</f>
         <v>-24000</v>
       </c>
       <c r="W10" s="29">
         <v>40907</v>
       </c>
       <c r="X10" s="1">
-        <f>VLOOKUP(W10,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" ref="Y10:Y14" si="3">-X10</f>
+        <f t="shared" ref="Y10:Y14" si="5">-X10</f>
         <v>-24000</v>
       </c>
       <c r="Z10" s="29">
         <v>40907</v>
       </c>
       <c r="AA10" s="1">
-        <f>VLOOKUP(Z10,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" ref="AB10:AB15" si="4">-AA10</f>
+        <f t="shared" ref="AB10:AB15" si="6">-AA10</f>
         <v>-24000</v>
       </c>
     </row>
@@ -6123,29 +6056,29 @@
         <v>24000</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
       <c r="W11" s="29">
         <v>41274</v>
       </c>
       <c r="X11" s="1">
-        <f>VLOOKUP(W11,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="Z11" s="29">
         <v>41274</v>
       </c>
       <c r="AA11" s="1">
-        <f>VLOOKUP(Z11,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6210,29 +6143,29 @@
         <v>24000</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
       <c r="W12" s="29">
         <v>41639</v>
       </c>
       <c r="X12" s="1">
-        <f>VLOOKUP(W12,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="Z12" s="29">
         <v>41639</v>
       </c>
       <c r="AA12" s="1">
-        <f>VLOOKUP(Z12,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6297,29 +6230,29 @@
         <v>24000</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
       <c r="W13" s="29">
         <v>42004</v>
       </c>
       <c r="X13" s="1">
-        <f>VLOOKUP(W13,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="Z13" s="29">
         <v>42004</v>
       </c>
       <c r="AA13" s="1">
-        <f>VLOOKUP(Z13,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6387,22 +6320,22 @@
         <v>42369</v>
       </c>
       <c r="X14" s="1">
-        <f>VLOOKUP(W14,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="Z14" s="29">
         <v>42369</v>
       </c>
       <c r="AA14" s="1">
-        <f>VLOOKUP(Z14,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6473,11 +6406,11 @@
         <v>42734</v>
       </c>
       <c r="AA15" s="1">
-        <f>VLOOKUP(Z15,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6617,7 +6550,7 @@
         <v>40543</v>
       </c>
       <c r="U18" s="1">
-        <f>VLOOKUP(T18,L:M,2)</f>
+        <f t="shared" ref="U18:U25" si="7">VLOOKUP(T18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V18" s="1">
@@ -6628,7 +6561,7 @@
         <v>40543</v>
       </c>
       <c r="X18" s="1">
-        <f>VLOOKUP(W18,L:M,2)</f>
+        <f t="shared" ref="X18:X26" si="8">VLOOKUP(W18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y18" s="1">
@@ -6639,7 +6572,7 @@
         <v>40543</v>
       </c>
       <c r="AA18" s="1">
-        <f>VLOOKUP(Z18,L:M,2)</f>
+        <f t="shared" ref="AA18:AA27" si="9">VLOOKUP(Z18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB18" s="1">
@@ -6683,33 +6616,33 @@
         <v>40907</v>
       </c>
       <c r="U19" s="1">
-        <f>VLOOKUP(T19,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19:V25" si="5">-U19</f>
+        <f t="shared" ref="V19:V25" si="10">-U19</f>
         <v>-24000</v>
       </c>
       <c r="W19" s="29">
         <v>40907</v>
       </c>
       <c r="X19" s="1">
-        <f>VLOOKUP(W19,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:Y26" si="6">-X19</f>
+        <f t="shared" ref="Y19:Y26" si="11">-X19</f>
         <v>-24000</v>
       </c>
       <c r="Z19" s="29">
         <v>40907</v>
       </c>
       <c r="AA19" s="1">
-        <f>VLOOKUP(Z19,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19:AB27" si="7">-AA19</f>
+        <f t="shared" ref="AB19:AB27" si="12">-AA19</f>
         <v>-24000</v>
       </c>
     </row>
@@ -6749,33 +6682,33 @@
         <v>41274</v>
       </c>
       <c r="U20" s="1">
-        <f>VLOOKUP(T20,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W20" s="29">
         <v>41274</v>
       </c>
       <c r="X20" s="1">
-        <f>VLOOKUP(W20,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z20" s="29">
         <v>41274</v>
       </c>
       <c r="AA20" s="1">
-        <f>VLOOKUP(Z20,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6815,33 +6748,33 @@
         <v>41639</v>
       </c>
       <c r="U21" s="1">
-        <f>VLOOKUP(T21,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W21" s="29">
         <v>41639</v>
       </c>
       <c r="X21" s="1">
-        <f>VLOOKUP(W21,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z21" s="29">
         <v>41639</v>
       </c>
       <c r="AA21" s="1">
-        <f>VLOOKUP(Z21,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6881,33 +6814,33 @@
         <v>42004</v>
       </c>
       <c r="U22" s="1">
-        <f>VLOOKUP(T22,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W22" s="29">
         <v>42004</v>
       </c>
       <c r="X22" s="1">
-        <f>VLOOKUP(W22,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z22" s="29">
         <v>42004</v>
       </c>
       <c r="AA22" s="1">
-        <f>VLOOKUP(Z22,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6947,33 +6880,33 @@
         <v>42369</v>
       </c>
       <c r="U23" s="1">
-        <f>VLOOKUP(T23,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W23" s="29">
         <v>42369</v>
       </c>
       <c r="X23" s="1">
-        <f>VLOOKUP(W23,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z23" s="29">
         <v>42369</v>
       </c>
       <c r="AA23" s="1">
-        <f>VLOOKUP(Z23,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7013,33 +6946,33 @@
         <v>42734</v>
       </c>
       <c r="U24" s="1">
-        <f>VLOOKUP(T24,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W24" s="29">
         <v>42734</v>
       </c>
       <c r="X24" s="1">
-        <f>VLOOKUP(W24,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z24" s="29">
         <v>42734</v>
       </c>
       <c r="AA24" s="1">
-        <f>VLOOKUP(Z24,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7079,33 +7012,33 @@
         <v>43098</v>
       </c>
       <c r="U25" s="1">
-        <f>VLOOKUP(T25,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W25" s="29">
         <v>43098</v>
       </c>
       <c r="X25" s="1">
-        <f>VLOOKUP(W25,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z25" s="29">
         <v>43098</v>
       </c>
       <c r="AA25" s="1">
-        <f>VLOOKUP(Z25,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7152,22 +7085,22 @@
         <v>43462</v>
       </c>
       <c r="X26" s="1">
-        <f>VLOOKUP(W26,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z26" s="29">
         <v>43462</v>
       </c>
       <c r="AA26" s="1">
-        <f>VLOOKUP(Z26,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7217,11 +7150,11 @@
         <v>43830</v>
       </c>
       <c r="AA27" s="1">
-        <f>VLOOKUP(Z27,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7340,7 +7273,7 @@
         <v>40543</v>
       </c>
       <c r="U30" s="1">
-        <f>VLOOKUP(T30,L:M,2)</f>
+        <f t="shared" ref="U30:U40" si="13">VLOOKUP(T30,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V30" s="1">
@@ -7351,7 +7284,7 @@
         <v>40543</v>
       </c>
       <c r="X30" s="1">
-        <f>VLOOKUP(W30,L:M,2)</f>
+        <f t="shared" ref="X30:X41" si="14">VLOOKUP(W30,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y30" s="1">
@@ -7365,7 +7298,7 @@
         <v>8000</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" ref="AB30:AB42" si="8">-AA30</f>
+        <f t="shared" ref="AB30:AB42" si="15">-AA30</f>
         <v>-8000</v>
       </c>
     </row>
@@ -7406,22 +7339,22 @@
         <v>40907</v>
       </c>
       <c r="U31" s="1">
-        <f>VLOOKUP(T31,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ref="V31:V40" si="9">-U31</f>
+        <f t="shared" ref="V31:V40" si="16">-U31</f>
         <v>-24000</v>
       </c>
       <c r="W31" s="29">
         <v>40907</v>
       </c>
       <c r="X31" s="1">
-        <f>VLOOKUP(W31,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ref="Y31:Y41" si="10">-X31</f>
+        <f t="shared" ref="Y31:Y41" si="17">-X31</f>
         <v>-24000</v>
       </c>
       <c r="Z31" s="29">
@@ -7431,7 +7364,7 @@
         <v>24000</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7471,22 +7404,22 @@
         <v>41274</v>
       </c>
       <c r="U32" s="1">
-        <f>VLOOKUP(T32,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W32" s="29">
         <v>41274</v>
       </c>
       <c r="X32" s="1">
-        <f>VLOOKUP(W32,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z32" s="29">
@@ -7496,7 +7429,7 @@
         <v>24000</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7536,22 +7469,22 @@
         <v>41639</v>
       </c>
       <c r="U33" s="1">
-        <f>VLOOKUP(T33,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W33" s="29">
         <v>41639</v>
       </c>
       <c r="X33" s="1">
-        <f>VLOOKUP(W33,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z33" s="29">
@@ -7561,7 +7494,7 @@
         <v>24000</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7601,22 +7534,22 @@
         <v>42004</v>
       </c>
       <c r="U34" s="1">
-        <f>VLOOKUP(T34,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W34" s="29">
         <v>42004</v>
       </c>
       <c r="X34" s="1">
-        <f>VLOOKUP(W34,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z34" s="29">
@@ -7626,7 +7559,7 @@
         <v>24000</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7666,22 +7599,22 @@
         <v>42369</v>
       </c>
       <c r="U35" s="1">
-        <f>VLOOKUP(T35,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W35" s="29">
         <v>42369</v>
       </c>
       <c r="X35" s="1">
-        <f>VLOOKUP(W35,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z35" s="29">
@@ -7691,7 +7624,7 @@
         <v>24000</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7731,22 +7664,22 @@
         <v>42734</v>
       </c>
       <c r="U36" s="1">
-        <f>VLOOKUP(T36,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W36" s="29">
         <v>42734</v>
       </c>
       <c r="X36" s="1">
-        <f>VLOOKUP(W36,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z36" s="29">
@@ -7756,7 +7689,7 @@
         <v>24000</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7796,22 +7729,22 @@
         <v>43098</v>
       </c>
       <c r="U37" s="1">
-        <f>VLOOKUP(T37,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W37" s="29">
         <v>43098</v>
       </c>
       <c r="X37" s="1">
-        <f>VLOOKUP(W37,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z37" s="29">
@@ -7821,7 +7754,7 @@
         <v>24000</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7861,22 +7794,22 @@
         <v>43462</v>
       </c>
       <c r="U38" s="1">
-        <f>VLOOKUP(T38,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W38" s="29">
         <v>43462</v>
       </c>
       <c r="X38" s="1">
-        <f>VLOOKUP(W38,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z38" s="29">
@@ -7886,7 +7819,7 @@
         <v>24000</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7926,22 +7859,22 @@
         <v>43830</v>
       </c>
       <c r="U39" s="1">
-        <f>VLOOKUP(T39,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W39" s="30">
         <v>43830</v>
       </c>
       <c r="X39" s="1">
-        <f>VLOOKUP(W39,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z39" s="30">
@@ -7951,7 +7884,7 @@
         <v>24000</v>
       </c>
       <c r="AB39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7991,22 +7924,22 @@
         <v>44196</v>
       </c>
       <c r="U40" s="1">
-        <f>VLOOKUP(T40,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W40" s="24">
         <v>44196</v>
       </c>
       <c r="X40" s="1">
-        <f>VLOOKUP(W40,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z40" s="24">
@@ -8016,7 +7949,7 @@
         <v>24000</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -8063,11 +7996,11 @@
         <v>44561</v>
       </c>
       <c r="X41" s="1">
-        <f>VLOOKUP(W41,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z41" s="24">
@@ -8077,7 +8010,7 @@
         <v>24000</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -8130,7 +8063,7 @@
         <v>24000</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
@@ -11831,9 +11764,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -19047,7 +18980,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A502" si="4">A451+1</f>
+        <f t="shared" ref="A452:A483" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -19555,310 +19488,6 @@
       <c r="D483" s="17">
         <f>SUM($C$3:C483)/A483</f>
         <v>12.166213734408391</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A484" s="17">
-        <f t="shared" si="4"/>
-        <v>482</v>
-      </c>
-      <c r="B484" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C484" s="21">
-        <v>11.31999969</v>
-      </c>
-      <c r="D484" s="17">
-        <f>SUM($C$3:C484)/A484</f>
-        <v>12.164458103610864</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A485" s="17">
-        <f t="shared" si="4"/>
-        <v>483</v>
-      </c>
-      <c r="B485" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C485" s="21">
-        <v>11.380000109999999</v>
-      </c>
-      <c r="D485" s="17">
-        <f>SUM($C$3:C485)/A485</f>
-        <v>12.162833966978129</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A486" s="17">
-        <f t="shared" si="4"/>
-        <v>484</v>
-      </c>
-      <c r="B486" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C486" s="21">
-        <v>11.369999890000001</v>
-      </c>
-      <c r="D486" s="17">
-        <f>SUM($C$3:C486)/A486</f>
-        <v>12.161195880042223</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A487" s="17">
-        <f t="shared" si="4"/>
-        <v>485</v>
-      </c>
-      <c r="B487" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C487" s="21">
-        <v>11.420000079999999</v>
-      </c>
-      <c r="D487" s="17">
-        <f>SUM($C$3:C487)/A487</f>
-        <v>12.159667641279251</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A488" s="17">
-        <f t="shared" si="4"/>
-        <v>486</v>
-      </c>
-      <c r="B488" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C488" s="21">
-        <v>11.40999985</v>
-      </c>
-      <c r="D488" s="17">
-        <f>SUM($C$3:C488)/A488</f>
-        <v>12.158125114959745</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A489" s="17">
-        <f t="shared" si="4"/>
-        <v>487</v>
-      </c>
-      <c r="B489" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C489" s="21">
-        <v>11.399999619999999</v>
-      </c>
-      <c r="D489" s="17">
-        <f>SUM($C$3:C489)/A489</f>
-        <v>12.156568389097405</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A490" s="17">
-        <f t="shared" si="4"/>
-        <v>488</v>
-      </c>
-      <c r="B490" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C490" s="21">
-        <v>11.399999619999999</v>
-      </c>
-      <c r="D490" s="17">
-        <f>SUM($C$3:C490)/A490</f>
-        <v>12.155018043259091</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A491" s="17">
-        <f t="shared" si="4"/>
-        <v>489</v>
-      </c>
-      <c r="B491" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C491" s="21">
-        <v>11.380000109999999</v>
-      </c>
-      <c r="D491" s="17">
-        <f>SUM($C$3:C491)/A491</f>
-        <v>12.153433139510094</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A492" s="17">
-        <f t="shared" si="4"/>
-        <v>490</v>
-      </c>
-      <c r="B492" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C492" s="21">
-        <v>11.40999985</v>
-      </c>
-      <c r="D492" s="17">
-        <f>SUM($C$3:C492)/A492</f>
-        <v>12.151915928715175</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A493" s="17">
-        <f t="shared" si="4"/>
-        <v>491</v>
-      </c>
-      <c r="B493" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C493" s="21">
-        <v>11.59000015</v>
-      </c>
-      <c r="D493" s="17">
-        <f>SUM($C$3:C493)/A493</f>
-        <v>12.150771497393963</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A494" s="17">
-        <f t="shared" si="4"/>
-        <v>492</v>
-      </c>
-      <c r="B494" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="C494" s="21">
-        <v>11.649999619999999</v>
-      </c>
-      <c r="D494" s="17">
-        <f>SUM($C$3:C494)/A494</f>
-        <v>12.149753668374871</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A495" s="17">
-        <f t="shared" si="4"/>
-        <v>493</v>
-      </c>
-      <c r="B495" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C495" s="21">
-        <v>11.56000042</v>
-      </c>
-      <c r="D495" s="17">
-        <f>SUM($C$3:C495)/A495</f>
-        <v>12.14855741432137</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A496" s="17">
-        <f t="shared" si="4"/>
-        <v>494</v>
-      </c>
-      <c r="B496" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C496" s="21">
-        <v>11.5</v>
-      </c>
-      <c r="D496" s="17">
-        <f>SUM($C$3:C496)/A496</f>
-        <v>12.147244545061611</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A497" s="17">
-        <f t="shared" si="4"/>
-        <v>495</v>
-      </c>
-      <c r="B497" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C497" s="21">
-        <v>11.34000015</v>
-      </c>
-      <c r="D497" s="17">
-        <f>SUM($C$3:C497)/A497</f>
-        <v>12.14561374830391</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A498" s="17">
-        <f t="shared" si="4"/>
-        <v>496</v>
-      </c>
-      <c r="B498" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C498" s="21">
-        <v>11.22999954</v>
-      </c>
-      <c r="D498" s="17">
-        <f>SUM($C$3:C498)/A498</f>
-        <v>12.143767751916201</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A499" s="17">
-        <f t="shared" si="4"/>
-        <v>497</v>
-      </c>
-      <c r="B499" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C499" s="21">
-        <v>11.239999770000001</v>
-      </c>
-      <c r="D499" s="17">
-        <f>SUM($C$3:C499)/A499</f>
-        <v>12.141949305272508</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A500" s="17">
-        <f t="shared" si="4"/>
-        <v>498</v>
-      </c>
-      <c r="B500" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C500" s="21">
-        <v>11.22000027</v>
-      </c>
-      <c r="D500" s="17">
-        <f>SUM($C$3:C500)/A500</f>
-        <v>12.140098001988829</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A501" s="17">
-        <f t="shared" si="4"/>
-        <v>499</v>
-      </c>
-      <c r="B501" s="20">
-        <v>45043</v>
-      </c>
-      <c r="C501" s="21">
-        <v>11.31000042</v>
-      </c>
-      <c r="D501" s="17">
-        <f>SUM($C$3:C501)/A501</f>
-        <v>12.138434479780432</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A502" s="17">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="B502" s="20">
-        <v>45044</v>
-      </c>
-      <c r="C502" s="21">
-        <v>11.40999985</v>
-      </c>
-      <c r="D502" s="17">
-        <f>SUM($C$3:C502)/A502</f>
-        <v>12.136977610520871</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="342">
   <si>
     <t>PE</t>
   </si>
@@ -1260,6 +1260,74 @@
   </si>
   <si>
     <t xml:space="preserve">2023/3/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/4/26
 </t>
   </si>
   <si>
@@ -1928,460 +1996,460 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,454 +2464,454 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>88000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>92000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>96000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>98000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>102000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>106000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>112000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>116000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>118000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>122000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>124000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>132000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>134000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>136000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>138000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>146000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>148000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>152000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>154000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>158000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>164000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>166000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>168000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>172000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>174000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>176000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>178000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>182000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>184000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>186000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>188000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>192000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>194000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>196000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>202000</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>204000</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>206000</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>208000</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>212000</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>214000</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>222000</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>224000</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>226000</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>228000</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>232000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>236000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>238000</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>242000</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>244000</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>246000</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>254000</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>258000</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>262000</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>264000</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>266000</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>268000</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>272000</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>274000</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>276000</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>278000</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>284000</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>286000</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>292000</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>294000</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>296000</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>462155.90490155248</c:v>
+                  <c:v>298000</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>456260.50288029009</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>453061.48338996636</c:v>
+                  <c:v>302000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,460 +2953,460 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,457 +3418,457 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>164155.90490155248</c:v>
+                  <c:v>462155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>156260.50288029009</c:v>
+                  <c:v>456260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>151061.48338996636</c:v>
+                  <c:v>453061.48338996636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,460 +3910,460 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4304,460 +4372,460 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>#N/A</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>#N/A</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>#N/A</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>#N/A</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>#N/A</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>#N/A</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>#N/A</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>#N/A</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>#N/A</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>#N/A</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>#N/A</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>#N/A</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>#N/A</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>#N/A</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>#N/A</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>#N/A</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>#N/A</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>#N/A</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>#N/A</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>#N/A</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>#N/A</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>#N/A</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>#N/A</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>#N/A</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>#N/A</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>#N/A</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>#N/A</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>#N/A</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>#N/A</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>#N/A</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>#N/A</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>#N/A</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>#N/A</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>#N/A</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>#N/A</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>#N/A</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>#N/A</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>#N/A</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>#N/A</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>#N/A</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>#N/A</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>#N/A</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>#N/A</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>#N/A</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>#N/A</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>#N/A</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>#N/A</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>#N/A</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>#N/A</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>#N/A</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>#N/A</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>#N/A</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>#N/A</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>#N/A</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>#N/A</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>#N/A</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>#N/A</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>#N/A</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>#N/A</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>#N/A</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>#N/A</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>#N/A</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>#N/A</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>#N/A</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>#N/A</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>#N/A</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>#N/A</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>#N/A</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>#N/A</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>#N/A</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>#N/A</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>#N/A</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>#N/A</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>#N/A</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>#N/A</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>#N/A</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>#N/A</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>#N/A</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>#N/A</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>16.649999999999999</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>14.94</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>14.7</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>13.310000419616699</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>13.430000305175781</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12.899999618530273</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.840000152587891</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12.390000343322754</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.949999809265137</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.039999961853027</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>12.239999771118164</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>11.460000040000001</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>11.14000034</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.93999958</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>12.100000380000001</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>11.239999770000001</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>11.100000380000001</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>10.3500003814697</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>9.3900003430000005</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>10.380000109999999</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>10.72999954</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>11.390000343322754</c:v>
+                  <c:v>164155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>11.27000046</c:v>
+                  <c:v>156260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>11.30000019</c:v>
+                  <c:v>151061.48338996636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4779,17 +4847,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36730752"/>
-        <c:axId val="36737024"/>
+        <c:axId val="252792192"/>
+        <c:axId val="252954112"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="36730752"/>
+      <c:dateAx>
+        <c:axId val="252792192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -4826,15 +4894,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36737024"/>
+        <c:crossAx val="252954112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="36737024"/>
+        <c:axId val="252954112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4885,7 +4952,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36730752"/>
+        <c:crossAx val="252792192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5293,7 +5360,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -5321,31 +5388,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -5359,7 +5426,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5401,25 +5468,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -5889,7 +5956,7 @@
         <v>40543</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" ref="X9:X14" si="2">VLOOKUP(W9,L:M,2)</f>
+        <f>VLOOKUP(W9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y9" s="1">
@@ -5900,7 +5967,7 @@
         <v>40543</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" ref="AA9:AA15" si="3">VLOOKUP(Z9,L:M,2)</f>
+        <f>VLOOKUP(Z9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB9" s="1">
@@ -5969,29 +6036,29 @@
         <v>24000</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ref="V10:V13" si="4">-U10</f>
+        <f t="shared" ref="V10:V13" si="2">-U10</f>
         <v>-24000</v>
       </c>
       <c r="W10" s="29">
         <v>40907</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(W10,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" ref="Y10:Y14" si="5">-X10</f>
+        <f t="shared" ref="Y10:Y14" si="3">-X10</f>
         <v>-24000</v>
       </c>
       <c r="Z10" s="29">
         <v>40907</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(Z10,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" ref="AB10:AB15" si="6">-AA10</f>
+        <f t="shared" ref="AB10:AB15" si="4">-AA10</f>
         <v>-24000</v>
       </c>
     </row>
@@ -6056,29 +6123,29 @@
         <v>24000</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-24000</v>
       </c>
       <c r="W11" s="29">
         <v>41274</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(W11,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
       <c r="Z11" s="29">
         <v>41274</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(Z11,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6143,29 +6210,29 @@
         <v>24000</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-24000</v>
       </c>
       <c r="W12" s="29">
         <v>41639</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(W12,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
       <c r="Z12" s="29">
         <v>41639</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(Z12,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6230,29 +6297,29 @@
         <v>24000</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-24000</v>
       </c>
       <c r="W13" s="29">
         <v>42004</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(W13,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
       <c r="Z13" s="29">
         <v>42004</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(Z13,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6320,22 +6387,22 @@
         <v>42369</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(W14,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
       <c r="Z14" s="29">
         <v>42369</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(Z14,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6406,11 +6473,11 @@
         <v>42734</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(Z15,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6550,7 +6617,7 @@
         <v>40543</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" ref="U18:U25" si="7">VLOOKUP(T18,L:M,2)</f>
+        <f>VLOOKUP(T18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V18" s="1">
@@ -6561,7 +6628,7 @@
         <v>40543</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" ref="X18:X26" si="8">VLOOKUP(W18,L:M,2)</f>
+        <f>VLOOKUP(W18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y18" s="1">
@@ -6572,7 +6639,7 @@
         <v>40543</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" ref="AA18:AA27" si="9">VLOOKUP(Z18,L:M,2)</f>
+        <f>VLOOKUP(Z18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB18" s="1">
@@ -6616,33 +6683,33 @@
         <v>40907</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(T19,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19:V25" si="10">-U19</f>
+        <f t="shared" ref="V19:V25" si="5">-U19</f>
         <v>-24000</v>
       </c>
       <c r="W19" s="29">
         <v>40907</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(W19,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:Y26" si="11">-X19</f>
+        <f t="shared" ref="Y19:Y26" si="6">-X19</f>
         <v>-24000</v>
       </c>
       <c r="Z19" s="29">
         <v>40907</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z19,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19:AB27" si="12">-AA19</f>
+        <f t="shared" ref="AB19:AB27" si="7">-AA19</f>
         <v>-24000</v>
       </c>
     </row>
@@ -6682,33 +6749,33 @@
         <v>41274</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(T20,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="W20" s="29">
         <v>41274</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(W20,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
       <c r="Z20" s="29">
         <v>41274</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z20,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6748,33 +6815,33 @@
         <v>41639</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(T21,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="W21" s="29">
         <v>41639</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(W21,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
       <c r="Z21" s="29">
         <v>41639</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z21,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6814,33 +6881,33 @@
         <v>42004</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(T22,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="W22" s="29">
         <v>42004</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(W22,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
       <c r="Z22" s="29">
         <v>42004</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z22,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6880,33 +6947,33 @@
         <v>42369</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(T23,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="W23" s="29">
         <v>42369</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(W23,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
       <c r="Z23" s="29">
         <v>42369</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z23,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
     </row>
@@ -6946,33 +7013,33 @@
         <v>42734</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(T24,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="W24" s="29">
         <v>42734</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(W24,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
       <c r="Z24" s="29">
         <v>42734</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z24,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7012,33 +7079,33 @@
         <v>43098</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(T25,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="W25" s="29">
         <v>43098</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(W25,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
       <c r="Z25" s="29">
         <v>43098</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z25,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7085,22 +7152,22 @@
         <v>43462</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(W26,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
       <c r="Z26" s="29">
         <v>43462</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z26,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7150,11 +7217,11 @@
         <v>43830</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(Z27,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7273,7 +7340,7 @@
         <v>40543</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" ref="U30:U40" si="13">VLOOKUP(T30,L:M,2)</f>
+        <f>VLOOKUP(T30,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V30" s="1">
@@ -7284,7 +7351,7 @@
         <v>40543</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" ref="X30:X41" si="14">VLOOKUP(W30,L:M,2)</f>
+        <f>VLOOKUP(W30,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y30" s="1">
@@ -7298,7 +7365,7 @@
         <v>8000</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" ref="AB30:AB42" si="15">-AA30</f>
+        <f t="shared" ref="AB30:AB42" si="8">-AA30</f>
         <v>-8000</v>
       </c>
     </row>
@@ -7339,22 +7406,22 @@
         <v>40907</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T31,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ref="V31:V40" si="16">-U31</f>
+        <f t="shared" ref="V31:V40" si="9">-U31</f>
         <v>-24000</v>
       </c>
       <c r="W31" s="29">
         <v>40907</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W31,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ref="Y31:Y41" si="17">-X31</f>
+        <f t="shared" ref="Y31:Y41" si="10">-X31</f>
         <v>-24000</v>
       </c>
       <c r="Z31" s="29">
@@ -7364,7 +7431,7 @@
         <v>24000</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7404,22 +7471,22 @@
         <v>41274</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T32,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W32" s="29">
         <v>41274</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W32,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z32" s="29">
@@ -7429,7 +7496,7 @@
         <v>24000</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7469,22 +7536,22 @@
         <v>41639</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T33,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W33" s="29">
         <v>41639</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W33,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z33" s="29">
@@ -7494,7 +7561,7 @@
         <v>24000</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7534,22 +7601,22 @@
         <v>42004</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T34,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W34" s="29">
         <v>42004</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W34,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z34" s="29">
@@ -7559,7 +7626,7 @@
         <v>24000</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7599,22 +7666,22 @@
         <v>42369</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T35,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W35" s="29">
         <v>42369</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W35,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z35" s="29">
@@ -7624,7 +7691,7 @@
         <v>24000</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7664,22 +7731,22 @@
         <v>42734</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T36,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W36" s="29">
         <v>42734</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W36,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z36" s="29">
@@ -7689,7 +7756,7 @@
         <v>24000</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7729,22 +7796,22 @@
         <v>43098</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T37,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W37" s="29">
         <v>43098</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W37,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z37" s="29">
@@ -7754,7 +7821,7 @@
         <v>24000</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7794,22 +7861,22 @@
         <v>43462</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T38,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W38" s="29">
         <v>43462</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W38,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z38" s="29">
@@ -7819,7 +7886,7 @@
         <v>24000</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7859,22 +7926,22 @@
         <v>43830</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T39,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W39" s="30">
         <v>43830</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W39,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z39" s="30">
@@ -7884,7 +7951,7 @@
         <v>24000</v>
       </c>
       <c r="AB39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7924,22 +7991,22 @@
         <v>44196</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(T40,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>-24000</v>
       </c>
       <c r="W40" s="24">
         <v>44196</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W40,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z40" s="24">
@@ -7949,7 +8016,7 @@
         <v>24000</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -7996,11 +8063,11 @@
         <v>44561</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(W41,L:M,2)</f>
         <v>24000</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="Z41" s="24">
@@ -8010,7 +8077,7 @@
         <v>24000</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -8063,7 +8130,7 @@
         <v>24000</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>-24000</v>
       </c>
     </row>
@@ -11764,9 +11831,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D483"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -18980,7 +19047,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A483" si="4">A451+1</f>
+        <f t="shared" ref="A452:A502" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -19488,6 +19555,310 @@
       <c r="D483" s="17">
         <f>SUM($C$3:C483)/A483</f>
         <v>12.166213734408391</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="17">
+        <f t="shared" si="4"/>
+        <v>482</v>
+      </c>
+      <c r="B484" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C484" s="21">
+        <v>11.31999969</v>
+      </c>
+      <c r="D484" s="17">
+        <f>SUM($C$3:C484)/A484</f>
+        <v>12.164458103610864</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="17">
+        <f t="shared" si="4"/>
+        <v>483</v>
+      </c>
+      <c r="B485" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C485" s="21">
+        <v>11.380000109999999</v>
+      </c>
+      <c r="D485" s="17">
+        <f>SUM($C$3:C485)/A485</f>
+        <v>12.162833966978129</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="17">
+        <f t="shared" si="4"/>
+        <v>484</v>
+      </c>
+      <c r="B486" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C486" s="21">
+        <v>11.369999890000001</v>
+      </c>
+      <c r="D486" s="17">
+        <f>SUM($C$3:C486)/A486</f>
+        <v>12.161195880042223</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="17">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="B487" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C487" s="21">
+        <v>11.420000079999999</v>
+      </c>
+      <c r="D487" s="17">
+        <f>SUM($C$3:C487)/A487</f>
+        <v>12.159667641279251</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="17">
+        <f t="shared" si="4"/>
+        <v>486</v>
+      </c>
+      <c r="B488" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C488" s="21">
+        <v>11.40999985</v>
+      </c>
+      <c r="D488" s="17">
+        <f>SUM($C$3:C488)/A488</f>
+        <v>12.158125114959745</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="17">
+        <f t="shared" si="4"/>
+        <v>487</v>
+      </c>
+      <c r="B489" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C489" s="21">
+        <v>11.399999619999999</v>
+      </c>
+      <c r="D489" s="17">
+        <f>SUM($C$3:C489)/A489</f>
+        <v>12.156568389097405</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="17">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+      <c r="B490" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C490" s="21">
+        <v>11.399999619999999</v>
+      </c>
+      <c r="D490" s="17">
+        <f>SUM($C$3:C490)/A490</f>
+        <v>12.155018043259091</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="17">
+        <f t="shared" si="4"/>
+        <v>489</v>
+      </c>
+      <c r="B491" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C491" s="21">
+        <v>11.380000109999999</v>
+      </c>
+      <c r="D491" s="17">
+        <f>SUM($C$3:C491)/A491</f>
+        <v>12.153433139510094</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="17">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="B492" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C492" s="21">
+        <v>11.40999985</v>
+      </c>
+      <c r="D492" s="17">
+        <f>SUM($C$3:C492)/A492</f>
+        <v>12.151915928715175</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="17">
+        <f t="shared" si="4"/>
+        <v>491</v>
+      </c>
+      <c r="B493" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C493" s="21">
+        <v>11.59000015</v>
+      </c>
+      <c r="D493" s="17">
+        <f>SUM($C$3:C493)/A493</f>
+        <v>12.150771497393963</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="17">
+        <f t="shared" si="4"/>
+        <v>492</v>
+      </c>
+      <c r="B494" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C494" s="21">
+        <v>11.649999619999999</v>
+      </c>
+      <c r="D494" s="17">
+        <f>SUM($C$3:C494)/A494</f>
+        <v>12.149753668374871</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="17">
+        <f t="shared" si="4"/>
+        <v>493</v>
+      </c>
+      <c r="B495" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C495" s="21">
+        <v>11.56000042</v>
+      </c>
+      <c r="D495" s="17">
+        <f>SUM($C$3:C495)/A495</f>
+        <v>12.14855741432137</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="17">
+        <f t="shared" si="4"/>
+        <v>494</v>
+      </c>
+      <c r="B496" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C496" s="21">
+        <v>11.5</v>
+      </c>
+      <c r="D496" s="17">
+        <f>SUM($C$3:C496)/A496</f>
+        <v>12.147244545061611</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" s="17">
+        <f t="shared" si="4"/>
+        <v>495</v>
+      </c>
+      <c r="B497" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C497" s="21">
+        <v>11.34000015</v>
+      </c>
+      <c r="D497" s="17">
+        <f>SUM($C$3:C497)/A497</f>
+        <v>12.14561374830391</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" s="17">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="B498" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C498" s="21">
+        <v>11.22999954</v>
+      </c>
+      <c r="D498" s="17">
+        <f>SUM($C$3:C498)/A498</f>
+        <v>12.143767751916201</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="17">
+        <f t="shared" si="4"/>
+        <v>497</v>
+      </c>
+      <c r="B499" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C499" s="21">
+        <v>11.239999770000001</v>
+      </c>
+      <c r="D499" s="17">
+        <f>SUM($C$3:C499)/A499</f>
+        <v>12.141949305272508</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="17">
+        <f t="shared" si="4"/>
+        <v>498</v>
+      </c>
+      <c r="B500" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C500" s="21">
+        <v>11.22000027</v>
+      </c>
+      <c r="D500" s="17">
+        <f>SUM($C$3:C500)/A500</f>
+        <v>12.140098001988829</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="17">
+        <f t="shared" si="4"/>
+        <v>499</v>
+      </c>
+      <c r="B501" s="20">
+        <v>45043</v>
+      </c>
+      <c r="C501" s="21">
+        <v>11.31000042</v>
+      </c>
+      <c r="D501" s="17">
+        <f>SUM($C$3:C501)/A501</f>
+        <v>12.138434479780432</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" s="17">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="B502" s="20">
+        <v>45044</v>
+      </c>
+      <c r="C502" s="21">
+        <v>11.40999985</v>
+      </c>
+      <c r="D502" s="17">
+        <f>SUM($C$3:C502)/A502</f>
+        <v>12.136977610520871</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -1402,7 +1402,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1997,7 +1997,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="152"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -2450,6 +2450,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,7 +2462,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="152"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2912,6 +2915,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>302000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>304000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,7 +2960,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="152"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3407,6 +3413,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3416,7 +3425,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="152"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3869,6 +3878,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>453061.48338996636</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>450829.9027039613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,7 +3923,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="152"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4364,6 +4376,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,7 +4388,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="151"/>
+                <c:ptCount val="152"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4826,6 +4841,9 @@
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>151061.48338996636</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>146829.9027039613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4847,11 +4865,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252792192"/>
-        <c:axId val="252954112"/>
+        <c:axId val="510939904"/>
+        <c:axId val="535868544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="252792192"/>
+        <c:axId val="510939904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4894,14 +4912,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252954112"/>
+        <c:crossAx val="535868544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="252954112"/>
+        <c:axId val="535868544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,7 +4970,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252792192"/>
+        <c:crossAx val="510939904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5358,14 +5376,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -5386,7 +5404,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>327</v>
       </c>
@@ -5419,7 +5437,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -5435,7 +5453,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="14.1" customHeight="1">
       <c r="A3" s="26">
         <v>40451</v>
       </c>
@@ -5522,7 +5540,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="14.1" customHeight="1">
       <c r="A4" s="26">
         <v>40480</v>
       </c>
@@ -5609,7 +5627,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="14.1" customHeight="1">
       <c r="A5" s="26">
         <v>40512</v>
       </c>
@@ -5692,7 +5710,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="14.1" customHeight="1">
       <c r="A6" s="26">
         <v>40543</v>
       </c>
@@ -5767,7 +5785,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="14.1" customHeight="1">
       <c r="A7" s="26">
         <v>40574</v>
       </c>
@@ -5831,7 +5849,7 @@
         <v>82813.626416639017</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="14.1" customHeight="1">
       <c r="A8" s="26">
         <v>40602</v>
       </c>
@@ -5888,7 +5906,7 @@
         <v>1.5781487745665235E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="14.1" customHeight="1">
       <c r="A9" s="26">
         <v>40633</v>
       </c>
@@ -5956,7 +5974,7 @@
         <v>40543</v>
       </c>
       <c r="X9" s="1">
-        <f>VLOOKUP(W9,L:M,2)</f>
+        <f t="shared" ref="X9:X14" si="2">VLOOKUP(W9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y9" s="1">
@@ -5967,7 +5985,7 @@
         <v>40543</v>
       </c>
       <c r="AA9" s="1">
-        <f>VLOOKUP(Z9,L:M,2)</f>
+        <f t="shared" ref="AA9:AA15" si="3">VLOOKUP(Z9,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB9" s="1">
@@ -5975,7 +5993,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="14.1" customHeight="1">
       <c r="A10" s="26">
         <v>40662</v>
       </c>
@@ -6036,33 +6054,33 @@
         <v>24000</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ref="V10:V13" si="2">-U10</f>
+        <f t="shared" ref="V10:V13" si="4">-U10</f>
         <v>-24000</v>
       </c>
       <c r="W10" s="29">
         <v>40907</v>
       </c>
       <c r="X10" s="1">
-        <f>VLOOKUP(W10,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" ref="Y10:Y14" si="3">-X10</f>
+        <f t="shared" ref="Y10:Y14" si="5">-X10</f>
         <v>-24000</v>
       </c>
       <c r="Z10" s="29">
         <v>40907</v>
       </c>
       <c r="AA10" s="1">
-        <f>VLOOKUP(Z10,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" ref="AB10:AB15" si="4">-AA10</f>
+        <f t="shared" ref="AB10:AB15" si="6">-AA10</f>
         <v>-24000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="14.1" customHeight="1">
       <c r="A11" s="26">
         <v>40694</v>
       </c>
@@ -6123,33 +6141,33 @@
         <v>24000</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
       <c r="W11" s="29">
         <v>41274</v>
       </c>
       <c r="X11" s="1">
-        <f>VLOOKUP(W11,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="Z11" s="29">
         <v>41274</v>
       </c>
       <c r="AA11" s="1">
-        <f>VLOOKUP(Z11,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="14.1" customHeight="1">
       <c r="A12" s="26">
         <v>40724</v>
       </c>
@@ -6210,33 +6228,33 @@
         <v>24000</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
       <c r="W12" s="29">
         <v>41639</v>
       </c>
       <c r="X12" s="1">
-        <f>VLOOKUP(W12,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="Z12" s="29">
         <v>41639</v>
       </c>
       <c r="AA12" s="1">
-        <f>VLOOKUP(Z12,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="14.1" customHeight="1">
       <c r="A13" s="26">
         <v>40753</v>
       </c>
@@ -6297,33 +6315,33 @@
         <v>24000</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-24000</v>
       </c>
       <c r="W13" s="29">
         <v>42004</v>
       </c>
       <c r="X13" s="1">
-        <f>VLOOKUP(W13,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="Z13" s="29">
         <v>42004</v>
       </c>
       <c r="AA13" s="1">
-        <f>VLOOKUP(Z13,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="14.1" customHeight="1">
       <c r="A14" s="26">
         <v>40786</v>
       </c>
@@ -6387,26 +6405,26 @@
         <v>42369</v>
       </c>
       <c r="X14" s="1">
-        <f>VLOOKUP(W14,L:M,2)</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
       <c r="Z14" s="29">
         <v>42369</v>
       </c>
       <c r="AA14" s="1">
-        <f>VLOOKUP(Z14,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="14.1" customHeight="1">
       <c r="A15" s="26">
         <v>40816</v>
       </c>
@@ -6473,15 +6491,15 @@
         <v>42734</v>
       </c>
       <c r="AA15" s="1">
-        <f>VLOOKUP(Z15,L:M,2)</f>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="14.1" customHeight="1">
       <c r="A16" s="26">
         <v>40847</v>
       </c>
@@ -6545,7 +6563,7 @@
         <v>226023.31414810085</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="14.1" customHeight="1">
       <c r="A17" s="26">
         <v>40877</v>
       </c>
@@ -6581,7 +6599,7 @@
         <v>0.10832060454600145</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="14.1" customHeight="1">
       <c r="A18" s="26">
         <v>40907</v>
       </c>
@@ -6617,7 +6635,7 @@
         <v>40543</v>
       </c>
       <c r="U18" s="1">
-        <f>VLOOKUP(T18,L:M,2)</f>
+        <f t="shared" ref="U18:U25" si="7">VLOOKUP(T18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V18" s="1">
@@ -6628,7 +6646,7 @@
         <v>40543</v>
       </c>
       <c r="X18" s="1">
-        <f>VLOOKUP(W18,L:M,2)</f>
+        <f t="shared" ref="X18:X26" si="8">VLOOKUP(W18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y18" s="1">
@@ -6639,7 +6657,7 @@
         <v>40543</v>
       </c>
       <c r="AA18" s="1">
-        <f>VLOOKUP(Z18,L:M,2)</f>
+        <f t="shared" ref="AA18:AA27" si="9">VLOOKUP(Z18,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="AB18" s="1">
@@ -6647,7 +6665,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1">
       <c r="A19" s="26">
         <v>40939</v>
       </c>
@@ -6683,37 +6701,37 @@
         <v>40907</v>
       </c>
       <c r="U19" s="1">
-        <f>VLOOKUP(T19,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19:V25" si="5">-U19</f>
+        <f t="shared" ref="V19:V25" si="10">-U19</f>
         <v>-24000</v>
       </c>
       <c r="W19" s="29">
         <v>40907</v>
       </c>
       <c r="X19" s="1">
-        <f>VLOOKUP(W19,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:Y26" si="6">-X19</f>
+        <f t="shared" ref="Y19:Y26" si="11">-X19</f>
         <v>-24000</v>
       </c>
       <c r="Z19" s="29">
         <v>40907</v>
       </c>
       <c r="AA19" s="1">
-        <f>VLOOKUP(Z19,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19:AB27" si="7">-AA19</f>
+        <f t="shared" ref="AB19:AB27" si="12">-AA19</f>
         <v>-24000</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="14.1" customHeight="1">
       <c r="A20" s="26">
         <v>40968</v>
       </c>
@@ -6749,37 +6767,37 @@
         <v>41274</v>
       </c>
       <c r="U20" s="1">
-        <f>VLOOKUP(T20,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W20" s="29">
         <v>41274</v>
       </c>
       <c r="X20" s="1">
-        <f>VLOOKUP(W20,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z20" s="29">
         <v>41274</v>
       </c>
       <c r="AA20" s="1">
-        <f>VLOOKUP(Z20,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="14.1" customHeight="1">
       <c r="A21" s="26">
         <v>40998</v>
       </c>
@@ -6815,37 +6833,37 @@
         <v>41639</v>
       </c>
       <c r="U21" s="1">
-        <f>VLOOKUP(T21,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W21" s="29">
         <v>41639</v>
       </c>
       <c r="X21" s="1">
-        <f>VLOOKUP(W21,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z21" s="29">
         <v>41639</v>
       </c>
       <c r="AA21" s="1">
-        <f>VLOOKUP(Z21,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1">
       <c r="A22" s="26">
         <v>41026</v>
       </c>
@@ -6881,37 +6899,37 @@
         <v>42004</v>
       </c>
       <c r="U22" s="1">
-        <f>VLOOKUP(T22,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W22" s="29">
         <v>42004</v>
       </c>
       <c r="X22" s="1">
-        <f>VLOOKUP(W22,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z22" s="29">
         <v>42004</v>
       </c>
       <c r="AA22" s="1">
-        <f>VLOOKUP(Z22,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1">
       <c r="A23" s="26">
         <v>41060</v>
       </c>
@@ -6947,37 +6965,37 @@
         <v>42369</v>
       </c>
       <c r="U23" s="1">
-        <f>VLOOKUP(T23,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W23" s="29">
         <v>42369</v>
       </c>
       <c r="X23" s="1">
-        <f>VLOOKUP(W23,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z23" s="29">
         <v>42369</v>
       </c>
       <c r="AA23" s="1">
-        <f>VLOOKUP(Z23,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1">
       <c r="A24" s="26">
         <v>41089</v>
       </c>
@@ -7013,37 +7031,37 @@
         <v>42734</v>
       </c>
       <c r="U24" s="1">
-        <f>VLOOKUP(T24,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W24" s="29">
         <v>42734</v>
       </c>
       <c r="X24" s="1">
-        <f>VLOOKUP(W24,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z24" s="29">
         <v>42734</v>
       </c>
       <c r="AA24" s="1">
-        <f>VLOOKUP(Z24,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1">
       <c r="A25" s="26">
         <v>41121</v>
       </c>
@@ -7079,37 +7097,37 @@
         <v>43098</v>
       </c>
       <c r="U25" s="1">
-        <f>VLOOKUP(T25,L:M,2)</f>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-24000</v>
       </c>
       <c r="W25" s="29">
         <v>43098</v>
       </c>
       <c r="X25" s="1">
-        <f>VLOOKUP(W25,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z25" s="29">
         <v>43098</v>
       </c>
       <c r="AA25" s="1">
-        <f>VLOOKUP(Z25,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1">
       <c r="A26" s="26">
         <v>41152</v>
       </c>
@@ -7152,26 +7170,26 @@
         <v>43462</v>
       </c>
       <c r="X26" s="1">
-        <f>VLOOKUP(W26,L:M,2)</f>
+        <f t="shared" si="8"/>
         <v>24000</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-24000</v>
       </c>
       <c r="Z26" s="29">
         <v>43462</v>
       </c>
       <c r="AA26" s="1">
-        <f>VLOOKUP(Z26,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1">
       <c r="A27" s="26">
         <v>41180</v>
       </c>
@@ -7217,15 +7235,15 @@
         <v>43830</v>
       </c>
       <c r="AA27" s="1">
-        <f>VLOOKUP(Z27,L:M,2)</f>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1">
       <c r="A28" s="26">
         <v>41213</v>
       </c>
@@ -7268,7 +7286,7 @@
         <v>362098.05834678403</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1">
       <c r="A29" s="26">
         <v>41243</v>
       </c>
@@ -7304,7 +7322,7 @@
         <v>9.1316415296595288E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1">
       <c r="A30" s="26">
         <v>41274</v>
       </c>
@@ -7340,7 +7358,7 @@
         <v>40543</v>
       </c>
       <c r="U30" s="1">
-        <f>VLOOKUP(T30,L:M,2)</f>
+        <f t="shared" ref="U30:U40" si="13">VLOOKUP(T30,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="V30" s="1">
@@ -7351,7 +7369,7 @@
         <v>40543</v>
       </c>
       <c r="X30" s="1">
-        <f>VLOOKUP(W30,L:M,2)</f>
+        <f t="shared" ref="X30:X41" si="14">VLOOKUP(W30,L:M,2)</f>
         <v>8000</v>
       </c>
       <c r="Y30" s="1">
@@ -7365,11 +7383,11 @@
         <v>8000</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" ref="AB30:AB42" si="8">-AA30</f>
+        <f t="shared" ref="AB30:AB42" si="15">-AA30</f>
         <v>-8000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1">
       <c r="A31" s="26">
         <v>41305</v>
       </c>
@@ -7406,22 +7424,22 @@
         <v>40907</v>
       </c>
       <c r="U31" s="1">
-        <f>VLOOKUP(T31,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ref="V31:V40" si="9">-U31</f>
+        <f t="shared" ref="V31:V40" si="16">-U31</f>
         <v>-24000</v>
       </c>
       <c r="W31" s="29">
         <v>40907</v>
       </c>
       <c r="X31" s="1">
-        <f>VLOOKUP(W31,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ref="Y31:Y41" si="10">-X31</f>
+        <f t="shared" ref="Y31:Y41" si="17">-X31</f>
         <v>-24000</v>
       </c>
       <c r="Z31" s="29">
@@ -7431,11 +7449,11 @@
         <v>24000</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1">
       <c r="A32" s="26">
         <v>41333</v>
       </c>
@@ -7471,22 +7489,22 @@
         <v>41274</v>
       </c>
       <c r="U32" s="1">
-        <f>VLOOKUP(T32,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W32" s="29">
         <v>41274</v>
       </c>
       <c r="X32" s="1">
-        <f>VLOOKUP(W32,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z32" s="29">
@@ -7496,11 +7514,11 @@
         <v>24000</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="14.1" customHeight="1">
       <c r="A33" s="26">
         <v>41362</v>
       </c>
@@ -7536,22 +7554,22 @@
         <v>41639</v>
       </c>
       <c r="U33" s="1">
-        <f>VLOOKUP(T33,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W33" s="29">
         <v>41639</v>
       </c>
       <c r="X33" s="1">
-        <f>VLOOKUP(W33,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z33" s="29">
@@ -7561,11 +7579,11 @@
         <v>24000</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="14.1" customHeight="1">
       <c r="A34" s="26">
         <v>41390</v>
       </c>
@@ -7601,22 +7619,22 @@
         <v>42004</v>
       </c>
       <c r="U34" s="1">
-        <f>VLOOKUP(T34,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W34" s="29">
         <v>42004</v>
       </c>
       <c r="X34" s="1">
-        <f>VLOOKUP(W34,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z34" s="29">
@@ -7626,11 +7644,11 @@
         <v>24000</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="14.1" customHeight="1">
       <c r="A35" s="26">
         <v>41425</v>
       </c>
@@ -7666,22 +7684,22 @@
         <v>42369</v>
       </c>
       <c r="U35" s="1">
-        <f>VLOOKUP(T35,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W35" s="29">
         <v>42369</v>
       </c>
       <c r="X35" s="1">
-        <f>VLOOKUP(W35,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z35" s="29">
@@ -7691,11 +7709,11 @@
         <v>24000</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="14.1" customHeight="1">
       <c r="A36" s="26">
         <v>41453</v>
       </c>
@@ -7731,22 +7749,22 @@
         <v>42734</v>
       </c>
       <c r="U36" s="1">
-        <f>VLOOKUP(T36,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W36" s="29">
         <v>42734</v>
       </c>
       <c r="X36" s="1">
-        <f>VLOOKUP(W36,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z36" s="29">
@@ -7756,11 +7774,11 @@
         <v>24000</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="14.1" customHeight="1">
       <c r="A37" s="26">
         <v>41486</v>
       </c>
@@ -7796,22 +7814,22 @@
         <v>43098</v>
       </c>
       <c r="U37" s="1">
-        <f>VLOOKUP(T37,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W37" s="29">
         <v>43098</v>
       </c>
       <c r="X37" s="1">
-        <f>VLOOKUP(W37,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z37" s="29">
@@ -7821,11 +7839,11 @@
         <v>24000</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="14.1" customHeight="1">
       <c r="A38" s="26">
         <v>41516</v>
       </c>
@@ -7861,22 +7879,22 @@
         <v>43462</v>
       </c>
       <c r="U38" s="1">
-        <f>VLOOKUP(T38,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W38" s="29">
         <v>43462</v>
       </c>
       <c r="X38" s="1">
-        <f>VLOOKUP(W38,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z38" s="29">
@@ -7886,11 +7904,11 @@
         <v>24000</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="14.1" customHeight="1">
       <c r="A39" s="26">
         <v>41547</v>
       </c>
@@ -7926,22 +7944,22 @@
         <v>43830</v>
       </c>
       <c r="U39" s="1">
-        <f>VLOOKUP(T39,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W39" s="30">
         <v>43830</v>
       </c>
       <c r="X39" s="1">
-        <f>VLOOKUP(W39,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z39" s="30">
@@ -7951,11 +7969,11 @@
         <v>24000</v>
       </c>
       <c r="AB39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="14.1" customHeight="1">
       <c r="A40" s="26">
         <v>41578</v>
       </c>
@@ -7991,22 +8009,22 @@
         <v>44196</v>
       </c>
       <c r="U40" s="1">
-        <f>VLOOKUP(T40,L:M,2)</f>
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-24000</v>
       </c>
       <c r="W40" s="24">
         <v>44196</v>
       </c>
       <c r="X40" s="1">
-        <f>VLOOKUP(W40,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z40" s="24">
@@ -8016,11 +8034,11 @@
         <v>24000</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="14.1" customHeight="1">
       <c r="A41" s="26">
         <v>41607</v>
       </c>
@@ -8063,11 +8081,11 @@
         <v>44561</v>
       </c>
       <c r="X41" s="1">
-        <f>VLOOKUP(W41,L:M,2)</f>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>-24000</v>
       </c>
       <c r="Z41" s="24">
@@ -8077,11 +8095,11 @@
         <v>24000</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="14.1" customHeight="1">
       <c r="A42" s="26">
         <v>41639</v>
       </c>
@@ -8130,11 +8148,11 @@
         <v>24000</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>-24000</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="14.1" customHeight="1">
       <c r="A43" s="26">
         <v>41669</v>
       </c>
@@ -8177,7 +8195,7 @@
         <v>429691.15630892606</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="14.1" customHeight="1">
       <c r="A44" s="26">
         <v>41698</v>
       </c>
@@ -8213,7 +8231,7 @@
         <v>5.4587041166743733E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="14.1" customHeight="1">
       <c r="A45" s="26">
         <v>41729</v>
       </c>
@@ -8246,7 +8264,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="14.1" customHeight="1">
       <c r="A46" s="26">
         <v>41759</v>
       </c>
@@ -8279,7 +8297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="14.1" customHeight="1">
       <c r="A47" s="26">
         <v>41789</v>
       </c>
@@ -8312,7 +8330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="14.1" customHeight="1">
       <c r="A48" s="26">
         <v>41820</v>
       </c>
@@ -8345,7 +8363,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="14.1" customHeight="1">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -8378,7 +8396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="14.1" customHeight="1">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -8411,7 +8429,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="14.1" customHeight="1">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -8444,7 +8462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="14.1" customHeight="1">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -8477,7 +8495,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="14.1" customHeight="1">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -8510,7 +8528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="14.1" customHeight="1">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -8543,7 +8561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="14.1" customHeight="1">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -8577,7 +8595,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="14.1" customHeight="1">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -8610,7 +8628,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="14.1" customHeight="1">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -8643,7 +8661,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="14.1" customHeight="1">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="14.1" customHeight="1">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -8709,7 +8727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="14.1" customHeight="1">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -8742,7 +8760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="14.1" customHeight="1">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -8775,7 +8793,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="14.1" customHeight="1">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -8808,7 +8826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="14.1" customHeight="1">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -8841,7 +8859,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="14.1" customHeight="1">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -8874,7 +8892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="14.1" customHeight="1">
       <c r="A65" s="26">
         <v>42338</v>
       </c>
@@ -8907,7 +8925,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="14.1" customHeight="1">
       <c r="A66" s="26">
         <v>42369</v>
       </c>
@@ -8940,7 +8958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="14.1" customHeight="1">
       <c r="A67" s="26">
         <v>42398</v>
       </c>
@@ -8974,7 +8992,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="14.1" customHeight="1">
       <c r="A68" s="26">
         <v>42429</v>
       </c>
@@ -9007,7 +9025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14.1" customHeight="1">
       <c r="A69" s="26">
         <v>42460</v>
       </c>
@@ -9040,7 +9058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="14.1" customHeight="1">
       <c r="A70" s="26">
         <v>42489</v>
       </c>
@@ -9073,7 +9091,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="14.1" customHeight="1">
       <c r="A71" s="26">
         <v>42521</v>
       </c>
@@ -9106,7 +9124,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="14.1" customHeight="1">
       <c r="A72" s="26">
         <v>42551</v>
       </c>
@@ -9139,7 +9157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14.1" customHeight="1">
       <c r="A73" s="26">
         <v>42580</v>
       </c>
@@ -9172,7 +9190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="14.1" customHeight="1">
       <c r="A74" s="26">
         <v>42613</v>
       </c>
@@ -9205,7 +9223,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14.1" customHeight="1">
       <c r="A75" s="26">
         <v>42643</v>
       </c>
@@ -9238,7 +9256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14.1" customHeight="1">
       <c r="A76" s="26">
         <v>42674</v>
       </c>
@@ -9271,7 +9289,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14.1" customHeight="1">
       <c r="A77" s="26">
         <v>42704</v>
       </c>
@@ -9304,7 +9322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="14.1" customHeight="1">
       <c r="A78" s="24">
         <v>42734</v>
       </c>
@@ -9337,7 +9355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="14.1" customHeight="1">
       <c r="A79" s="13">
         <v>42761</v>
       </c>
@@ -9371,7 +9389,7 @@
       </c>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="14.1" customHeight="1">
       <c r="A80" s="13">
         <v>42794</v>
       </c>
@@ -9404,7 +9422,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="14.1" customHeight="1">
       <c r="A81" s="13">
         <v>42825</v>
       </c>
@@ -9437,7 +9455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="14.1" customHeight="1">
       <c r="A82" s="13">
         <v>42853</v>
       </c>
@@ -9470,7 +9488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="14.1" customHeight="1">
       <c r="A83" s="13">
         <v>42886</v>
       </c>
@@ -9503,7 +9521,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="14.1" customHeight="1">
       <c r="A84" s="13">
         <v>42916</v>
       </c>
@@ -9536,7 +9554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="14.1" customHeight="1">
       <c r="A85" s="13">
         <v>42947</v>
       </c>
@@ -9569,7 +9587,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="14.1" customHeight="1">
       <c r="A86" s="13">
         <v>42978</v>
       </c>
@@ -9602,7 +9620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="14.1" customHeight="1">
       <c r="A87" s="13">
         <v>43007</v>
       </c>
@@ -9635,7 +9653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="14.1" customHeight="1">
       <c r="A88" s="13">
         <v>43039</v>
       </c>
@@ -9668,7 +9686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="14.1" customHeight="1">
       <c r="A89" s="13">
         <v>43069</v>
       </c>
@@ -9701,7 +9719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="14.1" customHeight="1">
       <c r="A90" s="13">
         <v>43098</v>
       </c>
@@ -9734,7 +9752,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="14.1" customHeight="1">
       <c r="A91" s="13">
         <v>43131</v>
       </c>
@@ -9768,7 +9786,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="14.1" customHeight="1">
       <c r="A92" s="13">
         <v>43159</v>
       </c>
@@ -9801,7 +9819,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="14.1" customHeight="1">
       <c r="A93" s="13">
         <v>43189</v>
       </c>
@@ -9834,7 +9852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="14.1" customHeight="1">
       <c r="A94" s="13">
         <v>43217</v>
       </c>
@@ -9867,7 +9885,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="14.1" customHeight="1">
       <c r="A95" s="13">
         <v>43251</v>
       </c>
@@ -9900,7 +9918,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="14.1" customHeight="1">
       <c r="A96" s="13">
         <v>43280</v>
       </c>
@@ -9933,7 +9951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14.1" customHeight="1">
       <c r="A97" s="13">
         <v>43312</v>
       </c>
@@ -9966,7 +9984,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="14.1" customHeight="1">
       <c r="A98" s="13">
         <v>43343</v>
       </c>
@@ -9999,7 +10017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="14.1" customHeight="1">
       <c r="A99" s="13">
         <v>43371</v>
       </c>
@@ -10032,7 +10050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="14.1" customHeight="1">
       <c r="A100" s="13">
         <v>43404</v>
       </c>
@@ -10065,7 +10083,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="14.1" customHeight="1">
       <c r="A101" s="13">
         <v>43434</v>
       </c>
@@ -10098,7 +10116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="14.1" customHeight="1">
       <c r="A102" s="13">
         <v>43462</v>
       </c>
@@ -10131,7 +10149,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="14.1" customHeight="1">
       <c r="A103" s="13">
         <v>43496</v>
       </c>
@@ -10165,7 +10183,7 @@
       </c>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="14.1" customHeight="1">
       <c r="A104" s="13">
         <v>43524</v>
       </c>
@@ -10198,7 +10216,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="14.1" customHeight="1">
       <c r="A105" s="13">
         <v>43553</v>
       </c>
@@ -10231,7 +10249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="14.1" customHeight="1">
       <c r="A106" s="13">
         <v>43585</v>
       </c>
@@ -10264,7 +10282,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="14.1" customHeight="1">
       <c r="A107" s="13">
         <v>43616</v>
       </c>
@@ -10297,7 +10315,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="14.1" customHeight="1">
       <c r="A108" s="13">
         <v>43644</v>
       </c>
@@ -10330,7 +10348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="14.1" customHeight="1">
       <c r="A109" s="13">
         <v>43677</v>
       </c>
@@ -10363,7 +10381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="14.1" customHeight="1">
       <c r="A110" s="13">
         <v>43707</v>
       </c>
@@ -10396,7 +10414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="14.1" customHeight="1">
       <c r="A111" s="13">
         <v>43738</v>
       </c>
@@ -10429,7 +10447,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="14.1" customHeight="1">
       <c r="A112" s="13">
         <v>43769</v>
       </c>
@@ -10462,7 +10480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="14.1" customHeight="1">
       <c r="A113" s="13">
         <v>43798</v>
       </c>
@@ -10495,7 +10513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="14.1" customHeight="1">
       <c r="A114" s="13">
         <v>43830</v>
       </c>
@@ -10528,7 +10546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="14.1" customHeight="1">
       <c r="A115" s="13">
         <v>43853</v>
       </c>
@@ -10562,7 +10580,7 @@
       </c>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="14.1" customHeight="1">
       <c r="A116" s="13">
         <v>43889</v>
       </c>
@@ -10595,7 +10613,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="14.1" customHeight="1">
       <c r="A117" s="13">
         <v>43921</v>
       </c>
@@ -10628,7 +10646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="14.1" customHeight="1">
       <c r="A118" s="13">
         <v>43951</v>
       </c>
@@ -10661,7 +10679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="14.1" customHeight="1">
       <c r="A119" s="13">
         <v>43980</v>
       </c>
@@ -10694,7 +10712,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="14.1" customHeight="1">
       <c r="A120" s="13">
         <v>44012</v>
       </c>
@@ -10727,7 +10745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="14.1" customHeight="1">
       <c r="A121" s="13">
         <v>44043</v>
       </c>
@@ -10760,7 +10778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="14.1" customHeight="1">
       <c r="A122" s="13">
         <v>44074</v>
       </c>
@@ -10793,7 +10811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="14.1" customHeight="1">
       <c r="A123" s="13">
         <v>44104</v>
       </c>
@@ -10826,7 +10844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="14.1" customHeight="1">
       <c r="A124" s="13">
         <v>44134</v>
       </c>
@@ -10859,7 +10877,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="14.1" customHeight="1">
       <c r="A125" s="13">
         <v>44165</v>
       </c>
@@ -10892,7 +10910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="14.1" customHeight="1">
       <c r="A126" s="13">
         <v>44196</v>
       </c>
@@ -10925,7 +10943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="14.1" customHeight="1">
       <c r="A127" s="13">
         <v>44225</v>
       </c>
@@ -10959,7 +10977,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="14.1" customHeight="1">
       <c r="A128" s="13">
         <v>44253</v>
       </c>
@@ -10992,7 +11010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="14.1" customHeight="1">
       <c r="A129" s="13">
         <v>44286</v>
       </c>
@@ -11025,7 +11043,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="14.1" customHeight="1">
       <c r="A130" s="13">
         <v>44316</v>
       </c>
@@ -11058,7 +11076,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="14.1" customHeight="1">
       <c r="A131" s="13">
         <v>44347</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="14.1" customHeight="1">
       <c r="A132" s="13">
         <v>44377</v>
       </c>
@@ -11124,7 +11142,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="14.1" customHeight="1">
       <c r="A133" s="13">
         <v>44407</v>
       </c>
@@ -11157,7 +11175,7 @@
         <v>13.310000419616699</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="14.1" customHeight="1">
       <c r="A134" s="13">
         <v>44439</v>
       </c>
@@ -11190,7 +11208,7 @@
         <v>13.430000305175781</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="14.1" customHeight="1">
       <c r="A135" s="13">
         <v>44469</v>
       </c>
@@ -11223,7 +11241,7 @@
         <v>12.899999618530273</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="14.1" customHeight="1">
       <c r="A136" s="13">
         <v>44498</v>
       </c>
@@ -11256,7 +11274,7 @@
         <v>12.840000152587891</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="14.1" customHeight="1">
       <c r="A137" s="13">
         <v>44530</v>
       </c>
@@ -11289,7 +11307,7 @@
         <v>12.390000343322754</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="14.1" customHeight="1">
       <c r="A138" s="13">
         <v>44561</v>
       </c>
@@ -11322,7 +11340,7 @@
         <v>12.949999809265137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="14.1" customHeight="1">
       <c r="A139" s="13">
         <v>44589</v>
       </c>
@@ -11356,7 +11374,7 @@
       </c>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="14.1" customHeight="1">
       <c r="A140" s="13">
         <v>44620</v>
       </c>
@@ -11389,7 +11407,7 @@
         <v>12.239999771118164</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="14.1" customHeight="1">
       <c r="A141" s="13">
         <v>44651</v>
       </c>
@@ -11422,7 +11440,7 @@
         <v>11.460000040000001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="14.1" customHeight="1">
       <c r="A142" s="13">
         <v>44680</v>
       </c>
@@ -11455,7 +11473,7 @@
         <v>11.14000034</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="14.1" customHeight="1">
       <c r="A143" s="13">
         <v>44712</v>
       </c>
@@ -11488,7 +11506,7 @@
         <v>10.93999958</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="14.1" customHeight="1">
       <c r="A144" s="13">
         <v>44742</v>
       </c>
@@ -11521,7 +11539,7 @@
         <v>12.100000380000001</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.1" customHeight="1">
       <c r="A145" s="13">
         <v>44771</v>
       </c>
@@ -11554,7 +11572,7 @@
         <v>11.239999770000001</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14.1" customHeight="1">
       <c r="A146" s="13">
         <v>44804</v>
       </c>
@@ -11587,7 +11605,7 @@
         <v>11.100000380000001</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="12.75">
       <c r="A147" s="13">
         <v>44834</v>
       </c>
@@ -11620,7 +11638,7 @@
         <v>10.3500003814697</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="12.75">
       <c r="A148" s="13">
         <v>44865</v>
       </c>
@@ -11653,7 +11671,7 @@
         <v>9.3900003430000005</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="12.75">
       <c r="A149" s="13">
         <v>44895</v>
       </c>
@@ -11686,7 +11704,7 @@
         <v>10.380000109999999</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="12.75">
       <c r="A150" s="13">
         <v>44925</v>
       </c>
@@ -11719,7 +11737,7 @@
         <v>10.72999954</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="12.75">
       <c r="A151" s="13">
         <v>44957</v>
       </c>
@@ -11752,7 +11770,7 @@
         <v>11.390000343322754</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="12.75">
       <c r="A152" s="13">
         <v>44985</v>
       </c>
@@ -11785,7 +11803,7 @@
         <v>11.27000046</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="12.75">
       <c r="A153" s="13">
         <v>45016</v>
       </c>
@@ -11816,6 +11834,39 @@
       <c r="J153" s="31">
         <f>VLOOKUP(A153,myPEPB!B:C,2)</f>
         <v>11.30000019</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="12.75">
+      <c r="A154" s="13">
+        <v>45044</v>
+      </c>
+      <c r="B154" s="14">
+        <v>2.5385061035156249</v>
+      </c>
+      <c r="C154" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D154" s="16">
+        <v>787.86495617645448</v>
+      </c>
+      <c r="E154" s="16">
+        <v>177596.54076844585</v>
+      </c>
+      <c r="F154" s="16">
+        <v>450829.9027039613</v>
+      </c>
+      <c r="G154" s="16">
+        <v>304000</v>
+      </c>
+      <c r="H154" s="16">
+        <v>450829.9027039613</v>
+      </c>
+      <c r="I154" s="16">
+        <v>146829.9027039613</v>
+      </c>
+      <c r="J154" s="31">
+        <f>VLOOKUP(A154,myPEPB!B:C,2)</f>
+        <v>11.40999985</v>
       </c>
     </row>
   </sheetData>
@@ -11837,7 +11888,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="8.5" style="17" customWidth="1"/>
@@ -11845,7 +11896,7 @@
     <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="37" t="s">
         <v>180</v>
       </c>
@@ -11853,7 +11904,7 @@
         <v>399378</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -11862,7 +11913,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -11877,7 +11928,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="17">
         <f>A3+1</f>
         <v>2</v>
@@ -11893,7 +11944,7 @@
         <v>16.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="17">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -11909,7 +11960,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -11925,7 +11976,7 @@
         <v>16.142499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -11941,7 +11992,7 @@
         <v>16.127999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -11957,7 +12008,7 @@
         <v>16.133333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11973,7 +12024,7 @@
         <v>16.185714285714283</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11989,7 +12040,7 @@
         <v>16.223749999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12005,7 +12056,7 @@
         <v>16.258888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12021,7 +12072,7 @@
         <v>16.283999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12037,7 +12088,7 @@
         <v>16.318181818181817</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12053,7 +12104,7 @@
         <v>16.330833333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12069,7 +12120,7 @@
         <v>16.346923076923073</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12085,7 +12136,7 @@
         <v>16.36785714285714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12101,7 +12152,7 @@
         <v>16.393333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12117,7 +12168,7 @@
         <v>16.409374999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12133,7 +12184,7 @@
         <v>16.282941176470587</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12149,7 +12200,7 @@
         <v>16.162777777777777</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -12165,7 +12216,7 @@
         <v>16.055263157894736</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -12181,7 +12232,7 @@
         <v>15.960999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -12197,7 +12248,7 @@
         <v>15.879523809523809</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -12213,7 +12264,7 @@
         <v>15.798636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -12229,7 +12280,7 @@
         <v>15.735217391304346</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -12245,7 +12296,7 @@
         <v>15.687083333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12261,7 +12312,7 @@
         <v>15.643199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -12277,7 +12328,7 @@
         <v>15.600384615384611</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -12293,7 +12344,7 @@
         <v>15.561111111111108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -12309,7 +12360,7 @@
         <v>15.520714285714282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -12325,7 +12376,7 @@
         <v>15.485172413793101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -12341,7 +12392,7 @@
         <v>15.465666666666664</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -12357,7 +12408,7 @@
         <v>15.447419354838706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -12373,7 +12424,7 @@
         <v>15.431562499999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -12389,7 +12440,7 @@
         <v>15.416060606060602</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -12405,7 +12456,7 @@
         <v>15.40205882352941</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -12421,7 +12472,7 @@
         <v>15.389999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -12437,7 +12488,7 @@
         <v>15.375555555555556</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -12453,7 +12504,7 @@
         <v>15.359459459459458</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -12469,7 +12520,7 @@
         <v>15.346052631578948</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -12485,7 +12536,7 @@
         <v>15.332564102564103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -12501,7 +12552,7 @@
         <v>15.31625</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -12517,7 +12568,7 @@
         <v>15.301707317073172</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -12533,7 +12584,7 @@
         <v>15.290714285714287</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -12549,7 +12600,7 @@
         <v>15.278372093023256</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -12565,7 +12616,7 @@
         <v>15.264772727272726</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -12581,7 +12632,7 @@
         <v>15.24688888888889</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -12597,7 +12648,7 @@
         <v>15.229565217391306</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -12613,7 +12664,7 @@
         <v>15.211702127659576</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -12629,7 +12680,7 @@
         <v>15.193333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -12645,7 +12696,7 @@
         <v>15.178571428571431</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -12661,7 +12712,7 @@
         <v>15.164600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -12677,7 +12728,7 @@
         <v>15.152352941176472</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -12693,7 +12744,7 @@
         <v>15.144423076923079</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -12709,7 +12760,7 @@
         <v>15.136981132075473</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -12725,7 +12776,7 @@
         <v>15.127407407407409</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -12741,7 +12792,7 @@
         <v>15.119636363636367</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -12757,7 +12808,7 @@
         <v>15.113214285714289</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -12773,7 +12824,7 @@
         <v>15.100175438596494</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -12789,7 +12840,7 @@
         <v>15.087413793103451</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -12805,7 +12856,7 @@
         <v>15.074576271186444</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -12821,7 +12872,7 @@
         <v>15.064500000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -12837,7 +12888,7 @@
         <v>15.051967213114757</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -12853,7 +12904,7 @@
         <v>15.038709677419359</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -12869,7 +12920,7 @@
         <v>15.027777777777782</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -12885,7 +12936,7 @@
         <v>15.018125000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -12901,7 +12952,7 @@
         <v>15.00692307692308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -12917,7 +12968,7 @@
         <v>14.998484848484852</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="17">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
@@ -12933,7 +12984,7 @@
         <v>14.98761194029851</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="17">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -12949,7 +13000,7 @@
         <v>14.978235294117651</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="17">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -12965,7 +13016,7 @@
         <v>14.968405797101452</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="17">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -12981,7 +13032,7 @@
         <v>14.959428571428573</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="17">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -12997,7 +13048,7 @@
         <v>14.950985915492957</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="17">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -13013,7 +13064,7 @@
         <v>14.940000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="17">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -13029,7 +13080,7 @@
         <v>14.922876706580594</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="17">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -13045,7 +13096,7 @@
         <v>14.900270264599776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="17">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -13061,7 +13112,7 @@
         <v>14.879199990336101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="17">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -13077,7 +13128,7 @@
         <v>14.860526306754664</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="17">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -13093,7 +13144,7 @@
         <v>14.840389606921704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="17">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -13109,7 +13160,7 @@
         <v>14.824743584852953</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="17">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -13125,7 +13176,7 @@
         <v>14.809999993239778</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="17">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -13141,7 +13192,7 @@
         <v>15.001624985694885</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="17">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -13157,7 +13208,7 @@
         <v>14.984814804924859</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="17">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -13173,7 +13224,7 @@
         <v>14.967804870140263</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="17">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -13189,7 +13240,7 @@
         <v>14.953373491677894</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="17">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -13205,7 +13256,7 @@
         <v>14.941547617231098</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="17">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -13221,7 +13272,7 @@
         <v>14.929529410867131</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="17">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -13237,7 +13288,7 @@
         <v>14.916395350167919</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="17">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -13253,7 +13304,7 @@
         <v>14.903218397381663</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="17">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -13269,7 +13320,7 @@
         <v>14.89056818788702</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="17">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -13285,7 +13336,7 @@
         <v>14.874831464103099</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="17">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -13301,7 +13352,7 @@
         <v>14.860666674296063</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -13317,7 +13368,7 @@
         <v>14.845494508009692</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="17">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -13333,7 +13384,7 @@
         <v>14.827717394206836</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="17">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -13349,7 +13400,7 @@
         <v>14.81225807107905</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="17">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -13365,7 +13416,7 @@
         <v>14.798510649660802</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="17">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -13381,7 +13432,7 @@
         <v>14.786105273196572</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="17">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -13397,7 +13448,7 @@
         <v>14.771666672627132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="17">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -13413,7 +13464,7 @@
         <v>14.758144336189192</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="17">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -13429,7 +13480,7 @@
         <v>14.744693879497294</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="17">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -13445,7 +13496,7 @@
         <v>14.73141414642334</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="17">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -13461,7 +13512,7 @@
         <v>14.710400006103516</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="17">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -13477,7 +13528,7 @@
         <v>14.690099014433304</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="17">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -13493,7 +13544,7 @@
         <v>14.670000007853789</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="17">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -13509,7 +13560,7 @@
         <v>14.652135929366917</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="17">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -13525,7 +13576,7 @@
         <v>14.636153850922218</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="17">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -13541,7 +13592,7 @@
         <v>14.619809529259092</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="17">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -13557,7 +13608,7 @@
         <v>14.60415094915426</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="17">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -13573,7 +13624,7 @@
         <v>14.589626175711089</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="17">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -13589,7 +13640,7 @@
         <v>14.57564815485919</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="17">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -13605,7 +13656,7 @@
         <v>14.560550468164847</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="17">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -13621,7 +13672,7 @@
         <v>14.544818190487948</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="17">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -13637,7 +13688,7 @@
         <v>14.528288297223616</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="17">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -13653,7 +13704,7 @@
         <v>14.512946441173554</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="17">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -13669,7 +13720,7 @@
         <v>14.497876122398715</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="17">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -13685,7 +13736,7 @@
         <v>14.483157908121745</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="17">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -13701,7 +13752,7 @@
         <v>14.468521754057512</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="17">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -13717,7 +13768,7 @@
         <v>14.455172429249204</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="17">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -13733,7 +13784,7 @@
         <v>14.442564113975591</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="17">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -13749,7 +13800,7 @@
         <v>14.428813568050579</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="17">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -13765,7 +13816,7 @@
         <v>14.41596639200419</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="17">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -13781,7 +13832,7 @@
         <v>14.404416669845581</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="17">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -13797,7 +13848,7 @@
         <v>14.393140498705147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="17">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -13813,7 +13864,7 @@
         <v>14.381147546299168</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="17">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -13829,7 +13880,7 @@
         <v>14.370162604727396</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="17">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -13845,7 +13896,7 @@
         <v>14.358870972971763</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -13861,7 +13912,7 @@
         <v>14.348080007019043</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="17">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -13877,7 +13928,7 @@
         <v>14.336269845508394</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="17">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -13893,7 +13944,7 @@
         <v>14.325590551781843</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="17">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -13909,7 +13960,7 @@
         <v>14.314687502980233</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="17">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -13925,7 +13976,7 @@
         <v>14.304418605834016</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="17">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -13941,7 +13992,7 @@
         <v>14.294615383735071</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="17">
         <f t="shared" ref="A133:A196" si="2">A132+1</f>
         <v>131</v>
@@ -13957,7 +14008,7 @@
         <v>14.285267172369339</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="17">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -13973,7 +14024,7 @@
         <v>14.275681818470812</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="17">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -13989,7 +14040,7 @@
         <v>14.26511278138125</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="17">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -14005,7 +14056,7 @@
         <v>14.254029848184159</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="17">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -14021,7 +14072,7 @@
         <v>14.243555554142706</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="17">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -14037,7 +14088,7 @@
         <v>14.231397058543038</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="17">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -14053,7 +14104,7 @@
         <v>14.218175182760197</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="17">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -14069,7 +14120,7 @@
         <v>14.204855073569478</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="17">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -14085,7 +14136,7 @@
         <v>14.192589929155309</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="17">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -14101,7 +14152,7 @@
         <v>14.180000003269742</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="17">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -14117,7 +14168,7 @@
         <v>14.167517734284097</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="17">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -14133,7 +14184,7 @@
         <v>14.155000006178735</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="17">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -14149,7 +14200,7 @@
         <v>14.142167836169262</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="17">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -14165,7 +14216,7 @@
         <v>14.130694446828631</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="17">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -14181,7 +14232,7 @@
         <v>14.119103449328193</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="17">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -14197,7 +14248,7 @@
         <v>14.107602737897064</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="17">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -14213,7 +14264,7 @@
         <v>14.096462585034015</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="17">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -14229,7 +14280,7 @@
         <v>14.085608106561612</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="17">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -14245,7 +14296,7 @@
         <v>14.074161073057445</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="17">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -14261,7 +14312,7 @@
         <v>14.06380000228882</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="17">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -14277,7 +14328,7 @@
         <v>14.053774837973894</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="17">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -14293,7 +14344,7 @@
         <v>14.043881583715741</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="17">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -14309,7 +14360,7 @@
         <v>14.034444451674918</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="17">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -14325,7 +14376,7 @@
         <v>14.024870139778436</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="17">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -14341,7 +14392,7 @@
         <v>14.014774203638879</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="17">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -14357,7 +14408,7 @@
         <v>14.004743598546739</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="17">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -14373,7 +14424,7 @@
         <v>13.994458609659961</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="17">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -14389,7 +14440,7 @@
         <v>13.984620261373401</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="17">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -14405,7 +14456,7 @@
         <v>13.975094349459285</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="17">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -14421,7 +14472,7 @@
         <v>13.966375009298327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="17">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -14437,7 +14488,7 @@
         <v>13.957826097144846</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="17">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -14453,7 +14504,7 @@
         <v>13.949876553806259</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="17">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -14469,7 +14520,7 @@
         <v>13.943067496130073</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="17">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -14485,7 +14536,7 @@
         <v>13.937378061573682</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="17">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -14501,7 +14552,7 @@
         <v>13.931575767517092</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="17">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -14517,7 +14568,7 @@
         <v>13.926987962148278</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="17">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -14533,7 +14584,7 @@
         <v>13.922035940707088</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="17">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -14549,7 +14600,7 @@
         <v>13.916488106364298</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="17">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -14565,7 +14616,7 @@
         <v>13.911597645099349</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="17">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -14581,7 +14632,7 @@
         <v>13.90564706847247</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="17">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -14597,7 +14648,7 @@
         <v>13.899122816386978</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="17">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -14613,7 +14664,7 @@
         <v>13.893197684398919</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="17">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -14629,7 +14680,7 @@
         <v>13.88734105104656</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="17">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -14645,7 +14696,7 @@
         <v>13.882183917253869</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="17">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -14661,7 +14712,7 @@
         <v>13.877028577968055</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="17">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -14677,7 +14728,7 @@
         <v>13.871875008019536</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="17">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -14693,7 +14744,7 @@
         <v>13.867175149001646</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="17">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -14709,7 +14760,7 @@
         <v>13.861348321893244</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="17">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -14725,7 +14776,7 @@
         <v>13.855921796873297</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="17">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -14741,7 +14792,7 @@
         <v>13.85088889694214</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="17">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -14757,7 +14808,7 @@
         <v>13.845745864783863</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="17">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -14773,7 +14824,7 @@
         <v>13.840219789442127</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="17">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -14789,7 +14840,7 @@
         <v>13.834207658194455</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="17">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -14805,7 +14856,7 @@
         <v>13.828423923409504</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="17">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -14821,7 +14872,7 @@
         <v>13.822972981633368</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="17">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -14837,7 +14888,7 @@
         <v>13.8169354924848</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="17">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -14853,7 +14904,7 @@
         <v>13.811336909411425</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="17">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -14869,7 +14920,7 @@
         <v>13.804734053510302</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="17">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -14885,7 +14936,7 @@
         <v>13.797566147456095</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="17">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -14901,7 +14952,7 @@
         <v>13.790736851943167</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="17">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -14917,7 +14968,7 @@
         <v>13.784816762914209</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="17">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -14933,7 +14984,7 @@
         <v>13.778750008344652</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="17">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -14949,7 +15000,7 @@
         <v>13.773316068105748</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="17">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -14965,7 +15016,7 @@
         <v>13.767319591758179</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="17">
         <f t="shared" ref="A197:A451" si="3">A196+1</f>
         <v>195</v>
@@ -14981,7 +15032,7 @@
         <v>13.761333339397725</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="17">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -14997,7 +15048,7 @@
         <v>13.754030617889095</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="17">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -15013,7 +15064,7 @@
         <v>13.747208126668399</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="17">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -15029,7 +15080,7 @@
         <v>13.739494955660119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="17">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -15045,7 +15096,7 @@
         <v>13.730954779811841</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="17">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -15061,7 +15112,7 @@
         <v>13.723600007057192</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="17">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -15077,7 +15128,7 @@
         <v>13.71641791614134</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="17">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -15093,7 +15144,7 @@
         <v>13.709851492513526</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="17">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -15109,7 +15160,7 @@
         <v>13.703448282439135</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="17">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -15125,7 +15176,7 @@
         <v>13.696911770689722</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="17">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -15141,7 +15192,7 @@
         <v>13.689853664491237</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="17">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -15157,7 +15208,7 @@
         <v>13.683203887939454</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="17">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -15173,7 +15224,7 @@
         <v>13.676811596967173</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="17">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -15189,7 +15240,7 @@
         <v>13.670528848354634</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="17">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -15205,7 +15256,7 @@
         <v>13.664688996492963</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="17">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -15221,7 +15272,7 @@
         <v>13.658809526534309</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="17">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -15237,7 +15288,7 @@
         <v>13.652274882962919</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="17">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -15253,7 +15304,7 @@
         <v>13.646132078710593</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="17">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -15269,7 +15320,7 @@
         <v>13.639014088268013</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="17">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -15285,7 +15336,7 @@
         <v>13.632336452519784</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="17">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -15301,7 +15352,7 @@
         <v>13.625860467955125</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="17">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -15317,7 +15368,7 @@
         <v>13.619953708288666</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="17">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -15333,7 +15384,7 @@
         <v>13.613824889172127</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="17">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -15349,7 +15400,7 @@
         <v>13.607568811698862</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="17">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -15365,7 +15416,7 @@
         <v>13.600821922650008</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="17">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -15381,7 +15432,7 @@
         <v>13.59268182491069</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="17">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -15397,7 +15448,7 @@
         <v>13.583574666969916</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="17">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -15413,7 +15464,7 @@
         <v>13.57405406157816</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="17">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -15429,7 +15480,7 @@
         <v>13.565336330853594</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="17">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -15445,7 +15496,7 @@
         <v>13.556875008305141</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="17">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -15461,7 +15512,7 @@
         <v>13.547066676623785</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="17">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -15477,7 +15528,7 @@
         <v>13.534867266373237</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="17">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -15493,7 +15544,7 @@
         <v>13.524317191807716</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="17">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -15509,7 +15560,7 @@
         <v>13.514824571054174</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="17">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -15525,7 +15576,7 @@
         <v>13.505851538167475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="17">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -15541,7 +15592,7 @@
         <v>13.496782618784138</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="17">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -15557,7 +15608,7 @@
         <v>13.48792208714438</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="17">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -15573,7 +15624,7 @@
         <v>13.479353457458412</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="17">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -15589,7 +15640,7 @@
         <v>13.470600865709663</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="17">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -15605,7 +15656,7 @@
         <v>13.461153854445948</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="17">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -15621,7 +15672,7 @@
         <v>13.451787243278092</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="17">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -15637,7 +15688,7 @@
         <v>13.44245763631505</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="17">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -15653,7 +15704,7 @@
         <v>13.434261612533129</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="17">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -15669,7 +15720,7 @@
         <v>13.425966395841815</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="17">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -15685,7 +15736,7 @@
         <v>13.418326370677079</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="17">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -15701,7 +15752,7 @@
         <v>13.410666677148033</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="17">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -15717,7 +15768,7 @@
         <v>13.402614119429694</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="17">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -15733,7 +15784,7 @@
         <v>13.394876043452594</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="17">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -15749,7 +15800,7 @@
         <v>13.386090546273291</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="17">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -15765,7 +15816,7 @@
         <v>13.378114763626201</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="17">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -15781,7 +15832,7 @@
         <v>13.369918376368783</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="17">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -15797,7 +15848,7 @@
         <v>13.36247968362685</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="17">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -15813,7 +15864,7 @@
         <v>13.35497976680602</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="17">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -15829,7 +15880,7 @@
         <v>13.347137105840721</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="17">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -15845,7 +15896,7 @@
         <v>13.339236957280884</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="17">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -15861,7 +15912,7 @@
         <v>13.330800007620704</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="17">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -15877,7 +15928,7 @@
         <v>13.321633472661942</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="17">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -15893,7 +15944,7 @@
         <v>13.312817468331813</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="17">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -15909,7 +15960,7 @@
         <v>13.30209487115054</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="17">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -15925,7 +15976,7 @@
         <v>13.291377961908633</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="17">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -15941,7 +15992,7 @@
         <v>13.28168628242987</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="17">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -15957,7 +16008,7 @@
         <v>13.272617195538141</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="17">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -15973,7 +16024,7 @@
         <v>13.264319075477681</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="17">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -15989,7 +16040,7 @@
         <v>13.254728691309163</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="17">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -16005,7 +16056,7 @@
         <v>13.244247113196</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="17">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -16021,7 +16072,7 @@
         <v>13.233576933029861</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="17">
         <f t="shared" si="3"/>
         <v>261</v>
@@ -16037,7 +16088,7 @@
         <v>13.223256714742391</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="17">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -16053,7 +16104,7 @@
         <v>13.213282451174672</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="17">
         <f t="shared" si="3"/>
         <v>263</v>
@@ -16069,7 +16120,7 @@
         <v>13.203193926341308</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="17">
         <f t="shared" si="3"/>
         <v>264</v>
@@ -16085,7 +16136,7 @@
         <v>13.193560615446076</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="17">
         <f t="shared" si="3"/>
         <v>265</v>
@@ -16101,7 +16152,7 @@
         <v>13.183735858972694</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="17">
         <f t="shared" si="3"/>
         <v>266</v>
@@ -16117,7 +16168,7 @@
         <v>13.174323319314903</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="17">
         <f t="shared" si="3"/>
         <v>267</v>
@@ -16133,7 +16184,7 @@
         <v>13.164756564897994</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="17">
         <f t="shared" si="3"/>
         <v>268</v>
@@ -16149,7 +16200,7 @@
         <v>13.155298518424493</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="17">
         <f t="shared" si="3"/>
         <v>269</v>
@@ -16165,7 +16216,7 @@
         <v>13.146654286013993</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="17">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -16181,7 +16232,7 @@
         <v>13.137814826547274</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="17">
         <f t="shared" si="3"/>
         <v>271</v>
@@ -16197,7 +16248,7 @@
         <v>13.128339493940089</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="17">
         <f t="shared" si="3"/>
         <v>272</v>
@@ -16213,7 +16264,7 @@
         <v>13.119154422675603</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="17">
         <f t="shared" si="3"/>
         <v>273</v>
@@ -16229,7 +16280,7 @@
         <v>13.110183161347122</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="17">
         <f t="shared" si="3"/>
         <v>274</v>
@@ -16245,7 +16296,7 @@
         <v>13.101459866123227</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="17">
         <f t="shared" si="3"/>
         <v>275</v>
@@ -16261,7 +16312,7 @@
         <v>13.09301819290096</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="17">
         <f t="shared" si="3"/>
         <v>276</v>
@@ -16277,7 +16328,7 @@
         <v>13.085217400825231</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="17">
         <f t="shared" si="3"/>
         <v>277</v>
@@ -16293,7 +16344,7 @@
         <v>13.077328527970266</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="17">
         <f t="shared" si="3"/>
         <v>278</v>
@@ -16309,7 +16360,7 @@
         <v>13.069424468912819</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="17">
         <f t="shared" si="3"/>
         <v>279</v>
@@ -16325,7 +16376,7 @@
         <v>13.062007176909548</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="17">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -16341,7 +16392,7 @@
         <v>13.054857152777728</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="17">
         <f t="shared" si="3"/>
         <v>281</v>
@@ -16357,7 +16408,7 @@
         <v>13.048113888355031</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="17">
         <f t="shared" si="3"/>
         <v>282</v>
@@ -16373,7 +16424,7 @@
         <v>13.041170222616184</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="17">
         <f t="shared" si="3"/>
         <v>283</v>
@@ -16389,7 +16440,7 @@
         <v>13.03473499310164</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="17">
         <f t="shared" si="3"/>
         <v>284</v>
@@ -16405,7 +16456,7 @@
         <v>12.999788742756211</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="17">
         <f t="shared" si="3"/>
         <v>285</v>
@@ -16421,7 +16472,7 @@
         <v>12.994526326114961</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="17">
         <f t="shared" si="3"/>
         <v>286</v>
@@ -16437,7 +16488,7 @@
         <v>12.989720289625049</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="17">
         <f t="shared" si="3"/>
         <v>287</v>
@@ -16453,7 +16504,7 @@
         <v>12.984634155270955</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="17">
         <f t="shared" si="3"/>
         <v>288</v>
@@ -16469,7 +16520,7 @@
         <v>12.980173619349875</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="17">
         <f t="shared" si="3"/>
         <v>289</v>
@@ -16485,7 +16536,7 @@
         <v>12.975813157933439</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="17">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -16501,7 +16552,7 @@
         <v>12.971413801561255</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="17">
         <f t="shared" si="3"/>
         <v>291</v>
@@ -16517,7 +16568,7 @@
         <v>12.966529218703656</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="17">
         <f t="shared" si="3"/>
         <v>292</v>
@@ -16533,7 +16584,7 @@
         <v>12.962260283947822</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="17">
         <f t="shared" si="3"/>
         <v>293</v>
@@ -16549,7 +16600,7 @@
         <v>12.958464175060628</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="17">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -16565,7 +16616,7 @@
         <v>12.955068038546816</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="17">
         <f t="shared" si="3"/>
         <v>295</v>
@@ -16581,7 +16632,7 @@
         <v>12.952000011941573</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="17">
         <f t="shared" si="3"/>
         <v>296</v>
@@ -16597,7 +16648,7 @@
         <v>12.948513525685014</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="17">
         <f t="shared" si="3"/>
         <v>297</v>
@@ -16613,7 +16664,7 @@
         <v>12.945656579066547</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="17">
         <f t="shared" si="3"/>
         <v>298</v>
@@ -16629,7 +16680,7 @@
         <v>12.942651020713974</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="17">
         <f t="shared" si="3"/>
         <v>299</v>
@@ -16645,7 +16696,7 @@
         <v>12.94000001268483</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="17">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -16661,7 +16712,7 @@
         <v>12.937333347109215</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="17">
         <f t="shared" si="3"/>
         <v>301</v>
@@ -16677,7 +16728,7 @@
         <v>12.93398672572347</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="17">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -16693,7 +16744,7 @@
         <v>12.930728490903194</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="17">
         <f t="shared" si="3"/>
         <v>303</v>
@@ -16709,7 +16760,7 @@
         <v>12.927425757632886</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="17">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -16725,7 +16776,7 @@
         <v>12.923552646588041</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="17">
         <f t="shared" si="3"/>
         <v>305</v>
@@ -16741,7 +16792,7 @@
         <v>12.919377062894311</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="17">
         <f t="shared" si="3"/>
         <v>306</v>
@@ -16757,7 +16808,7 @@
         <v>12.915261451087467</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="17">
         <f t="shared" si="3"/>
         <v>307</v>
@@ -16773,7 +16824,7 @@
         <v>12.911042358054608</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="17">
         <f t="shared" si="3"/>
         <v>308</v>
@@ -16789,7 +16840,7 @@
         <v>12.906168843418069</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="17">
         <f t="shared" si="3"/>
         <v>309</v>
@@ -16805,7 +16856,7 @@
         <v>12.901779948099563</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="17">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -16821,7 +16872,7 @@
         <v>12.897290336105694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="17">
         <f t="shared" si="3"/>
         <v>311</v>
@@ -16837,7 +16888,7 @@
         <v>12.899292619462267</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="17">
         <f t="shared" si="3"/>
         <v>312</v>
@@ -16853,7 +16904,7 @@
         <v>12.89448719318194</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="17">
         <f t="shared" si="3"/>
         <v>313</v>
@@ -16869,7 +16920,7 @@
         <v>12.889712472500847</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="17">
         <f t="shared" si="3"/>
         <v>314</v>
@@ -16885,7 +16936,7 @@
         <v>12.884872623511992</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="17">
         <f t="shared" si="3"/>
         <v>315</v>
@@ -16901,7 +16952,7 @@
         <v>12.880317471723064</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="17">
         <f t="shared" si="3"/>
         <v>316</v>
@@ -16917,7 +16968,7 @@
         <v>12.875601278268244</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="17">
         <f t="shared" si="3"/>
         <v>317</v>
@@ -16933,7 +16984,7 @@
         <v>12.870914839977177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="17">
         <f t="shared" si="3"/>
         <v>318</v>
@@ -16949,7 +17000,7 @@
         <v>12.86578617623511</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="17">
         <f t="shared" si="3"/>
         <v>319</v>
@@ -16965,7 +17016,7 @@
         <v>12.860815058848795</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="17">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -16981,7 +17032,7 @@
         <v>12.855187511789893</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="17">
         <f t="shared" si="3"/>
         <v>321</v>
@@ -16997,7 +17048,7 @@
         <v>12.849252348201762</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="17">
         <f t="shared" si="3"/>
         <v>322</v>
@@ -17013,7 +17064,7 @@
         <v>12.843633552089335</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="17">
         <f t="shared" si="3"/>
         <v>323</v>
@@ -17029,7 +17080,7 @@
         <v>12.838390103383174</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="17">
         <f t="shared" si="3"/>
         <v>324</v>
@@ -17045,7 +17096,7 @@
         <v>12.833148159669031</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="17">
         <f t="shared" si="3"/>
         <v>325</v>
@@ -17061,7 +17112,7 @@
         <v>12.828061550900818</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="17">
         <f t="shared" si="3"/>
         <v>326</v>
@@ -17077,7 +17128,7 @@
         <v>12.82273007421094</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="17">
         <f t="shared" si="3"/>
         <v>327</v>
@@ -17093,7 +17144,7 @@
         <v>12.818012245237815</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="17">
         <f t="shared" si="3"/>
         <v>328</v>
@@ -17109,7 +17160,7 @@
         <v>12.813353671197458</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="17">
         <f t="shared" si="3"/>
         <v>329</v>
@@ -17125,7 +17176,7 @@
         <v>12.808693020920261</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="17">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -17141,7 +17192,7 @@
         <v>12.804000012462927</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="17">
         <f t="shared" si="3"/>
         <v>331</v>
@@ -17157,7 +17208,7 @@
         <v>12.799546839978143</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="17">
         <f t="shared" si="3"/>
         <v>332</v>
@@ -17173,7 +17224,7 @@
         <v>12.794849409044476</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="17">
         <f t="shared" si="3"/>
         <v>333</v>
@@ -17189,7 +17240,7 @@
         <v>12.790090101629927</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="17">
         <f t="shared" si="3"/>
         <v>334</v>
@@ -17205,7 +17256,7 @@
         <v>12.785568872972352</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="17">
         <f t="shared" si="3"/>
         <v>335</v>
@@ -17221,7 +17272,7 @@
         <v>12.780955233859002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="17">
         <f t="shared" si="3"/>
         <v>336</v>
@@ -17237,7 +17288,7 @@
         <v>12.775863104264184</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="17">
         <f t="shared" si="3"/>
         <v>337</v>
@@ -17253,7 +17304,7 @@
         <v>12.77115727778269</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="17">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -17269,7 +17320,7 @@
         <v>12.766360953351381</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="17">
         <f t="shared" si="3"/>
         <v>339</v>
@@ -17285,7 +17336,7 @@
         <v>12.76150443104061</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="17">
         <f t="shared" si="3"/>
         <v>340</v>
@@ -17301,7 +17352,7 @@
         <v>12.756558829537548</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="17">
         <f t="shared" si="3"/>
         <v>341</v>
@@ -17317,7 +17368,7 @@
         <v>12.751700886870283</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="17">
         <f t="shared" si="3"/>
         <v>342</v>
@@ -17333,7 +17384,7 @@
         <v>12.745935678809259</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="17">
         <f t="shared" si="3"/>
         <v>343</v>
@@ -17349,7 +17400,7 @@
         <v>12.74003236779232</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="17">
         <f t="shared" si="3"/>
         <v>344</v>
@@ -17365,7 +17416,7 @@
         <v>12.734189249106878</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" ht="12.75" customHeight="1">
       <c r="A347" s="17">
         <f t="shared" si="3"/>
         <v>345</v>
@@ -17381,7 +17432,7 @@
         <v>12.728640873573235</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" ht="12.75" customHeight="1">
       <c r="A348" s="17">
         <f t="shared" si="3"/>
         <v>346</v>
@@ -17397,7 +17448,7 @@
         <v>12.723066767551348</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" ht="12.75" customHeight="1">
       <c r="A349" s="17">
         <f t="shared" si="3"/>
         <v>347</v>
@@ -17413,7 +17464,7 @@
         <v>12.717409515281746</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" ht="12.75" customHeight="1">
       <c r="A350" s="17">
         <f t="shared" si="3"/>
         <v>348</v>
@@ -17429,7 +17480,7 @@
         <v>12.712237936214844</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" ht="12.75" customHeight="1">
       <c r="A351" s="17">
         <f t="shared" si="3"/>
         <v>349</v>
@@ -17445,7 +17496,7 @@
         <v>12.707217197142596</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" ht="12.75" customHeight="1">
       <c r="A352" s="17">
         <f t="shared" si="3"/>
         <v>350</v>
@@ -17461,7 +17512,7 @@
         <v>12.701910862293618</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" ht="12.75" customHeight="1">
       <c r="A353" s="17">
         <f t="shared" si="3"/>
         <v>351</v>
@@ -17477,7 +17528,7 @@
         <v>12.696435332771413</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="12.75" customHeight="1">
       <c r="A354" s="17">
         <f t="shared" si="3"/>
         <v>352</v>
@@ -17493,7 +17544,7 @@
         <v>12.690337505121494</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" ht="12.75" customHeight="1">
       <c r="A355" s="17">
         <f t="shared" si="3"/>
         <v>353</v>
@@ -17509,7 +17560,7 @@
         <v>12.684274226608403</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" ht="12.75" customHeight="1">
       <c r="A356" s="17">
         <f t="shared" si="3"/>
         <v>354</v>
@@ -17525,7 +17576,7 @@
         <v>12.678245203369396</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" ht="12.75" customHeight="1">
       <c r="A357" s="17">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -17541,7 +17592,7 @@
         <v>12.672081132373989</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" ht="12.75" customHeight="1">
       <c r="A358" s="17">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -17557,7 +17608,7 @@
         <v>12.665755061777434</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" ht="12.75" customHeight="1">
       <c r="A359" s="17">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -17573,7 +17624,7 @@
         <v>12.659408408943321</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" ht="12.75" customHeight="1">
       <c r="A360" s="17">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -17589,7 +17640,7 @@
         <v>12.652929614504933</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" ht="12.75" customHeight="1">
       <c r="A361" s="17">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -17605,7 +17656,7 @@
         <v>12.64687688577372</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" ht="12.75" customHeight="1">
       <c r="A362" s="17">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -17621,7 +17672,7 @@
         <v>12.640552227757683</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" ht="12.75" customHeight="1">
       <c r="A363" s="17">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -17637,7 +17688,7 @@
         <v>12.634262609093533</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" ht="12.75" customHeight="1">
       <c r="A364" s="17">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -17653,7 +17704,7 @@
         <v>12.627952492442638</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" ht="12.75" customHeight="1">
       <c r="A365" s="17">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -17669,7 +17720,7 @@
         <v>12.621126175989628</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" ht="12.75" customHeight="1">
       <c r="A366" s="17">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -17685,7 +17736,7 @@
         <v>12.614364839929216</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" ht="12.75" customHeight="1">
       <c r="A367" s="17">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -17701,7 +17752,7 @@
         <v>12.607914525929409</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" ht="12.75" customHeight="1">
       <c r="A368" s="17">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -17717,7 +17768,7 @@
         <v>12.601253557497909</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" ht="12.75" customHeight="1">
       <c r="A369" s="17">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -17733,7 +17784,7 @@
         <v>12.595228344371213</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" ht="12.75" customHeight="1">
       <c r="A370" s="17">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -17749,7 +17800,7 @@
         <v>12.589181527919118</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" ht="12.75" customHeight="1">
       <c r="A371" s="17">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -17765,7 +17816,7 @@
         <v>12.58311328632584</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" ht="12.75" customHeight="1">
       <c r="A372" s="17">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -17781,7 +17832,7 @@
         <v>12.576618386389825</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" ht="12.75" customHeight="1">
       <c r="A373" s="17">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -17797,7 +17848,7 @@
         <v>12.569996773192008</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" ht="12.75" customHeight="1">
       <c r="A374" s="17">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -17813,7 +17864,7 @@
         <v>12.563356997941492</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" ht="12.75" customHeight="1">
       <c r="A375" s="17">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -17829,7 +17880,7 @@
         <v>12.555975344917519</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" ht="12.75" customHeight="1">
       <c r="A376" s="17">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -17845,7 +17896,7 @@
         <v>12.548552950233248</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" ht="12.75" customHeight="1">
       <c r="A377" s="17">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -17861,7 +17912,7 @@
         <v>12.541303475496626</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" ht="12.75" customHeight="1">
       <c r="A378" s="17">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -17877,7 +17928,7 @@
         <v>12.533853199686794</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" ht="12.75" customHeight="1">
       <c r="A379" s="17">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -17893,7 +17944,7 @@
         <v>12.52588541860805</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" ht="12.75" customHeight="1">
       <c r="A380" s="17">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -17909,7 +17960,7 @@
         <v>12.517589426344536</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" ht="12.75" customHeight="1">
       <c r="A381" s="17">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -17925,7 +17976,7 @@
         <v>12.510181538776344</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" ht="12.75" customHeight="1">
       <c r="A382" s="17">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -17941,7 +17992,7 @@
         <v>12.503075798990089</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" ht="12.75" customHeight="1">
       <c r="A383" s="17">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -17957,7 +18008,7 @@
         <v>12.495823630937622</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" ht="12.75" customHeight="1">
       <c r="A384" s="17">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -17973,7 +18024,7 @@
         <v>12.489342418448256</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" ht="12.75" customHeight="1">
       <c r="A385" s="17">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -17989,7 +18040,7 @@
         <v>12.482999488948391</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" ht="12.75" customHeight="1">
       <c r="A386" s="17">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -18005,7 +18056,7 @@
         <v>12.476507302182901</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" ht="12.75" customHeight="1">
       <c r="A387" s="17">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -18021,7 +18072,7 @@
         <v>12.469867023673334</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" ht="12.75" customHeight="1">
       <c r="A388" s="17">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -18037,7 +18088,7 @@
         <v>12.463157523907341</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" ht="12.75" customHeight="1">
       <c r="A389" s="17">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -18053,7 +18104,7 @@
         <v>12.457128693380449</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" ht="12.75" customHeight="1">
       <c r="A390" s="17">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -18069,7 +18120,7 @@
         <v>12.451208258217095</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" ht="12.75" customHeight="1">
       <c r="A391" s="17">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -18085,7 +18136,7 @@
         <v>12.445703867887488</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" ht="12.75" customHeight="1">
       <c r="A392" s="17">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -18101,7 +18152,7 @@
         <v>12.440099499585211</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" ht="12.75" customHeight="1">
       <c r="A393" s="17">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -18117,7 +18168,7 @@
         <v>12.434370344368881</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" ht="12.75" customHeight="1">
       <c r="A394" s="17">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -18133,7 +18184,7 @@
         <v>12.428644908745492</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" ht="12.75" customHeight="1">
       <c r="A395" s="17">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -18149,7 +18200,7 @@
         <v>12.422770493939524</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" ht="12.75" customHeight="1">
       <c r="A396" s="17">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -18165,7 +18216,7 @@
         <v>12.416951279767089</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" ht="12.75" customHeight="1">
       <c r="A397" s="17">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -18181,7 +18232,7 @@
         <v>12.411262795717045</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" ht="12.75" customHeight="1">
       <c r="A398" s="17">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -18197,7 +18248,7 @@
         <v>12.405502031359173</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" ht="12.75" customHeight="1">
       <c r="A399" s="17">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -18213,7 +18264,7 @@
         <v>12.399946610146682</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" ht="12.75" customHeight="1">
       <c r="A400" s="17">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -18229,7 +18280,7 @@
         <v>12.394167850774455</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" ht="12.75" customHeight="1">
       <c r="A401" s="17">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -18245,7 +18296,7 @@
         <v>12.389144874556974</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" ht="12.75" customHeight="1">
       <c r="A402" s="17">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -18261,7 +18312,7 @@
         <v>12.384122012645582</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="17">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -18277,7 +18328,7 @@
         <v>12.379348641716293</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="17">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -18293,7 +18344,7 @@
         <v>12.374474640318988</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="17">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -18309,7 +18360,7 @@
         <v>12.370096290491892</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="17">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -18325,7 +18376,7 @@
         <v>12.365912884599586</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="17">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -18341,7 +18392,7 @@
         <v>12.361676061724031</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="17">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -18357,7 +18408,7 @@
         <v>12.357484741005498</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="17">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -18373,7 +18424,7 @@
         <v>12.353584288226616</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="17">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -18389,7 +18440,7 @@
         <v>12.350070601441747</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="17">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -18405,7 +18456,7 @@
         <v>12.346549646059247</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="17">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -18421,7 +18472,7 @@
         <v>12.343119036142031</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="17">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -18437,7 +18488,7 @@
         <v>12.339632128146549</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="17">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -18453,7 +18504,7 @@
         <v>12.336259234170466</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="17">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -18469,7 +18520,7 @@
         <v>12.332491051351651</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="17">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -18485,7 +18536,7 @@
         <v>12.328306291275922</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="17">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -18501,7 +18552,7 @@
         <v>12.324165793369232</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="17">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -18517,7 +18568,7 @@
         <v>12.320117318721712</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="17">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -18533,7 +18584,7 @@
         <v>12.316064279851874</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="17">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -18549,7 +18600,7 @@
         <v>12.312030633512515</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="17">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -18565,7 +18616,7 @@
         <v>12.308302636773822</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="17">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -18581,7 +18632,7 @@
         <v>12.304568582329123</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="17">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -18597,7 +18648,7 @@
         <v>12.300709750328341</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="17">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -18613,7 +18664,7 @@
         <v>12.296987688218559</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="17">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -18629,7 +18680,7 @@
         <v>12.293354148125564</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="17">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -18645,7 +18696,7 @@
         <v>12.289784916014352</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="17">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -18661,7 +18712,7 @@
         <v>12.286656010419369</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="17">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -18677,7 +18728,7 @@
         <v>12.283635691146085</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="17">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -18693,7 +18744,7 @@
         <v>12.28079345227882</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="17">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -18709,7 +18760,7 @@
         <v>12.277987859922341</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="17">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -18725,7 +18776,7 @@
         <v>12.275195347250508</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="17">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -18741,7 +18792,7 @@
         <v>12.272415823009707</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="17">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -18757,7 +18808,7 @@
         <v>12.270043628524766</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="17">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -18773,7 +18824,7 @@
         <v>12.268006491290501</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="17">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -18789,7 +18840,7 @@
         <v>12.265932573032462</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="17">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -18805,7 +18856,7 @@
         <v>12.263822130194759</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="17">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -18821,7 +18872,7 @@
         <v>12.261813344477812</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="17">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -18837,7 +18888,7 @@
         <v>12.259974323133017</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="17">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -18853,7 +18904,7 @@
         <v>12.258212367636416</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="17">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -18869,7 +18920,7 @@
         <v>12.256230148402823</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="17">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -18885,7 +18936,7 @@
         <v>12.254393632825595</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="17">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -18901,7 +18952,7 @@
         <v>12.252520011637355</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="17">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -18917,7 +18968,7 @@
         <v>12.250405453084889</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="17">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -18933,7 +18984,7 @@
         <v>12.248006344774744</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="17">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -18949,7 +19000,7 @@
         <v>12.245663215418592</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="17">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -18965,7 +19016,7 @@
         <v>12.243240550699181</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="17">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -18981,7 +19032,7 @@
         <v>12.241143381866149</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="17">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -18997,7 +19048,7 @@
         <v>12.238965931368691</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="17">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -19013,7 +19064,7 @@
         <v>12.237021935750416</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="17">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -19029,7 +19080,7 @@
         <v>12.235131262545618</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="17">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -19045,7 +19096,7 @@
         <v>12.233093107595629</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="17">
         <f t="shared" ref="A452:A502" si="4">A451+1</f>
         <v>450</v>
@@ -19061,7 +19112,7 @@
         <v>12.230930678978748</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="17">
         <f t="shared" si="4"/>
         <v>451</v>
@@ -19077,7 +19128,7 @@
         <v>12.228556109513162</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="17">
         <f t="shared" si="4"/>
         <v>452</v>
@@ -19093,7 +19144,7 @@
         <v>12.226745144337247</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="17">
         <f t="shared" si="4"/>
         <v>453</v>
@@ -19109,7 +19160,7 @@
         <v>12.22500839916211</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="17">
         <f t="shared" si="4"/>
         <v>454</v>
@@ -19125,7 +19176,7 @@
         <v>12.223081068723427</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="17">
         <f t="shared" si="4"/>
         <v>455</v>
@@ -19141,7 +19192,7 @@
         <v>12.221162210066893</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="17">
         <f t="shared" si="4"/>
         <v>456</v>
@@ -19157,7 +19208,7 @@
         <v>12.218988607720254</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="17">
         <f t="shared" si="4"/>
         <v>457</v>
@@ -19173,7 +19224,7 @@
         <v>12.216780755274476</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="17">
         <f t="shared" si="4"/>
         <v>458</v>
@@ -19189,7 +19240,7 @@
         <v>12.214713549389598</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="17">
         <f t="shared" si="4"/>
         <v>459</v>
@@ -19205,7 +19256,7 @@
         <v>12.212916788584828</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="17">
         <f t="shared" si="4"/>
         <v>460</v>
@@ -19221,7 +19272,7 @@
         <v>12.211106100153122</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="17">
         <f t="shared" si="4"/>
         <v>461</v>
@@ -19237,7 +19288,7 @@
         <v>12.209411727506367</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4">
       <c r="A464" s="17">
         <f t="shared" si="4"/>
         <v>462</v>
@@ -19253,7 +19304,7 @@
         <v>12.207594818767177</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465" s="17">
         <f t="shared" si="4"/>
         <v>463</v>
@@ -19269,7 +19320,7 @@
         <v>12.205569776955585</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466" s="17">
         <f t="shared" si="4"/>
         <v>464</v>
@@ -19285,7 +19336,7 @@
         <v>12.20344570474232</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467" s="17">
         <f t="shared" si="4"/>
         <v>465</v>
@@ -19301,7 +19352,7 @@
         <v>12.201223241033196</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468" s="17">
         <f t="shared" si="4"/>
         <v>466</v>
@@ -19317,7 +19368,7 @@
         <v>12.198709885859305</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469" s="17">
         <f t="shared" si="4"/>
         <v>467</v>
@@ -19333,7 +19384,7 @@
         <v>12.196507081135838</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470" s="17">
         <f t="shared" si="4"/>
         <v>468</v>
@@ -19349,7 +19400,7 @@
         <v>12.194121382073581</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471" s="17">
         <f t="shared" si="4"/>
         <v>469</v>
@@ -19365,7 +19416,7 @@
         <v>12.19183114435061</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472" s="17">
         <f t="shared" si="4"/>
         <v>470</v>
@@ -19381,7 +19432,7 @@
         <v>12.189337887575396</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4">
       <c r="A473" s="17">
         <f t="shared" si="4"/>
         <v>471</v>
@@ -19397,7 +19448,7 @@
         <v>12.186961373355492</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474" s="17">
         <f t="shared" si="4"/>
         <v>472</v>
@@ -19413,7 +19464,7 @@
         <v>12.184531370361096</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475" s="17">
         <f t="shared" si="4"/>
         <v>473</v>
@@ -19429,7 +19480,7 @@
         <v>12.182280775265195</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476" s="17">
         <f t="shared" si="4"/>
         <v>474</v>
@@ -19445,7 +19496,7 @@
         <v>12.180187355022021</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477" s="17">
         <f t="shared" si="4"/>
         <v>475</v>
@@ -19461,7 +19512,7 @@
         <v>12.178250118969341</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478" s="17">
         <f t="shared" si="4"/>
         <v>476</v>
@@ -19477,7 +19528,7 @@
         <v>12.176194971261422</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4">
       <c r="A479" s="17">
         <f t="shared" si="4"/>
         <v>477</v>
@@ -19493,7 +19544,7 @@
         <v>12.174064583166535</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480" s="17">
         <f t="shared" si="4"/>
         <v>478</v>
@@ -19509,7 +19560,7 @@
         <v>12.171943108829366</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4">
       <c r="A481" s="17">
         <f t="shared" si="4"/>
         <v>479</v>
@@ -19525,7 +19576,7 @@
         <v>12.169830492422623</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4">
       <c r="A482" s="17">
         <f t="shared" si="4"/>
         <v>480</v>
@@ -19541,7 +19592,7 @@
         <v>12.168018345959242</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4">
       <c r="A483" s="17">
         <f t="shared" si="4"/>
         <v>481</v>
@@ -19557,7 +19608,7 @@
         <v>12.166213734408391</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4">
       <c r="A484" s="17">
         <f t="shared" si="4"/>
         <v>482</v>
@@ -19573,7 +19624,7 @@
         <v>12.164458103610864</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4">
       <c r="A485" s="17">
         <f t="shared" si="4"/>
         <v>483</v>
@@ -19589,7 +19640,7 @@
         <v>12.162833966978129</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4">
       <c r="A486" s="17">
         <f t="shared" si="4"/>
         <v>484</v>
@@ -19605,7 +19656,7 @@
         <v>12.161195880042223</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4">
       <c r="A487" s="17">
         <f t="shared" si="4"/>
         <v>485</v>
@@ -19621,7 +19672,7 @@
         <v>12.159667641279251</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4">
       <c r="A488" s="17">
         <f t="shared" si="4"/>
         <v>486</v>
@@ -19637,7 +19688,7 @@
         <v>12.158125114959745</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4">
       <c r="A489" s="17">
         <f t="shared" si="4"/>
         <v>487</v>
@@ -19653,7 +19704,7 @@
         <v>12.156568389097405</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4">
       <c r="A490" s="17">
         <f t="shared" si="4"/>
         <v>488</v>
@@ -19669,7 +19720,7 @@
         <v>12.155018043259091</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4">
       <c r="A491" s="17">
         <f t="shared" si="4"/>
         <v>489</v>
@@ -19685,7 +19736,7 @@
         <v>12.153433139510094</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4">
       <c r="A492" s="17">
         <f t="shared" si="4"/>
         <v>490</v>
@@ -19701,7 +19752,7 @@
         <v>12.151915928715175</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4">
       <c r="A493" s="17">
         <f t="shared" si="4"/>
         <v>491</v>
@@ -19717,7 +19768,7 @@
         <v>12.150771497393963</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4">
       <c r="A494" s="17">
         <f t="shared" si="4"/>
         <v>492</v>
@@ -19733,7 +19784,7 @@
         <v>12.149753668374871</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4">
       <c r="A495" s="17">
         <f t="shared" si="4"/>
         <v>493</v>
@@ -19749,7 +19800,7 @@
         <v>12.14855741432137</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4">
       <c r="A496" s="17">
         <f t="shared" si="4"/>
         <v>494</v>
@@ -19765,7 +19816,7 @@
         <v>12.147244545061611</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4">
       <c r="A497" s="17">
         <f t="shared" si="4"/>
         <v>495</v>
@@ -19781,7 +19832,7 @@
         <v>12.14561374830391</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4">
       <c r="A498" s="17">
         <f t="shared" si="4"/>
         <v>496</v>
@@ -19797,7 +19848,7 @@
         <v>12.143767751916201</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4">
       <c r="A499" s="17">
         <f t="shared" si="4"/>
         <v>497</v>
@@ -19813,7 +19864,7 @@
         <v>12.141949305272508</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4">
       <c r="A500" s="17">
         <f t="shared" si="4"/>
         <v>498</v>
@@ -19829,7 +19880,7 @@
         <v>12.140098001988829</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4">
       <c r="A501" s="17">
         <f t="shared" si="4"/>
         <v>499</v>
@@ -19845,7 +19896,7 @@
         <v>12.138434479780432</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4">
       <c r="A502" s="17">
         <f t="shared" si="4"/>
         <v>500</v>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="378">
   <si>
     <t>PE</t>
   </si>
@@ -1328,6 +1328,150 @@
   </si>
   <si>
     <t xml:space="preserve">2023/4/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/5/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/6/28
 </t>
   </si>
   <si>
@@ -1997,7 +2141,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -2453,6 +2597,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +2609,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2918,6 +3065,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>304000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>306000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,7 +3110,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3416,6 +3566,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,7 +3578,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3881,6 +4034,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>450829.9027039613</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>425642.71663191047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,7 +4079,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4379,6 +4535,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4388,7 +4547,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="153"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4844,6 +5003,9 @@
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>146829.9027039613</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>119642.71663191047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,11 +5027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510939904"/>
-        <c:axId val="535868544"/>
+        <c:axId val="361873792"/>
+        <c:axId val="361876864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510939904"/>
+        <c:axId val="361873792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4912,14 +5074,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535868544"/>
+        <c:crossAx val="361876864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535868544"/>
+        <c:axId val="361876864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4970,7 +5132,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510939904"/>
+        <c:crossAx val="361873792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5376,7 +5538,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5406,31 +5568,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -5444,7 +5606,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5486,25 +5648,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -11867,6 +12029,39 @@
       <c r="J154" s="31">
         <f>VLOOKUP(A154,myPEPB!B:C,2)</f>
         <v>11.40999985</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="12.75">
+      <c r="A155" s="13">
+        <v>45077</v>
+      </c>
+      <c r="B155" s="14">
+        <v>2.3854221191406251</v>
+      </c>
+      <c r="C155" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D155" s="16">
+        <v>838.42603116320663</v>
+      </c>
+      <c r="E155" s="16">
+        <v>178434.96679960904</v>
+      </c>
+      <c r="F155" s="16">
+        <v>425642.71663191047</v>
+      </c>
+      <c r="G155" s="16">
+        <v>306000</v>
+      </c>
+      <c r="H155" s="16">
+        <v>425642.71663191047</v>
+      </c>
+      <c r="I155" s="16">
+        <v>119642.71663191047</v>
+      </c>
+      <c r="J155" s="31">
+        <f>VLOOKUP(A155,myPEPB!B:C,2)</f>
+        <v>10.93999958</v>
       </c>
     </row>
   </sheetData>
@@ -11882,7 +12077,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -19098,7 +19293,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A502" si="4">A451+1</f>
+        <f t="shared" ref="A452:A542" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -19910,6 +20105,646 @@
       <c r="D502" s="17">
         <f>SUM($C$3:C502)/A502</f>
         <v>12.136977610520871</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="17">
+        <f t="shared" si="4"/>
+        <v>501</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C503" s="21">
+        <v>11.600000380000001</v>
+      </c>
+      <c r="D503" s="17">
+        <f>SUM($C$3:C503)/A503</f>
+        <v>12.135905799681508</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="17">
+        <f t="shared" si="4"/>
+        <v>502</v>
+      </c>
+      <c r="B504" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C504" s="21">
+        <v>11.56999969</v>
+      </c>
+      <c r="D504" s="17">
+        <f>SUM($C$3:C504)/A504</f>
+        <v>12.134778496674175</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="17">
+        <f t="shared" si="4"/>
+        <v>503</v>
+      </c>
+      <c r="B505" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C505" s="21">
+        <v>11.77999973</v>
+      </c>
+      <c r="D505" s="17">
+        <f>SUM($C$3:C505)/A505</f>
+        <v>12.134073171094306</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="17">
+        <f t="shared" si="4"/>
+        <v>504</v>
+      </c>
+      <c r="B506" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C506" s="21">
+        <v>11.649999619999999</v>
+      </c>
+      <c r="D506" s="17">
+        <f>SUM($C$3:C506)/A506</f>
+        <v>12.133112707699278</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="17">
+        <f t="shared" si="4"/>
+        <v>505</v>
+      </c>
+      <c r="B507" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C507" s="21">
+        <v>11.510000229999999</v>
+      </c>
+      <c r="D507" s="17">
+        <f>SUM($C$3:C507)/A507</f>
+        <v>12.131878821604822</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="17">
+        <f t="shared" si="4"/>
+        <v>506</v>
+      </c>
+      <c r="B508" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C508" s="21">
+        <v>11.47000027</v>
+      </c>
+      <c r="D508" s="17">
+        <f>SUM($C$3:C508)/A508</f>
+        <v>12.130570761226156</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="17">
+        <f t="shared" si="4"/>
+        <v>507</v>
+      </c>
+      <c r="B509" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C509" s="21">
+        <v>11.34000015</v>
+      </c>
+      <c r="D509" s="17">
+        <f>SUM($C$3:C509)/A509</f>
+        <v>12.12901145035589</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="17">
+        <f t="shared" si="4"/>
+        <v>508</v>
+      </c>
+      <c r="B510" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C510" s="21">
+        <v>11.47999954</v>
+      </c>
+      <c r="D510" s="17">
+        <f>SUM($C$3:C510)/A510</f>
+        <v>12.127733867855188</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="17">
+        <f t="shared" si="4"/>
+        <v>509</v>
+      </c>
+      <c r="B511" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C511" s="21">
+        <v>11.43999958</v>
+      </c>
+      <c r="D511" s="17">
+        <f>SUM($C$3:C511)/A511</f>
+        <v>12.126382719941917</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="17">
+        <f t="shared" si="4"/>
+        <v>510</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C512" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D512" s="17">
+        <f>SUM($C$3:C512)/A512</f>
+        <v>12.124938832922425</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="17">
+        <f t="shared" si="4"/>
+        <v>511</v>
+      </c>
+      <c r="B513" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C513" s="21">
+        <v>11.420000079999999</v>
+      </c>
+      <c r="D513" s="17">
+        <f>SUM($C$3:C513)/A513</f>
+        <v>12.123559305030209</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="17">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="B514" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C514" s="21">
+        <v>11.369999890000001</v>
+      </c>
+      <c r="D514" s="17">
+        <f>SUM($C$3:C514)/A514</f>
+        <v>12.122087509297728</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="17">
+        <f t="shared" si="4"/>
+        <v>513</v>
+      </c>
+      <c r="B515" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C515" s="21">
+        <v>11.44999981</v>
+      </c>
+      <c r="D515" s="17">
+        <f>SUM($C$3:C515)/A515</f>
+        <v>12.120777396823463</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="17">
+        <f t="shared" si="4"/>
+        <v>514</v>
+      </c>
+      <c r="B516" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C516" s="21">
+        <v>11.27999973</v>
+      </c>
+      <c r="D516" s="17">
+        <f>SUM($C$3:C516)/A516</f>
+        <v>12.119141642607854</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="17">
+        <f t="shared" si="4"/>
+        <v>515</v>
+      </c>
+      <c r="B517" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C517" s="21">
+        <v>11.10999966</v>
+      </c>
+      <c r="D517" s="17">
+        <f>SUM($C$3:C517)/A517</f>
+        <v>12.117182143612498</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="17">
+        <f t="shared" si="4"/>
+        <v>516</v>
+      </c>
+      <c r="B518" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C518" s="21">
+        <v>11.09000015</v>
+      </c>
+      <c r="D518" s="17">
+        <f>SUM($C$3:C518)/A518</f>
+        <v>12.115191480834179</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="17">
+        <f t="shared" si="4"/>
+        <v>517</v>
+      </c>
+      <c r="B519" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C519" s="21">
+        <v>11.09000015</v>
+      </c>
+      <c r="D519" s="17">
+        <f>SUM($C$3:C519)/A519</f>
+        <v>12.113208518878988</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="17">
+        <f t="shared" si="4"/>
+        <v>518</v>
+      </c>
+      <c r="B520" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C520" s="21">
+        <v>11.10999966</v>
+      </c>
+      <c r="D520" s="17">
+        <f>SUM($C$3:C520)/A520</f>
+        <v>12.111271822240225</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="17">
+        <f t="shared" si="4"/>
+        <v>519</v>
+      </c>
+      <c r="B521" s="20">
+        <v>45076</v>
+      </c>
+      <c r="C521" s="21">
+        <v>11.079999920000001</v>
+      </c>
+      <c r="D521" s="17">
+        <f>SUM($C$3:C521)/A521</f>
+        <v>12.109284785819723</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="17">
+        <f t="shared" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="B522" s="20">
+        <v>45077</v>
+      </c>
+      <c r="C522" s="21">
+        <v>10.93999958</v>
+      </c>
+      <c r="D522" s="17">
+        <f>SUM($C$3:C522)/A522</f>
+        <v>12.107036160423917</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="17">
+        <f t="shared" si="4"/>
+        <v>521</v>
+      </c>
+      <c r="B523" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C523" s="21">
+        <v>10.960000040000001</v>
+      </c>
+      <c r="D523" s="17">
+        <f>SUM($C$3:C523)/A523</f>
+        <v>12.104834555586251</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="17">
+        <f t="shared" si="4"/>
+        <v>522</v>
+      </c>
+      <c r="B524" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C524" s="21">
+        <v>11.100000380000001</v>
+      </c>
+      <c r="D524" s="17">
+        <f>SUM($C$3:C524)/A524</f>
+        <v>12.102909585901219</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="17">
+        <f t="shared" si="4"/>
+        <v>523</v>
+      </c>
+      <c r="B525" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C525" s="21">
+        <v>11.09000015</v>
+      </c>
+      <c r="D525" s="17">
+        <f>SUM($C$3:C525)/A525</f>
+        <v>12.100972856578274</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="17">
+        <f t="shared" si="4"/>
+        <v>524</v>
+      </c>
+      <c r="B526" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C526" s="21">
+        <v>11.02000046</v>
+      </c>
+      <c r="D526" s="17">
+        <f>SUM($C$3:C526)/A526</f>
+        <v>12.098909932157323</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="17">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+      <c r="B527" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C527" s="21">
+        <v>10.97999954</v>
+      </c>
+      <c r="D527" s="17">
+        <f>SUM($C$3:C527)/A527</f>
+        <v>12.096778674267499</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="17">
+        <f t="shared" si="4"/>
+        <v>526</v>
+      </c>
+      <c r="B528" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C528" s="21">
+        <v>11.09000015</v>
+      </c>
+      <c r="D528" s="17">
+        <f>SUM($C$3:C528)/A528</f>
+        <v>12.094864646654823</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="17">
+        <f t="shared" si="4"/>
+        <v>527</v>
+      </c>
+      <c r="B529" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C529" s="21">
+        <v>11.119999890000001</v>
+      </c>
+      <c r="D529" s="17">
+        <f>SUM($C$3:C529)/A529</f>
+        <v>12.093014808406902</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="17">
+        <f t="shared" si="4"/>
+        <v>528</v>
+      </c>
+      <c r="B530" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C530" s="21">
+        <v>11.44999981</v>
+      </c>
+      <c r="D530" s="17">
+        <f>SUM($C$3:C530)/A530</f>
+        <v>12.091796976970526</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="17">
+        <f t="shared" si="4"/>
+        <v>529</v>
+      </c>
+      <c r="B531" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C531" s="21">
+        <v>11.489999770000001</v>
+      </c>
+      <c r="D531" s="17">
+        <f>SUM($C$3:C531)/A531</f>
+        <v>12.090659364102907</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="17">
+        <f t="shared" si="4"/>
+        <v>530</v>
+      </c>
+      <c r="B532" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C532" s="21">
+        <v>11.47999954</v>
+      </c>
+      <c r="D532" s="17">
+        <f>SUM($C$3:C532)/A532</f>
+        <v>12.089507175755543</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="17">
+        <f t="shared" si="4"/>
+        <v>531</v>
+      </c>
+      <c r="B533" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C533" s="21">
+        <v>11.64000034</v>
+      </c>
+      <c r="D533" s="17">
+        <f>SUM($C$3:C533)/A533</f>
+        <v>12.088660646874647</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="17">
+        <f t="shared" si="4"/>
+        <v>532</v>
+      </c>
+      <c r="B534" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C534" s="21">
+        <v>11.72000027</v>
+      </c>
+      <c r="D534" s="17">
+        <f>SUM($C$3:C534)/A534</f>
+        <v>12.087967676241425</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="17">
+        <f t="shared" si="4"/>
+        <v>533</v>
+      </c>
+      <c r="B535" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C535" s="21">
+        <v>11.60999966</v>
+      </c>
+      <c r="D535" s="17">
+        <f>SUM($C$3:C535)/A535</f>
+        <v>12.08707092574191</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="17">
+        <f t="shared" si="4"/>
+        <v>534</v>
+      </c>
+      <c r="B536" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C536" s="21">
+        <v>11.56999969</v>
+      </c>
+      <c r="D536" s="17">
+        <f>SUM($C$3:C536)/A536</f>
+        <v>12.086102627547637</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="17">
+        <f t="shared" si="4"/>
+        <v>535</v>
+      </c>
+      <c r="B537" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C537" s="21">
+        <v>11.43999958</v>
+      </c>
+      <c r="D537" s="17">
+        <f>SUM($C$3:C537)/A537</f>
+        <v>12.084894958299886</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="17">
+        <f t="shared" si="4"/>
+        <v>536</v>
+      </c>
+      <c r="B538" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C538" s="21">
+        <v>11.27000046</v>
+      </c>
+      <c r="D538" s="17">
+        <f>SUM($C$3:C538)/A538</f>
+        <v>12.083374632743356</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="17">
+        <f t="shared" si="4"/>
+        <v>537</v>
+      </c>
+      <c r="B539" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C539" s="21">
+        <v>11.399999619999999</v>
+      </c>
+      <c r="D539" s="17">
+        <f>SUM($C$3:C539)/A539</f>
+        <v>12.082102053576236</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="17">
+        <f t="shared" si="4"/>
+        <v>538</v>
+      </c>
+      <c r="B540" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C540" s="21">
+        <v>11.399999619999999</v>
+      </c>
+      <c r="D540" s="17">
+        <f>SUM($C$3:C540)/A540</f>
+        <v>12.080834205186688</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="17">
+        <f t="shared" si="4"/>
+        <v>539</v>
+      </c>
+      <c r="B541" s="20">
+        <v>45106</v>
+      </c>
+      <c r="C541" s="21">
+        <v>11.34000015</v>
+      </c>
+      <c r="D541" s="17">
+        <f>SUM($C$3:C541)/A541</f>
+        <v>12.079459744972985</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="17">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="B542" s="20">
+        <v>45107</v>
+      </c>
+      <c r="C542" s="21">
+        <v>11.399999619999999</v>
+      </c>
+      <c r="D542" s="17">
+        <f>SUM($C$3:C542)/A542</f>
+        <v>12.078201485482294</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -2141,7 +2141,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="154"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -2600,6 +2600,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,7 +2612,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="154"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3068,6 +3071,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>306000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>308000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,7 +3116,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="154"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3569,6 +3575,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,7 +3587,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="154"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4037,6 +4046,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>425642.71663191047</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>434172.36476145795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,7 +4091,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="154"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4538,6 +4550,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,7 +4562,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="153"/>
+                <c:ptCount val="154"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5006,6 +5021,9 @@
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>119642.71663191047</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>126172.36476145795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5027,11 +5045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="361873792"/>
-        <c:axId val="361876864"/>
+        <c:axId val="509148544"/>
+        <c:axId val="509183488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="361873792"/>
+        <c:axId val="509148544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,14 +5092,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361876864"/>
+        <c:crossAx val="509183488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="361876864"/>
+        <c:axId val="509183488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5132,7 +5150,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361873792"/>
+        <c:crossAx val="509148544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5538,7 +5556,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12064,6 +12082,39 @@
         <v>10.93999958</v>
       </c>
     </row>
+    <row r="156" spans="1:10" ht="12.75">
+      <c r="A156" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B156" s="14">
+        <v>2.4220161132812499</v>
+      </c>
+      <c r="C156" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D156" s="16">
+        <v>825.75833787103943</v>
+      </c>
+      <c r="E156" s="16">
+        <v>179260.72513748007</v>
+      </c>
+      <c r="F156" s="16">
+        <v>434172.36476145795</v>
+      </c>
+      <c r="G156" s="16">
+        <v>308000</v>
+      </c>
+      <c r="H156" s="16">
+        <v>434172.36476145795</v>
+      </c>
+      <c r="I156" s="16">
+        <v>126172.36476145795</v>
+      </c>
+      <c r="J156" s="31">
+        <f>VLOOKUP(A156,myPEPB!B:C,2)</f>
+        <v>11.399999619999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="398">
   <si>
     <t>PE</t>
   </si>
@@ -1475,6 +1475,82 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2023/7/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/7/27
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1508,6 +1584,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2141,7 +2221,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -2603,6 +2683,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,7 +2695,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3074,6 +3157,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>308000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>310000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,7 +3202,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3578,6 +3664,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3587,7 +3676,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4049,6 +4138,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>434172.36476145795</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>436172.36476145789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,7 +4183,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4553,6 +4645,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4562,7 +4657,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="154"/>
+                <c:ptCount val="155"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5024,6 +5119,9 @@
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>126172.36476145795</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>126172.36476145789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5045,11 +5143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509148544"/>
-        <c:axId val="509183488"/>
+        <c:axId val="398378112"/>
+        <c:axId val="398380032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509148544"/>
+        <c:axId val="398378112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5092,14 +5190,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509183488"/>
+        <c:crossAx val="398380032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509183488"/>
+        <c:axId val="398380032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5150,7 +5248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509148544"/>
+        <c:crossAx val="398378112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5556,7 +5654,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5586,31 +5684,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -5624,7 +5722,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5666,25 +5764,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -12113,6 +12211,39 @@
       <c r="J156" s="31">
         <f>VLOOKUP(A156,myPEPB!B:C,2)</f>
         <v>11.399999619999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="12.75">
+      <c r="A157" s="13">
+        <v>45138</v>
+      </c>
+      <c r="B157" s="14">
+        <v>2.4220161132812499</v>
+      </c>
+      <c r="C157" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D157" s="16">
+        <v>825.75833787103943</v>
+      </c>
+      <c r="E157" s="16">
+        <v>180086.48347535109</v>
+      </c>
+      <c r="F157" s="16">
+        <v>436172.36476145789</v>
+      </c>
+      <c r="G157" s="16">
+        <v>310000</v>
+      </c>
+      <c r="H157" s="16">
+        <v>436172.36476145789</v>
+      </c>
+      <c r="I157" s="16">
+        <v>126172.36476145789</v>
+      </c>
+      <c r="J157" s="31">
+        <f>VLOOKUP(A157,myPEPB!B:C,2)</f>
+        <v>11.81999969</v>
       </c>
     </row>
   </sheetData>
@@ -12128,9 +12259,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D563"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -19344,7 +19475,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A542" si="4">A451+1</f>
+        <f t="shared" ref="A452:A563" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -20796,6 +20927,342 @@
       <c r="D542" s="17">
         <f>SUM($C$3:C542)/A542</f>
         <v>12.078201485482294</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="17">
+        <f t="shared" si="4"/>
+        <v>541</v>
+      </c>
+      <c r="B543" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C543" s="21">
+        <v>11.56000042</v>
+      </c>
+      <c r="D543" s="17">
+        <f>SUM($C$3:C543)/A543</f>
+        <v>12.077243627690274</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="17">
+        <f t="shared" si="4"/>
+        <v>542</v>
+      </c>
+      <c r="B544" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C544" s="21">
+        <v>11.55000019</v>
+      </c>
+      <c r="D544" s="17">
+        <f>SUM($C$3:C544)/A544</f>
+        <v>12.076270853819997</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="17">
+        <f t="shared" si="4"/>
+        <v>543</v>
+      </c>
+      <c r="B545" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C545" s="21">
+        <v>11.460000040000001</v>
+      </c>
+      <c r="D545" s="17">
+        <f>SUM($C$3:C545)/A545</f>
+        <v>12.07513591677797</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="17">
+        <f t="shared" si="4"/>
+        <v>544</v>
+      </c>
+      <c r="B546" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C546" s="21">
+        <v>11.380000109999999</v>
+      </c>
+      <c r="D546" s="17">
+        <f>SUM($C$3:C546)/A546</f>
+        <v>12.073858093603747</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="17">
+        <f t="shared" si="4"/>
+        <v>545</v>
+      </c>
+      <c r="B547" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C547" s="21">
+        <v>11.329999920000001</v>
+      </c>
+      <c r="D547" s="17">
+        <f>SUM($C$3:C547)/A547</f>
+        <v>12.072493216220987</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="17">
+        <f t="shared" si="4"/>
+        <v>546</v>
+      </c>
+      <c r="B548" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C548" s="21">
+        <v>11.380000109999999</v>
+      </c>
+      <c r="D548" s="17">
+        <f>SUM($C$3:C548)/A548</f>
+        <v>12.07122491382864</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="17">
+        <f t="shared" si="4"/>
+        <v>547</v>
+      </c>
+      <c r="B549" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C549" s="21">
+        <v>11.43999958</v>
+      </c>
+      <c r="D549" s="17">
+        <f>SUM($C$3:C549)/A549</f>
+        <v>12.070070936984347</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="17">
+        <f t="shared" si="4"/>
+        <v>548</v>
+      </c>
+      <c r="B550" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C550" s="21">
+        <v>11.39000034</v>
+      </c>
+      <c r="D550" s="17">
+        <f>SUM($C$3:C550)/A550</f>
+        <v>12.068829932245325</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="17">
+        <f t="shared" si="4"/>
+        <v>549</v>
+      </c>
+      <c r="B551" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C551" s="21">
+        <v>11.579999920000001</v>
+      </c>
+      <c r="D551" s="17">
+        <f>SUM($C$3:C551)/A551</f>
+        <v>12.067939531494423</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="17">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="B552" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="C552" s="21">
+        <v>11.59000015</v>
+      </c>
+      <c r="D552" s="17">
+        <f>SUM($C$3:C552)/A552</f>
+        <v>12.067070550800798</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="17">
+        <f t="shared" si="4"/>
+        <v>551</v>
+      </c>
+      <c r="B553" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C553" s="21">
+        <v>11.43999958</v>
+      </c>
+      <c r="D553" s="17">
+        <f>SUM($C$3:C553)/A553</f>
+        <v>12.065932490962684</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="17">
+        <f t="shared" si="4"/>
+        <v>552</v>
+      </c>
+      <c r="B554" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C554" s="21">
+        <v>11.369999890000001</v>
+      </c>
+      <c r="D554" s="17">
+        <f>SUM($C$3:C554)/A554</f>
+        <v>12.064671743497172</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="17">
+        <f t="shared" si="4"/>
+        <v>553</v>
+      </c>
+      <c r="B555" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C555" s="21">
+        <v>11.380000109999999</v>
+      </c>
+      <c r="D555" s="17">
+        <f>SUM($C$3:C555)/A555</f>
+        <v>12.063433639277466</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="17">
+        <f t="shared" si="4"/>
+        <v>554</v>
+      </c>
+      <c r="B556" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C556" s="21">
+        <v>11.31000042</v>
+      </c>
+      <c r="D556" s="17">
+        <f>SUM($C$3:C556)/A556</f>
+        <v>12.062073651517037</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="17">
+        <f t="shared" si="4"/>
+        <v>555</v>
+      </c>
+      <c r="B557" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C557" s="21">
+        <v>11.31000042</v>
+      </c>
+      <c r="D557" s="17">
+        <f>SUM($C$3:C557)/A557</f>
+        <v>12.060718564613403</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="17">
+        <f t="shared" si="4"/>
+        <v>556</v>
+      </c>
+      <c r="B558" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C558" s="21">
+        <v>11.27000046</v>
+      </c>
+      <c r="D558" s="17">
+        <f>SUM($C$3:C558)/A558</f>
+        <v>12.05929640974899</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="17">
+        <f t="shared" si="4"/>
+        <v>557</v>
+      </c>
+      <c r="B559" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C559" s="21">
+        <v>11.56999969</v>
+      </c>
+      <c r="D559" s="17">
+        <f>SUM($C$3:C559)/A559</f>
+        <v>12.058417959623768</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="17">
+        <f t="shared" si="4"/>
+        <v>558</v>
+      </c>
+      <c r="B560" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C560" s="21">
+        <v>11.55000019</v>
+      </c>
+      <c r="D560" s="17">
+        <f>SUM($C$3:C560)/A560</f>
+        <v>12.057506816667454</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="17">
+        <f t="shared" si="4"/>
+        <v>559</v>
+      </c>
+      <c r="B561" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C561" s="21">
+        <v>11.56000042</v>
+      </c>
+      <c r="D561" s="17">
+        <f>SUM($C$3:C561)/A561</f>
+        <v>12.056616823113485</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="17">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="B562" s="20">
+        <v>45135</v>
+      </c>
+      <c r="C562" s="21">
+        <v>11.77999973</v>
+      </c>
+      <c r="D562" s="17">
+        <f>SUM($C$3:C562)/A562</f>
+        <v>12.05612286401864</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="17">
+        <f t="shared" si="4"/>
+        <v>561</v>
+      </c>
+      <c r="B563" s="20">
+        <v>45138</v>
+      </c>
+      <c r="C563" s="21">
+        <v>11.81999969</v>
+      </c>
+      <c r="D563" s="17">
+        <f>SUM($C$3:C563)/A563</f>
+        <v>12.055701967095256</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -4140,7 +4140,7 @@
                   <c:v>434172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>436172.36476145789</c:v>
+                  <c:v>454655.21338487364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5121,7 +5121,7 @@
                   <c:v>126172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>126172.36476145789</c:v>
+                  <c:v>144655.21338487364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5143,11 +5143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398378112"/>
-        <c:axId val="398380032"/>
+        <c:axId val="550474112"/>
+        <c:axId val="550475648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="398378112"/>
+        <c:axId val="550474112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,14 +5190,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398380032"/>
+        <c:crossAx val="550475648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="398380032"/>
+        <c:axId val="550475648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +5248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398378112"/>
+        <c:crossAx val="550474112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12218,28 +12218,28 @@
         <v>45138</v>
       </c>
       <c r="B157" s="14">
-        <v>2.4220161132812499</v>
+        <v>2.5251220703124999</v>
       </c>
       <c r="C157" s="15">
         <v>2000</v>
       </c>
       <c r="D157" s="16">
-        <v>825.75833787103943</v>
+        <v>792.04091695752641</v>
       </c>
       <c r="E157" s="16">
-        <v>180086.48347535109</v>
+        <v>180052.76605443758</v>
       </c>
       <c r="F157" s="16">
-        <v>436172.36476145789</v>
+        <v>454655.21338487364</v>
       </c>
       <c r="G157" s="16">
         <v>310000</v>
       </c>
       <c r="H157" s="16">
-        <v>436172.36476145789</v>
+        <v>454655.21338487364</v>
       </c>
       <c r="I157" s="16">
-        <v>126172.36476145789</v>
+        <v>144655.21338487364</v>
       </c>
       <c r="J157" s="31">
         <f>VLOOKUP(A157,myPEPB!B:C,2)</f>
@@ -12261,7 +12261,7 @@
   </sheetPr>
   <dimension ref="A1:D563"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="418">
   <si>
     <t>PE</t>
   </si>
@@ -1551,6 +1551,90 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2023/8/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/8/29
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1584,10 +1668,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5143,11 +5223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550474112"/>
-        <c:axId val="550475648"/>
+        <c:axId val="330825728"/>
+        <c:axId val="330828032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550474112"/>
+        <c:axId val="330825728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,14 +5270,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550475648"/>
+        <c:crossAx val="330828032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550475648"/>
+        <c:axId val="330828032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +5328,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550474112"/>
+        <c:crossAx val="330825728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5657,7 +5737,7 @@
   <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5684,31 +5764,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -5722,7 +5802,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5764,25 +5844,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -12259,7 +12339,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D563"/>
+  <dimension ref="A1:D586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -19475,7 +19555,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A563" si="4">A451+1</f>
+        <f t="shared" ref="A452:A586" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -21263,6 +21343,374 @@
       <c r="D563" s="17">
         <f>SUM($C$3:C563)/A563</f>
         <v>12.055701967095256</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="17">
+        <f t="shared" si="4"/>
+        <v>562</v>
+      </c>
+      <c r="B564" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C564" s="21">
+        <v>17.899999619999999</v>
+      </c>
+      <c r="D564" s="17">
+        <f>SUM($C$3:C564)/A564</f>
+        <v>12.066101073239215</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="17">
+        <f t="shared" si="4"/>
+        <v>563</v>
+      </c>
+      <c r="B565" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C565" s="21">
+        <v>17.829999919999999</v>
+      </c>
+      <c r="D565" s="17">
+        <f>SUM($C$3:C565)/A565</f>
+        <v>12.076338904228132</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="17">
+        <f t="shared" si="4"/>
+        <v>564</v>
+      </c>
+      <c r="B566" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C566" s="21">
+        <v>17.979999540000001</v>
+      </c>
+      <c r="D566" s="17">
+        <f>SUM($C$3:C566)/A566</f>
+        <v>12.086806387624891</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="17">
+        <f t="shared" si="4"/>
+        <v>565</v>
+      </c>
+      <c r="B567" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C567" s="21">
+        <v>18</v>
+      </c>
+      <c r="D567" s="17">
+        <f>SUM($C$3:C567)/A567</f>
+        <v>12.097272217027324</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="17">
+        <f t="shared" si="4"/>
+        <v>566</v>
+      </c>
+      <c r="B568" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C568" s="21">
+        <v>17.840000150000002</v>
+      </c>
+      <c r="D568" s="17">
+        <f>SUM($C$3:C568)/A568</f>
+        <v>12.107418379453073</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="17">
+        <f t="shared" si="4"/>
+        <v>567</v>
+      </c>
+      <c r="B569" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C569" s="21">
+        <v>17.770000459999999</v>
+      </c>
+      <c r="D569" s="17">
+        <f>SUM($C$3:C569)/A569</f>
+        <v>12.117405296702714</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="17">
+        <f t="shared" si="4"/>
+        <v>568</v>
+      </c>
+      <c r="B570" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C570" s="21">
+        <v>17.68000031</v>
+      </c>
+      <c r="D570" s="17">
+        <f>SUM($C$3:C570)/A570</f>
+        <v>12.127198597782462</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="17">
+        <f t="shared" si="4"/>
+        <v>569</v>
+      </c>
+      <c r="B571" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C571" s="21">
+        <v>17.799999239999998</v>
+      </c>
+      <c r="D571" s="17">
+        <f>SUM($C$3:C571)/A571</f>
+        <v>12.137168370440138</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="17">
+        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="B572" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C572" s="21">
+        <v>17.440000529999999</v>
+      </c>
+      <c r="D572" s="17">
+        <f>SUM($C$3:C572)/A572</f>
+        <v>12.146471584755156</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="17">
+        <f t="shared" si="4"/>
+        <v>571</v>
+      </c>
+      <c r="B573" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C573" s="21">
+        <v>17.340000150000002</v>
+      </c>
+      <c r="D573" s="17">
+        <f>SUM($C$3:C573)/A573</f>
+        <v>12.155567081366794</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="17">
+        <f t="shared" si="4"/>
+        <v>572</v>
+      </c>
+      <c r="B574" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C574" s="21">
+        <v>17.190000529999999</v>
+      </c>
+      <c r="D574" s="17">
+        <f>SUM($C$3:C574)/A574</f>
+        <v>12.164368538444824</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="17">
+        <f t="shared" si="4"/>
+        <v>573</v>
+      </c>
+      <c r="B575" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C575" s="21">
+        <v>16.969999309999999</v>
+      </c>
+      <c r="D575" s="17">
+        <f>SUM($C$3:C575)/A575</f>
+        <v>12.17275532862206</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="17">
+        <f t="shared" si="4"/>
+        <v>574</v>
+      </c>
+      <c r="B576" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C576" s="21">
+        <v>17.11000061</v>
+      </c>
+      <c r="D576" s="17">
+        <f>SUM($C$3:C576)/A576</f>
+        <v>12.181356801237699</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="17">
+        <f t="shared" si="4"/>
+        <v>575</v>
+      </c>
+      <c r="B577" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C577" s="21">
+        <v>16.850000380000001</v>
+      </c>
+      <c r="D577" s="17">
+        <f>SUM($C$3:C577)/A577</f>
+        <v>12.189476181374678</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="17">
+        <f t="shared" si="4"/>
+        <v>576</v>
+      </c>
+      <c r="B578" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="C578" s="21">
+        <v>16.659999849999998</v>
+      </c>
+      <c r="D578" s="17">
+        <f>SUM($C$3:C578)/A578</f>
+        <v>12.197237507188262</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="17">
+        <f t="shared" si="4"/>
+        <v>577</v>
+      </c>
+      <c r="B579" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="C579" s="21">
+        <v>16.63999939</v>
+      </c>
+      <c r="D579" s="17">
+        <f>SUM($C$3:C579)/A579</f>
+        <v>12.204937267817053</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="17">
+        <f t="shared" si="4"/>
+        <v>578</v>
+      </c>
+      <c r="B580" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C580" s="21">
+        <v>16.299999239999998</v>
+      </c>
+      <c r="D580" s="17">
+        <f>SUM($C$3:C580)/A580</f>
+        <v>12.212022150121868</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="17">
+        <f t="shared" si="4"/>
+        <v>579</v>
+      </c>
+      <c r="B581" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C581" s="21">
+        <v>16.479999540000001</v>
+      </c>
+      <c r="D581" s="17">
+        <f>SUM($C$3:C581)/A581</f>
+        <v>12.219393440950673</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="17">
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="B582" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C582" s="21">
+        <v>16.229999540000001</v>
+      </c>
+      <c r="D582" s="17">
+        <f>SUM($C$3:C582)/A582</f>
+        <v>12.226308279052482</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="17">
+        <f t="shared" si="4"/>
+        <v>581</v>
+      </c>
+      <c r="B583" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C583" s="21">
+        <v>16.309999470000001</v>
+      </c>
+      <c r="D583" s="17">
+        <f>SUM($C$3:C583)/A583</f>
+        <v>12.233337007436212</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="17">
+        <f t="shared" si="4"/>
+        <v>582</v>
+      </c>
+      <c r="B584" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C584" s="21">
+        <v>16.719999309999999</v>
+      </c>
+      <c r="D584" s="17">
+        <f>SUM($C$3:C584)/A584</f>
+        <v>12.241046049193194</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="17">
+        <f t="shared" si="4"/>
+        <v>583</v>
+      </c>
+      <c r="B585" s="20">
+        <v>45168</v>
+      </c>
+      <c r="C585" s="21">
+        <v>16.850000380000001</v>
+      </c>
+      <c r="D585" s="17">
+        <f>SUM($C$3:C585)/A585</f>
+        <v>12.248951631235744</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="17">
+        <f t="shared" si="4"/>
+        <v>584</v>
+      </c>
+      <c r="B586" s="20">
+        <v>45169</v>
+      </c>
+      <c r="C586" s="21">
+        <v>16.770000459999999</v>
+      </c>
+      <c r="D586" s="17">
+        <f>SUM($C$3:C586)/A586</f>
+        <v>12.256693153202807</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -2301,7 +2301,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="156"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -2766,6 +2766,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,7 +2778,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="156"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3240,6 +3243,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>312000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,7 +3288,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="156"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3747,6 +3753,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,7 +3765,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="156"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4221,6 +4230,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>454655.21338487364</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>431342.67813520104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4263,7 +4275,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="156"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4728,6 +4740,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4737,7 +4752,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="155"/>
+                <c:ptCount val="156"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5202,6 +5217,9 @@
                 </c:pt>
                 <c:pt idx="154">
                   <c:v>144655.21338487364</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>119342.67813520104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5223,11 +5241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330825728"/>
-        <c:axId val="330828032"/>
+        <c:axId val="352297344"/>
+        <c:axId val="352299264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="330825728"/>
+        <c:axId val="352297344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5270,14 +5288,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330828032"/>
+        <c:crossAx val="352299264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="330828032"/>
+        <c:axId val="352299264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5328,7 +5346,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330825728"/>
+        <c:crossAx val="352297344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5734,10 +5752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12324,6 +12342,39 @@
       <c r="J157" s="31">
         <f>VLOOKUP(A157,myPEPB!B:C,2)</f>
         <v>11.81999969</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="12.75">
+      <c r="A158" s="13">
+        <v>45169</v>
+      </c>
+      <c r="B158" s="14">
+        <v>2.3845380859374998</v>
+      </c>
+      <c r="C158" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D158" s="16">
+        <v>838.73686555678739</v>
+      </c>
+      <c r="E158" s="16">
+        <v>180891.50291999438</v>
+      </c>
+      <c r="F158" s="16">
+        <v>431342.67813520104</v>
+      </c>
+      <c r="G158" s="16">
+        <v>312000</v>
+      </c>
+      <c r="H158" s="16">
+        <v>431342.67813520104</v>
+      </c>
+      <c r="I158" s="16">
+        <v>119342.67813520104</v>
+      </c>
+      <c r="J158" s="31">
+        <f>VLOOKUP(A158,myPEPB!B:C,2)</f>
+        <v>16.770000459999999</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="436">
   <si>
     <t>PE</t>
   </si>
@@ -1632,6 +1632,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/8/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/9/26
 </t>
   </si>
   <si>
@@ -5241,11 +5313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="352297344"/>
-        <c:axId val="352299264"/>
+        <c:axId val="493297024"/>
+        <c:axId val="519482368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="352297344"/>
+        <c:axId val="493297024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5288,14 +5360,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352299264"/>
+        <c:crossAx val="519482368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="352299264"/>
+        <c:axId val="519482368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5346,7 +5418,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352297344"/>
+        <c:crossAx val="493297024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5782,31 +5854,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -5820,7 +5892,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5862,25 +5934,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -12390,7 +12462,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D586"/>
+  <dimension ref="A1:D606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -19606,7 +19678,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A586" si="4">A451+1</f>
+        <f t="shared" ref="A452:A606" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -21762,6 +21834,326 @@
       <c r="D586" s="17">
         <f>SUM($C$3:C586)/A586</f>
         <v>12.256693153202807</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="17">
+        <f t="shared" si="4"/>
+        <v>585</v>
+      </c>
+      <c r="B587" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="C587" s="21">
+        <v>18.059999470000001</v>
+      </c>
+      <c r="D587" s="17">
+        <f>SUM($C$3:C587)/A587</f>
+        <v>12.266613334940921</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="17">
+        <f t="shared" si="4"/>
+        <v>586</v>
+      </c>
+      <c r="B588" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="C588" s="21">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D588" s="17">
+        <f>SUM($C$3:C588)/A588</f>
+        <v>12.276960411024639</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="17">
+        <f t="shared" si="4"/>
+        <v>587</v>
+      </c>
+      <c r="B589" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C589" s="21">
+        <v>18.209999079999999</v>
+      </c>
+      <c r="D589" s="17">
+        <f>SUM($C$3:C589)/A589</f>
+        <v>12.287067802283541</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="17">
+        <f t="shared" si="4"/>
+        <v>588</v>
+      </c>
+      <c r="B590" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C590" s="21">
+        <v>18.149999619999999</v>
+      </c>
+      <c r="D590" s="17">
+        <f>SUM($C$3:C590)/A590</f>
+        <v>12.297038774762651</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="17">
+        <f t="shared" si="4"/>
+        <v>589</v>
+      </c>
+      <c r="B591" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C591" s="21">
+        <v>17.840000150000002</v>
+      </c>
+      <c r="D591" s="17">
+        <f>SUM($C$3:C591)/A591</f>
+        <v>12.306449575060167</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="17">
+        <f t="shared" si="4"/>
+        <v>590</v>
+      </c>
+      <c r="B592" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C592" s="21">
+        <v>17.739999770000001</v>
+      </c>
+      <c r="D592" s="17">
+        <f>SUM($C$3:C592)/A592</f>
+        <v>12.315658982170236</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="17">
+        <f t="shared" si="4"/>
+        <v>591</v>
+      </c>
+      <c r="B593" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C593" s="21">
+        <v>17.88999939</v>
+      </c>
+      <c r="D593" s="17">
+        <f>SUM($C$3:C593)/A593</f>
+        <v>12.325091030237632</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="17">
+        <f t="shared" si="4"/>
+        <v>592</v>
+      </c>
+      <c r="B594" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C594" s="21">
+        <v>17.81999969</v>
+      </c>
+      <c r="D594" s="17">
+        <f>SUM($C$3:C594)/A594</f>
+        <v>12.334372970541285</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="17">
+        <f t="shared" si="4"/>
+        <v>593</v>
+      </c>
+      <c r="B595" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C595" s="21">
+        <v>17.670000080000001</v>
+      </c>
+      <c r="D595" s="17">
+        <f>SUM($C$3:C595)/A595</f>
+        <v>12.34337065538017</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="17">
+        <f t="shared" si="4"/>
+        <v>594</v>
+      </c>
+      <c r="B596" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C596" s="21">
+        <v>17.579999919999999</v>
+      </c>
+      <c r="D596" s="17">
+        <f>SUM($C$3:C596)/A596</f>
+        <v>12.352186529563031</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="17">
+        <f t="shared" si="4"/>
+        <v>595</v>
+      </c>
+      <c r="B597" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C597" s="21">
+        <v>17.540000920000001</v>
+      </c>
+      <c r="D597" s="17">
+        <f>SUM($C$3:C597)/A597</f>
+        <v>12.360905545345277</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="17">
+        <f t="shared" si="4"/>
+        <v>596</v>
+      </c>
+      <c r="B598" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C598" s="21">
+        <v>17.629999160000001</v>
+      </c>
+      <c r="D598" s="17">
+        <f>SUM($C$3:C598)/A598</f>
+        <v>12.369746306443691</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="17">
+        <f t="shared" si="4"/>
+        <v>597</v>
+      </c>
+      <c r="B599" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C599" s="21">
+        <v>17.520000459999999</v>
+      </c>
+      <c r="D599" s="17">
+        <f>SUM($C$3:C599)/A599</f>
+        <v>12.378373197823183</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="17">
+        <f t="shared" si="4"/>
+        <v>598</v>
+      </c>
+      <c r="B600" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C600" s="21">
+        <v>17.379999160000001</v>
+      </c>
+      <c r="D600" s="17">
+        <f>SUM($C$3:C600)/A600</f>
+        <v>12.386737120836857</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="17">
+        <f t="shared" si="4"/>
+        <v>599</v>
+      </c>
+      <c r="B601" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C601" s="21">
+        <v>17.270000459999999</v>
+      </c>
+      <c r="D601" s="17">
+        <f>SUM($C$3:C601)/A601</f>
+        <v>12.394889480334625</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="17">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="B602" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C602" s="21">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D602" s="17">
+        <f>SUM($C$3:C602)/A602</f>
+        <v>12.4033646637674</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="17">
+        <f t="shared" si="4"/>
+        <v>601</v>
+      </c>
+      <c r="B603" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C603" s="21">
+        <v>17.409999849999998</v>
+      </c>
+      <c r="D603" s="17">
+        <f>SUM($C$3:C603)/A603</f>
+        <v>12.411695171564793</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="17">
+        <f t="shared" si="4"/>
+        <v>602</v>
+      </c>
+      <c r="B604" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C604" s="21">
+        <v>17.340000150000002</v>
+      </c>
+      <c r="D604" s="17">
+        <f>SUM($C$3:C604)/A604</f>
+        <v>12.419881724685117</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="17">
+        <f t="shared" si="4"/>
+        <v>603</v>
+      </c>
+      <c r="B605" s="20">
+        <v>45196</v>
+      </c>
+      <c r="C605" s="21">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D605" s="17">
+        <f>SUM($C$3:C605)/A605</f>
+        <v>12.428273296518142</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="17">
+        <f t="shared" si="4"/>
+        <v>604</v>
+      </c>
+      <c r="B606" s="20">
+        <v>45197</v>
+      </c>
+      <c r="C606" s="21">
+        <v>17.5</v>
+      </c>
+      <c r="D606" s="17">
+        <f>SUM($C$3:C606)/A606</f>
+        <v>12.436670195033841</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -2373,7 +2373,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -2841,6 +2841,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2850,7 +2853,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3318,6 +3321,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>312000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>314000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3360,7 +3366,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3828,6 +3834,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3837,7 +3846,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4305,6 +4314,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>431342.67813520104</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>426677.33854298841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4347,7 +4359,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4815,6 +4827,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,7 +4839,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="156"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5292,6 +5307,9 @@
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>119342.67813520104</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>112677.33854298841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5313,11 +5331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493297024"/>
-        <c:axId val="519482368"/>
+        <c:axId val="337164160"/>
+        <c:axId val="337166720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493297024"/>
+        <c:axId val="337164160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5360,14 +5378,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519482368"/>
+        <c:crossAx val="337166720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519482368"/>
+        <c:axId val="337166720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5418,7 +5436,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493297024"/>
+        <c:crossAx val="337164160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5824,7 +5842,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB158"/>
+  <dimension ref="A1:AB159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12449,6 +12467,39 @@
         <v>16.770000459999999</v>
       </c>
     </row>
+    <row r="159" spans="1:10" ht="12.75">
+      <c r="A159" s="13">
+        <v>45197</v>
+      </c>
+      <c r="B159" s="14">
+        <v>2.34769091796875</v>
+      </c>
+      <c r="C159" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D159" s="16">
+        <v>851.90089747010813</v>
+      </c>
+      <c r="E159" s="16">
+        <v>181743.40381746448</v>
+      </c>
+      <c r="F159" s="16">
+        <v>426677.33854298841</v>
+      </c>
+      <c r="G159" s="16">
+        <v>314000</v>
+      </c>
+      <c r="H159" s="16">
+        <v>426677.33854298841</v>
+      </c>
+      <c r="I159" s="16">
+        <v>112677.33854298841</v>
+      </c>
+      <c r="J159" s="31">
+        <f>VLOOKUP(A159,myPEPB!B:C,2)</f>
+        <v>17.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="452">
   <si>
     <t>PE</t>
   </si>
@@ -1707,6 +1707,66 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2023/10/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/10/27
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1740,6 +1800,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5331,11 +5395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="337164160"/>
-        <c:axId val="337166720"/>
+        <c:axId val="498848512"/>
+        <c:axId val="498850048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="337164160"/>
+        <c:axId val="498848512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,14 +5442,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337166720"/>
+        <c:crossAx val="498850048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="337166720"/>
+        <c:axId val="498850048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5436,7 +5500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337164160"/>
+        <c:crossAx val="498848512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5872,31 +5936,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -5910,7 +5974,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5952,25 +6016,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -12513,7 +12577,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D606"/>
+  <dimension ref="A1:D623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -19729,7 +19793,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A606" si="4">A451+1</f>
+        <f t="shared" ref="A452:A623" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -22205,6 +22269,278 @@
       <c r="D606" s="17">
         <f>SUM($C$3:C606)/A606</f>
         <v>12.436670195033841</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="17">
+        <f t="shared" si="4"/>
+        <v>605</v>
+      </c>
+      <c r="B607" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C607" s="21">
+        <v>26.729999540000001</v>
+      </c>
+      <c r="D607" s="17">
+        <f>SUM($C$3:C607)/A607</f>
+        <v>12.460295532794115</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="17">
+        <f t="shared" si="4"/>
+        <v>606</v>
+      </c>
+      <c r="B608" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C608" s="21">
+        <v>17.329999919999999</v>
+      </c>
+      <c r="D608" s="17">
+        <f>SUM($C$3:C608)/A608</f>
+        <v>12.468331348614587</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="17">
+        <f t="shared" si="4"/>
+        <v>607</v>
+      </c>
+      <c r="B609" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C609" s="21">
+        <v>17.399999619999999</v>
+      </c>
+      <c r="D609" s="17">
+        <f>SUM($C$3:C609)/A609</f>
+        <v>12.476456008040264</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="17">
+        <f t="shared" si="4"/>
+        <v>608</v>
+      </c>
+      <c r="B610" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C610" s="21">
+        <v>17.56999969</v>
+      </c>
+      <c r="D610" s="17">
+        <f>SUM($C$3:C610)/A610</f>
+        <v>12.484833546990856</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="17">
+        <f t="shared" si="4"/>
+        <v>609</v>
+      </c>
+      <c r="B611" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C611" s="21">
+        <v>17.38999939</v>
+      </c>
+      <c r="D611" s="17">
+        <f>SUM($C$3:C611)/A611</f>
+        <v>12.492888006503186</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="17">
+        <f t="shared" si="4"/>
+        <v>610</v>
+      </c>
+      <c r="B612" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C612" s="21">
+        <v>17.170000080000001</v>
+      </c>
+      <c r="D612" s="17">
+        <f>SUM($C$3:C612)/A612</f>
+        <v>12.500555403344984</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="17">
+        <f t="shared" si="4"/>
+        <v>611</v>
+      </c>
+      <c r="B613" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C613" s="21">
+        <v>17.239999770000001</v>
+      </c>
+      <c r="D613" s="17">
+        <f>SUM($C$3:C613)/A613</f>
+        <v>12.508312268102195</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="17">
+        <f t="shared" si="4"/>
+        <v>612</v>
+      </c>
+      <c r="B614" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C614" s="21">
+        <v>16.93000031</v>
+      </c>
+      <c r="D614" s="17">
+        <f>SUM($C$3:C614)/A614</f>
+        <v>12.515537248562811</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="17">
+        <f t="shared" si="4"/>
+        <v>613</v>
+      </c>
+      <c r="B615" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C615" s="21">
+        <v>16.729999540000001</v>
+      </c>
+      <c r="D615" s="17">
+        <f>SUM($C$3:C615)/A615</f>
+        <v>12.522412390963199</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="17">
+        <f t="shared" si="4"/>
+        <v>614</v>
+      </c>
+      <c r="B616" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C616" s="21">
+        <v>16.649999619999999</v>
+      </c>
+      <c r="D616" s="17">
+        <f>SUM($C$3:C616)/A616</f>
+        <v>12.529134845733617</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="17">
+        <f t="shared" si="4"/>
+        <v>615</v>
+      </c>
+      <c r="B617" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C617" s="21">
+        <v>16.299999239999998</v>
+      </c>
+      <c r="D617" s="17">
+        <f>SUM($C$3:C617)/A617</f>
+        <v>12.535266332553562</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="17">
+        <f t="shared" si="4"/>
+        <v>616</v>
+      </c>
+      <c r="B618" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C618" s="21">
+        <v>16.489999770000001</v>
+      </c>
+      <c r="D618" s="17">
+        <f>SUM($C$3:C618)/A618</f>
+        <v>12.541686354367599</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="17">
+        <f t="shared" si="4"/>
+        <v>617</v>
+      </c>
+      <c r="B619" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C619" s="21">
+        <v>16.440000529999999</v>
+      </c>
+      <c r="D619" s="17">
+        <f>SUM($C$3:C619)/A619</f>
+        <v>12.548004529692774</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="17">
+        <f t="shared" si="4"/>
+        <v>618</v>
+      </c>
+      <c r="B620" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C620" s="21">
+        <v>16.370000839999999</v>
+      </c>
+      <c r="D620" s="17">
+        <f>SUM($C$3:C620)/A620</f>
+        <v>12.554188989741816</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" s="17">
+        <f t="shared" si="4"/>
+        <v>619</v>
+      </c>
+      <c r="B621" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C621" s="21">
+        <v>16.770000459999999</v>
+      </c>
+      <c r="D621" s="17">
+        <f>SUM($C$3:C621)/A621</f>
+        <v>12.560999670630762</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" s="17">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="B622" s="20">
+        <v>45229</v>
+      </c>
+      <c r="C622" s="21">
+        <v>16.979999540000001</v>
+      </c>
+      <c r="D622" s="17">
+        <f>SUM($C$3:C622)/A622</f>
+        <v>12.568127089774906</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="17">
+        <f t="shared" si="4"/>
+        <v>621</v>
+      </c>
+      <c r="B623" s="20">
+        <v>45230</v>
+      </c>
+      <c r="C623" s="21">
+        <v>16.909999849999998</v>
+      </c>
+      <c r="D623" s="17">
+        <f>SUM($C$3:C623)/A623</f>
+        <v>12.575118833350148</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="472">
   <si>
     <t>PE</t>
   </si>
@@ -1844,6 +1844,10 @@
   </si>
   <si>
     <t xml:space="preserve">2023/11/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/11/29
 </t>
   </si>
   <si>
@@ -5489,11 +5493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479646080"/>
-        <c:axId val="479648384"/>
+        <c:axId val="463284480"/>
+        <c:axId val="464048896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479646080"/>
+        <c:axId val="463284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5536,14 +5540,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479648384"/>
+        <c:crossAx val="464048896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479648384"/>
+        <c:axId val="464048896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5594,7 +5598,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479646080"/>
+        <c:crossAx val="463284480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6030,31 +6034,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -6068,7 +6072,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6110,25 +6114,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -12622,7 +12626,7 @@
       </c>
       <c r="J158" s="31">
         <f>VLOOKUP(A158,myPEPB!B:C,2)</f>
-        <v>16.770000459999999</v>
+        <v>11.220000267028809</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="12.75">
@@ -12655,7 +12659,7 @@
       </c>
       <c r="J159" s="31">
         <f>VLOOKUP(A159,myPEPB!B:C,2)</f>
-        <v>17.5</v>
+        <v>11.359999656677246</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="12.75">
@@ -12688,7 +12692,7 @@
       </c>
       <c r="J160" s="31">
         <f>VLOOKUP(A160,myPEPB!B:C,2)</f>
-        <v>16.909999849999998</v>
+        <v>10.970000267028809</v>
       </c>
     </row>
   </sheetData>
@@ -12704,7 +12708,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D644"/>
+  <dimension ref="A1:D645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -19920,7 +19924,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A644" si="4">A451+1</f>
+        <f t="shared" ref="A452:A645" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -21719,11 +21723,11 @@
         <v>382</v>
       </c>
       <c r="C564" s="21">
-        <v>17.899999619999999</v>
+        <v>11.800000190734863</v>
       </c>
       <c r="D564" s="17">
         <f>SUM($C$3:C564)/A564</f>
-        <v>12.066101073239215</v>
+        <v>12.055246981728066</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -21735,11 +21739,11 @@
         <v>383</v>
       </c>
       <c r="C565" s="21">
-        <v>17.829999919999999</v>
+        <v>11.659999847412109</v>
       </c>
       <c r="D565" s="17">
         <f>SUM($C$3:C565)/A565</f>
-        <v>12.076338904228132</v>
+        <v>12.054544944189317</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -21751,11 +21755,11 @@
         <v>384</v>
       </c>
       <c r="C566" s="21">
-        <v>17.979999540000001</v>
+        <v>11.75</v>
       </c>
       <c r="D566" s="17">
         <f>SUM($C$3:C566)/A566</f>
-        <v>12.086806387624891</v>
+        <v>12.054004970884018</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -21767,11 +21771,11 @@
         <v>385</v>
       </c>
       <c r="C567" s="21">
-        <v>18</v>
+        <v>11.789999961853027</v>
       </c>
       <c r="D567" s="17">
         <f>SUM($C$3:C567)/A567</f>
-        <v>12.097272217027324</v>
+        <v>12.053537705381308</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -21783,11 +21787,11 @@
         <v>386</v>
       </c>
       <c r="C568" s="21">
-        <v>17.840000150000002</v>
+        <v>11.720000267028809</v>
       </c>
       <c r="D568" s="17">
         <f>SUM($C$3:C568)/A568</f>
-        <v>12.107418379453073</v>
+        <v>12.052948416620968</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -21799,11 +21803,11 @@
         <v>387</v>
       </c>
       <c r="C569" s="21">
-        <v>17.770000459999999</v>
+        <v>11.699999809265137</v>
       </c>
       <c r="D569" s="17">
         <f>SUM($C$3:C569)/A569</f>
-        <v>12.117405296702714</v>
+        <v>12.052325932304642</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -21815,11 +21819,11 @@
         <v>388</v>
       </c>
       <c r="C570" s="21">
-        <v>17.68000031</v>
+        <v>11.670000076293945</v>
       </c>
       <c r="D570" s="17">
         <f>SUM($C$3:C570)/A570</f>
-        <v>12.127198597782462</v>
+        <v>12.051652823403215</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -21831,11 +21835,11 @@
         <v>389</v>
       </c>
       <c r="C571" s="21">
-        <v>17.799999239999998</v>
+        <v>11.680000305175781</v>
       </c>
       <c r="D571" s="17">
         <f>SUM($C$3:C571)/A571</f>
-        <v>12.137168370440138</v>
+        <v>12.050999655532868</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -21847,11 +21851,11 @@
         <v>390</v>
       </c>
       <c r="C572" s="21">
-        <v>17.440000529999999</v>
+        <v>11.439999580383301</v>
       </c>
       <c r="D572" s="17">
         <f>SUM($C$3:C572)/A572</f>
-        <v>12.146471584755156</v>
+        <v>12.049927725576465</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -21863,11 +21867,11 @@
         <v>391</v>
       </c>
       <c r="C573" s="21">
-        <v>17.340000150000002</v>
+        <v>11.359999656677246</v>
       </c>
       <c r="D573" s="17">
         <f>SUM($C$3:C573)/A573</f>
-        <v>12.155567081366794</v>
+        <v>12.048719445245643</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -21879,11 +21883,11 @@
         <v>392</v>
       </c>
       <c r="C574" s="21">
-        <v>17.190000529999999</v>
+        <v>11.359999656677246</v>
       </c>
       <c r="D574" s="17">
         <f>SUM($C$3:C574)/A574</f>
-        <v>12.164368538444824</v>
+        <v>12.047515389671224</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -21895,11 +21899,11 @@
         <v>393</v>
       </c>
       <c r="C575" s="21">
-        <v>16.969999309999999</v>
+        <v>11.289999961853027</v>
       </c>
       <c r="D575" s="17">
         <f>SUM($C$3:C575)/A575</f>
-        <v>12.17275532862206</v>
+        <v>12.04619337321779</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -21911,11 +21915,11 @@
         <v>394</v>
       </c>
       <c r="C576" s="21">
-        <v>17.11000061</v>
+        <v>11.329999923706055</v>
       </c>
       <c r="D576" s="17">
         <f>SUM($C$3:C576)/A576</f>
-        <v>12.181356801237699</v>
+        <v>12.044945649438151</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -21927,11 +21931,11 @@
         <v>395</v>
       </c>
       <c r="C577" s="21">
-        <v>16.850000380000001</v>
+        <v>11.210000038146973</v>
       </c>
       <c r="D577" s="17">
         <f>SUM($C$3:C577)/A577</f>
-        <v>12.189476181374678</v>
+        <v>12.043493570114167</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -21943,11 +21947,11 @@
         <v>396</v>
       </c>
       <c r="C578" s="21">
-        <v>16.659999849999998</v>
+        <v>11.079999923706055</v>
       </c>
       <c r="D578" s="17">
         <f>SUM($C$3:C578)/A578</f>
-        <v>12.197237507188262</v>
+        <v>12.041820838089153</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -21959,11 +21963,11 @@
         <v>397</v>
       </c>
       <c r="C579" s="21">
-        <v>16.63999939</v>
+        <v>11.170000076293945</v>
       </c>
       <c r="D579" s="17">
         <f>SUM($C$3:C579)/A579</f>
-        <v>12.204937267817053</v>
+        <v>12.040309883562644</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -21975,11 +21979,11 @@
         <v>398</v>
       </c>
       <c r="C580" s="21">
-        <v>16.299999239999998</v>
+        <v>11.039999961853027</v>
       </c>
       <c r="D580" s="17">
         <f>SUM($C$3:C580)/A580</f>
-        <v>12.212022150121868</v>
+        <v>12.038579243559687</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -21991,11 +21995,11 @@
         <v>399</v>
       </c>
       <c r="C581" s="21">
-        <v>16.479999540000001</v>
+        <v>11.090000152587891</v>
       </c>
       <c r="D581" s="17">
         <f>SUM($C$3:C581)/A581</f>
-        <v>12.219393440950673</v>
+        <v>12.036940937703086</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -22007,11 +22011,11 @@
         <v>400</v>
       </c>
       <c r="C582" s="21">
-        <v>16.229999540000001</v>
+        <v>11.069999694824219</v>
       </c>
       <c r="D582" s="17">
         <f>SUM($C$3:C582)/A582</f>
-        <v>12.226308279052482</v>
+        <v>12.035273797629157</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -22023,11 +22027,11 @@
         <v>401</v>
       </c>
       <c r="C583" s="21">
-        <v>16.309999470000001</v>
+        <v>11.199999809265137</v>
       </c>
       <c r="D583" s="17">
         <f>SUM($C$3:C583)/A583</f>
-        <v>12.233337007436212</v>
+        <v>12.033836148767945</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -22039,11 +22043,11 @@
         <v>402</v>
       </c>
       <c r="C584" s="21">
-        <v>16.719999309999999</v>
+        <v>11.270000457763672</v>
       </c>
       <c r="D584" s="17">
         <f>SUM($C$3:C584)/A584</f>
-        <v>12.241046049193194</v>
+        <v>12.032523716309175</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -22055,11 +22059,11 @@
         <v>45168</v>
       </c>
       <c r="C585" s="21">
-        <v>16.850000380000001</v>
+        <v>11.270000457763672</v>
       </c>
       <c r="D585" s="17">
         <f>SUM($C$3:C585)/A585</f>
-        <v>12.248951631235744</v>
+        <v>12.031215786191602</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -22071,11 +22075,11 @@
         <v>45169</v>
       </c>
       <c r="C586" s="21">
-        <v>16.770000459999999</v>
+        <v>11.220000267028809</v>
       </c>
       <c r="D586" s="17">
         <f>SUM($C$3:C586)/A586</f>
-        <v>12.256693153202807</v>
+        <v>12.029826718521802</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -22087,11 +22091,11 @@
         <v>403</v>
       </c>
       <c r="C587" s="21">
-        <v>18.059999470000001</v>
+        <v>11.539999961853027</v>
       </c>
       <c r="D587" s="17">
         <f>SUM($C$3:C587)/A587</f>
-        <v>12.266613334940921</v>
+        <v>12.028989407826641</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -22103,11 +22107,11 @@
         <v>404</v>
       </c>
       <c r="C588" s="21">
-        <v>18.329999919999999</v>
+        <v>11.710000038146973</v>
       </c>
       <c r="D588" s="17">
         <f>SUM($C$3:C588)/A588</f>
-        <v>12.276960411024639</v>
+        <v>12.028445057366438</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -22119,11 +22123,11 @@
         <v>405</v>
       </c>
       <c r="C589" s="21">
-        <v>18.209999079999999</v>
+        <v>11.640000343322754</v>
       </c>
       <c r="D589" s="17">
         <f>SUM($C$3:C589)/A589</f>
-        <v>12.287067802283541</v>
+        <v>12.027783311686635</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -22135,11 +22139,11 @@
         <v>406</v>
       </c>
       <c r="C590" s="21">
-        <v>18.149999619999999</v>
+        <v>11.619999885559082</v>
       </c>
       <c r="D590" s="17">
         <f>SUM($C$3:C590)/A590</f>
-        <v>12.297038774762651</v>
+        <v>12.027089802458528</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -22151,11 +22155,11 @@
         <v>407</v>
       </c>
       <c r="C591" s="21">
-        <v>17.840000150000002</v>
+        <v>11.489999771118164</v>
       </c>
       <c r="D591" s="17">
         <f>SUM($C$3:C591)/A591</f>
-        <v>12.306449575060167</v>
+        <v>12.026177934833163</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -22167,11 +22171,11 @@
         <v>408</v>
       </c>
       <c r="C592" s="21">
-        <v>17.739999770000001</v>
+        <v>11.430000305175781</v>
       </c>
       <c r="D592" s="17">
         <f>SUM($C$3:C592)/A592</f>
-        <v>12.315658982170236</v>
+        <v>12.025167464274421</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -22183,11 +22187,11 @@
         <v>409</v>
       </c>
       <c r="C593" s="21">
-        <v>17.88999939</v>
+        <v>11.5</v>
       </c>
       <c r="D593" s="17">
         <f>SUM($C$3:C593)/A593</f>
-        <v>12.325091030237632</v>
+        <v>12.024278856043837</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -22199,11 +22203,11 @@
         <v>410</v>
       </c>
       <c r="C594" s="21">
-        <v>17.81999969</v>
+        <v>11.470000267028809</v>
       </c>
       <c r="D594" s="17">
         <f>SUM($C$3:C594)/A594</f>
-        <v>12.334372970541285</v>
+        <v>12.023342574643475</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -22215,11 +22219,11 @@
         <v>411</v>
       </c>
       <c r="C595" s="21">
-        <v>17.670000080000001</v>
+        <v>11.439999580383301</v>
       </c>
       <c r="D595" s="17">
         <f>SUM($C$3:C595)/A595</f>
-        <v>12.34337065538017</v>
+        <v>12.022358859644722</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -22231,11 +22235,11 @@
         <v>412</v>
       </c>
       <c r="C596" s="21">
-        <v>17.579999919999999</v>
+        <v>11.460000038146973</v>
       </c>
       <c r="D596" s="17">
         <f>SUM($C$3:C596)/A596</f>
-        <v>12.352186529563031</v>
+        <v>12.021412127621998</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -22247,11 +22251,11 @@
         <v>413</v>
       </c>
       <c r="C597" s="21">
-        <v>17.540000920000001</v>
+        <v>11.380000114440918</v>
       </c>
       <c r="D597" s="17">
         <f>SUM($C$3:C597)/A597</f>
-        <v>12.360905545345277</v>
+        <v>12.0203341242385</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -22263,11 +22267,11 @@
         <v>414</v>
       </c>
       <c r="C598" s="21">
-        <v>17.629999160000001</v>
+        <v>11.439999580383301</v>
       </c>
       <c r="D598" s="17">
         <f>SUM($C$3:C598)/A598</f>
-        <v>12.369746306443691</v>
+        <v>12.019360408560892</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -22279,11 +22283,11 @@
         <v>415</v>
       </c>
       <c r="C599" s="21">
-        <v>17.520000459999999</v>
+        <v>11.449999809265137</v>
       </c>
       <c r="D599" s="17">
         <f>SUM($C$3:C599)/A599</f>
-        <v>12.378373197823183</v>
+        <v>12.018406705714501</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -22295,11 +22299,11 @@
         <v>416</v>
       </c>
       <c r="C600" s="21">
-        <v>17.379999160000001</v>
+        <v>11.409999847412109</v>
       </c>
       <c r="D600" s="17">
         <f>SUM($C$3:C600)/A600</f>
-        <v>12.386737120836857</v>
+        <v>12.017389302941419</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -22311,11 +22315,11 @@
         <v>417</v>
       </c>
       <c r="C601" s="21">
-        <v>17.270000459999999</v>
+        <v>11.300000190734863</v>
       </c>
       <c r="D601" s="17">
         <f>SUM($C$3:C601)/A601</f>
-        <v>12.394889480334625</v>
+        <v>12.016191658346751</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -22327,11 +22331,11 @@
         <v>418</v>
       </c>
       <c r="C602" s="21">
-        <v>17.479999540000001</v>
+        <v>11.489999771118164</v>
       </c>
       <c r="D602" s="17">
         <f>SUM($C$3:C602)/A602</f>
-        <v>12.4033646637674</v>
+        <v>12.015314671868037</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -22343,11 +22347,11 @@
         <v>419</v>
       </c>
       <c r="C603" s="21">
-        <v>17.409999849999998</v>
+        <v>11.439999580383301</v>
       </c>
       <c r="D603" s="17">
         <f>SUM($C$3:C603)/A603</f>
-        <v>12.411695171564793</v>
+        <v>12.01435740882064</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -22359,11 +22363,11 @@
         <v>420</v>
       </c>
       <c r="C604" s="21">
-        <v>17.340000150000002</v>
+        <v>11.380000114440918</v>
       </c>
       <c r="D604" s="17">
         <f>SUM($C$3:C604)/A604</f>
-        <v>12.419881724685117</v>
+        <v>12.013303659162203</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -22375,11 +22379,11 @@
         <v>45196</v>
       </c>
       <c r="C605" s="21">
-        <v>17.479999540000001</v>
+        <v>11.390000343322754</v>
       </c>
       <c r="D605" s="17">
         <f>SUM($C$3:C605)/A605</f>
-        <v>12.428273296518142</v>
+        <v>12.012269988655007</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -22391,11 +22395,11 @@
         <v>45197</v>
       </c>
       <c r="C606" s="21">
-        <v>17.5</v>
+        <v>11.359999656677246</v>
       </c>
       <c r="D606" s="17">
         <f>SUM($C$3:C606)/A606</f>
-        <v>12.436670195033841</v>
+        <v>12.011190070886832</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -22407,11 +22411,11 @@
         <v>421</v>
       </c>
       <c r="C607" s="21">
-        <v>26.729999540000001</v>
+        <v>19.739999771118164</v>
       </c>
       <c r="D607" s="17">
         <f>SUM($C$3:C607)/A607</f>
-        <v>12.460295532794115</v>
+        <v>12.023964962953329</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -22423,11 +22427,11 @@
         <v>422</v>
       </c>
       <c r="C608" s="21">
-        <v>17.329999919999999</v>
+        <v>11.229999542236328</v>
       </c>
       <c r="D608" s="17">
         <f>SUM($C$3:C608)/A608</f>
-        <v>12.468331348614587</v>
+        <v>12.022654788991749</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -22439,11 +22443,11 @@
         <v>423</v>
       </c>
       <c r="C609" s="21">
-        <v>17.399999619999999</v>
+        <v>11.260000228881836</v>
       </c>
       <c r="D609" s="17">
         <f>SUM($C$3:C609)/A609</f>
-        <v>12.476456008040264</v>
+        <v>12.021398356438027</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -22455,11 +22459,11 @@
         <v>424</v>
       </c>
       <c r="C610" s="21">
-        <v>17.56999969</v>
+        <v>11.350000381469727</v>
       </c>
       <c r="D610" s="17">
         <f>SUM($C$3:C610)/A610</f>
-        <v>12.484833546990856</v>
+        <v>12.020294083452882</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -22471,11 +22475,11 @@
         <v>425</v>
       </c>
       <c r="C611" s="21">
-        <v>17.38999939</v>
+        <v>11.270000457763672</v>
       </c>
       <c r="D611" s="17">
         <f>SUM($C$3:C611)/A611</f>
-        <v>12.492888006503186</v>
+        <v>12.019062074215297</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -22487,11 +22491,11 @@
         <v>426</v>
       </c>
       <c r="C612" s="21">
-        <v>17.170000080000001</v>
+        <v>11.189999580383301</v>
       </c>
       <c r="D612" s="17">
         <f>SUM($C$3:C612)/A612</f>
-        <v>12.500555403344984</v>
+        <v>12.017702955372949</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -22503,11 +22507,11 @@
         <v>427</v>
       </c>
       <c r="C613" s="21">
-        <v>17.239999770000001</v>
+        <v>11.220000267028809</v>
       </c>
       <c r="D613" s="17">
         <f>SUM($C$3:C613)/A613</f>
-        <v>12.508312268102195</v>
+        <v>12.016397386324924</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -22519,11 +22523,11 @@
         <v>428</v>
       </c>
       <c r="C614" s="21">
-        <v>16.93000031</v>
+        <v>11.149999618530273</v>
       </c>
       <c r="D614" s="17">
         <f>SUM($C$3:C614)/A614</f>
-        <v>12.515537248562811</v>
+        <v>12.014981703697808</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -22535,11 +22539,11 @@
         <v>429</v>
       </c>
       <c r="C615" s="21">
-        <v>16.729999540000001</v>
+        <v>10.899999618530273</v>
       </c>
       <c r="D615" s="17">
         <f>SUM($C$3:C615)/A615</f>
-        <v>12.522412390963199</v>
+        <v>12.01316280959476</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -22551,11 +22555,11 @@
         <v>430</v>
       </c>
       <c r="C616" s="21">
-        <v>16.649999619999999</v>
+        <v>10.880000114440918</v>
       </c>
       <c r="D616" s="17">
         <f>SUM($C$3:C616)/A616</f>
-        <v>12.529134845733617</v>
+        <v>12.011317267745977</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -22567,11 +22571,11 @@
         <v>431</v>
       </c>
       <c r="C617" s="21">
-        <v>16.299999239999998</v>
+        <v>10.770000457763672</v>
       </c>
       <c r="D617" s="17">
         <f>SUM($C$3:C617)/A617</f>
-        <v>12.535266332553562</v>
+        <v>12.009298866428932</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -22583,11 +22587,11 @@
         <v>432</v>
       </c>
       <c r="C618" s="21">
-        <v>16.489999770000001</v>
+        <v>10.789999961853027</v>
       </c>
       <c r="D618" s="17">
         <f>SUM($C$3:C618)/A618</f>
-        <v>12.541686354367599</v>
+        <v>12.007319485090335</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -22599,11 +22603,11 @@
         <v>433</v>
       </c>
       <c r="C619" s="21">
-        <v>16.440000529999999</v>
+        <v>10.800000190734863</v>
       </c>
       <c r="D619" s="17">
         <f>SUM($C$3:C619)/A619</f>
-        <v>12.548004529692774</v>
+        <v>12.005362727725091</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -22615,11 +22619,11 @@
         <v>434</v>
       </c>
       <c r="C620" s="21">
-        <v>16.370000839999999</v>
+        <v>10.850000381469727</v>
       </c>
       <c r="D620" s="17">
         <f>SUM($C$3:C620)/A620</f>
-        <v>12.554188989741816</v>
+        <v>12.003493209365454</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -22631,11 +22635,11 @@
         <v>435</v>
       </c>
       <c r="C621" s="21">
-        <v>16.770000459999999</v>
+        <v>10.979999542236328</v>
       </c>
       <c r="D621" s="17">
         <f>SUM($C$3:C621)/A621</f>
-        <v>12.560999670630762</v>
+        <v>12.001839746252159</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -22647,11 +22651,11 @@
         <v>45229</v>
       </c>
       <c r="C622" s="21">
-        <v>16.979999540000001</v>
+        <v>10.979999542236328</v>
       </c>
       <c r="D622" s="17">
         <f>SUM($C$3:C622)/A622</f>
-        <v>12.568127089774906</v>
+        <v>12.000191616890843</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -22663,11 +22667,11 @@
         <v>45230</v>
       </c>
       <c r="C623" s="21">
-        <v>16.909999849999998</v>
+        <v>10.970000267028809</v>
       </c>
       <c r="D623" s="17">
         <f>SUM($C$3:C623)/A623</f>
-        <v>12.575118833350148</v>
+        <v>11.998532693622145</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -22679,11 +22683,11 @@
         <v>436</v>
       </c>
       <c r="C624" s="21">
-        <v>16.93000031</v>
+        <v>11.06000042</v>
       </c>
       <c r="D624" s="17">
         <f>SUM($C$3:C624)/A624</f>
-        <v>12.582120250515178</v>
+        <v>11.997023799291561</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -22695,11 +22699,11 @@
         <v>437</v>
       </c>
       <c r="C625" s="21">
-        <v>16.729999540000001</v>
+        <v>11.039999959999999</v>
       </c>
       <c r="D625" s="17">
         <f>SUM($C$3:C625)/A625</f>
-        <v>12.588778162697336</v>
+        <v>11.995487645456423</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -22711,11 +22715,11 @@
         <v>438</v>
       </c>
       <c r="C626" s="21">
-        <v>16.649999619999999</v>
+        <v>11.09000015</v>
       </c>
       <c r="D626" s="17">
         <f>SUM($C$3:C626)/A626</f>
-        <v>12.595286530417374</v>
+        <v>11.994036543700885</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -22727,11 +22731,11 @@
         <v>439</v>
       </c>
       <c r="C627" s="21">
-        <v>16.299999239999998</v>
+        <v>11.170000079999999</v>
       </c>
       <c r="D627" s="17">
         <f>SUM($C$3:C627)/A627</f>
-        <v>12.601214070752706</v>
+        <v>11.992718085358964</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -22743,11 +22747,11 @@
         <v>440</v>
       </c>
       <c r="C628" s="21">
-        <v>16.489999770000001</v>
+        <v>11.130000109999999</v>
       </c>
       <c r="D628" s="17">
         <f>SUM($C$3:C628)/A628</f>
-        <v>12.607426188483133</v>
+        <v>11.991339941628359</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -22759,11 +22763,11 @@
         <v>441</v>
       </c>
       <c r="C629" s="21">
-        <v>16.440000529999999</v>
+        <v>11.10999966</v>
       </c>
       <c r="D629" s="17">
         <f>SUM($C$3:C629)/A629</f>
-        <v>12.613538747241535</v>
+        <v>11.989934295246176</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -22775,11 +22779,11 @@
         <v>442</v>
       </c>
       <c r="C630" s="21">
-        <v>16.370000839999999</v>
+        <v>11.14000034</v>
       </c>
       <c r="D630" s="17">
         <f>SUM($C$3:C630)/A630</f>
-        <v>12.619520374777773</v>
+        <v>11.988580897228267</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -22791,11 +22795,11 @@
         <v>443</v>
       </c>
       <c r="C631" s="21">
-        <v>16.770000459999999</v>
+        <v>11.079999920000001</v>
       </c>
       <c r="D631" s="17">
         <f>SUM($C$3:C631)/A631</f>
-        <v>12.626118912274153</v>
+        <v>11.987136412367811</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -22807,11 +22811,11 @@
         <v>444</v>
       </c>
       <c r="C632" s="21">
-        <v>16.979999540000001</v>
+        <v>11.06000042</v>
       </c>
       <c r="D632" s="17">
         <f>SUM($C$3:C632)/A632</f>
-        <v>12.633029833905463</v>
+        <v>11.985664767935479</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -22823,11 +22827,11 @@
         <v>445</v>
       </c>
       <c r="C633" s="21">
-        <v>16.909999849999998</v>
+        <v>11.06000042</v>
       </c>
       <c r="D633" s="17">
         <f>SUM($C$3:C633)/A633</f>
-        <v>12.639807916339844</v>
+        <v>11.984197787986295</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -22839,11 +22843,11 @@
         <v>446</v>
       </c>
       <c r="C634" s="21">
-        <v>17.86000061</v>
+        <v>11.14000034</v>
       </c>
       <c r="D634" s="17">
         <f>SUM($C$3:C634)/A634</f>
-        <v>12.648067714905761</v>
+        <v>11.982862032530621</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -22855,11 +22859,11 @@
         <v>447</v>
       </c>
       <c r="C635" s="21">
-        <v>17.63999939</v>
+        <v>11.05000019</v>
       </c>
       <c r="D635" s="17">
         <f>SUM($C$3:C635)/A635</f>
-        <v>12.655953862891693</v>
+        <v>11.981388317139576</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -22871,11 +22875,11 @@
         <v>448</v>
       </c>
       <c r="C636" s="21">
-        <v>17.870000839999999</v>
+        <v>11.02999973</v>
       </c>
       <c r="D636" s="17">
         <f>SUM($C$3:C636)/A636</f>
-        <v>12.664177911751485</v>
+        <v>11.979887704226106</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -22887,11 +22891,11 @@
         <v>449</v>
       </c>
       <c r="C637" s="21">
-        <v>18.149999619999999</v>
+        <v>11.06000042</v>
       </c>
       <c r="D637" s="17">
         <f>SUM($C$3:C637)/A637</f>
-        <v>12.672817001055813</v>
+        <v>11.978439062833624</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -22903,11 +22907,11 @@
         <v>450</v>
       </c>
       <c r="C638" s="21">
-        <v>18.13999939</v>
+        <v>11.09000015</v>
       </c>
       <c r="D638" s="17">
         <f>SUM($C$3:C638)/A638</f>
-        <v>12.68141319978057</v>
+        <v>11.977042146304012</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -22919,11 +22923,11 @@
         <v>451</v>
       </c>
       <c r="C639" s="21">
-        <v>18.120000839999999</v>
+        <v>11</v>
       </c>
       <c r="D639" s="17">
         <f>SUM($C$3:C639)/A639</f>
-        <v>12.689951013972436</v>
+        <v>11.975508328177947</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -22935,11 +22939,11 @@
         <v>452</v>
       </c>
       <c r="C640" s="21">
-        <v>18.13999939</v>
+        <v>11.05000019</v>
       </c>
       <c r="D640" s="17">
         <f>SUM($C$3:C640)/A640</f>
-        <v>12.698493409546147</v>
+        <v>11.974057688462933</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -22951,11 +22955,11 @@
         <v>453</v>
       </c>
       <c r="C641" s="21">
-        <v>18.100000380000001</v>
+        <v>11.010000229999999</v>
       </c>
       <c r="D641" s="17">
         <f>SUM($C$3:C641)/A641</f>
-        <v>12.706946472097719</v>
+        <v>11.972548991344837</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -22967,11 +22971,11 @@
         <v>454</v>
       </c>
       <c r="C642" s="21">
-        <v>18.13999939</v>
+        <v>10.920000079999999</v>
       </c>
       <c r="D642" s="17">
         <f>SUM($C$3:C642)/A642</f>
-        <v>12.715435617281942</v>
+        <v>11.970904383670861</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -22983,11 +22987,11 @@
         <v>455</v>
       </c>
       <c r="C643" s="21">
-        <v>18.159999849999998</v>
+        <v>10.94999981</v>
       </c>
       <c r="D643" s="17">
         <f>SUM($C$3:C643)/A643</f>
-        <v>12.723929477239381</v>
+        <v>11.969311708828942</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -22995,15 +22999,31 @@
         <f t="shared" si="4"/>
         <v>642</v>
       </c>
-      <c r="B644" s="20">
-        <v>45259</v>
+      <c r="B644" s="20" t="s">
+        <v>456</v>
       </c>
       <c r="C644" s="21">
-        <v>16.090000150000002</v>
+        <v>10.869999890000001</v>
       </c>
       <c r="D644" s="17">
         <f>SUM($C$3:C644)/A644</f>
-        <v>12.729172577975767</v>
+        <v>11.9675993851236</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" s="17">
+        <f t="shared" si="4"/>
+        <v>643</v>
+      </c>
+      <c r="B645" s="20">
+        <v>45260</v>
+      </c>
+      <c r="C645" s="21">
+        <v>10.920000079999999</v>
+      </c>
+      <c r="D645" s="17">
+        <f>SUM($C$3:C645)/A645</f>
+        <v>11.965970148257156</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="524">
   <si>
     <t>PE</t>
   </si>
@@ -1924,6 +1924,138 @@
   </si>
   <si>
     <t xml:space="preserve">2023/12/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/1/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/2/27
 </t>
   </si>
   <si>
@@ -2593,7 +2725,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="160"/>
+                <c:ptCount val="161"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3073,6 +3205,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,7 +3217,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="160"/>
+                <c:ptCount val="161"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3562,6 +3697,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>322000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,7 +3742,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="160"/>
+                <c:ptCount val="161"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4084,6 +4222,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4093,7 +4234,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="160"/>
+                <c:ptCount val="161"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4573,6 +4714,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>400562.47252632782</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>375437.92798293434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4615,7 +4759,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="160"/>
+                <c:ptCount val="161"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5095,6 +5239,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5104,7 +5251,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="160"/>
+                <c:ptCount val="161"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5584,6 +5731,9 @@
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>80562.472526327823</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>53437.927982934343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5605,11 +5755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439578624"/>
-        <c:axId val="439606272"/>
+        <c:axId val="100310016"/>
+        <c:axId val="100467840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439578624"/>
+        <c:axId val="100310016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5652,14 +5802,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439606272"/>
+        <c:crossAx val="100467840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439606272"/>
+        <c:axId val="100467840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5710,7 +5860,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439578624"/>
+        <c:crossAx val="100310016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6116,7 +6266,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB162"/>
+  <dimension ref="A1:AB163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6146,31 +6296,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -6184,7 +6334,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6226,25 +6376,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -12871,6 +13021,39 @@
       <c r="J162" s="31">
         <f>VLOOKUP(A162,myPEPB!B:C,2)</f>
         <v>10.97000027</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="12.75">
+      <c r="A163" s="13">
+        <v>45322</v>
+      </c>
+      <c r="B163" s="14">
+        <v>2.0245980224609377</v>
+      </c>
+      <c r="C163" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D163" s="16">
+        <v>987.85041663182187</v>
+      </c>
+      <c r="E163" s="16">
+        <v>185438.25678866482</v>
+      </c>
+      <c r="F163" s="16">
+        <v>375437.92798293434</v>
+      </c>
+      <c r="G163" s="16">
+        <v>322000</v>
+      </c>
+      <c r="H163" s="16">
+        <v>375437.92798293434</v>
+      </c>
+      <c r="I163" s="16">
+        <v>53437.927982934343</v>
+      </c>
+      <c r="J163" s="31">
+        <f>VLOOKUP(A163,myPEPB!B:C,2)</f>
+        <v>10.600000380000001</v>
       </c>
     </row>
   </sheetData>
@@ -12886,7 +13069,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D666"/>
+  <dimension ref="A1:D702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -20102,7 +20285,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="17">
-        <f t="shared" ref="A452:A666" si="4">A451+1</f>
+        <f t="shared" ref="A452:A702" si="4">A451+1</f>
         <v>450</v>
       </c>
       <c r="B452" s="20" t="s">
@@ -23538,6 +23721,582 @@
       <c r="D666" s="17">
         <f>SUM($C$3:C666)/A666</f>
         <v>11.926940971746014</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" s="17">
+        <f t="shared" si="4"/>
+        <v>665</v>
+      </c>
+      <c r="B667" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C667" s="21">
+        <v>10.869999890000001</v>
+      </c>
+      <c r="D667" s="17">
+        <f>SUM($C$3:C667)/A667</f>
+        <v>11.92535158666068</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" s="17">
+        <f t="shared" si="4"/>
+        <v>666</v>
+      </c>
+      <c r="B668" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C668" s="21">
+        <v>10.89000034</v>
+      </c>
+      <c r="D668" s="17">
+        <f>SUM($C$3:C668)/A668</f>
+        <v>11.92379700520924</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" s="17">
+        <f t="shared" si="4"/>
+        <v>667</v>
+      </c>
+      <c r="B669" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C669" s="21">
+        <v>10.84</v>
+      </c>
+      <c r="D669" s="17">
+        <f>SUM($C$3:C669)/A669</f>
+        <v>11.922172122142959</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" s="17">
+        <f t="shared" si="4"/>
+        <v>668</v>
+      </c>
+      <c r="B670" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C670" s="21">
+        <v>10.77</v>
+      </c>
+      <c r="D670" s="17">
+        <f>SUM($C$3:C670)/A670</f>
+        <v>11.920447313576878</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" s="17">
+        <f t="shared" si="4"/>
+        <v>669</v>
+      </c>
+      <c r="B671" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C671" s="21">
+        <v>10.65999985</v>
+      </c>
+      <c r="D671" s="17">
+        <f>SUM($C$3:C671)/A671</f>
+        <v>11.918563236650753</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" s="17">
+        <f t="shared" si="4"/>
+        <v>670</v>
+      </c>
+      <c r="B672" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C672" s="21">
+        <v>10.670000079999999</v>
+      </c>
+      <c r="D672" s="17">
+        <f>SUM($C$3:C672)/A672</f>
+        <v>11.916699709551274</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" s="17">
+        <f t="shared" si="4"/>
+        <v>671</v>
+      </c>
+      <c r="B673" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C673" s="21">
+        <v>10.630000109999999</v>
+      </c>
+      <c r="D673" s="17">
+        <f>SUM($C$3:C673)/A673</f>
+        <v>11.914782124455073</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" s="17">
+        <f t="shared" si="4"/>
+        <v>672</v>
+      </c>
+      <c r="B674" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C674" s="21">
+        <v>10.630000109999999</v>
+      </c>
+      <c r="D674" s="17">
+        <f>SUM($C$3:C674)/A674</f>
+        <v>11.91287024645737</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" s="17">
+        <f t="shared" si="4"/>
+        <v>673</v>
+      </c>
+      <c r="B675" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C675" s="21">
+        <v>10.630000109999999</v>
+      </c>
+      <c r="D675" s="17">
+        <f>SUM($C$3:C675)/A675</f>
+        <v>11.91096405011791</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" s="17">
+        <f t="shared" si="4"/>
+        <v>674</v>
+      </c>
+      <c r="B676" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C676" s="21">
+        <v>10.630000109999999</v>
+      </c>
+      <c r="D676" s="17">
+        <f>SUM($C$3:C676)/A676</f>
+        <v>11.909063510147408</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="17">
+        <f t="shared" si="4"/>
+        <v>675</v>
+      </c>
+      <c r="B677" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="C677" s="21">
+        <v>10.68999958</v>
+      </c>
+      <c r="D677" s="17">
+        <f>SUM($C$3:C677)/A677</f>
+        <v>11.907257489510153</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="17">
+        <f t="shared" si="4"/>
+        <v>676</v>
+      </c>
+      <c r="B678" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C678" s="21">
+        <v>10.47999954</v>
+      </c>
+      <c r="D678" s="17">
+        <f>SUM($C$3:C678)/A678</f>
+        <v>11.905146161182476</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" s="17">
+        <f t="shared" si="4"/>
+        <v>677</v>
+      </c>
+      <c r="B679" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C679" s="21">
+        <v>10.59000015</v>
+      </c>
+      <c r="D679" s="17">
+        <f>SUM($C$3:C679)/A679</f>
+        <v>11.90320355259875</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" s="17">
+        <f t="shared" si="4"/>
+        <v>678</v>
+      </c>
+      <c r="B680" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C680" s="21">
+        <v>10.56999969</v>
+      </c>
+      <c r="D680" s="17">
+        <f>SUM($C$3:C680)/A680</f>
+        <v>11.901237175220286</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" s="17">
+        <f t="shared" si="4"/>
+        <v>679</v>
+      </c>
+      <c r="B681" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="C681" s="21">
+        <v>10.420000079999999</v>
+      </c>
+      <c r="D681" s="17">
+        <f>SUM($C$3:C681)/A681</f>
+        <v>11.899055677289182</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" s="17">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="B682" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C682" s="21">
+        <v>10.44999981</v>
+      </c>
+      <c r="D682" s="17">
+        <f>SUM($C$3:C682)/A682</f>
+        <v>11.896924712778462</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" s="17">
+        <f t="shared" si="4"/>
+        <v>681</v>
+      </c>
+      <c r="B683" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C683" s="21">
+        <v>10.619999890000001</v>
+      </c>
+      <c r="D683" s="17">
+        <f>SUM($C$3:C683)/A683</f>
+        <v>11.895049639617261</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="17">
+        <f t="shared" si="4"/>
+        <v>682</v>
+      </c>
+      <c r="B684" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C684" s="21">
+        <v>10.869999890000001</v>
+      </c>
+      <c r="D684" s="17">
+        <f>SUM($C$3:C684)/A684</f>
+        <v>11.893546634119287</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" s="17">
+        <f t="shared" si="4"/>
+        <v>683</v>
+      </c>
+      <c r="B685" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="C685" s="21">
+        <v>10.89000034</v>
+      </c>
+      <c r="D685" s="17">
+        <f>SUM($C$3:C685)/A685</f>
+        <v>11.892077313044442</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" s="17">
+        <f t="shared" si="4"/>
+        <v>684</v>
+      </c>
+      <c r="B686" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="C686" s="21">
+        <v>10.829999920000001</v>
+      </c>
+      <c r="D686" s="17">
+        <f>SUM($C$3:C686)/A686</f>
+        <v>11.890524568317769</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="17">
+        <f t="shared" si="4"/>
+        <v>685</v>
+      </c>
+      <c r="B687" s="20">
+        <v>45321</v>
+      </c>
+      <c r="C687" s="21">
+        <v>10.649999619999999</v>
+      </c>
+      <c r="D687" s="17">
+        <f>SUM($C$3:C687)/A687</f>
+        <v>11.888713582991759</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="17">
+        <f t="shared" si="4"/>
+        <v>686</v>
+      </c>
+      <c r="B688" s="20">
+        <v>45322</v>
+      </c>
+      <c r="C688" s="21">
+        <v>10.600000380000001</v>
+      </c>
+      <c r="D688" s="17">
+        <f>SUM($C$3:C688)/A688</f>
+        <v>11.886834992316842</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" s="17">
+        <f t="shared" si="4"/>
+        <v>687</v>
+      </c>
+      <c r="B689" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C689" s="21">
+        <v>10.579999920000001</v>
+      </c>
+      <c r="D689" s="17">
+        <f>SUM($C$3:C689)/A689</f>
+        <v>11.884932757859323</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" s="17">
+        <f t="shared" si="4"/>
+        <v>688</v>
+      </c>
+      <c r="B690" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="C690" s="21">
+        <v>10.489999770000001</v>
+      </c>
+      <c r="D690" s="17">
+        <f>SUM($C$3:C690)/A690</f>
+        <v>11.882905238981619</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="17">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="B691" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C691" s="21">
+        <v>10.489999770000001</v>
+      </c>
+      <c r="D691" s="17">
+        <f>SUM($C$3:C691)/A691</f>
+        <v>11.88088360549979</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="17">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+      <c r="B692" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C692" s="21">
+        <v>10.94999981</v>
+      </c>
+      <c r="D692" s="17">
+        <f>SUM($C$3:C692)/A692</f>
+        <v>11.879534498549789</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="17">
+        <f t="shared" si="4"/>
+        <v>691</v>
+      </c>
+      <c r="B693" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C693" s="21">
+        <v>11.06999969</v>
+      </c>
+      <c r="D693" s="17">
+        <f>SUM($C$3:C693)/A693</f>
+        <v>11.878362957582279</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="17">
+        <f t="shared" si="4"/>
+        <v>692</v>
+      </c>
+      <c r="B694" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C694" s="21">
+        <v>11.09000015</v>
+      </c>
+      <c r="D694" s="17">
+        <f>SUM($C$3:C694)/A694</f>
+        <v>11.877223704970165</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="17">
+        <f t="shared" si="4"/>
+        <v>693</v>
+      </c>
+      <c r="B695" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C695" s="21">
+        <v>11.239999770000001</v>
+      </c>
+      <c r="D695" s="17">
+        <f>SUM($C$3:C695)/A695</f>
+        <v>11.876304189912487</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="17">
+        <f t="shared" si="4"/>
+        <v>694</v>
+      </c>
+      <c r="B696" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C696" s="21">
+        <v>11.27999973</v>
+      </c>
+      <c r="D696" s="17">
+        <f>SUM($C$3:C696)/A696</f>
+        <v>11.875444961584083</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" s="17">
+        <f t="shared" si="4"/>
+        <v>695</v>
+      </c>
+      <c r="B697" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C697" s="21">
+        <v>11.40999985</v>
+      </c>
+      <c r="D697" s="17">
+        <f>SUM($C$3:C697)/A697</f>
+        <v>11.874775256387561</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="17">
+        <f t="shared" si="4"/>
+        <v>696</v>
+      </c>
+      <c r="B698" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C698" s="21">
+        <v>11.52000046</v>
+      </c>
+      <c r="D698" s="17">
+        <f>SUM($C$3:C698)/A698</f>
+        <v>11.874265522484704</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="17">
+        <f t="shared" si="4"/>
+        <v>697</v>
+      </c>
+      <c r="B699" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="C699" s="21">
+        <v>11.52000046</v>
+      </c>
+      <c r="D699" s="17">
+        <f>SUM($C$3:C699)/A699</f>
+        <v>11.873757251232931</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="17">
+        <f t="shared" si="4"/>
+        <v>698</v>
+      </c>
+      <c r="B700" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="C700" s="21">
+        <v>11.35999966</v>
+      </c>
+      <c r="D700" s="17">
+        <f>SUM($C$3:C700)/A700</f>
+        <v>11.873021208838615</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" s="17">
+        <f t="shared" si="4"/>
+        <v>699</v>
+      </c>
+      <c r="B701" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="C701" s="21">
+        <v>11.44999981</v>
+      </c>
+      <c r="D701" s="17">
+        <f>SUM($C$3:C701)/A701</f>
+        <v>11.87241602801052</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" s="17">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="B702" s="20">
+        <v>45350</v>
+      </c>
+      <c r="C702" s="21">
+        <v>11.350000380000001</v>
+      </c>
+      <c r="D702" s="17">
+        <f>SUM($C$3:C702)/A702</f>
+        <v>11.871669719941934</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -5875,11 +5875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459612544"/>
-        <c:axId val="459614464"/>
+        <c:axId val="430986752"/>
+        <c:axId val="430988288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459612544"/>
+        <c:axId val="430986752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5922,14 +5922,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459614464"/>
+        <c:crossAx val="430988288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459614464"/>
+        <c:axId val="430988288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5980,7 +5980,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459612544"/>
+        <c:crossAx val="430986752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="J165" s="31">
         <f>VLOOKUP(A165,myPEPB!B:C,2)</f>
-        <v>11.579999920000001</v>
+        <v>11.68000031</v>
       </c>
     </row>
   </sheetData>
@@ -24830,11 +24830,11 @@
         <v>45380</v>
       </c>
       <c r="C724" s="21">
-        <v>11.579999920000001</v>
+        <v>11.68000031</v>
       </c>
       <c r="D724" s="17">
         <f>SUM($C$3:C724)/A724</f>
-        <v>11.864887539902158</v>
+        <v>11.865026044597448</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="562">
   <si>
     <t>PE</t>
   </si>
@@ -2139,6 +2139,78 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2024/4/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/4/26
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,10 +2244,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5875,11 +5943,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430986752"/>
-        <c:axId val="430988288"/>
+        <c:axId val="430745472"/>
+        <c:axId val="430747008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="430986752"/>
+        <c:axId val="430745472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5922,14 +5990,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430988288"/>
+        <c:crossAx val="430747008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="430988288"/>
+        <c:axId val="430747008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5980,7 +6048,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430986752"/>
+        <c:crossAx val="430745472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6416,31 +6484,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -6454,7 +6522,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6496,25 +6564,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -13255,7 +13323,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D724"/>
+  <dimension ref="A1:D744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -24551,7 +24619,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="17">
-        <f t="shared" ref="A707:A724" si="5">A706+1</f>
+        <f t="shared" ref="A707:A744" si="5">A706+1</f>
         <v>705</v>
       </c>
       <c r="B707" s="20" t="s">
@@ -24835,6 +24903,326 @@
       <c r="D724" s="17">
         <f>SUM($C$3:C724)/A724</f>
         <v>11.865026044597448</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" s="17">
+        <f t="shared" si="5"/>
+        <v>723</v>
+      </c>
+      <c r="B725" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="C725" s="21">
+        <v>11.829999920000001</v>
+      </c>
+      <c r="D725" s="17">
+        <f>SUM($C$3:C725)/A725</f>
+        <v>11.864977599058587</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" s="17">
+        <f t="shared" si="5"/>
+        <v>724</v>
+      </c>
+      <c r="B726" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="C726" s="21">
+        <v>11.81999969</v>
+      </c>
+      <c r="D726" s="17">
+        <f>SUM($C$3:C726)/A726</f>
+        <v>11.864915474874804</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" s="17">
+        <f t="shared" si="5"/>
+        <v>725</v>
+      </c>
+      <c r="B727" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C727" s="21">
+        <v>11.80000019</v>
+      </c>
+      <c r="D727" s="17">
+        <f>SUM($C$3:C727)/A727</f>
+        <v>11.86482593655084</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" s="17">
+        <f t="shared" si="5"/>
+        <v>726</v>
+      </c>
+      <c r="B728" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="C728" s="21">
+        <v>11.72999954</v>
+      </c>
+      <c r="D728" s="17">
+        <f>SUM($C$3:C728)/A728</f>
+        <v>11.864640225260827</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" s="17">
+        <f t="shared" si="5"/>
+        <v>727</v>
+      </c>
+      <c r="B729" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="C729" s="21">
+        <v>11.69999981</v>
+      </c>
+      <c r="D729" s="17">
+        <f>SUM($C$3:C729)/A729</f>
+        <v>11.864413759765281</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" s="17">
+        <f t="shared" si="5"/>
+        <v>728</v>
+      </c>
+      <c r="B730" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C730" s="21">
+        <v>11.64000034</v>
+      </c>
+      <c r="D730" s="17">
+        <f>SUM($C$3:C730)/A730</f>
+        <v>11.864105499573295</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" s="17">
+        <f t="shared" si="5"/>
+        <v>729</v>
+      </c>
+      <c r="B731" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="C731" s="21">
+        <v>11.64000034</v>
+      </c>
+      <c r="D731" s="17">
+        <f>SUM($C$3:C731)/A731</f>
+        <v>11.863798085088282</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" s="17">
+        <f t="shared" si="5"/>
+        <v>730</v>
+      </c>
+      <c r="B732" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="C732" s="21">
+        <v>11.579999920000001</v>
+      </c>
+      <c r="D732" s="17">
+        <f>SUM($C$3:C732)/A732</f>
+        <v>11.863409320478574</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" s="17">
+        <f t="shared" si="5"/>
+        <v>731</v>
+      </c>
+      <c r="B733" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="C733" s="21">
+        <v>11.850000380000001</v>
+      </c>
+      <c r="D733" s="17">
+        <f>SUM($C$3:C733)/A733</f>
+        <v>11.863390977194745</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" s="17">
+        <f t="shared" si="5"/>
+        <v>732</v>
+      </c>
+      <c r="B734" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="C734" s="21">
+        <v>11.789999959999999</v>
+      </c>
+      <c r="D734" s="17">
+        <f>SUM($C$3:C734)/A734</f>
+        <v>11.863290716242293</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" s="17">
+        <f t="shared" si="5"/>
+        <v>733</v>
+      </c>
+      <c r="B735" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="C735" s="21">
+        <v>11.93000031</v>
+      </c>
+      <c r="D735" s="17">
+        <f>SUM($C$3:C735)/A735</f>
+        <v>11.86338172523787</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" s="17">
+        <f t="shared" si="5"/>
+        <v>734</v>
+      </c>
+      <c r="B736" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="C736" s="21">
+        <v>11.93000031</v>
+      </c>
+      <c r="D736" s="17">
+        <f>SUM($C$3:C736)/A736</f>
+        <v>11.863472486252531</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="17">
+        <f t="shared" si="5"/>
+        <v>735</v>
+      </c>
+      <c r="B737" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="C737" s="21">
+        <v>11.89000034</v>
+      </c>
+      <c r="D737" s="17">
+        <f>SUM($C$3:C737)/A737</f>
+        <v>11.863508578570555</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="17">
+        <f t="shared" si="5"/>
+        <v>736</v>
+      </c>
+      <c r="B738" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="C738" s="21">
+        <v>11.81999969</v>
+      </c>
+      <c r="D738" s="17">
+        <f>SUM($C$3:C738)/A738</f>
+        <v>11.863449463232824</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="17">
+        <f t="shared" si="5"/>
+        <v>737</v>
+      </c>
+      <c r="B739" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="C739" s="21">
+        <v>11.739999770000001</v>
+      </c>
+      <c r="D739" s="17">
+        <f>SUM($C$3:C739)/A739</f>
+        <v>11.863281960256931</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" s="17">
+        <f t="shared" si="5"/>
+        <v>738</v>
+      </c>
+      <c r="B740" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="C740" s="21">
+        <v>11.789999959999999</v>
+      </c>
+      <c r="D740" s="17">
+        <f>SUM($C$3:C740)/A740</f>
+        <v>11.8631826621536</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" s="17">
+        <f t="shared" si="5"/>
+        <v>739</v>
+      </c>
+      <c r="B741" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="C741" s="21">
+        <v>11.81999969</v>
+      </c>
+      <c r="D741" s="17">
+        <f>SUM($C$3:C741)/A741</f>
+        <v>11.86312422782051</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" s="17">
+        <f t="shared" si="5"/>
+        <v>740</v>
+      </c>
+      <c r="B742" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="C742" s="21">
+        <v>11.94999981</v>
+      </c>
+      <c r="D742" s="17">
+        <f>SUM($C$3:C742)/A742</f>
+        <v>11.863241627255888</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" s="17">
+        <f t="shared" si="5"/>
+        <v>741</v>
+      </c>
+      <c r="B743" s="20">
+        <v>45411</v>
+      </c>
+      <c r="C743" s="21">
+        <v>12.010000229999999</v>
+      </c>
+      <c r="D743" s="17">
+        <f>SUM($C$3:C743)/A743</f>
+        <v>11.863439682050416</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4">
+      <c r="A744" s="17">
+        <f t="shared" si="5"/>
+        <v>742</v>
+      </c>
+      <c r="B744" s="20">
+        <v>45412</v>
+      </c>
+      <c r="C744" s="21">
+        <v>11.97999954</v>
+      </c>
+      <c r="D744" s="17">
+        <f>SUM($C$3:C744)/A744</f>
+        <v>11.86359677080776</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -5961,11 +5961,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501609984"/>
-        <c:axId val="501611904"/>
+        <c:axId val="508161024"/>
+        <c:axId val="512939904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501609984"/>
+        <c:axId val="508161024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6008,14 +6008,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501611904"/>
+        <c:crossAx val="512939904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501611904"/>
+        <c:axId val="512939904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6066,7 +6066,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501609984"/>
+        <c:crossAx val="508161024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="580">
   <si>
     <t>PE</t>
   </si>
@@ -2208,6 +2208,78 @@
   </si>
   <si>
     <t xml:space="preserve">2024/4/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/5/29
 </t>
   </si>
   <si>
@@ -5961,11 +6033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508161024"/>
-        <c:axId val="512939904"/>
+        <c:axId val="506665600"/>
+        <c:axId val="506811136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508161024"/>
+        <c:axId val="506665600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6008,14 +6080,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512939904"/>
+        <c:crossAx val="506811136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512939904"/>
+        <c:axId val="506811136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6066,7 +6138,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508161024"/>
+        <c:crossAx val="506665600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6502,31 +6574,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -6540,7 +6612,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6582,25 +6654,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -13374,9 +13446,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D744"/>
+  <dimension ref="A1:D764"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -24670,7 +24742,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="17">
-        <f t="shared" ref="A707:A744" si="5">A706+1</f>
+        <f t="shared" ref="A707:A764" si="5">A706+1</f>
         <v>705</v>
       </c>
       <c r="B707" s="20" t="s">
@@ -25274,6 +25346,326 @@
       <c r="D744" s="17">
         <f>SUM($C$3:C744)/A744</f>
         <v>11.863596770961072</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4">
+      <c r="A745" s="17">
+        <f t="shared" si="5"/>
+        <v>743</v>
+      </c>
+      <c r="B745" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="C745" s="21">
+        <v>12.430000305175781</v>
+      </c>
+      <c r="D745" s="17">
+        <f>SUM($C$3:C745)/A745</f>
+        <v>11.864359090657189</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" s="17">
+        <f t="shared" si="5"/>
+        <v>744</v>
+      </c>
+      <c r="B746" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="C746" s="21">
+        <v>12.470000267028809</v>
+      </c>
+      <c r="D746" s="17">
+        <f>SUM($C$3:C746)/A746</f>
+        <v>11.865173124496399</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" s="17">
+        <f t="shared" si="5"/>
+        <v>745</v>
+      </c>
+      <c r="B747" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="C747" s="21">
+        <v>12.390000343322754</v>
+      </c>
+      <c r="D747" s="17">
+        <f>SUM($C$3:C747)/A747</f>
+        <v>11.865877590561938</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4">
+      <c r="A748" s="17">
+        <f t="shared" si="5"/>
+        <v>746</v>
+      </c>
+      <c r="B748" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="C748" s="21">
+        <v>12.460000038146973</v>
+      </c>
+      <c r="D748" s="17">
+        <f>SUM($C$3:C748)/A748</f>
+        <v>11.866674001349585</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4">
+      <c r="A749" s="17">
+        <f t="shared" si="5"/>
+        <v>747</v>
+      </c>
+      <c r="B749" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="C749" s="21">
+        <v>12.470000267028809</v>
+      </c>
+      <c r="D749" s="17">
+        <f>SUM($C$3:C749)/A749</f>
+        <v>11.867481667033225</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" s="17">
+        <f t="shared" si="5"/>
+        <v>748</v>
+      </c>
+      <c r="B750" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="C750" s="21">
+        <v>12.460000038146973</v>
+      </c>
+      <c r="D750" s="17">
+        <f>SUM($C$3:C750)/A750</f>
+        <v>11.868273803893002</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" s="17">
+        <f t="shared" si="5"/>
+        <v>749</v>
+      </c>
+      <c r="B751" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="C751" s="21">
+        <v>12.409999847412109</v>
+      </c>
+      <c r="D751" s="17">
+        <f>SUM($C$3:C751)/A751</f>
+        <v>11.86899706963869</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="17">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="B752" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C752" s="21">
+        <v>12.340000152587891</v>
+      </c>
+      <c r="D752" s="17">
+        <f>SUM($C$3:C752)/A752</f>
+        <v>11.869625073749289</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="17">
+        <f t="shared" si="5"/>
+        <v>751</v>
+      </c>
+      <c r="B753" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="C753" s="21">
+        <v>12.369999885559082</v>
+      </c>
+      <c r="D753" s="17">
+        <f>SUM($C$3:C753)/A753</f>
+        <v>11.870291351794307</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="17">
+        <f t="shared" si="5"/>
+        <v>752</v>
+      </c>
+      <c r="B754" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="C754" s="21">
+        <v>12.489999771118164</v>
+      </c>
+      <c r="D754" s="17">
+        <f>SUM($C$3:C754)/A754</f>
+        <v>11.871115432139154</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="17">
+        <f t="shared" si="5"/>
+        <v>753</v>
+      </c>
+      <c r="B755" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="C755" s="21">
+        <v>12.539999961853027</v>
+      </c>
+      <c r="D755" s="17">
+        <f>SUM($C$3:C755)/A755</f>
+        <v>11.8720037250073</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" s="17">
+        <f t="shared" si="5"/>
+        <v>754</v>
+      </c>
+      <c r="B756" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="C756" s="21">
+        <v>12.510000228881836</v>
+      </c>
+      <c r="D756" s="17">
+        <f>SUM($C$3:C756)/A756</f>
+        <v>11.872849874216682</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" s="17">
+        <f t="shared" si="5"/>
+        <v>755</v>
+      </c>
+      <c r="B757" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="C757" s="21">
+        <v>12.510000228881836</v>
+      </c>
+      <c r="D757" s="17">
+        <f>SUM($C$3:C757)/A757</f>
+        <v>11.873693781971205</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="A758" s="17">
+        <f t="shared" si="5"/>
+        <v>756</v>
+      </c>
+      <c r="B758" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="C758" s="21">
+        <v>12.390000343322754</v>
+      </c>
+      <c r="D758" s="17">
+        <f>SUM($C$3:C758)/A758</f>
+        <v>11.874376727158179</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="A759" s="17">
+        <f t="shared" si="5"/>
+        <v>757</v>
+      </c>
+      <c r="B759" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="C759" s="21">
+        <v>12.279999732971191</v>
+      </c>
+      <c r="D759" s="17">
+        <f>SUM($C$3:C759)/A759</f>
+        <v>11.874912556756346</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="A760" s="17">
+        <f t="shared" si="5"/>
+        <v>758</v>
+      </c>
+      <c r="B760" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C760" s="21">
+        <v>12.399999618530273</v>
+      </c>
+      <c r="D760" s="17">
+        <f>SUM($C$3:C760)/A760</f>
+        <v>11.875605283750771</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" s="17">
+        <f t="shared" si="5"/>
+        <v>759</v>
+      </c>
+      <c r="B761" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="C761" s="21">
+        <v>12.340000152587891</v>
+      </c>
+      <c r="D761" s="17">
+        <f>SUM($C$3:C761)/A761</f>
+        <v>11.876217134697855</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="17">
+        <f t="shared" si="5"/>
+        <v>760</v>
+      </c>
+      <c r="B762" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="C762" s="21">
+        <v>12.350000381469727</v>
+      </c>
+      <c r="D762" s="17">
+        <f>SUM($C$3:C762)/A762</f>
+        <v>11.876840533706766</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="17">
+        <f t="shared" si="5"/>
+        <v>761</v>
+      </c>
+      <c r="B763" s="20">
+        <v>45442</v>
+      </c>
+      <c r="C763" s="21">
+        <v>12.25</v>
+      </c>
+      <c r="D763" s="17">
+        <f>SUM($C$3:C763)/A763</f>
+        <v>11.877330887801763</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="17">
+        <f t="shared" si="5"/>
+        <v>762</v>
+      </c>
+      <c r="B764" s="20">
+        <v>45443</v>
+      </c>
+      <c r="C764" s="21">
+        <v>12.18999958</v>
+      </c>
+      <c r="D764" s="17">
+        <f>SUM($C$3:C764)/A764</f>
+        <v>11.877741214169477</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="581">
   <si>
     <t>PE</t>
   </si>
@@ -2316,6 +2316,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2737,7 +2741,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2811,6 +2815,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2949,7 +2954,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3441,6 +3446,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,7 +3458,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3942,6 +3950,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>328000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>330000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,7 +3995,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4476,6 +4487,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4485,7 +4499,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4977,6 +4991,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>431026.37466832314</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>428264.97828113427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,7 +5036,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5511,6 +5528,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5520,7 +5540,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6012,6 +6032,9 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>103026.37466832314</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>98264.978281134274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6033,11 +6056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506665600"/>
-        <c:axId val="506811136"/>
+        <c:axId val="436365568"/>
+        <c:axId val="442978304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506665600"/>
+        <c:axId val="436365568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6080,14 +6103,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506811136"/>
+        <c:crossAx val="442978304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506811136"/>
+        <c:axId val="442978304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6138,7 +6161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506665600"/>
+        <c:crossAx val="436365568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6544,7 +6567,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB166"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6612,7 +6635,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6654,25 +6677,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>572</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -7763,6 +7786,27 @@
         <f>VLOOKUP(A17,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
+      <c r="L17" s="24">
+        <v>45289</v>
+      </c>
+      <c r="M17" s="8">
+        <v>24000</v>
+      </c>
+      <c r="N17" s="4">
+        <v>320000</v>
+      </c>
+      <c r="O17" s="4">
+        <v>400562.47252632782</v>
+      </c>
+      <c r="P17" s="4">
+        <v>80562.472526327823</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.25175772664477447</v>
+      </c>
+      <c r="R17" s="7">
+        <v>3.0809364237756043E-2</v>
+      </c>
       <c r="AB17" s="2">
         <v>0.10832060454600145</v>
       </c>
@@ -9431,6 +9475,16 @@
         <f>VLOOKUP(A45,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
+      <c r="T45" s="29">
+        <v>40543</v>
+      </c>
+      <c r="U45" s="1">
+        <v>8000</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" ref="V45:V58" si="18">-U45</f>
+        <v>-8000</v>
+      </c>
     </row>
     <row r="46" spans="1:28" ht="14.1" customHeight="1">
       <c r="A46" s="26">
@@ -9464,6 +9518,16 @@
         <f>VLOOKUP(A46,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
+      <c r="T46" s="29">
+        <v>40907</v>
+      </c>
+      <c r="U46" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="47" spans="1:28" ht="14.1" customHeight="1">
       <c r="A47" s="26">
@@ -9497,6 +9561,16 @@
         <f>VLOOKUP(A47,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
+      <c r="T47" s="29">
+        <v>41274</v>
+      </c>
+      <c r="U47" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="48" spans="1:28" ht="14.1" customHeight="1">
       <c r="A48" s="26">
@@ -9530,8 +9604,18 @@
         <f>VLOOKUP(A48,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T48" s="29">
+        <v>41639</v>
+      </c>
+      <c r="U48" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="14.1" customHeight="1">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -9563,8 +9647,18 @@
         <f>VLOOKUP(A49,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T49" s="29">
+        <v>42004</v>
+      </c>
+      <c r="U49" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="14.1" customHeight="1">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -9596,8 +9690,18 @@
         <f>VLOOKUP(A50,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T50" s="29">
+        <v>42369</v>
+      </c>
+      <c r="U50" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="14.1" customHeight="1">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -9629,8 +9733,18 @@
         <f>VLOOKUP(A51,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T51" s="29">
+        <v>42734</v>
+      </c>
+      <c r="U51" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="14.1" customHeight="1">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -9662,8 +9776,18 @@
         <f>VLOOKUP(A52,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T52" s="29">
+        <v>43098</v>
+      </c>
+      <c r="U52" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="14.1" customHeight="1">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -9695,8 +9819,18 @@
         <f>VLOOKUP(A53,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T53" s="29">
+        <v>43462</v>
+      </c>
+      <c r="U53" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="14.1" customHeight="1">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -9728,8 +9862,18 @@
         <f>VLOOKUP(A54,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T54" s="30">
+        <v>43830</v>
+      </c>
+      <c r="U54" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V54" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="14.1" customHeight="1">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -9762,8 +9906,18 @@
         <v>#N/A</v>
       </c>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T55" s="24">
+        <v>44196</v>
+      </c>
+      <c r="U55" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V55" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="14.1" customHeight="1">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -9795,8 +9949,18 @@
         <f>VLOOKUP(A56,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T56" s="24">
+        <v>44561</v>
+      </c>
+      <c r="U56" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V56" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="14.1" customHeight="1">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -9828,8 +9992,18 @@
         <f>VLOOKUP(A57,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T57" s="24">
+        <v>44925</v>
+      </c>
+      <c r="U57" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V57" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="14.1" customHeight="1">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -9861,8 +10035,18 @@
         <f>VLOOKUP(A58,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T58" s="24">
+        <v>45289</v>
+      </c>
+      <c r="U58" s="1">
+        <v>24000</v>
+      </c>
+      <c r="V58" s="1">
+        <f t="shared" si="18"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="14.1" customHeight="1">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -9894,8 +10078,14 @@
         <f>VLOOKUP(A59,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="14.1" customHeight="1">
+      <c r="T59" s="24">
+        <v>45289</v>
+      </c>
+      <c r="V59" s="1">
+        <v>400562.47252632782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="14.1" customHeight="1">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -9927,8 +10117,11 @@
         <f>VLOOKUP(A60,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="14.1" customHeight="1">
+      <c r="V60" s="2">
+        <v>3.0809364237756043E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="14.1" customHeight="1">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -9961,7 +10154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.1" customHeight="1">
+    <row r="62" spans="1:22" ht="14.1" customHeight="1">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -9994,7 +10187,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.1" customHeight="1">
+    <row r="63" spans="1:22" ht="14.1" customHeight="1">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -10027,7 +10220,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.1" customHeight="1">
+    <row r="64" spans="1:22" ht="14.1" customHeight="1">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -13432,6 +13625,42 @@
         <f>VLOOKUP(A166,myPEPB!B:C,2)</f>
         <v>11.979999542236328</v>
       </c>
+    </row>
+    <row r="167" spans="1:10" ht="12.75">
+      <c r="A167" s="13">
+        <v>45443</v>
+      </c>
+      <c r="B167" s="14">
+        <v>2.26606298828125</v>
+      </c>
+      <c r="C167" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D167" s="16">
+        <v>882.58799969057702</v>
+      </c>
+      <c r="E167" s="16">
+        <v>188990.76525933738</v>
+      </c>
+      <c r="F167" s="16">
+        <v>428264.97828113427</v>
+      </c>
+      <c r="G167" s="16">
+        <v>330000</v>
+      </c>
+      <c r="H167" s="16">
+        <v>428264.97828113427</v>
+      </c>
+      <c r="I167" s="16">
+        <v>98264.978281134274</v>
+      </c>
+      <c r="J167" s="31">
+        <f>VLOOKUP(A167,myPEPB!B:C,2)</f>
+        <v>12.18999958</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13461,7 +13690,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="23">
@@ -13469,7 +13698,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
       </c>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="597">
   <si>
     <t>PE</t>
   </si>
@@ -2283,6 +2283,74 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2024/6/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/6/26
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2316,10 +2384,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6056,11 +6120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436365568"/>
-        <c:axId val="442978304"/>
+        <c:axId val="502422912"/>
+        <c:axId val="506206080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436365568"/>
+        <c:axId val="502422912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6103,14 +6167,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442978304"/>
+        <c:crossAx val="506206080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442978304"/>
+        <c:axId val="506206080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6161,7 +6225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436365568"/>
+        <c:crossAx val="502422912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6597,31 +6661,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -6635,7 +6699,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6677,25 +6741,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -13675,7 +13739,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D764"/>
+  <dimension ref="A1:D783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -24971,7 +25035,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="17">
-        <f t="shared" ref="A707:A764" si="5">A706+1</f>
+        <f t="shared" ref="A707:A783" si="5">A706+1</f>
         <v>705</v>
       </c>
       <c r="B707" s="20" t="s">
@@ -25895,6 +25959,310 @@
       <c r="D764" s="17">
         <f>SUM($C$3:C764)/A764</f>
         <v>11.877741214169477</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="17">
+        <f t="shared" si="5"/>
+        <v>763</v>
+      </c>
+      <c r="B765" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="C765" s="21">
+        <v>12.22000027</v>
+      </c>
+      <c r="D765" s="17">
+        <f>SUM($C$3:C765)/A765</f>
+        <v>11.878189784360604</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="17">
+        <f t="shared" si="5"/>
+        <v>764</v>
+      </c>
+      <c r="B766" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="C766" s="21">
+        <v>12.30000019</v>
+      </c>
+      <c r="D766" s="17">
+        <f>SUM($C$3:C766)/A766</f>
+        <v>11.878741892221388</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="17">
+        <f t="shared" si="5"/>
+        <v>765</v>
+      </c>
+      <c r="B767" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C767" s="21">
+        <v>12.22999954</v>
+      </c>
+      <c r="D767" s="17">
+        <f>SUM($C$3:C767)/A767</f>
+        <v>11.879201052545284</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="17">
+        <f t="shared" si="5"/>
+        <v>766</v>
+      </c>
+      <c r="B768" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="C768" s="21">
+        <v>12.260000229999999</v>
+      </c>
+      <c r="D768" s="17">
+        <f>SUM($C$3:C768)/A768</f>
+        <v>11.879698179408802</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="17">
+        <f t="shared" si="5"/>
+        <v>767</v>
+      </c>
+      <c r="B769" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C769" s="21">
+        <v>12.18000031</v>
+      </c>
+      <c r="D769" s="17">
+        <f>SUM($C$3:C769)/A769</f>
+        <v>11.880089707610354</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="17">
+        <f t="shared" si="5"/>
+        <v>768</v>
+      </c>
+      <c r="B770" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="C770" s="21">
+        <v>12.039999959999999</v>
+      </c>
+      <c r="D770" s="17">
+        <f>SUM($C$3:C770)/A770</f>
+        <v>11.88029792408482</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="17">
+        <f t="shared" si="5"/>
+        <v>769</v>
+      </c>
+      <c r="B771" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="C771" s="21">
+        <v>12.05000019</v>
+      </c>
+      <c r="D771" s="17">
+        <f>SUM($C$3:C771)/A771</f>
+        <v>11.880518603234254</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="17">
+        <f t="shared" si="5"/>
+        <v>770</v>
+      </c>
+      <c r="B772" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="C772" s="21">
+        <v>12.010000229999999</v>
+      </c>
+      <c r="D772" s="17">
+        <f>SUM($C$3:C772)/A772</f>
+        <v>11.880686761191093</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="17">
+        <f t="shared" si="5"/>
+        <v>771</v>
+      </c>
+      <c r="B773" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="C773" s="21">
+        <v>12.05000019</v>
+      </c>
+      <c r="D773" s="17">
+        <f>SUM($C$3:C773)/A773</f>
+        <v>11.880906363563088</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="17">
+        <f t="shared" si="5"/>
+        <v>772</v>
+      </c>
+      <c r="B774" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="C774" s="21">
+        <v>12.31999969</v>
+      </c>
+      <c r="D774" s="17">
+        <f>SUM($C$3:C774)/A774</f>
+        <v>11.881475137301997</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="17">
+        <f t="shared" si="5"/>
+        <v>773</v>
+      </c>
+      <c r="B775" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="C775" s="21">
+        <v>12.350000380000001</v>
+      </c>
+      <c r="D775" s="17">
+        <f>SUM($C$3:C775)/A775</f>
+        <v>11.882081250164479</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="17">
+        <f t="shared" si="5"/>
+        <v>774</v>
+      </c>
+      <c r="B776" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="C776" s="21">
+        <v>12.31000042</v>
+      </c>
+      <c r="D776" s="17">
+        <f>SUM($C$3:C776)/A776</f>
+        <v>11.882634117308969</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="17">
+        <f t="shared" si="5"/>
+        <v>775</v>
+      </c>
+      <c r="B777" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="C777" s="21">
+        <v>12.27000046</v>
+      </c>
+      <c r="D777" s="17">
+        <f>SUM($C$3:C777)/A777</f>
+        <v>11.883133944847925</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="17">
+        <f t="shared" si="5"/>
+        <v>776</v>
+      </c>
+      <c r="B778" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="C778" s="21">
+        <v>12.210000040000001</v>
+      </c>
+      <c r="D778" s="17">
+        <f>SUM($C$3:C778)/A778</f>
+        <v>11.88355516404271</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="17">
+        <f t="shared" si="5"/>
+        <v>777</v>
+      </c>
+      <c r="B779" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="C779" s="21">
+        <v>12.18999958</v>
+      </c>
+      <c r="D779" s="17">
+        <f>SUM($C$3:C779)/A779</f>
+        <v>11.88394955840044</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="17">
+        <f t="shared" si="5"/>
+        <v>778</v>
+      </c>
+      <c r="B780" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="C780" s="21">
+        <v>12.149999619999999</v>
+      </c>
+      <c r="D780" s="17">
+        <f>SUM($C$3:C780)/A780</f>
+        <v>11.884291525060593</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="17">
+        <f t="shared" si="5"/>
+        <v>779</v>
+      </c>
+      <c r="B781" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="C781" s="21">
+        <v>12.18000031</v>
+      </c>
+      <c r="D781" s="17">
+        <f>SUM($C$3:C781)/A781</f>
+        <v>11.884671125554739</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="17">
+        <f t="shared" si="5"/>
+        <v>780</v>
+      </c>
+      <c r="B782" s="20">
+        <v>45470</v>
+      </c>
+      <c r="C782" s="21">
+        <v>12.10999966</v>
+      </c>
+      <c r="D782" s="17">
+        <f>SUM($C$3:C782)/A782</f>
+        <v>11.884960008291207</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="17">
+        <f t="shared" si="5"/>
+        <v>781</v>
+      </c>
+      <c r="B783" s="20">
+        <v>45471</v>
+      </c>
+      <c r="C783" s="21">
+        <v>12.15999985</v>
+      </c>
+      <c r="D783" s="17">
+        <f>SUM($C$3:C783)/A783</f>
+        <v>11.885312171980976</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -2805,7 +2805,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2879,7 +2879,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3017,502 +3016,505 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="165"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="166"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>45044</c:v>
+                  <c:v>2.5385061035156249</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>45077</c:v>
+                  <c:v>2.3854221191406251</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>45107</c:v>
+                  <c:v>2.4220161132812499</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>45138</c:v>
+                  <c:v>2.5251220703124999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>45169</c:v>
+                  <c:v>2.3845380859374998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>45197</c:v>
+                  <c:v>2.34769091796875</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>45230</c:v>
+                  <c:v>2.2612639160156252</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>45260</c:v>
+                  <c:v>2.2183168945312501</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>45289</c:v>
+                  <c:v>2.1716540527343748</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>45322</c:v>
+                  <c:v>2.0245980224609377</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>45351</c:v>
+                  <c:v>2.2161999511718751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>45380</c:v>
+                  <c:v>2.2355449218749999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>45412</c:v>
+                  <c:v>2.2913749999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>45443</c:v>
+                  <c:v>2.26606298828125</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.1709379882812501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3522,501 +3524,504 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="165"/>
+                <c:ptCount val="166"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86000</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88000</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90000</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92000</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94000</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96000</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98000</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100000</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102000</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104000</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106000</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108000</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>110000</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112000</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114000</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116000</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>118000</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>120000</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>122000</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>124000</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>126000</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>128000</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>130000</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>132000</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>134000</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>136000</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>138000</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>140000</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>142000</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>144000</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>146000</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>148000</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>150000</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>152000</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>154000</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>156000</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>158000</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>160000</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>162000</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>164000</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>166000</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>168000</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>170000</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>172000</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174000</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>176000</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>178000</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>180000</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>182000</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>184000</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>186000</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188000</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>190000</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>192000</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>194000</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196000</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198000</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>200000</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>202000</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>204000</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>206000</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>208000</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>210000</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>212000</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>214000</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>216000</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>218000</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>220000</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>222000</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>224000</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>226000</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>228000</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>230000</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>232000</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>234000</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>236000</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>238000</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>240000</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>242000</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>244000</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>246000</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>248000</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>250000</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>252000</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>254000</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>256000</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>258000</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>260000</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>262000</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>264000</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>266000</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>268000</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>270000</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>272000</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>274000</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>276000</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>278000</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>280000</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>282000</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>284000</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>286000</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>288000</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>290000</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>292000</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>294000</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>296000</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>298000</c:v>
+                  <c:v>462155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>300000</c:v>
+                  <c:v>456260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>302000</c:v>
+                  <c:v>453061.48338996636</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>304000</c:v>
+                  <c:v>450829.9027039613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>306000</c:v>
+                  <c:v>425642.71663191047</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>308000</c:v>
+                  <c:v>434172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>310000</c:v>
+                  <c:v>454655.21338487364</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>312000</c:v>
+                  <c:v>431342.67813520104</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>314000</c:v>
+                  <c:v>426677.33854298841</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>316000</c:v>
+                  <c:v>412969.80102628889</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>318000</c:v>
+                  <c:v>407126.47818747367</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>320000</c:v>
+                  <c:v>400562.47252632782</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>322000</c:v>
+                  <c:v>375437.92798293434</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>324000</c:v>
+                  <c:v>412968.2556404366</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>326000</c:v>
+                  <c:v>418573.01106986456</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>328000</c:v>
+                  <c:v>431026.37466832314</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>330000</c:v>
+                  <c:v>428264.97828113427</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>412287.23173583986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4058,502 +4063,505 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="165"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="166"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>45044</c:v>
+                  <c:v>2.5385061035156249</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>45077</c:v>
+                  <c:v>2.3854221191406251</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>45107</c:v>
+                  <c:v>2.4220161132812499</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>45138</c:v>
+                  <c:v>2.5251220703124999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>45169</c:v>
+                  <c:v>2.3845380859374998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>45197</c:v>
+                  <c:v>2.34769091796875</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>45230</c:v>
+                  <c:v>2.2612639160156252</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>45260</c:v>
+                  <c:v>2.2183168945312501</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>45289</c:v>
+                  <c:v>2.1716540527343748</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>45322</c:v>
+                  <c:v>2.0245980224609377</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>45351</c:v>
+                  <c:v>2.2161999511718751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>45380</c:v>
+                  <c:v>2.2355449218749999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>45412</c:v>
+                  <c:v>2.2913749999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>45443</c:v>
+                  <c:v>2.26606298828125</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.1709379882812501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4563,501 +4571,504 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="165"/>
+                <c:ptCount val="166"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>462155.90490155248</c:v>
+                  <c:v>164155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>456260.50288029009</c:v>
+                  <c:v>156260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>453061.48338996636</c:v>
+                  <c:v>151061.48338996636</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>450829.9027039613</c:v>
+                  <c:v>146829.9027039613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>425642.71663191047</c:v>
+                  <c:v>119642.71663191047</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>434172.36476145795</c:v>
+                  <c:v>126172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>454655.21338487364</c:v>
+                  <c:v>144655.21338487364</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>431342.67813520104</c:v>
+                  <c:v>119342.67813520104</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>426677.33854298841</c:v>
+                  <c:v>112677.33854298841</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>412969.80102628889</c:v>
+                  <c:v>96969.801026288886</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>407126.47818747367</c:v>
+                  <c:v>89126.478187473665</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>400562.47252632782</c:v>
+                  <c:v>80562.472526327823</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>375437.92798293434</c:v>
+                  <c:v>53437.927982934343</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>412968.2556404366</c:v>
+                  <c:v>88968.255640436604</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>418573.01106986456</c:v>
+                  <c:v>92573.011069864559</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>431026.37466832314</c:v>
+                  <c:v>103026.37466832314</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>428264.97828113427</c:v>
+                  <c:v>98264.978281134274</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>80287.231735839858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5099,502 +5110,505 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="165"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="166"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>45044</c:v>
+                  <c:v>2.5385061035156249</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>45077</c:v>
+                  <c:v>2.3854221191406251</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>45107</c:v>
+                  <c:v>2.4220161132812499</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>45138</c:v>
+                  <c:v>2.5251220703124999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>45169</c:v>
+                  <c:v>2.3845380859374998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>45197</c:v>
+                  <c:v>2.34769091796875</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>45230</c:v>
+                  <c:v>2.2612639160156252</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>45260</c:v>
+                  <c:v>2.2183168945312501</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>45289</c:v>
+                  <c:v>2.1716540527343748</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>45322</c:v>
+                  <c:v>2.0245980224609377</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>45351</c:v>
+                  <c:v>2.2161999511718751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>45380</c:v>
+                  <c:v>2.2355449218749999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>45412</c:v>
+                  <c:v>2.2913749999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>45443</c:v>
+                  <c:v>2.26606298828125</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.1709379882812501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5603,502 +5617,505 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="165"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="166"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>16.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>14.94</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>13.310000419616699</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>13.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>12.899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>12.840000152587891</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>12.390000343322754</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>12.949999809265137</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>12.039999961853027</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>12.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>11.460000038146973</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>10.939999580383301</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>12.100000381469727</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>11.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>11.100000381469727</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>10.350000381469727</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>9.3900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>10.380000114440918</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>10.729999542236328</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>164155.90490155248</c:v>
+                  <c:v>11.390000343322754</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>156260.50288029009</c:v>
+                  <c:v>11.270000457763672</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>151061.48338996636</c:v>
+                  <c:v>11.300000190734863</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>146829.9027039613</c:v>
+                  <c:v>11.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>119642.71663191047</c:v>
+                  <c:v>10.939999580383301</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>126172.36476145795</c:v>
+                  <c:v>11.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>144655.21338487364</c:v>
+                  <c:v>11.819999694824219</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>119342.67813520104</c:v>
+                  <c:v>11.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>112677.33854298841</c:v>
+                  <c:v>11.359999656677246</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>96969.801026288886</c:v>
+                  <c:v>10.970000267028809</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>89126.478187473665</c:v>
+                  <c:v>10.920000076293945</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>80562.472526327823</c:v>
+                  <c:v>10.970000267028809</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>53437.927982934343</c:v>
+                  <c:v>10.600000381469727</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>88968.255640436604</c:v>
+                  <c:v>11.510000228881836</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>92573.011069864559</c:v>
+                  <c:v>11.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>103026.37466832314</c:v>
+                  <c:v>11.979999542236328</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>98264.978281134274</c:v>
+                  <c:v>12.18999958</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12.15999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6120,17 +6137,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502422912"/>
-        <c:axId val="506206080"/>
+        <c:axId val="353111040"/>
+        <c:axId val="562192384"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="502422912"/>
+      <c:catAx>
+        <c:axId val="353111040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6167,14 +6184,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506206080"/>
+        <c:crossAx val="562192384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="506206080"/>
+        <c:axId val="562192384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6225,7 +6243,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502422912"/>
+        <c:crossAx val="353111040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6633,7 +6651,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -13723,8 +13741,38 @@
         <v>12.18999958</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="37"/>
+    <row r="168" spans="1:10" ht="12.75">
+      <c r="A168" s="13">
+        <v>45471</v>
+      </c>
+      <c r="B168" s="14">
+        <v>2.1709379882812501</v>
+      </c>
+      <c r="C168" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D168" s="16">
+        <v>921.26076875342574</v>
+      </c>
+      <c r="E168" s="16">
+        <v>189912.0260280908</v>
+      </c>
+      <c r="F168" s="16">
+        <v>412287.23173583986</v>
+      </c>
+      <c r="G168" s="16">
+        <v>332000</v>
+      </c>
+      <c r="H168" s="16">
+        <v>412287.23173583986</v>
+      </c>
+      <c r="I168" s="16">
+        <v>80287.231735839858</v>
+      </c>
+      <c r="J168" s="31">
+        <f>VLOOKUP(A168,myPEPB!B:C,2)</f>
+        <v>12.15999985</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13741,7 +13789,7 @@
   </sheetPr>
   <dimension ref="A1:D783"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -13754,7 +13802,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="23">
@@ -13762,7 +13810,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="38"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
       </c>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="618">
   <si>
     <t>PE</t>
   </si>
@@ -2348,6 +2348,90 @@
   </si>
   <si>
     <t xml:space="preserve">2024/6/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/7/29
 </t>
   </si>
   <si>
@@ -3016,505 +3100,508 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.5385061035156249</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.3854221191406251</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.4220161132812499</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.5251220703124999</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.3845380859374998</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.34769091796875</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.2612639160156252</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.2183168945312501</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.1716540527343748</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.0245980224609377</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.2161999511718751</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.2355449218749999</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.2913749999999999</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.26606298828125</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.1709379882812501</c:v>
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,504 +3611,507 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>88000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>92000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>96000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>98000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>102000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>106000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>112000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>116000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>118000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>122000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>124000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>132000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>134000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>136000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>138000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>146000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>148000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>152000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>154000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>158000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>164000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>166000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>168000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>172000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>174000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>176000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>178000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>182000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>184000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>186000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>188000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>192000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>194000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>196000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>202000</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>204000</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>206000</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>208000</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>212000</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>214000</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>222000</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>224000</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>226000</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>228000</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>232000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>236000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>238000</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>242000</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>244000</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>246000</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>254000</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>258000</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>262000</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>264000</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>266000</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>268000</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>272000</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>274000</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>276000</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>278000</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>284000</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>286000</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>292000</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>294000</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>296000</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>462155.90490155248</c:v>
+                  <c:v>298000</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>456260.50288029009</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>453061.48338996636</c:v>
+                  <c:v>302000</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>450829.9027039613</c:v>
+                  <c:v>304000</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>425642.71663191047</c:v>
+                  <c:v>306000</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>434172.36476145795</c:v>
+                  <c:v>308000</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>454655.21338487364</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>431342.67813520104</c:v>
+                  <c:v>312000</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>426677.33854298841</c:v>
+                  <c:v>314000</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>412969.80102628889</c:v>
+                  <c:v>316000</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>407126.47818747367</c:v>
+                  <c:v>318000</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>400562.47252632782</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>375437.92798293434</c:v>
+                  <c:v>322000</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>412968.2556404366</c:v>
+                  <c:v>324000</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>418573.01106986456</c:v>
+                  <c:v>326000</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>431026.37466832314</c:v>
+                  <c:v>328000</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>428264.97828113427</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>412287.23173583986</c:v>
+                  <c:v>332000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>334000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,505 +4153,508 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.5385061035156249</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.3854221191406251</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.4220161132812499</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.5251220703124999</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.3845380859374998</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.34769091796875</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.2612639160156252</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.2183168945312501</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.1716540527343748</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.0245980224609377</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.2161999511718751</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.2355449218749999</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.2913749999999999</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.26606298828125</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.1709379882812501</c:v>
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4571,504 +4664,507 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>164155.90490155248</c:v>
+                  <c:v>462155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>156260.50288029009</c:v>
+                  <c:v>456260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>151061.48338996636</c:v>
+                  <c:v>453061.48338996636</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>146829.9027039613</c:v>
+                  <c:v>450829.9027039613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>119642.71663191047</c:v>
+                  <c:v>425642.71663191047</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>126172.36476145795</c:v>
+                  <c:v>434172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>144655.21338487364</c:v>
+                  <c:v>454655.21338487364</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>119342.67813520104</c:v>
+                  <c:v>431342.67813520104</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>112677.33854298841</c:v>
+                  <c:v>426677.33854298841</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>96969.801026288886</c:v>
+                  <c:v>412969.80102628889</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>89126.478187473665</c:v>
+                  <c:v>407126.47818747367</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>80562.472526327823</c:v>
+                  <c:v>400562.47252632782</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>53437.927982934343</c:v>
+                  <c:v>375437.92798293434</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>88968.255640436604</c:v>
+                  <c:v>412968.2556404366</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>92573.011069864559</c:v>
+                  <c:v>418573.01106986456</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>103026.37466832314</c:v>
+                  <c:v>431026.37466832314</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>98264.978281134274</c:v>
+                  <c:v>428264.97828113427</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>80287.231735839858</c:v>
+                  <c:v>412287.23173583986</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>409535.25821347191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,505 +5206,508 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.5385061035156249</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.3854221191406251</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.4220161132812499</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.5251220703124999</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.3845380859374998</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.34769091796875</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.2612639160156252</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.2183168945312501</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.1716540527343748</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.0245980224609377</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.2161999511718751</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.2355449218749999</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.2913749999999999</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.26606298828125</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.1709379882812501</c:v>
+                  <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5617,505 +5716,508 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="167"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>#N/A</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>#N/A</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>#N/A</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>#N/A</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>#N/A</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>#N/A</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>#N/A</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>#N/A</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>#N/A</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>#N/A</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>#N/A</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>#N/A</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>#N/A</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>#N/A</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>#N/A</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>#N/A</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>#N/A</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>#N/A</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>#N/A</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>#N/A</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>#N/A</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>#N/A</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>#N/A</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>#N/A</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>#N/A</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>#N/A</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>#N/A</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>#N/A</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>#N/A</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>#N/A</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>#N/A</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>#N/A</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>#N/A</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>#N/A</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>#N/A</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>#N/A</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>#N/A</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>#N/A</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>#N/A</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>#N/A</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>#N/A</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>#N/A</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>#N/A</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>#N/A</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>#N/A</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>#N/A</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>#N/A</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>#N/A</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>#N/A</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>#N/A</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>#N/A</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>#N/A</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>#N/A</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>#N/A</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>#N/A</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>#N/A</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>#N/A</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>#N/A</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>#N/A</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>#N/A</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>#N/A</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>#N/A</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>#N/A</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>#N/A</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>#N/A</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>#N/A</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>#N/A</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>#N/A</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>#N/A</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>#N/A</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>#N/A</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>#N/A</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>#N/A</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>#N/A</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>#N/A</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>#N/A</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>#N/A</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>#N/A</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>#N/A</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>16.649999999999999</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>14.94</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>14.7</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>13.310000419616699</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>13.430000305175781</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12.899999618530273</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.840000152587891</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12.390000343322754</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.949999809265137</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.039999961853027</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>12.239999771118164</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>11.460000038146973</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>11.140000343322754</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.939999580383301</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>12.100000381469727</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>11.239999771118164</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>11.100000381469727</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>10.350000381469727</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>9.3900003433227539</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>10.380000114440918</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>10.729999542236328</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>11.390000343322754</c:v>
+                  <c:v>164155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>11.270000457763672</c:v>
+                  <c:v>156260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>11.300000190734863</c:v>
+                  <c:v>151061.48338996636</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>11.409999847412109</c:v>
+                  <c:v>146829.9027039613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>10.939999580383301</c:v>
+                  <c:v>119642.71663191047</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>11.399999618530273</c:v>
+                  <c:v>126172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>11.819999694824219</c:v>
+                  <c:v>144655.21338487364</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>11.220000267028809</c:v>
+                  <c:v>119342.67813520104</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>11.359999656677246</c:v>
+                  <c:v>112677.33854298841</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>10.970000267028809</c:v>
+                  <c:v>96969.801026288886</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>10.920000076293945</c:v>
+                  <c:v>89126.478187473665</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>10.970000267028809</c:v>
+                  <c:v>80562.472526327823</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>10.600000381469727</c:v>
+                  <c:v>53437.927982934343</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>11.510000228881836</c:v>
+                  <c:v>88968.255640436604</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>11.680000305175781</c:v>
+                  <c:v>92573.011069864559</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11.979999542236328</c:v>
+                  <c:v>103026.37466832314</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12.18999958</c:v>
+                  <c:v>98264.978281134274</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>12.15999985</c:v>
+                  <c:v>80287.231735839858</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>75535.258213471912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6137,17 +6239,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353111040"/>
-        <c:axId val="562192384"/>
+        <c:axId val="501172864"/>
+        <c:axId val="502296960"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="353111040"/>
+      <c:dateAx>
+        <c:axId val="501172864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6184,15 +6286,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562192384"/>
+        <c:crossAx val="502296960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="562192384"/>
+        <c:axId val="502296960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,7 +6344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353111040"/>
+        <c:crossAx val="501172864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6649,9 +6750,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -6679,31 +6780,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -6717,7 +6818,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6759,25 +6860,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -13772,6 +13873,39 @@
       <c r="J168" s="31">
         <f>VLOOKUP(A168,myPEPB!B:C,2)</f>
         <v>12.15999985</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="12.75">
+      <c r="A169" s="13">
+        <v>45504</v>
+      </c>
+      <c r="B169" s="14">
+        <v>2.1459160156250001</v>
+      </c>
+      <c r="C169" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D169" s="16">
+        <v>932.00292343104491</v>
+      </c>
+      <c r="E169" s="16">
+        <v>190844.02895152185</v>
+      </c>
+      <c r="F169" s="16">
+        <v>409535.25821347191</v>
+      </c>
+      <c r="G169" s="16">
+        <v>334000</v>
+      </c>
+      <c r="H169" s="16">
+        <v>409535.25821347191</v>
+      </c>
+      <c r="I169" s="16">
+        <v>75535.258213471912</v>
+      </c>
+      <c r="J169" s="31">
+        <f>VLOOKUP(A169,myPEPB!B:C,2)</f>
+        <v>11.960000040000001</v>
       </c>
     </row>
   </sheetData>
@@ -13787,9 +13921,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D783"/>
+  <dimension ref="A1:D806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -25083,7 +25217,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="17">
-        <f t="shared" ref="A707:A783" si="5">A706+1</f>
+        <f t="shared" ref="A707:A806" si="5">A706+1</f>
         <v>705</v>
       </c>
       <c r="B707" s="20" t="s">
@@ -26311,6 +26445,374 @@
       <c r="D783" s="17">
         <f>SUM($C$3:C783)/A783</f>
         <v>11.885312171980976</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" s="17">
+        <f t="shared" si="5"/>
+        <v>782</v>
+      </c>
+      <c r="B784" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C784" s="21">
+        <v>12.25</v>
+      </c>
+      <c r="D784" s="17">
+        <f>SUM($C$3:C784)/A784</f>
+        <v>11.885778524702229</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" s="17">
+        <f t="shared" si="5"/>
+        <v>783</v>
+      </c>
+      <c r="B785" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="C785" s="21">
+        <v>12.27000046</v>
+      </c>
+      <c r="D785" s="17">
+        <f>SUM($C$3:C785)/A785</f>
+        <v>11.886269229600437</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" s="17">
+        <f t="shared" si="5"/>
+        <v>784</v>
+      </c>
+      <c r="B786" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C786" s="21">
+        <v>12.210000040000001</v>
+      </c>
+      <c r="D786" s="17">
+        <f>SUM($C$3:C786)/A786</f>
+        <v>11.886682151552478</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" s="17">
+        <f t="shared" si="5"/>
+        <v>785</v>
+      </c>
+      <c r="B787" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C787" s="21">
+        <v>12.18999958</v>
+      </c>
+      <c r="D787" s="17">
+        <f>SUM($C$3:C787)/A787</f>
+        <v>11.887068543181073</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="A788" s="17">
+        <f t="shared" si="5"/>
+        <v>786</v>
+      </c>
+      <c r="B788" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C788" s="21">
+        <v>12.10999966</v>
+      </c>
+      <c r="D788" s="17">
+        <f>SUM($C$3:C788)/A788</f>
+        <v>11.887352170556161</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" s="17">
+        <f t="shared" si="5"/>
+        <v>787</v>
+      </c>
+      <c r="B789" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="C789" s="21">
+        <v>12.039999959999999</v>
+      </c>
+      <c r="D789" s="17">
+        <f>SUM($C$3:C789)/A789</f>
+        <v>11.887546132169176</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="A790" s="17">
+        <f t="shared" si="5"/>
+        <v>788</v>
+      </c>
+      <c r="B790" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C790" s="21">
+        <v>12.15999985</v>
+      </c>
+      <c r="D790" s="17">
+        <f>SUM($C$3:C790)/A790</f>
+        <v>11.887891885618201</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="17">
+        <f t="shared" si="5"/>
+        <v>789</v>
+      </c>
+      <c r="B791" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C791" s="21">
+        <v>12.10999966</v>
+      </c>
+      <c r="D791" s="17">
+        <f>SUM($C$3:C791)/A791</f>
+        <v>11.88817339103567</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" s="17">
+        <f t="shared" si="5"/>
+        <v>790</v>
+      </c>
+      <c r="B792" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C792" s="21">
+        <v>12.210000040000001</v>
+      </c>
+      <c r="D792" s="17">
+        <f>SUM($C$3:C792)/A792</f>
+        <v>11.888580766540688</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" s="17">
+        <f t="shared" si="5"/>
+        <v>791</v>
+      </c>
+      <c r="B793" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="C793" s="21">
+        <v>12.22999954</v>
+      </c>
+      <c r="D793" s="17">
+        <f>SUM($C$3:C793)/A793</f>
+        <v>11.889012395837097</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="17">
+        <f t="shared" si="5"/>
+        <v>792</v>
+      </c>
+      <c r="B794" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="C794" s="21">
+        <v>12.27000046</v>
+      </c>
+      <c r="D794" s="17">
+        <f>SUM($C$3:C794)/A794</f>
+        <v>11.889493441372656</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="A795" s="17">
+        <f t="shared" si="5"/>
+        <v>793</v>
+      </c>
+      <c r="B795" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="C795" s="21">
+        <v>12.289999959999999</v>
+      </c>
+      <c r="D795" s="17">
+        <f>SUM($C$3:C795)/A795</f>
+        <v>11.889998493729058</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4">
+      <c r="A796" s="17">
+        <f t="shared" si="5"/>
+        <v>794</v>
+      </c>
+      <c r="B796" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="C796" s="21">
+        <v>12.260000229999999</v>
+      </c>
+      <c r="D796" s="17">
+        <f>SUM($C$3:C796)/A796</f>
+        <v>11.890464490878013</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" s="17">
+        <f t="shared" si="5"/>
+        <v>795</v>
+      </c>
+      <c r="B797" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="C797" s="21">
+        <v>12.329999920000001</v>
+      </c>
+      <c r="D797" s="17">
+        <f>SUM($C$3:C797)/A797</f>
+        <v>11.891017365631628</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4">
+      <c r="A798" s="17">
+        <f t="shared" si="5"/>
+        <v>796</v>
+      </c>
+      <c r="B798" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="C798" s="21">
+        <v>12.34000015</v>
+      </c>
+      <c r="D798" s="17">
+        <f>SUM($C$3:C798)/A798</f>
+        <v>11.891581414355707</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4">
+      <c r="A799" s="17">
+        <f t="shared" si="5"/>
+        <v>797</v>
+      </c>
+      <c r="B799" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="C799" s="21">
+        <v>12.22999954</v>
+      </c>
+      <c r="D799" s="17">
+        <f>SUM($C$3:C799)/A799</f>
+        <v>11.892006029318877</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4">
+      <c r="A800" s="17">
+        <f t="shared" si="5"/>
+        <v>798</v>
+      </c>
+      <c r="B800" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="C800" s="21">
+        <v>12.039999959999999</v>
+      </c>
+      <c r="D800" s="17">
+        <f>SUM($C$3:C800)/A800</f>
+        <v>11.892191485372361</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="A801" s="17">
+        <f t="shared" si="5"/>
+        <v>799</v>
+      </c>
+      <c r="B801" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="C801" s="21">
+        <v>12.039999959999999</v>
+      </c>
+      <c r="D801" s="17">
+        <f>SUM($C$3:C801)/A801</f>
+        <v>11.892376477205437</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="A802" s="17">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="B802" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="C802" s="21">
+        <v>11.90999985</v>
+      </c>
+      <c r="D802" s="17">
+        <f>SUM($C$3:C802)/A802</f>
+        <v>11.892398506421429</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="A803" s="17">
+        <f t="shared" si="5"/>
+        <v>801</v>
+      </c>
+      <c r="B803" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="C803" s="21">
+        <v>11.899999619999999</v>
+      </c>
+      <c r="D803" s="17">
+        <f>SUM($C$3:C803)/A803</f>
+        <v>11.892407995951491</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="A804" s="17">
+        <f t="shared" si="5"/>
+        <v>802</v>
+      </c>
+      <c r="B804" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="C804" s="21">
+        <v>11.869999890000001</v>
+      </c>
+      <c r="D804" s="17">
+        <f>SUM($C$3:C804)/A804</f>
+        <v>11.892380055669754</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4">
+      <c r="A805" s="17">
+        <f t="shared" si="5"/>
+        <v>803</v>
+      </c>
+      <c r="B805" s="20">
+        <v>45503</v>
+      </c>
+      <c r="C805" s="21">
+        <v>11.760000229999999</v>
+      </c>
+      <c r="D805" s="17">
+        <f>SUM($C$3:C805)/A805</f>
+        <v>11.892215199099805</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4">
+      <c r="A806" s="17">
+        <f t="shared" si="5"/>
+        <v>804</v>
+      </c>
+      <c r="B806" s="20">
+        <v>45504</v>
+      </c>
+      <c r="C806" s="21">
+        <v>11.960000040000001</v>
+      </c>
+      <c r="D806" s="17">
+        <f>SUM($C$3:C806)/A806</f>
+        <v>11.892299508603413</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="638">
   <si>
     <t>PE</t>
   </si>
@@ -2432,6 +2432,86 @@
   </si>
   <si>
     <t xml:space="preserve">2024/7/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/8/28
 </t>
   </si>
   <si>
@@ -2802,7 +2882,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2888,8 +2968,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2963,11 +3044,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="32">
     <cellStyle name="20% - 着色 1" xfId="4"/>
     <cellStyle name="20% - 着色 2" xfId="5"/>
     <cellStyle name="20% - 着色 3" xfId="6"/>
@@ -2991,6 +3078,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 4" xfId="30"/>
+    <cellStyle name="常规 5" xfId="31"/>
     <cellStyle name="常规_主要板块" xfId="2"/>
     <cellStyle name="好_主要板块" xfId="23"/>
     <cellStyle name="着色 1" xfId="24"/>
@@ -3101,7 +3189,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="167"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3602,6 +3690,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3611,7 +3702,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="167"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4112,6 +4203,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>334000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>336000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4154,7 +4248,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="167"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4655,6 +4749,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4664,7 +4761,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="167"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5165,6 +5262,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>409535.25821347191</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>398933.26227730315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5207,7 +5307,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="167"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5708,6 +5808,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5717,7 +5820,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="167"/>
+                <c:ptCount val="168"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6218,6 +6321,9 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>75535.258213471912</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>62933.262277303147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6239,11 +6345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501172864"/>
-        <c:axId val="502296960"/>
+        <c:axId val="452185472"/>
+        <c:axId val="467375616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501172864"/>
+        <c:axId val="452185472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6286,14 +6392,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502296960"/>
+        <c:crossAx val="467375616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502296960"/>
+        <c:axId val="467375616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6344,7 +6450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501172864"/>
+        <c:crossAx val="452185472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6750,7 +6856,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB169"/>
+  <dimension ref="A1:AB170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6780,31 +6886,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -6818,7 +6924,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6860,25 +6966,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -13906,6 +14012,39 @@
       <c r="J169" s="31">
         <f>VLOOKUP(A169,myPEPB!B:C,2)</f>
         <v>11.960000040000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="12.75">
+      <c r="A170" s="13">
+        <v>45534</v>
+      </c>
+      <c r="B170" s="14">
+        <v>2.0798830566406248</v>
+      </c>
+      <c r="C170" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D170" s="16">
+        <v>961.59252493279598</v>
+      </c>
+      <c r="E170" s="16">
+        <v>191805.62147645463</v>
+      </c>
+      <c r="F170" s="16">
+        <v>398933.26227730315</v>
+      </c>
+      <c r="G170" s="16">
+        <v>336000</v>
+      </c>
+      <c r="H170" s="16">
+        <v>398933.26227730315</v>
+      </c>
+      <c r="I170" s="16">
+        <v>62933.262277303147</v>
+      </c>
+      <c r="J170" s="31">
+        <f>VLOOKUP(A170,myPEPB!B:C,2)</f>
+        <v>11.69999981</v>
       </c>
     </row>
   </sheetData>
@@ -13921,7 +14060,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D806"/>
+  <dimension ref="A1:D828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -13936,7 +14075,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="23">
@@ -13944,7 +14083,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="37"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
@@ -26813,6 +26952,359 @@
       <c r="D806" s="17">
         <f>SUM($C$3:C806)/A806</f>
         <v>11.892299508603413</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4">
+      <c r="A807" s="17">
+        <f t="shared" ref="A807:A828" si="6">A806+1</f>
+        <v>805</v>
+      </c>
+      <c r="B807" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="C807" s="38">
+        <v>11.89000034</v>
+      </c>
+      <c r="D807" s="17">
+        <f>SUM(C$3:C807)/A807</f>
+        <v>11.892296652493346</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4">
+      <c r="A808" s="17">
+        <f t="shared" si="6"/>
+        <v>806</v>
+      </c>
+      <c r="B808" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="C808" s="38">
+        <v>11.77999973</v>
+      </c>
+      <c r="D808" s="17">
+        <f>SUM(C$3:C808)/A808</f>
+        <v>11.89215732628678</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4">
+      <c r="A809" s="17">
+        <f t="shared" si="6"/>
+        <v>807</v>
+      </c>
+      <c r="B809" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="C809" s="38">
+        <v>11.649999619999999</v>
+      </c>
+      <c r="D809" s="17">
+        <f>SUM(C$3:C809)/A809</f>
+        <v>11.891857254779609</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4">
+      <c r="A810" s="17">
+        <f t="shared" si="6"/>
+        <v>808</v>
+      </c>
+      <c r="B810" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="C810" s="38">
+        <v>11.630000109999999</v>
+      </c>
+      <c r="D810" s="17">
+        <f>SUM(C$3:C810)/A810</f>
+        <v>11.891533174154883</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4">
+      <c r="A811" s="17">
+        <f t="shared" si="6"/>
+        <v>809</v>
+      </c>
+      <c r="B811" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C811" s="38">
+        <v>11.649999619999999</v>
+      </c>
+      <c r="D811" s="17">
+        <f>SUM(C$3:C811)/A811</f>
+        <v>11.891234615991527</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4">
+      <c r="A812" s="17">
+        <f t="shared" si="6"/>
+        <v>810</v>
+      </c>
+      <c r="B812" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="C812" s="38">
+        <v>11.670000079999999</v>
+      </c>
+      <c r="D812" s="17">
+        <f>SUM(C$3:C812)/A812</f>
+        <v>11.890961486934746</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4">
+      <c r="A813" s="17">
+        <f t="shared" si="6"/>
+        <v>811</v>
+      </c>
+      <c r="B813" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="C813" s="38">
+        <v>11.65999985</v>
+      </c>
+      <c r="D813" s="17">
+        <f>SUM(C$3:C813)/A813</f>
+        <v>11.890676700699316</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4">
+      <c r="A814" s="17">
+        <f t="shared" si="6"/>
+        <v>812</v>
+      </c>
+      <c r="B814" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C814" s="38">
+        <v>11.65999985</v>
+      </c>
+      <c r="D814" s="17">
+        <f>SUM(C$3:C814)/A814</f>
+        <v>11.890392615907814</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4">
+      <c r="A815" s="17">
+        <f t="shared" si="6"/>
+        <v>813</v>
+      </c>
+      <c r="B815" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C815" s="38">
+        <v>11.68000031</v>
+      </c>
+      <c r="D815" s="17">
+        <f>SUM(C$3:C815)/A815</f>
+        <v>11.890133830783697</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4">
+      <c r="A816" s="17">
+        <f t="shared" si="6"/>
+        <v>814</v>
+      </c>
+      <c r="B816" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="C816" s="38">
+        <v>11.60999966</v>
+      </c>
+      <c r="D816" s="17">
+        <f>SUM(C$3:C816)/A816</f>
+        <v>11.889789685610744</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4">
+      <c r="A817" s="17">
+        <f t="shared" si="6"/>
+        <v>815</v>
+      </c>
+      <c r="B817" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C817" s="38">
+        <v>11.710000040000001</v>
+      </c>
+      <c r="D817" s="17">
+        <f>SUM(C$3:C817)/A817</f>
+        <v>11.889569084818584</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4">
+      <c r="A818" s="17">
+        <f t="shared" si="6"/>
+        <v>816</v>
+      </c>
+      <c r="B818" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="C818" s="38">
+        <v>11.760000229999999</v>
+      </c>
+      <c r="D818" s="17">
+        <f>SUM(C$3:C818)/A818</f>
+        <v>11.889410299457287</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4">
+      <c r="A819" s="17">
+        <f t="shared" si="6"/>
+        <v>817</v>
+      </c>
+      <c r="B819" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="C819" s="38">
+        <f>(C818+C820)/2</f>
+        <v>11.755000115</v>
+      </c>
+      <c r="D819" s="17">
+        <f>SUM(C$3:C819)/A819</f>
+        <v>11.889245782707645</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4">
+      <c r="A820" s="17">
+        <f t="shared" si="6"/>
+        <v>818</v>
+      </c>
+      <c r="B820" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="C820" s="38">
+        <v>11.75</v>
+      </c>
+      <c r="D820" s="17">
+        <f>SUM(C$3:C820)/A820</f>
+        <v>11.88907555558942</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4">
+      <c r="A821" s="17">
+        <f t="shared" si="6"/>
+        <v>819</v>
+      </c>
+      <c r="B821" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="C821" s="38">
+        <v>11.72000027</v>
+      </c>
+      <c r="D821" s="17">
+        <f>SUM(C$3:C821)/A821</f>
+        <v>11.888869114459274</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4">
+      <c r="A822" s="17">
+        <f t="shared" si="6"/>
+        <v>820</v>
+      </c>
+      <c r="B822" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="C822" s="38">
+        <v>11.72999954</v>
+      </c>
+      <c r="D822" s="17">
+        <f>SUM(C$3:C822)/A822</f>
+        <v>11.888675371075788</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4">
+      <c r="A823" s="17">
+        <f t="shared" si="6"/>
+        <v>821</v>
+      </c>
+      <c r="B823" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="C823" s="38">
+        <v>11.77999973</v>
+      </c>
+      <c r="D823" s="17">
+        <f>SUM(C$3:C823)/A823</f>
+        <v>11.888543001232822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4">
+      <c r="A824" s="17">
+        <f t="shared" si="6"/>
+        <v>822</v>
+      </c>
+      <c r="B824" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="C824" s="38">
+        <v>11.77000046</v>
+      </c>
+      <c r="D824" s="17">
+        <f>SUM(C$3:C824)/A824</f>
+        <v>11.888398788895556</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4">
+      <c r="A825" s="17">
+        <f t="shared" si="6"/>
+        <v>823</v>
+      </c>
+      <c r="B825" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="C825" s="38">
+        <v>11.77999973</v>
+      </c>
+      <c r="D825" s="17">
+        <f>SUM(C$3:C825)/A825</f>
+        <v>11.888267076794833</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4">
+      <c r="A826" s="17">
+        <f t="shared" si="6"/>
+        <v>824</v>
+      </c>
+      <c r="B826" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="C826" s="38">
+        <v>11.69999981</v>
+      </c>
+      <c r="D826" s="17">
+        <f>SUM(C$3:C826)/A826</f>
+        <v>11.888038597102121</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4">
+      <c r="A827" s="17">
+        <f t="shared" si="6"/>
+        <v>825</v>
+      </c>
+      <c r="B827" s="37">
+        <v>45533</v>
+      </c>
+      <c r="C827" s="38">
+        <v>11.600000380000001</v>
+      </c>
+      <c r="D827" s="17">
+        <f>SUM(C$3:C827)/A827</f>
+        <v>11.88768945986927</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4">
+      <c r="A828" s="17">
+        <f t="shared" si="6"/>
+        <v>826</v>
+      </c>
+      <c r="B828" s="37">
+        <v>45534</v>
+      </c>
+      <c r="C828" s="38">
+        <v>11.69999981</v>
+      </c>
+      <c r="D828" s="17">
+        <f>SUM(C$3:C828)/A828</f>
+        <v>11.88746223269025</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="655">
   <si>
     <t>PE</t>
   </si>
@@ -2512,6 +2512,74 @@
   </si>
   <si>
     <t xml:space="preserve">2024/8/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/9/26
 </t>
   </si>
   <si>
@@ -6345,11 +6413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452185472"/>
-        <c:axId val="467375616"/>
+        <c:axId val="97820672"/>
+        <c:axId val="98240384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452185472"/>
+        <c:axId val="97820672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6392,14 +6460,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467375616"/>
+        <c:crossAx val="98240384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467375616"/>
+        <c:axId val="98240384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6450,7 +6518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452185472"/>
+        <c:crossAx val="97820672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6886,31 +6954,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -6924,7 +6992,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -6966,25 +7034,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14060,7 +14128,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D828"/>
+  <dimension ref="A1:D847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -26956,7 +27024,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A828" si="6">A806+1</f>
+        <f t="shared" ref="A807:A847" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -27305,6 +27373,310 @@
       <c r="D828" s="17">
         <f>SUM(C$3:C828)/A828</f>
         <v>11.88746223269025</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4">
+      <c r="A829" s="17">
+        <f t="shared" si="6"/>
+        <v>827</v>
+      </c>
+      <c r="B829" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="C829" s="38">
+        <v>11.350000380000001</v>
+      </c>
+      <c r="D829" s="17">
+        <f>SUM(C$3:C829)/A829</f>
+        <v>11.886812339277082</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4">
+      <c r="A830" s="17">
+        <f t="shared" si="6"/>
+        <v>828</v>
+      </c>
+      <c r="B830" s="37" t="s">
+        <v>624</v>
+      </c>
+      <c r="C830" s="38">
+        <v>11.289999959999999</v>
+      </c>
+      <c r="D830" s="17">
+        <f>SUM(C$3:C830)/A830</f>
+        <v>11.886091551379403</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4">
+      <c r="A831" s="17">
+        <f t="shared" si="6"/>
+        <v>829</v>
+      </c>
+      <c r="B831" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="C831" s="38">
+        <v>11.19999981</v>
+      </c>
+      <c r="D831" s="17">
+        <f>SUM(C$3:C831)/A831</f>
+        <v>11.885263937698609</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4">
+      <c r="A832" s="17">
+        <f t="shared" si="6"/>
+        <v>830</v>
+      </c>
+      <c r="B832" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="C832" s="38">
+        <v>11.19999981</v>
+      </c>
+      <c r="D832" s="17">
+        <f>SUM(C$3:C832)/A832</f>
+        <v>11.884438318267646</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4">
+      <c r="A833" s="17">
+        <f t="shared" si="6"/>
+        <v>831</v>
+      </c>
+      <c r="B833" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="C833" s="38">
+        <v>11.10999966</v>
+      </c>
+      <c r="D833" s="17">
+        <f>SUM(C$3:C833)/A833</f>
+        <v>11.883506382457456</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4">
+      <c r="A834" s="17">
+        <f t="shared" si="6"/>
+        <v>832</v>
+      </c>
+      <c r="B834" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="C834" s="38">
+        <v>10.97000027</v>
+      </c>
+      <c r="D834" s="17">
+        <f>SUM(C$3:C834)/A834</f>
+        <v>11.882408418379983</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4">
+      <c r="A835" s="17">
+        <f t="shared" si="6"/>
+        <v>833</v>
+      </c>
+      <c r="B835" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="C835" s="38">
+        <v>11.010000229999999</v>
+      </c>
+      <c r="D835" s="17">
+        <f>SUM(C$3:C835)/A835</f>
+        <v>11.881361109630427</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4">
+      <c r="A836" s="17">
+        <f t="shared" si="6"/>
+        <v>834</v>
+      </c>
+      <c r="B836" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="C836" s="38">
+        <v>10.920000079999999</v>
+      </c>
+      <c r="D836" s="17">
+        <f>SUM(C$3:C836)/A836</f>
+        <v>11.880208398563724</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4">
+      <c r="A837" s="17">
+        <f t="shared" si="6"/>
+        <v>835</v>
+      </c>
+      <c r="B837" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="C837" s="38">
+        <v>10.89000034</v>
+      </c>
+      <c r="D837" s="17">
+        <f>SUM(C$3:C837)/A837</f>
+        <v>11.879022520649276</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4">
+      <c r="A838" s="17">
+        <f t="shared" si="6"/>
+        <v>836</v>
+      </c>
+      <c r="B838" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="C838" s="38">
+        <v>10.850000380000001</v>
+      </c>
+      <c r="D838" s="17">
+        <f>SUM(C$3:C838)/A838</f>
+        <v>11.877791632921227</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4">
+      <c r="A839" s="17">
+        <f t="shared" si="6"/>
+        <v>837</v>
+      </c>
+      <c r="B839" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="C839" s="38">
+        <v>10.93999958</v>
+      </c>
+      <c r="D839" s="17">
+        <f>SUM(C$3:C839)/A839</f>
+        <v>11.876671212308416</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4">
+      <c r="A840" s="17">
+        <f t="shared" si="6"/>
+        <v>838</v>
+      </c>
+      <c r="B840" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="C840" s="38">
+        <v>10.97000027</v>
+      </c>
+      <c r="D840" s="17">
+        <f>SUM(C$3:C840)/A840</f>
+        <v>11.875589266076544</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4">
+      <c r="A841" s="17">
+        <f t="shared" si="6"/>
+        <v>839</v>
+      </c>
+      <c r="B841" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="C841" s="38">
+        <v>11</v>
+      </c>
+      <c r="D841" s="17">
+        <f>SUM(C$3:C841)/A841</f>
+        <v>11.874545655509111</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4">
+      <c r="A842" s="17">
+        <f t="shared" si="6"/>
+        <v>840</v>
+      </c>
+      <c r="B842" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="C842" s="38">
+        <v>11.06000042</v>
+      </c>
+      <c r="D842" s="17">
+        <f>SUM(C$3:C842)/A842</f>
+        <v>11.873575958800172</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4">
+      <c r="A843" s="17">
+        <f t="shared" si="6"/>
+        <v>841</v>
+      </c>
+      <c r="B843" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="C843" s="38">
+        <v>11.55000019</v>
+      </c>
+      <c r="D843" s="17">
+        <f>SUM(C$3:C843)/A843</f>
+        <v>11.873191207588757</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4">
+      <c r="A844" s="17">
+        <f t="shared" si="6"/>
+        <v>842</v>
+      </c>
+      <c r="B844" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="C844" s="38">
+        <v>11.69999981</v>
+      </c>
+      <c r="D844" s="17">
+        <f>SUM(C$3:C844)/A844</f>
+        <v>11.872985517092808</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4">
+      <c r="A845" s="17">
+        <f t="shared" si="6"/>
+        <v>843</v>
+      </c>
+      <c r="B845" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="C845" s="38">
+        <v>12.14000034</v>
+      </c>
+      <c r="D845" s="17">
+        <f>SUM(C$3:C845)/A845</f>
+        <v>11.873302260654976</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4">
+      <c r="A846" s="17">
+        <f t="shared" si="6"/>
+        <v>844</v>
+      </c>
+      <c r="B846" s="37">
+        <v>45562</v>
+      </c>
+      <c r="C846" s="38">
+        <v>12.52000046</v>
+      </c>
+      <c r="D846" s="17">
+        <f>SUM(C$3:C846)/A846</f>
+        <v>11.874068490748986</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4">
+      <c r="A847" s="17">
+        <f t="shared" si="6"/>
+        <v>845</v>
+      </c>
+      <c r="B847" s="37">
+        <v>45565</v>
+      </c>
+      <c r="C847" s="38">
+        <v>13.47999954</v>
+      </c>
+      <c r="D847" s="17">
+        <f>SUM(C$3:C847)/A847</f>
+        <v>11.875969000866442</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -6431,11 +6431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474206976"/>
-        <c:axId val="474208512"/>
+        <c:axId val="436581120"/>
+        <c:axId val="436582656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474206976"/>
+        <c:axId val="436581120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6478,14 +6478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474208512"/>
+        <c:crossAx val="436582656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474208512"/>
+        <c:axId val="436582656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6536,7 +6536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474206976"/>
+        <c:crossAx val="436581120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="671">
   <si>
     <t>PE</t>
   </si>
@@ -2580,6 +2580,70 @@
   </si>
   <si>
     <t xml:space="preserve">2024/9/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/10/29
 </t>
   </si>
   <si>
@@ -6431,11 +6495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436581120"/>
-        <c:axId val="436582656"/>
+        <c:axId val="87558016"/>
+        <c:axId val="89511424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436581120"/>
+        <c:axId val="87558016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6478,14 +6542,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436582656"/>
+        <c:crossAx val="89511424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436582656"/>
+        <c:axId val="89511424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6536,7 +6600,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436581120"/>
+        <c:crossAx val="87558016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6972,31 +7036,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7010,7 +7074,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7052,25 +7116,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14179,9 +14243,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D847"/>
+  <dimension ref="A1:D865"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -27075,7 +27139,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A847" si="6">A806+1</f>
+        <f t="shared" ref="A807:A865" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -27727,6 +27791,294 @@
       <c r="D847" s="17">
         <f>SUM(C$3:C847)/A847</f>
         <v>11.875969000730349</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4">
+      <c r="A848" s="17">
+        <f t="shared" si="6"/>
+        <v>846</v>
+      </c>
+      <c r="B848" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="C848" s="38">
+        <v>14.100000380000001</v>
+      </c>
+      <c r="D848" s="17">
+        <f>SUM(C$3:C848)/A848</f>
+        <v>11.878597879429249</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4">
+      <c r="A849" s="17">
+        <f t="shared" si="6"/>
+        <v>847</v>
+      </c>
+      <c r="B849" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="C849" s="38">
+        <v>13.09000015</v>
+      </c>
+      <c r="D849" s="17">
+        <f>SUM(C$3:C849)/A849</f>
+        <v>11.880028106431102</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4">
+      <c r="A850" s="17">
+        <f t="shared" si="6"/>
+        <v>848</v>
+      </c>
+      <c r="B850" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="C850" s="38">
+        <v>13.329999920000001</v>
+      </c>
+      <c r="D850" s="17">
+        <f>SUM(C$3:C850)/A850</f>
+        <v>11.881737978852764</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4">
+      <c r="A851" s="17">
+        <f t="shared" si="6"/>
+        <v>849</v>
+      </c>
+      <c r="B851" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="C851" s="38">
+        <v>13.02000046</v>
+      </c>
+      <c r="D851" s="17">
+        <f>SUM(C$3:C851)/A851</f>
+        <v>11.883078688488979</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4">
+      <c r="A852" s="17">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="B852" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="C852" s="38">
+        <v>13.260000229999999</v>
+      </c>
+      <c r="D852" s="17">
+        <f>SUM(C$3:C852)/A852</f>
+        <v>11.884698596184876</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4">
+      <c r="A853" s="17">
+        <f t="shared" si="6"/>
+        <v>851</v>
+      </c>
+      <c r="B853" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="C853" s="38">
+        <v>12.89000034</v>
+      </c>
+      <c r="D853" s="17">
+        <f>SUM(C$3:C853)/A853</f>
+        <v>11.885879914332719</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4">
+      <c r="A854" s="17">
+        <f t="shared" si="6"/>
+        <v>852</v>
+      </c>
+      <c r="B854" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="C854" s="38">
+        <v>12.829999920000001</v>
+      </c>
+      <c r="D854" s="17">
+        <f>SUM(C$3:C854)/A854</f>
+        <v>11.886988036405098</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4">
+      <c r="A855" s="17">
+        <f t="shared" si="6"/>
+        <v>853</v>
+      </c>
+      <c r="B855" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="C855" s="38">
+        <v>12.670000079999999</v>
+      </c>
+      <c r="D855" s="17">
+        <f>SUM(C$3:C855)/A855</f>
+        <v>11.887905987218222</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4">
+      <c r="A856" s="17">
+        <f t="shared" si="6"/>
+        <v>854</v>
+      </c>
+      <c r="B856" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="C856" s="38">
+        <v>13.039999959999999</v>
+      </c>
+      <c r="D856" s="17">
+        <f>SUM(C$3:C856)/A856</f>
+        <v>11.889255043392438</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4">
+      <c r="A857" s="17">
+        <f t="shared" si="6"/>
+        <v>855</v>
+      </c>
+      <c r="B857" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C857" s="38">
+        <v>13.010000229999999</v>
+      </c>
+      <c r="D857" s="17">
+        <f>SUM(C$3:C857)/A857</f>
+        <v>11.890565856476192</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4">
+      <c r="A858" s="17">
+        <f t="shared" si="6"/>
+        <v>856</v>
+      </c>
+      <c r="B858" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="C858" s="38">
+        <v>13.100000380000001</v>
+      </c>
+      <c r="D858" s="17">
+        <f>SUM(C$3:C858)/A858</f>
+        <v>11.891978747274701</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4">
+      <c r="A859" s="17">
+        <f t="shared" si="6"/>
+        <v>857</v>
+      </c>
+      <c r="B859" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="C859" s="38">
+        <v>13.14000034</v>
+      </c>
+      <c r="D859" s="17">
+        <f>SUM(C$3:C859)/A859</f>
+        <v>11.893435015177529</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4">
+      <c r="A860" s="17">
+        <f t="shared" si="6"/>
+        <v>858</v>
+      </c>
+      <c r="B860" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="C860" s="38">
+        <v>13.02000046</v>
+      </c>
+      <c r="D860" s="17">
+        <f>SUM(C$3:C860)/A860</f>
+        <v>11.894748028516483</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4">
+      <c r="A861" s="17">
+        <f t="shared" si="6"/>
+        <v>859</v>
+      </c>
+      <c r="B861" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="C861" s="38">
+        <v>13.06999969</v>
+      </c>
+      <c r="D861" s="17">
+        <f>SUM(C$3:C861)/A861</f>
+        <v>11.89611619110261</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4">
+      <c r="A862" s="17">
+        <f t="shared" si="6"/>
+        <v>860</v>
+      </c>
+      <c r="B862" s="37" t="s">
+        <v>654</v>
+      </c>
+      <c r="C862" s="38">
+        <v>13.079999920000001</v>
+      </c>
+      <c r="D862" s="17">
+        <f>SUM(C$3:C862)/A862</f>
+        <v>11.897492800089701</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4">
+      <c r="A863" s="17">
+        <f t="shared" si="6"/>
+        <v>861</v>
+      </c>
+      <c r="B863" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="C863" s="38">
+        <v>12.94999981</v>
+      </c>
+      <c r="D863" s="17">
+        <f>SUM(C$3:C863)/A863</f>
+        <v>11.89871522402688</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4">
+      <c r="A864" s="17">
+        <f t="shared" si="6"/>
+        <v>862</v>
+      </c>
+      <c r="B864" s="37">
+        <v>45595</v>
+      </c>
+      <c r="C864" s="38">
+        <v>12.81000042</v>
+      </c>
+      <c r="D864" s="17">
+        <f>SUM(C$3:C864)/A864</f>
+        <v>11.89977239942824</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4">
+      <c r="A865" s="17">
+        <f t="shared" si="6"/>
+        <v>863</v>
+      </c>
+      <c r="B865" s="37">
+        <v>45596</v>
+      </c>
+      <c r="C865" s="38">
+        <v>12.789999959999999</v>
+      </c>
+      <c r="D865" s="17">
+        <f>SUM(C$3:C865)/A865</f>
+        <v>11.900803949324615</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -3320,514 +3320,517 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="169"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>45044</c:v>
+                  <c:v>2.5385061035156249</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>45077</c:v>
+                  <c:v>2.3854221191406251</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>45107</c:v>
+                  <c:v>2.4220161132812499</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>45138</c:v>
+                  <c:v>2.5251220703124999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>45169</c:v>
+                  <c:v>2.3845380859374998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>45197</c:v>
+                  <c:v>2.34769091796875</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>45230</c:v>
+                  <c:v>2.2612639160156252</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>45260</c:v>
+                  <c:v>2.2183168945312501</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>45289</c:v>
+                  <c:v>2.1716540527343748</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>45322</c:v>
+                  <c:v>2.0245980224609377</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>45351</c:v>
+                  <c:v>2.2161999511718751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>45380</c:v>
+                  <c:v>2.2355449218749999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>45412</c:v>
+                  <c:v>2.2913749999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>45443</c:v>
+                  <c:v>2.26606298828125</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>45471</c:v>
+                  <c:v>2.1709379882812501</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>45504</c:v>
+                  <c:v>2.1459160156250001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>45534</c:v>
+                  <c:v>2.0798830566406248</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>45565</c:v>
+                  <c:v>2.5249060058593749</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.4332399902343749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3837,513 +3840,516 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="169"/>
+                <c:ptCount val="170"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86000</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88000</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90000</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92000</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94000</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96000</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98000</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100000</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102000</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104000</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106000</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108000</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>110000</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112000</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114000</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116000</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>118000</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>120000</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>122000</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>124000</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>126000</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>128000</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>130000</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>132000</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>134000</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>136000</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>138000</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>140000</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>142000</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>144000</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>146000</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>148000</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>150000</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>152000</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>154000</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>156000</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>158000</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>160000</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>162000</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>164000</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>166000</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>168000</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>170000</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>172000</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174000</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>176000</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>178000</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>180000</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>182000</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>184000</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>186000</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188000</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>190000</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>192000</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>194000</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196000</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198000</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>200000</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>202000</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>204000</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>206000</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>208000</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>210000</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>212000</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>214000</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>216000</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>218000</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>220000</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>222000</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>224000</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>226000</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>228000</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>230000</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>232000</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>234000</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>236000</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>238000</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>240000</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>242000</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>244000</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>246000</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>248000</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>250000</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>252000</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>254000</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>256000</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>258000</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>260000</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>262000</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>264000</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>266000</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>268000</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>270000</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>272000</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>274000</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>276000</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>278000</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>280000</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>282000</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>284000</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>286000</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>288000</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>290000</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>292000</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>294000</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>296000</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>298000</c:v>
+                  <c:v>462155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>300000</c:v>
+                  <c:v>456260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>302000</c:v>
+                  <c:v>453061.48338996636</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>304000</c:v>
+                  <c:v>450829.9027039613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>306000</c:v>
+                  <c:v>425642.71663191047</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>308000</c:v>
+                  <c:v>434172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>310000</c:v>
+                  <c:v>454655.21338487364</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>312000</c:v>
+                  <c:v>431342.67813520104</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>314000</c:v>
+                  <c:v>426677.33854298841</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>316000</c:v>
+                  <c:v>412969.80102628889</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>318000</c:v>
+                  <c:v>407126.47818747367</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>320000</c:v>
+                  <c:v>400562.47252632782</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>322000</c:v>
+                  <c:v>375437.92798293434</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>324000</c:v>
+                  <c:v>412968.2556404366</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>326000</c:v>
+                  <c:v>418573.01106986456</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>328000</c:v>
+                  <c:v>431026.37466832314</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>330000</c:v>
+                  <c:v>428264.97828113427</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>332000</c:v>
+                  <c:v>412287.23173583986</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>334000</c:v>
+                  <c:v>409535.25821347191</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>336000</c:v>
+                  <c:v>398933.26227730315</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>338000</c:v>
+                  <c:v>486291.16562349023</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>470636.49908030132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4385,514 +4391,517 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="169"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>45044</c:v>
+                  <c:v>2.5385061035156249</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>45077</c:v>
+                  <c:v>2.3854221191406251</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>45107</c:v>
+                  <c:v>2.4220161132812499</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>45138</c:v>
+                  <c:v>2.5251220703124999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>45169</c:v>
+                  <c:v>2.3845380859374998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>45197</c:v>
+                  <c:v>2.34769091796875</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>45230</c:v>
+                  <c:v>2.2612639160156252</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>45260</c:v>
+                  <c:v>2.2183168945312501</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>45289</c:v>
+                  <c:v>2.1716540527343748</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>45322</c:v>
+                  <c:v>2.0245980224609377</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>45351</c:v>
+                  <c:v>2.2161999511718751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>45380</c:v>
+                  <c:v>2.2355449218749999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>45412</c:v>
+                  <c:v>2.2913749999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>45443</c:v>
+                  <c:v>2.26606298828125</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>45471</c:v>
+                  <c:v>2.1709379882812501</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>45504</c:v>
+                  <c:v>2.1459160156250001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>45534</c:v>
+                  <c:v>2.0798830566406248</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>45565</c:v>
+                  <c:v>2.5249060058593749</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.4332399902343749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,513 +4911,516 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="169"/>
+                <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>462155.90490155248</c:v>
+                  <c:v>164155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>456260.50288029009</c:v>
+                  <c:v>156260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>453061.48338996636</c:v>
+                  <c:v>151061.48338996636</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>450829.9027039613</c:v>
+                  <c:v>146829.9027039613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>425642.71663191047</c:v>
+                  <c:v>119642.71663191047</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>434172.36476145795</c:v>
+                  <c:v>126172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>454655.21338487364</c:v>
+                  <c:v>144655.21338487364</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>431342.67813520104</c:v>
+                  <c:v>119342.67813520104</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>426677.33854298841</c:v>
+                  <c:v>112677.33854298841</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>412969.80102628889</c:v>
+                  <c:v>96969.801026288886</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>407126.47818747367</c:v>
+                  <c:v>89126.478187473665</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>400562.47252632782</c:v>
+                  <c:v>80562.472526327823</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>375437.92798293434</c:v>
+                  <c:v>53437.927982934343</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>412968.2556404366</c:v>
+                  <c:v>88968.255640436604</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>418573.01106986456</c:v>
+                  <c:v>92573.011069864559</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>431026.37466832314</c:v>
+                  <c:v>103026.37466832314</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>428264.97828113427</c:v>
+                  <c:v>98264.978281134274</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>412287.23173583986</c:v>
+                  <c:v>80287.231735839858</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>409535.25821347191</c:v>
+                  <c:v>75535.258213471912</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>398933.26227730315</c:v>
+                  <c:v>62933.262277303147</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>486291.16562349023</c:v>
+                  <c:v>148291.16562349023</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>130636.49908030132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5450,514 +5462,517 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="169"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>40451</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40480</c:v>
+                  <c:v>1.3965399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40512</c:v>
+                  <c:v>1.31427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40543</c:v>
+                  <c:v>1.29017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40574</c:v>
+                  <c:v>1.2746999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40602</c:v>
+                  <c:v>1.3761099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40633</c:v>
+                  <c:v>1.3503900000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40662</c:v>
+                  <c:v>1.3469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40694</c:v>
+                  <c:v>1.27504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40724</c:v>
+                  <c:v>1.3109200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40753</c:v>
+                  <c:v>1.2869000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40786</c:v>
+                  <c:v>1.2162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40816</c:v>
+                  <c:v>1.1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40847</c:v>
+                  <c:v>1.1468800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40877</c:v>
+                  <c:v>1.07321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40907</c:v>
+                  <c:v>0.99402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40939</c:v>
+                  <c:v>1.0423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40968</c:v>
+                  <c:v>1.1305099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40998</c:v>
+                  <c:v>1.0494400000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41026</c:v>
+                  <c:v>1.1058599999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41060</c:v>
+                  <c:v>1.14459</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41089</c:v>
+                  <c:v>1.0780399999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41121</c:v>
+                  <c:v>1.0063800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41152</c:v>
+                  <c:v>0.95391999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41180</c:v>
+                  <c:v>0.97826999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41213</c:v>
+                  <c:v>0.97197</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41243</c:v>
+                  <c:v>0.91870000000000007</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41274</c:v>
+                  <c:v>1.06653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41305</c:v>
+                  <c:v>1.1200399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41333</c:v>
+                  <c:v>1.1328399999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41362</c:v>
+                  <c:v>1.0812299999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41390</c:v>
+                  <c:v>1.0785899999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41425</c:v>
+                  <c:v>1.1670399999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41453</c:v>
+                  <c:v>1.0075000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41486</c:v>
+                  <c:v>1.0311600000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41516</c:v>
+                  <c:v>1.1031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41547</c:v>
+                  <c:v>1.1687700000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41578</c:v>
+                  <c:v>1.1723299999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41607</c:v>
+                  <c:v>1.2098100000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41639</c:v>
+                  <c:v>1.1735899999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41669</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41698</c:v>
+                  <c:v>1.12253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41729</c:v>
+                  <c:v>1.0989899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41759</c:v>
+                  <c:v>1.08745</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41789</c:v>
+                  <c:v>1.0986300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41820</c:v>
+                  <c:v>1.1062000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41851</c:v>
+                  <c:v>1.2045899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41880</c:v>
+                  <c:v>1.2067399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41912</c:v>
+                  <c:v>1.27871</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>41943</c:v>
+                  <c:v>1.2983800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41971</c:v>
+                  <c:v>1.41004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42004</c:v>
+                  <c:v>1.6953900000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42034</c:v>
+                  <c:v>1.7145299999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42062</c:v>
+                  <c:v>1.78149</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42094</c:v>
+                  <c:v>2.0250699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42124</c:v>
+                  <c:v>2.4119800000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42153</c:v>
+                  <c:v>2.5110399999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42185</c:v>
+                  <c:v>2.3950300000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42216</c:v>
+                  <c:v>2.05552</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42247</c:v>
+                  <c:v>1.8248599999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42277</c:v>
+                  <c:v>1.7126700000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42307</c:v>
+                  <c:v>1.91326</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42338</c:v>
+                  <c:v>1.94798</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42369</c:v>
+                  <c:v>2.09022</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42398</c:v>
+                  <c:v>1.6191</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42429</c:v>
+                  <c:v>1.56416</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42460</c:v>
+                  <c:v>1.7538099999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42489</c:v>
+                  <c:v>1.73098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42521</c:v>
+                  <c:v>1.7421500000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42551</c:v>
+                  <c:v>1.75274</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42580</c:v>
+                  <c:v>1.8355599999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42613</c:v>
+                  <c:v>1.9024799999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42643</c:v>
+                  <c:v>1.8773900000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42674</c:v>
+                  <c:v>1.9152199999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42704</c:v>
+                  <c:v>2.0240299999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42734</c:v>
+                  <c:v>1.9521400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42761</c:v>
+                  <c:v>2.0017999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42794</c:v>
+                  <c:v>2.08507</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42825</c:v>
+                  <c:v>2.1146199999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42853</c:v>
+                  <c:v>2.10263</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42886</c:v>
+                  <c:v>2.0933999999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42916</c:v>
+                  <c:v>2.2407399999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42947</c:v>
+                  <c:v>2.2731599999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42978</c:v>
+                  <c:v>2.3099499999999997</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43007</c:v>
+                  <c:v>2.33961</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43039</c:v>
+                  <c:v>2.4434499999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43069</c:v>
+                  <c:v>2.42692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43098</c:v>
+                  <c:v>2.4915799999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43131</c:v>
+                  <c:v>2.6026100000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43159</c:v>
+                  <c:v>2.4634099999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43189</c:v>
+                  <c:v>2.3982399999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43217</c:v>
+                  <c:v>2.3119000000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43251</c:v>
+                  <c:v>2.3675700000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43280</c:v>
+                  <c:v>2.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43312</c:v>
+                  <c:v>2.1775900000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43343</c:v>
+                  <c:v>2.04325</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43371</c:v>
+                  <c:v>2.10771</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43404</c:v>
+                  <c:v>1.88317</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43434</c:v>
+                  <c:v>1.9444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43462</c:v>
+                  <c:v>1.8736900000000001</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43496</c:v>
+                  <c:v>1.9604600000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43524</c:v>
+                  <c:v>2.2494399999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43553</c:v>
+                  <c:v>2.4353899999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43585</c:v>
+                  <c:v>2.42089</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43616</c:v>
+                  <c:v>2.2623000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43644</c:v>
+                  <c:v>2.3454800000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43677</c:v>
+                  <c:v>2.3299000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43707</c:v>
+                  <c:v>2.24383</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43738</c:v>
+                  <c:v>2.2523499999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43769</c:v>
+                  <c:v>2.25983</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43798</c:v>
+                  <c:v>2.2531300000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43830</c:v>
+                  <c:v>2.4450100000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43853</c:v>
+                  <c:v>2.3811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43889</c:v>
+                  <c:v>2.3709600000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43921</c:v>
+                  <c:v>2.1931400000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43951</c:v>
+                  <c:v>2.2996099999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43980</c:v>
+                  <c:v>2.3069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44012</c:v>
+                  <c:v>2.4672199999999997</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44043</c:v>
+                  <c:v>2.7463200000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>44074</c:v>
+                  <c:v>2.8232600000000003</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>44104</c:v>
+                  <c:v>2.7159299999999997</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>44134</c:v>
+                  <c:v>2.8166100000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44165</c:v>
+                  <c:v>2.9742600000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>44196</c:v>
+                  <c:v>3.1853200000000004</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>44225</c:v>
+                  <c:v>3.2828000000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>44253</c:v>
+                  <c:v>3.2778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>44286</c:v>
+                  <c:v>3.1244299999999998</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>44316</c:v>
+                  <c:v>3.1956700000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>44347</c:v>
+                  <c:v>3.3188599999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>44377</c:v>
+                  <c:v>3.2336</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>44407</c:v>
+                  <c:v>2.9186799999999997</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44439</c:v>
+                  <c:v>2.91865</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44469</c:v>
+                  <c:v>2.9991300000000001</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44498</c:v>
+                  <c:v>3.0190700000000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>44530</c:v>
+                  <c:v>2.96435</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>44561</c:v>
+                  <c:v>3.07491</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>44589</c:v>
+                  <c:v>2.8309000000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>44620</c:v>
+                  <c:v>2.8623000000000003</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>44651</c:v>
+                  <c:v>2.6462500000000002</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>44680</c:v>
+                  <c:v>2.5422700195312502</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>44712</c:v>
+                  <c:v>2.5905100097656248</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>44742</c:v>
+                  <c:v>2.8271101074218752</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44771</c:v>
+                  <c:v>2.6160200195312502</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44804</c:v>
+                  <c:v>2.5657299804687499</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>44834</c:v>
+                  <c:v>2.4191298828124999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>44865</c:v>
+                  <c:v>2.1911298828125001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44895</c:v>
+                  <c:v>2.4362099609375001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>44925</c:v>
+                  <c:v>2.4624399414062501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>44957</c:v>
+                  <c:v>2.6370249023437502</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>44985</c:v>
+                  <c:v>2.5919743652343752</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>45016</c:v>
+                  <c:v>2.562439208984375</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>45044</c:v>
+                  <c:v>2.5385061035156249</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>45077</c:v>
+                  <c:v>2.3854221191406251</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>45107</c:v>
+                  <c:v>2.4220161132812499</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>45138</c:v>
+                  <c:v>2.5251220703124999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>45169</c:v>
+                  <c:v>2.3845380859374998</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>45197</c:v>
+                  <c:v>2.34769091796875</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>45230</c:v>
+                  <c:v>2.2612639160156252</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>45260</c:v>
+                  <c:v>2.2183168945312501</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>45289</c:v>
+                  <c:v>2.1716540527343748</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>45322</c:v>
+                  <c:v>2.0245980224609377</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>45351</c:v>
+                  <c:v>2.2161999511718751</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>45380</c:v>
+                  <c:v>2.2355449218749999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>45412</c:v>
+                  <c:v>2.2913749999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>45443</c:v>
+                  <c:v>2.26606298828125</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>45471</c:v>
+                  <c:v>2.1709379882812501</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>45504</c:v>
+                  <c:v>2.1459160156250001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>45534</c:v>
+                  <c:v>2.0798830566406248</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>45565</c:v>
+                  <c:v>2.5249060058593749</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.4332399902343749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5966,514 +5981,517 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="169"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>16.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>14.94</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>13.310000419616699</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>13.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>12.899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>12.840000152587891</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>12.390000343322754</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>12.949999809265137</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>12.039999961853027</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>12.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>11.460000038146973</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>10.939999580383301</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>12.100000381469727</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>11.239999771118164</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>11.100000381469727</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>10.350000381469727</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>9.3900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>10.380000114440918</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>10.729999542236328</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>164155.90490155248</c:v>
+                  <c:v>11.390000343322754</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>156260.50288029009</c:v>
+                  <c:v>11.270000457763672</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>151061.48338996636</c:v>
+                  <c:v>11.300000190734863</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>146829.9027039613</c:v>
+                  <c:v>11.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>119642.71663191047</c:v>
+                  <c:v>10.939999580383301</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>126172.36476145795</c:v>
+                  <c:v>11.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>144655.21338487364</c:v>
+                  <c:v>11.819999694824219</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>119342.67813520104</c:v>
+                  <c:v>11.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>112677.33854298841</c:v>
+                  <c:v>11.359999656677246</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>96969.801026288886</c:v>
+                  <c:v>10.970000267028809</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>89126.478187473665</c:v>
+                  <c:v>10.920000076293945</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>80562.472526327823</c:v>
+                  <c:v>10.970000267028809</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>53437.927982934343</c:v>
+                  <c:v>10.600000381469727</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>88968.255640436604</c:v>
+                  <c:v>11.510000228881836</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>92573.011069864559</c:v>
+                  <c:v>11.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>103026.37466832314</c:v>
+                  <c:v>11.979999542236328</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>98264.978281134274</c:v>
+                  <c:v>12.18999958</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>80287.231735839858</c:v>
+                  <c:v>12.15999985</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>75535.258213471912</c:v>
+                  <c:v>11.960000040000001</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>62933.262277303147</c:v>
+                  <c:v>11.69999981</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>148291.16562349023</c:v>
+                  <c:v>13.47999954</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.789999959999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6495,17 +6513,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87558016"/>
-        <c:axId val="89511424"/>
+        <c:axId val="87333504"/>
+        <c:axId val="443968896"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="87558016"/>
+      <c:catAx>
+        <c:axId val="87333504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6542,14 +6560,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89511424"/>
+        <c:crossAx val="443968896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="89511424"/>
+        <c:axId val="443968896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6600,7 +6619,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87558016"/>
+        <c:crossAx val="87333504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7006,9 +7025,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB171"/>
+  <dimension ref="A1:AB172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -14230,6 +14249,39 @@
         <v>13.47999954</v>
       </c>
     </row>
+    <row r="172" spans="1:10" ht="12.75">
+      <c r="A172" s="13">
+        <v>45596</v>
+      </c>
+      <c r="B172" s="14">
+        <v>2.4332399902343749</v>
+      </c>
+      <c r="C172" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D172" s="16">
+        <v>821.94933834181961</v>
+      </c>
+      <c r="E172" s="16">
+        <v>193419.67950928202</v>
+      </c>
+      <c r="F172" s="16">
+        <v>470636.49908030132</v>
+      </c>
+      <c r="G172" s="16">
+        <v>340000</v>
+      </c>
+      <c r="H172" s="16">
+        <v>470636.49908030132</v>
+      </c>
+      <c r="I172" s="16">
+        <v>130636.49908030132</v>
+      </c>
+      <c r="J172" s="31">
+        <f>VLOOKUP(A172,myPEPB!B:C,2)</f>
+        <v>12.789999959999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14245,7 +14297,7 @@
   </sheetPr>
   <dimension ref="A1:D865"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="690">
   <si>
     <t>PE</t>
   </si>
@@ -2644,6 +2644,82 @@
   </si>
   <si>
     <t xml:space="preserve">2024/10/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/11/27
 </t>
   </si>
   <si>
@@ -3320,517 +3396,517 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.5385061035156249</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.3854221191406251</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.4220161132812499</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.5251220703124999</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.3845380859374998</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.34769091796875</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.2612639160156252</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.2183168945312501</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.1716540527343748</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.0245980224609377</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.2161999511718751</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.2355449218749999</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.2913749999999999</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.26606298828125</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.1709379882812501</c:v>
+                  <c:v>45471</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.1459160156250001</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.0798830566406248</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.5249060058593749</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.4332399902343749</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3845,511 +3921,511 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4270.6306042647284</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6019.0482795100788</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7908.6759332370966</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9813.8456266207759</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12594.595673687232</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14359.198066862755</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16322.087601550247</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17451.269266820571</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19942.353108342035</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21576.949177009552</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22392.388248145049</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22347.845830914623</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25190.641898805072</c:v>
+                  <c:v>28000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25572.51743182947</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25685.572979740344</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28933.132851233735</c:v>
+                  <c:v>34000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33381.74807603209</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32987.909616819947</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36761.405824874695</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40048.882763725363</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39720.316947209474</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39080.008691080729</c:v>
+                  <c:v>46000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39042.86839026583</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42039.486393141306</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43768.754627599286</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43369.954706807272</c:v>
+                  <c:v>54000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52348.707732068309</c:v>
+                  <c:v>56000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>56975.149886290856</c:v>
+                  <c:v>58000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59626.271202087191</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58909.813576350352</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60765.975625274667</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67749.102248046562</c:v>
+                  <c:v>66000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60487.473021410515</c:v>
+                  <c:v>68000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>63907.953033010097</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70366.560951465755</c:v>
+                  <c:v>72000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76555.63905651767</c:v>
+                  <c:v>74000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>78788.822723998164</c:v>
+                  <c:v>76000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83307.742376054724</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82813.626416639017</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82019.983432432651</c:v>
+                  <c:v>82000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83190.380954504973</c:v>
+                  <c:v>84000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83445.838209394322</c:v>
+                  <c:v>86000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>84569.610970805807</c:v>
+                  <c:v>88000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>87439.065429083086</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90041.555553418075</c:v>
+                  <c:v>92000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100050.2236522255</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>102228.79725889026</c:v>
+                  <c:v>96000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>110325.72496388252</c:v>
+                  <c:v>98000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114022.8314305869</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125828.73521648881</c:v>
+                  <c:v>102000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>153292.71467382699</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>157023.30324569365</c:v>
+                  <c:v>106000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>165155.75959544061</c:v>
+                  <c:v>108000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189737.21664670523</c:v>
+                  <c:v>110000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>227988.4210459491</c:v>
+                  <c:v>112000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>239351.90374017198</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>230293.85036272786</c:v>
+                  <c:v>116000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>199648.30306826817</c:v>
+                  <c:v>118000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>179244.7859116719</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170225.05150386505</c:v>
+                  <c:v>122000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>192162.01722473378</c:v>
+                  <c:v>124000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>197649.18846023903</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>214081.38004669495</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167829.03351494283</c:v>
+                  <c:v>130000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>164134.18631507194</c:v>
+                  <c:v>132000</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>186034.99469442785</c:v>
+                  <c:v>134000</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>185613.30766511807</c:v>
+                  <c:v>136000</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>188811.06884469232</c:v>
+                  <c:v>138000</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191958.79390801364</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>203029.179311132</c:v>
+                  <c:v>142000</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>212431.12350227855</c:v>
+                  <c:v>144000</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>211629.57137627876</c:v>
+                  <c:v>146000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>217893.97391659516</c:v>
+                  <c:v>148000</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>232273.25321707482</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>226023.31414810085</c:v>
+                  <c:v>152000</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>233773.064565896</c:v>
+                  <c:v>154000</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>245497.45415846378</c:v>
+                  <c:v>156000</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>250976.68975745208</c:v>
+                  <c:v>158000</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>251553.63951192721</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252449.38432071661</c:v>
+                  <c:v>162000</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>272217.55680844683</c:v>
+                  <c:v>164000</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>278156.11870841286</c:v>
+                  <c:v>166000</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>284657.94154854841</c:v>
+                  <c:v>168000</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>290312.97933998541</c:v>
+                  <c:v>170000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>305198.0754776597</c:v>
+                  <c:v>172000</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>305133.40290910058</c:v>
+                  <c:v>174000</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>315263.01815480401</c:v>
+                  <c:v>176000</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>331311.795599529</c:v>
+                  <c:v>178000</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>315591.66006348841</c:v>
+                  <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>309242.62012034556</c:v>
+                  <c:v>182000</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>300109.45253862289</c:v>
+                  <c:v>184000</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>309336.01650022384</c:v>
+                  <c:v>186000</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287500.53561047785</c:v>
+                  <c:v>188000</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>288507.17635484249</c:v>
+                  <c:v>190000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>272708.57603452983</c:v>
+                  <c:v>192000</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>283311.9259971804</c:v>
+                  <c:v>194000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>255129.94656765409</c:v>
+                  <c:v>196000</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>265425.32437652821</c:v>
+                  <c:v>198000</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>257772.87391023306</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>271710.25537098217</c:v>
+                  <c:v>202000</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>313761.48293854605</c:v>
+                  <c:v>204000</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>341698.58183979383</c:v>
+                  <c:v>206000</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>341664.15226725023</c:v>
+                  <c:v>208000</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>321282.08703171159</c:v>
+                  <c:v>210000</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>335094.9518150285</c:v>
+                  <c:v>212000</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>334869.06229592022</c:v>
+                  <c:v>214000</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>324498.4969532832</c:v>
+                  <c:v>216000</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>327730.64341448661</c:v>
+                  <c:v>218000</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>330819.02897301014</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>331838.20851566637</c:v>
+                  <c:v>222000</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362098.05834678403</c:v>
+                  <c:v>224000</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>354648.00411260565</c:v>
+                  <c:v>226000</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>355122.89258811681</c:v>
+                  <c:v>228000</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>330488.97520443297</c:v>
+                  <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>348533.16809226322</c:v>
+                  <c:v>232000</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>351653.21023514908</c:v>
+                  <c:v>234000</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378075.35039287584</c:v>
+                  <c:v>236000</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>422844.47122306196</c:v>
+                  <c:v>238000</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>436690.74318550713</c:v>
+                  <c:v>240000</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>422089.3612844068</c:v>
+                  <c:v>242000</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>439736.28771259688</c:v>
+                  <c:v>244000</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>466349.00504225586</c:v>
+                  <c:v>246000</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>501442.15123802173</c:v>
+                  <c:v>248000</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>518787.73061550414</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>520008.63243348437</c:v>
+                  <c:v>252000</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>497666.56744597905</c:v>
+                  <c:v>254000</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>511013.84239368205</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>532712.93374055997</c:v>
+                  <c:v>258000</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>521027.78138983715</c:v>
+                  <c:v>260000</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>472284.93474359531</c:v>
+                  <c:v>262000</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>474280.08030664356</c:v>
+                  <c:v>264000</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>489358.06528705527</c:v>
+                  <c:v>266000</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>494611.60875526897</c:v>
+                  <c:v>268000</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>487646.87881158153</c:v>
+                  <c:v>270000</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>507834.42040464858</c:v>
+                  <c:v>272000</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>469535.13459695398</c:v>
+                  <c:v>274000</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>476743.16145284584</c:v>
+                  <c:v>276000</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>442757.9886785429</c:v>
+                  <c:v>278000</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>427360.55192268913</c:v>
+                  <c:v>280000</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>437469.78842900984</c:v>
+                  <c:v>282000</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>479425.39341558446</c:v>
+                  <c:v>284000</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>445628.43306111766</c:v>
+                  <c:v>286000</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>439061.72824284952</c:v>
+                  <c:v>288000</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>415974.71880401362</c:v>
+                  <c:v>290000</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>378769.61594403378</c:v>
+                  <c:v>292000</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>423135.37791693263</c:v>
+                  <c:v>294000</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>429691.15630892606</c:v>
+                  <c:v>296000</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>462155.90490155248</c:v>
+                  <c:v>298000</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>456260.50288029009</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>453061.48338996636</c:v>
+                  <c:v>302000</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>450829.9027039613</c:v>
+                  <c:v>304000</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>425642.71663191047</c:v>
+                  <c:v>306000</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>434172.36476145795</c:v>
+                  <c:v>308000</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>454655.21338487364</c:v>
+                  <c:v>310000</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>431342.67813520104</c:v>
+                  <c:v>312000</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>426677.33854298841</c:v>
+                  <c:v>314000</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>412969.80102628889</c:v>
+                  <c:v>316000</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>407126.47818747367</c:v>
+                  <c:v>318000</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>400562.47252632782</c:v>
+                  <c:v>320000</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>375437.92798293434</c:v>
+                  <c:v>322000</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>412968.2556404366</c:v>
+                  <c:v>324000</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>418573.01106986456</c:v>
+                  <c:v>326000</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>431026.37466832314</c:v>
+                  <c:v>328000</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>428264.97828113427</c:v>
+                  <c:v>330000</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>412287.23173583986</c:v>
+                  <c:v>332000</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>409535.25821347191</c:v>
+                  <c:v>334000</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>398933.26227730315</c:v>
+                  <c:v>336000</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>486291.16562349023</c:v>
+                  <c:v>338000</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>470636.49908030132</c:v>
+                  <c:v>340000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4391,517 +4467,517 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.5385061035156249</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.3854221191406251</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.4220161132812499</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.5251220703124999</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.3845380859374998</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.34769091796875</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.2612639160156252</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.2183168945312501</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.1716540527343748</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.0245980224609377</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.2161999511718751</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.2355449218749999</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.2913749999999999</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.26606298828125</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.1709379882812501</c:v>
+                  <c:v>45471</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.1459160156250001</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.0798830566406248</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.5249060058593749</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.4332399902343749</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,514 +4989,514 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.63060426472839</c:v>
+                  <c:v>4270.6306042647284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.048279510078828</c:v>
+                  <c:v>6019.0482795100788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-91.324066762903385</c:v>
+                  <c:v>7908.6759332370966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-186.15437337922413</c:v>
+                  <c:v>9813.8456266207759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594.59567368723219</c:v>
+                  <c:v>12594.595673687232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359.19806686275479</c:v>
+                  <c:v>14359.198066862755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.0876015502472</c:v>
+                  <c:v>16322.087601550247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-548.73073317942908</c:v>
+                  <c:v>17451.269266820571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-57.64689165796517</c:v>
+                  <c:v>19942.353108342035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-423.05082299044807</c:v>
+                  <c:v>21576.949177009552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1607.6117518549509</c:v>
+                  <c:v>22392.388248145049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3652.1541690853774</c:v>
+                  <c:v>22347.845830914623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2809.3581011949282</c:v>
+                  <c:v>25190.641898805072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4427.4825681705297</c:v>
+                  <c:v>25572.51743182947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6314.4270202596563</c:v>
+                  <c:v>25685.572979740344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5066.867148766265</c:v>
+                  <c:v>28933.132851233735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2618.2519239679095</c:v>
+                  <c:v>33381.74807603209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5012.0903831800533</c:v>
+                  <c:v>32987.909616819947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3238.5941751253049</c:v>
+                  <c:v>36761.405824874695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1951.1172362746365</c:v>
+                  <c:v>40048.882763725363</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4279.6830527905258</c:v>
+                  <c:v>39720.316947209474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6919.9913089192705</c:v>
+                  <c:v>39080.008691080729</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8957.1316097341696</c:v>
+                  <c:v>39042.86839026583</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7960.5136068586944</c:v>
+                  <c:v>42039.486393141306</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8231.2453724007137</c:v>
+                  <c:v>43768.754627599286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10630.045293192728</c:v>
+                  <c:v>43369.954706807272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3651.2922679316907</c:v>
+                  <c:v>52348.707732068309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1024.8501137091444</c:v>
+                  <c:v>56975.149886290856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-373.72879791280866</c:v>
+                  <c:v>59626.271202087191</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3090.1864236496476</c:v>
+                  <c:v>58909.813576350352</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-3234.0243747253335</c:v>
+                  <c:v>60765.975625274667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1749.1022480465617</c:v>
+                  <c:v>67749.102248046562</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7512.5269785894852</c:v>
+                  <c:v>60487.473021410515</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6092.046966989903</c:v>
+                  <c:v>63907.953033010097</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1633.4390485342446</c:v>
+                  <c:v>70366.560951465755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2555.6390565176698</c:v>
+                  <c:v>76555.63905651767</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2788.8227239981643</c:v>
+                  <c:v>78788.822723998164</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5307.7423760547244</c:v>
+                  <c:v>83307.742376054724</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2813.6264166390174</c:v>
+                  <c:v>82813.626416639017</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.983432432651171</c:v>
+                  <c:v>82019.983432432651</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-809.61904549502651</c:v>
+                  <c:v>83190.380954504973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2554.1617906056781</c:v>
+                  <c:v>83445.838209394322</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3430.3890291941934</c:v>
+                  <c:v>84569.610970805807</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2560.9345709169138</c:v>
+                  <c:v>87439.065429083086</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1958.4444465819251</c:v>
+                  <c:v>90041.555553418075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6050.2236522254971</c:v>
+                  <c:v>100050.2236522255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6228.797258890263</c:v>
+                  <c:v>102228.79725889026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12325.724963882516</c:v>
+                  <c:v>110325.72496388252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>14022.831430586899</c:v>
+                  <c:v>114022.8314305869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23828.735216488814</c:v>
+                  <c:v>125828.73521648881</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49292.714673826995</c:v>
+                  <c:v>153292.71467382699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51023.303245693649</c:v>
+                  <c:v>157023.30324569365</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>57155.759595440613</c:v>
+                  <c:v>165155.75959544061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>79737.21664670523</c:v>
+                  <c:v>189737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115988.4210459491</c:v>
+                  <c:v>227988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125351.90374017198</c:v>
+                  <c:v>239351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114293.85036272786</c:v>
+                  <c:v>230293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81648.303068268171</c:v>
+                  <c:v>199648.30306826817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59244.785911671905</c:v>
+                  <c:v>179244.7859116719</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>48225.051503865048</c:v>
+                  <c:v>170225.05150386505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>68162.017224733776</c:v>
+                  <c:v>192162.01722473378</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>71649.188460239035</c:v>
+                  <c:v>197649.18846023903</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>86081.380046694947</c:v>
+                  <c:v>214081.38004669495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>37829.033514942828</c:v>
+                  <c:v>167829.03351494283</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>32134.186315071944</c:v>
+                  <c:v>164134.18631507194</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52034.994694427849</c:v>
+                  <c:v>186034.99469442785</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>49613.307665118075</c:v>
+                  <c:v>185613.30766511807</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>50811.068844692316</c:v>
+                  <c:v>188811.06884469232</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51958.793908013642</c:v>
+                  <c:v>191958.79390801364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61029.179311132</c:v>
+                  <c:v>203029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68431.123502278555</c:v>
+                  <c:v>212431.12350227855</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>65629.571376278764</c:v>
+                  <c:v>211629.57137627876</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>69893.973916595161</c:v>
+                  <c:v>217893.97391659516</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82273.253217074816</c:v>
+                  <c:v>232273.25321707482</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>74023.31414810085</c:v>
+                  <c:v>226023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79773.064565895998</c:v>
+                  <c:v>233773.064565896</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89497.454158463777</c:v>
+                  <c:v>245497.45415846378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92976.689757452084</c:v>
+                  <c:v>250976.68975745208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>91553.639511927206</c:v>
+                  <c:v>251553.63951192721</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>90449.384320716606</c:v>
+                  <c:v>252449.38432071661</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108217.55680844683</c:v>
+                  <c:v>272217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>112156.11870841286</c:v>
+                  <c:v>278156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>116657.94154854841</c:v>
+                  <c:v>284657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>120312.97933998541</c:v>
+                  <c:v>290312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>133198.0754776597</c:v>
+                  <c:v>305198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131133.40290910058</c:v>
+                  <c:v>305133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>139263.01815480401</c:v>
+                  <c:v>315263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>153311.795599529</c:v>
+                  <c:v>331311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>135591.66006348841</c:v>
+                  <c:v>315591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>127242.62012034556</c:v>
+                  <c:v>309242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>116109.45253862289</c:v>
+                  <c:v>300109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>123336.01650022384</c:v>
+                  <c:v>309336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>99500.535610477848</c:v>
+                  <c:v>287500.53561047785</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>98507.176354842493</c:v>
+                  <c:v>288507.17635484249</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>80708.576034529833</c:v>
+                  <c:v>272708.57603452983</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89311.925997180399</c:v>
+                  <c:v>283311.9259971804</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59129.946567654086</c:v>
+                  <c:v>255129.94656765409</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67425.32437652821</c:v>
+                  <c:v>265425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>57772.873910233058</c:v>
+                  <c:v>257772.87391023306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>69710.255370982166</c:v>
+                  <c:v>271710.25537098217</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109761.48293854605</c:v>
+                  <c:v>313761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>135698.58183979383</c:v>
+                  <c:v>341698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>133664.15226725023</c:v>
+                  <c:v>341664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111282.08703171159</c:v>
+                  <c:v>321282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>123094.9518150285</c:v>
+                  <c:v>335094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>120869.06229592022</c:v>
+                  <c:v>334869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108498.4969532832</c:v>
+                  <c:v>324498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109730.64341448661</c:v>
+                  <c:v>327730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110819.02897301014</c:v>
+                  <c:v>330819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109838.20851566637</c:v>
+                  <c:v>331838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>138098.05834678403</c:v>
+                  <c:v>362098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>128648.00411260565</c:v>
+                  <c:v>354648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>127122.89258811681</c:v>
+                  <c:v>355122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100488.97520443297</c:v>
+                  <c:v>330488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116533.16809226322</c:v>
+                  <c:v>348533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117653.21023514908</c:v>
+                  <c:v>351653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>142075.35039287584</c:v>
+                  <c:v>378075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>184844.47122306196</c:v>
+                  <c:v>422844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>196690.74318550713</c:v>
+                  <c:v>436690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>180089.3612844068</c:v>
+                  <c:v>422089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>195736.28771259688</c:v>
+                  <c:v>439736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>220349.00504225586</c:v>
+                  <c:v>466349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>253442.15123802173</c:v>
+                  <c:v>501442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>268787.73061550414</c:v>
+                  <c:v>518787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>268008.63243348437</c:v>
+                  <c:v>520008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>243666.56744597905</c:v>
+                  <c:v>497666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>255013.84239368205</c:v>
+                  <c:v>511013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>274712.93374055997</c:v>
+                  <c:v>532712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>261027.78138983715</c:v>
+                  <c:v>521027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>210284.93474359531</c:v>
+                  <c:v>472284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>210280.08030664356</c:v>
+                  <c:v>474280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>223358.06528705527</c:v>
+                  <c:v>489358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>226611.60875526897</c:v>
+                  <c:v>494611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>217646.87881158153</c:v>
+                  <c:v>487646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>235834.42040464858</c:v>
+                  <c:v>507834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>195535.13459695398</c:v>
+                  <c:v>469535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>200743.16145284584</c:v>
+                  <c:v>476743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>164757.9886785429</c:v>
+                  <c:v>442757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>147360.55192268913</c:v>
+                  <c:v>427360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>155469.78842900984</c:v>
+                  <c:v>437469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>195425.39341558446</c:v>
+                  <c:v>479425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>159628.43306111766</c:v>
+                  <c:v>445628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>151061.72824284952</c:v>
+                  <c:v>439061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>125974.71880401362</c:v>
+                  <c:v>415974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>86769.61594403378</c:v>
+                  <c:v>378769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>129135.37791693263</c:v>
+                  <c:v>423135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>133691.15630892606</c:v>
+                  <c:v>429691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>164155.90490155248</c:v>
+                  <c:v>462155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>156260.50288029009</c:v>
+                  <c:v>456260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>151061.48338996636</c:v>
+                  <c:v>453061.48338996636</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>146829.9027039613</c:v>
+                  <c:v>450829.9027039613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>119642.71663191047</c:v>
+                  <c:v>425642.71663191047</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>126172.36476145795</c:v>
+                  <c:v>434172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>144655.21338487364</c:v>
+                  <c:v>454655.21338487364</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>119342.67813520104</c:v>
+                  <c:v>431342.67813520104</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>112677.33854298841</c:v>
+                  <c:v>426677.33854298841</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>96969.801026288886</c:v>
+                  <c:v>412969.80102628889</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>89126.478187473665</c:v>
+                  <c:v>407126.47818747367</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>80562.472526327823</c:v>
+                  <c:v>400562.47252632782</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>53437.927982934343</c:v>
+                  <c:v>375437.92798293434</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>88968.255640436604</c:v>
+                  <c:v>412968.2556404366</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>92573.011069864559</c:v>
+                  <c:v>418573.01106986456</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>103026.37466832314</c:v>
+                  <c:v>431026.37466832314</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>98264.978281134274</c:v>
+                  <c:v>428264.97828113427</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>80287.231735839858</c:v>
+                  <c:v>412287.23173583986</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>75535.258213471912</c:v>
+                  <c:v>409535.25821347191</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>62933.262277303147</c:v>
+                  <c:v>398933.26227730315</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>148291.16562349023</c:v>
+                  <c:v>486291.16562349023</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>130636.49908030132</c:v>
+                  <c:v>470636.49908030132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5462,517 +5538,517 @@
             <c:numRef>
               <c:f>模型一!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>1.2300899999999999</c:v>
+                  <c:v>40451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3965399999999999</c:v>
+                  <c:v>40480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31427</c:v>
+                  <c:v>40512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.29017</c:v>
+                  <c:v>40543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2746999999999999</c:v>
+                  <c:v>40574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3761099999999999</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3503900000000002</c:v>
+                  <c:v>40633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3469</c:v>
+                  <c:v>40662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27504</c:v>
+                  <c:v>40694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3109200000000001</c:v>
+                  <c:v>40724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2869000000000002</c:v>
+                  <c:v>40753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2162500000000001</c:v>
+                  <c:v>40786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1052</c:v>
+                  <c:v>40816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1468800000000001</c:v>
+                  <c:v>40847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.07321</c:v>
+                  <c:v>40877</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.99402000000000001</c:v>
+                  <c:v>40907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0423</c:v>
+                  <c:v>40939</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1305099999999999</c:v>
+                  <c:v>40968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0494400000000002</c:v>
+                  <c:v>40998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1058599999999998</c:v>
+                  <c:v>41026</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.14459</c:v>
+                  <c:v>41060</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0780399999999999</c:v>
+                  <c:v>41089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0063800000000001</c:v>
+                  <c:v>41121</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95391999999999999</c:v>
+                  <c:v>41152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97826999999999997</c:v>
+                  <c:v>41180</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97197</c:v>
+                  <c:v>41213</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91870000000000007</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06653</c:v>
+                  <c:v>41274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1200399999999999</c:v>
+                  <c:v>41305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1328399999999998</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0812299999999999</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0785899999999999</c:v>
+                  <c:v>41390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1670399999999999</c:v>
+                  <c:v>41425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0075000000000001</c:v>
+                  <c:v>41453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0311600000000001</c:v>
+                  <c:v>41486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1031</c:v>
+                  <c:v>41516</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1687700000000001</c:v>
+                  <c:v>41547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1723299999999999</c:v>
+                  <c:v>41578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2098100000000001</c:v>
+                  <c:v>41607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1735899999999999</c:v>
+                  <c:v>41639</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1339999999999999</c:v>
+                  <c:v>41669</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.12253</c:v>
+                  <c:v>41698</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0989899999999999</c:v>
+                  <c:v>41729</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.08745</c:v>
+                  <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0986300000000002</c:v>
+                  <c:v>41789</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1062000000000001</c:v>
+                  <c:v>41820</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2045899999999998</c:v>
+                  <c:v>41851</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2067399999999999</c:v>
+                  <c:v>41880</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27871</c:v>
+                  <c:v>41912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2983800000000001</c:v>
+                  <c:v>41943</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.41004</c:v>
+                  <c:v>41971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.6953900000000002</c:v>
+                  <c:v>42004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7145299999999999</c:v>
+                  <c:v>42034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.78149</c:v>
+                  <c:v>42062</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0250699999999999</c:v>
+                  <c:v>42094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4119800000000002</c:v>
+                  <c:v>42124</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5110399999999999</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3950300000000002</c:v>
+                  <c:v>42185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.05552</c:v>
+                  <c:v>42216</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8248599999999999</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.7126700000000001</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.91326</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.94798</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.09022</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.6191</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.56416</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.7538099999999999</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.73098</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7421500000000001</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.75274</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8355599999999999</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9024799999999999</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8773900000000001</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9152199999999999</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0240299999999998</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9521400000000002</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0017999999999998</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.08507</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.1146199999999999</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.10263</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0933999999999999</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.2407399999999997</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2731599999999998</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3099499999999997</c:v>
+                  <c:v>42978</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.33961</c:v>
+                  <c:v>43007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4434499999999999</c:v>
+                  <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.42692</c:v>
+                  <c:v>43069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4915799999999999</c:v>
+                  <c:v>43098</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6026100000000003</c:v>
+                  <c:v>43131</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4634099999999997</c:v>
+                  <c:v>43159</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3982399999999999</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3119000000000001</c:v>
+                  <c:v>43217</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3675700000000002</c:v>
+                  <c:v>43251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1851400000000001</c:v>
+                  <c:v>43280</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1775900000000004</c:v>
+                  <c:v>43312</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.04325</c:v>
+                  <c:v>43343</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.10771</c:v>
+                  <c:v>43371</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.88317</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9444000000000001</c:v>
+                  <c:v>43434</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8736900000000001</c:v>
+                  <c:v>43462</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9604600000000001</c:v>
+                  <c:v>43496</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2494399999999999</c:v>
+                  <c:v>43524</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.4353899999999999</c:v>
+                  <c:v>43553</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.42089</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.2623000000000002</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.3454800000000002</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.3299000000000003</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.24383</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2523499999999999</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.25983</c:v>
+                  <c:v>43769</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.2531300000000001</c:v>
+                  <c:v>43798</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.4450100000000003</c:v>
+                  <c:v>43830</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.3811999999999998</c:v>
+                  <c:v>43853</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3709600000000002</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.1931400000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.2996099999999999</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.3069999999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4672199999999997</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7463200000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.8232600000000003</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.7159299999999997</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8166100000000003</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.9742600000000001</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1853200000000004</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.2828000000000004</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.2778700000000001</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.1244299999999998</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1956700000000002</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.3188599999999999</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2336</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.9186799999999997</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.91865</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.9991300000000001</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.0190700000000001</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.96435</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.07491</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8309000000000002</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.8623000000000003</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.6462500000000002</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5422700195312502</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5905100097656248</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.8271101074218752</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.6160200195312502</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5657299804687499</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.4191298828124999</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.1911298828125001</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.4362099609375001</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.4624399414062501</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.6370249023437502</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5919743652343752</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.562439208984375</c:v>
+                  <c:v>45016</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.5385061035156249</c:v>
+                  <c:v>45044</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.3854221191406251</c:v>
+                  <c:v>45077</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.4220161132812499</c:v>
+                  <c:v>45107</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.5251220703124999</c:v>
+                  <c:v>45138</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.3845380859374998</c:v>
+                  <c:v>45169</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.34769091796875</c:v>
+                  <c:v>45197</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.2612639160156252</c:v>
+                  <c:v>45230</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.2183168945312501</c:v>
+                  <c:v>45260</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.1716540527343748</c:v>
+                  <c:v>45289</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.0245980224609377</c:v>
+                  <c:v>45322</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.2161999511718751</c:v>
+                  <c:v>45351</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.2355449218749999</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.2913749999999999</c:v>
+                  <c:v>45412</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.26606298828125</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.1709379882812501</c:v>
+                  <c:v>45471</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.1459160156250001</c:v>
+                  <c:v>45504</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.0798830566406248</c:v>
+                  <c:v>45534</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.5249060058593749</c:v>
+                  <c:v>45565</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.4332399902343749</c:v>
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,517 +6057,517 @@
             <c:numRef>
               <c:f>模型一!金额</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="170"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>270.63060426472839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.048279510078828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>-91.324066762903385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>-186.15437337922413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>594.59567368723219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>359.19806686275479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>322.0876015502472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>-548.73073317942908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>-57.64689165796517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>-423.05082299044807</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1607.6117518549509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3652.1541690853774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2809.3581011949282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4427.4825681705297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6314.4270202596563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5066.867148766265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2618.2519239679095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>-5012.0903831800533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3238.5941751253049</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1951.1172362746365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>-4279.6830527905258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6919.9913089192705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8957.1316097341696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7960.5136068586944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>-8231.2453724007137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>-10630.045293192728</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3651.2922679316907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1024.8501137091444</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>-373.72879791280866</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3090.1864236496476</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3234.0243747253335</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>#N/A</c:v>
+                  <c:v>1749.1022480465617</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>#N/A</c:v>
+                  <c:v>-7512.5269785894852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>#N/A</c:v>
+                  <c:v>-6092.046966989903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1633.4390485342446</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>2555.6390565176698</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>#N/A</c:v>
+                  <c:v>2788.8227239981643</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>#N/A</c:v>
+                  <c:v>5307.7423760547244</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>#N/A</c:v>
+                  <c:v>2813.6264166390174</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.983432432651171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>#N/A</c:v>
+                  <c:v>-809.61904549502651</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2554.1617906056781</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>#N/A</c:v>
+                  <c:v>-3430.3890291941934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>#N/A</c:v>
+                  <c:v>-2560.9345709169138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1958.4444465819251</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>#N/A</c:v>
+                  <c:v>6050.2236522254971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>6228.797258890263</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>#N/A</c:v>
+                  <c:v>12325.724963882516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>14022.831430586899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>23828.735216488814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>49292.714673826995</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>51023.303245693649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>57155.759595440613</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>79737.21664670523</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>#N/A</c:v>
+                  <c:v>115988.4210459491</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>#N/A</c:v>
+                  <c:v>125351.90374017198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>#N/A</c:v>
+                  <c:v>114293.85036272786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>#N/A</c:v>
+                  <c:v>81648.303068268171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>#N/A</c:v>
+                  <c:v>59244.785911671905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>#N/A</c:v>
+                  <c:v>48225.051503865048</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>#N/A</c:v>
+                  <c:v>68162.017224733776</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>#N/A</c:v>
+                  <c:v>71649.188460239035</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>#N/A</c:v>
+                  <c:v>86081.380046694947</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>#N/A</c:v>
+                  <c:v>37829.033514942828</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>#N/A</c:v>
+                  <c:v>32134.186315071944</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>#N/A</c:v>
+                  <c:v>52034.994694427849</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>#N/A</c:v>
+                  <c:v>49613.307665118075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>#N/A</c:v>
+                  <c:v>50811.068844692316</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>#N/A</c:v>
+                  <c:v>51958.793908013642</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>#N/A</c:v>
+                  <c:v>61029.179311132</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>#N/A</c:v>
+                  <c:v>68431.123502278555</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>#N/A</c:v>
+                  <c:v>65629.571376278764</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>#N/A</c:v>
+                  <c:v>69893.973916595161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>#N/A</c:v>
+                  <c:v>82273.253217074816</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>#N/A</c:v>
+                  <c:v>74023.31414810085</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>#N/A</c:v>
+                  <c:v>79773.064565895998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>#N/A</c:v>
+                  <c:v>89497.454158463777</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>#N/A</c:v>
+                  <c:v>92976.689757452084</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>#N/A</c:v>
+                  <c:v>91553.639511927206</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>#N/A</c:v>
+                  <c:v>90449.384320716606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>#N/A</c:v>
+                  <c:v>108217.55680844683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>#N/A</c:v>
+                  <c:v>112156.11870841286</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>#N/A</c:v>
+                  <c:v>116657.94154854841</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>#N/A</c:v>
+                  <c:v>120312.97933998541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>#N/A</c:v>
+                  <c:v>133198.0754776597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>#N/A</c:v>
+                  <c:v>131133.40290910058</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>#N/A</c:v>
+                  <c:v>139263.01815480401</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>#N/A</c:v>
+                  <c:v>153311.795599529</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>#N/A</c:v>
+                  <c:v>135591.66006348841</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>#N/A</c:v>
+                  <c:v>127242.62012034556</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>#N/A</c:v>
+                  <c:v>116109.45253862289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>#N/A</c:v>
+                  <c:v>123336.01650022384</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>#N/A</c:v>
+                  <c:v>99500.535610477848</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>#N/A</c:v>
+                  <c:v>98507.176354842493</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>#N/A</c:v>
+                  <c:v>80708.576034529833</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>#N/A</c:v>
+                  <c:v>89311.925997180399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>#N/A</c:v>
+                  <c:v>59129.946567654086</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>#N/A</c:v>
+                  <c:v>67425.32437652821</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>#N/A</c:v>
+                  <c:v>57772.873910233058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>#N/A</c:v>
+                  <c:v>69710.255370982166</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>#N/A</c:v>
+                  <c:v>109761.48293854605</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>#N/A</c:v>
+                  <c:v>135698.58183979383</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>#N/A</c:v>
+                  <c:v>133664.15226725023</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>#N/A</c:v>
+                  <c:v>111282.08703171159</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>#N/A</c:v>
+                  <c:v>123094.9518150285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>#N/A</c:v>
+                  <c:v>120869.06229592022</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>#N/A</c:v>
+                  <c:v>108498.4969532832</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>#N/A</c:v>
+                  <c:v>109730.64341448661</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>#N/A</c:v>
+                  <c:v>110819.02897301014</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>#N/A</c:v>
+                  <c:v>109838.20851566637</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>#N/A</c:v>
+                  <c:v>138098.05834678403</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>#N/A</c:v>
+                  <c:v>128648.00411260565</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>#N/A</c:v>
+                  <c:v>127122.89258811681</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>#N/A</c:v>
+                  <c:v>100488.97520443297</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>#N/A</c:v>
+                  <c:v>116533.16809226322</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>#N/A</c:v>
+                  <c:v>117653.21023514908</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>#N/A</c:v>
+                  <c:v>142075.35039287584</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>#N/A</c:v>
+                  <c:v>184844.47122306196</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>#N/A</c:v>
+                  <c:v>196690.74318550713</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>#N/A</c:v>
+                  <c:v>180089.3612844068</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>#N/A</c:v>
+                  <c:v>195736.28771259688</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>#N/A</c:v>
+                  <c:v>220349.00504225586</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>#N/A</c:v>
+                  <c:v>253442.15123802173</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>#N/A</c:v>
+                  <c:v>268787.73061550414</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>#N/A</c:v>
+                  <c:v>268008.63243348437</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>#N/A</c:v>
+                  <c:v>243666.56744597905</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>16.649999999999999</c:v>
+                  <c:v>255013.84239368205</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>14.94</c:v>
+                  <c:v>274712.93374055997</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>14.7</c:v>
+                  <c:v>261027.78138983715</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>13.310000419616699</c:v>
+                  <c:v>210284.93474359531</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>13.430000305175781</c:v>
+                  <c:v>210280.08030664356</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>12.899999618530273</c:v>
+                  <c:v>223358.06528705527</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.840000152587891</c:v>
+                  <c:v>226611.60875526897</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12.390000343322754</c:v>
+                  <c:v>217646.87881158153</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.949999809265137</c:v>
+                  <c:v>235834.42040464858</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>12.039999961853027</c:v>
+                  <c:v>195535.13459695398</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>12.239999771118164</c:v>
+                  <c:v>200743.16145284584</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>11.460000038146973</c:v>
+                  <c:v>164757.9886785429</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>11.140000343322754</c:v>
+                  <c:v>147360.55192268913</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>10.939999580383301</c:v>
+                  <c:v>155469.78842900984</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>12.100000381469727</c:v>
+                  <c:v>195425.39341558446</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>11.239999771118164</c:v>
+                  <c:v>159628.43306111766</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>11.100000381469727</c:v>
+                  <c:v>151061.72824284952</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>10.350000381469727</c:v>
+                  <c:v>125974.71880401362</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>9.3900003433227539</c:v>
+                  <c:v>86769.61594403378</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>10.380000114440918</c:v>
+                  <c:v>129135.37791693263</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>10.729999542236328</c:v>
+                  <c:v>133691.15630892606</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>11.390000343322754</c:v>
+                  <c:v>164155.90490155248</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>11.270000457763672</c:v>
+                  <c:v>156260.50288029009</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>11.300000190734863</c:v>
+                  <c:v>151061.48338996636</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>11.409999847412109</c:v>
+                  <c:v>146829.9027039613</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>10.939999580383301</c:v>
+                  <c:v>119642.71663191047</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>11.399999618530273</c:v>
+                  <c:v>126172.36476145795</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>11.819999694824219</c:v>
+                  <c:v>144655.21338487364</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>11.220000267028809</c:v>
+                  <c:v>119342.67813520104</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>11.359999656677246</c:v>
+                  <c:v>112677.33854298841</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>10.970000267028809</c:v>
+                  <c:v>96969.801026288886</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>10.920000076293945</c:v>
+                  <c:v>89126.478187473665</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>10.970000267028809</c:v>
+                  <c:v>80562.472526327823</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>10.600000381469727</c:v>
+                  <c:v>53437.927982934343</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>11.510000228881836</c:v>
+                  <c:v>88968.255640436604</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>11.680000305175781</c:v>
+                  <c:v>92573.011069864559</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>11.979999542236328</c:v>
+                  <c:v>103026.37466832314</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>12.18999958</c:v>
+                  <c:v>98264.978281134274</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>12.15999985</c:v>
+                  <c:v>80287.231735839858</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>11.960000040000001</c:v>
+                  <c:v>75535.258213471912</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>11.69999981</c:v>
+                  <c:v>62933.262277303147</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>13.47999954</c:v>
+                  <c:v>148291.16562349023</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>12.789999959999999</c:v>
+                  <c:v>130636.49908030132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6513,17 +6589,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87333504"/>
-        <c:axId val="443968896"/>
+        <c:axId val="103051648"/>
+        <c:axId val="295399808"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="87333504"/>
+      <c:dateAx>
+        <c:axId val="103051648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6560,15 +6636,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443968896"/>
+        <c:crossAx val="295399808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="443968896"/>
+        <c:axId val="295399808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6619,7 +6694,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87333504"/>
+        <c:crossAx val="103051648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7027,7 +7102,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -7055,31 +7130,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7093,7 +7168,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7135,25 +7210,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14295,9 +14370,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D865"/>
+  <dimension ref="A1:D886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -27191,7 +27266,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A865" si="6">A806+1</f>
+        <f t="shared" ref="A807:A886" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -28131,6 +28206,342 @@
       <c r="D865" s="17">
         <f>SUM(C$3:C865)/A865</f>
         <v>11.900803949324615</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4">
+      <c r="A866" s="17">
+        <f t="shared" si="6"/>
+        <v>864</v>
+      </c>
+      <c r="B866" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="C866" s="38">
+        <v>12.47000027</v>
+      </c>
+      <c r="D866" s="17">
+        <f>SUM(C$3:C866)/A866</f>
+        <v>11.901462741362433</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4">
+      <c r="A867" s="17">
+        <f t="shared" si="6"/>
+        <v>865</v>
+      </c>
+      <c r="B867" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="C867" s="38">
+        <v>12.600000380000001</v>
+      </c>
+      <c r="D867" s="17">
+        <f>SUM(C$3:C867)/A867</f>
+        <v>11.902270299326176</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4">
+      <c r="A868" s="17">
+        <f t="shared" si="6"/>
+        <v>866</v>
+      </c>
+      <c r="B868" s="37" t="s">
+        <v>658</v>
+      </c>
+      <c r="C868" s="38">
+        <v>12.850000380000001</v>
+      </c>
+      <c r="D868" s="17">
+        <f>SUM(C$3:C868)/A868</f>
+        <v>11.90336467586275</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4">
+      <c r="A869" s="17">
+        <f t="shared" si="6"/>
+        <v>867</v>
+      </c>
+      <c r="B869" s="37" t="s">
+        <v>659</v>
+      </c>
+      <c r="C869" s="38">
+        <v>12.75</v>
+      </c>
+      <c r="D869" s="17">
+        <f>SUM(C$3:C869)/A869</f>
+        <v>11.904341187193936</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4">
+      <c r="A870" s="17">
+        <f t="shared" si="6"/>
+        <v>868</v>
+      </c>
+      <c r="B870" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="C870" s="38">
+        <v>13.130000109999999</v>
+      </c>
+      <c r="D870" s="17">
+        <f>SUM(C$3:C870)/A870</f>
+        <v>11.905753236644173</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4">
+      <c r="A871" s="17">
+        <f t="shared" si="6"/>
+        <v>869</v>
+      </c>
+      <c r="B871" s="37" t="s">
+        <v>661</v>
+      </c>
+      <c r="C871" s="38">
+        <v>12.989999770000001</v>
+      </c>
+      <c r="D871" s="17">
+        <f>SUM(C$3:C871)/A871</f>
+        <v>11.907000931158967</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4">
+      <c r="A872" s="17">
+        <f t="shared" si="6"/>
+        <v>870</v>
+      </c>
+      <c r="B872" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="C872" s="38">
+        <v>12.97999954</v>
+      </c>
+      <c r="D872" s="17">
+        <f>SUM(C$3:C872)/A872</f>
+        <v>11.908234262893268</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4">
+      <c r="A873" s="17">
+        <f t="shared" si="6"/>
+        <v>871</v>
+      </c>
+      <c r="B873" s="37" t="s">
+        <v>663</v>
+      </c>
+      <c r="C873" s="38">
+        <v>12.850000380000001</v>
+      </c>
+      <c r="D873" s="17">
+        <f>SUM(C$3:C873)/A873</f>
+        <v>11.909315509870428</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4">
+      <c r="A874" s="17">
+        <f t="shared" si="6"/>
+        <v>872</v>
+      </c>
+      <c r="B874" s="37" t="s">
+        <v>664</v>
+      </c>
+      <c r="C874" s="38">
+        <v>12.93000031</v>
+      </c>
+      <c r="D874" s="17">
+        <f>SUM(C$3:C874)/A874</f>
+        <v>11.91048601996232</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4">
+      <c r="A875" s="17">
+        <f t="shared" si="6"/>
+        <v>873</v>
+      </c>
+      <c r="B875" s="37" t="s">
+        <v>665</v>
+      </c>
+      <c r="C875" s="38">
+        <v>12.760000229999999</v>
+      </c>
+      <c r="D875" s="17">
+        <f>SUM(C$3:C875)/A875</f>
+        <v>11.91145911756832</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4">
+      <c r="A876" s="17">
+        <f t="shared" si="6"/>
+        <v>874</v>
+      </c>
+      <c r="B876" s="37" t="s">
+        <v>666</v>
+      </c>
+      <c r="C876" s="38">
+        <v>12.600000380000001</v>
+      </c>
+      <c r="D876" s="17">
+        <f>SUM(C$3:C876)/A876</f>
+        <v>11.912246922216411</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4">
+      <c r="A877" s="17">
+        <f t="shared" si="6"/>
+        <v>875</v>
+      </c>
+      <c r="B877" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="C877" s="38">
+        <v>12.60999966</v>
+      </c>
+      <c r="D877" s="17">
+        <f>SUM(C$3:C877)/A877</f>
+        <v>11.913044353916735</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4">
+      <c r="A878" s="17">
+        <f t="shared" si="6"/>
+        <v>876</v>
+      </c>
+      <c r="B878" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="C878" s="38">
+        <v>12.64000034</v>
+      </c>
+      <c r="D878" s="17">
+        <f>SUM(C$3:C878)/A878</f>
+        <v>11.913874212348338</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4">
+      <c r="A879" s="17">
+        <f t="shared" si="6"/>
+        <v>877</v>
+      </c>
+      <c r="B879" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="C879" s="38">
+        <v>12.68000031</v>
+      </c>
+      <c r="D879" s="17">
+        <f>SUM(C$3:C879)/A879</f>
+        <v>11.914747788286366</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4">
+      <c r="A880" s="17">
+        <f t="shared" si="6"/>
+        <v>878</v>
+      </c>
+      <c r="B880" s="37" t="s">
+        <v>670</v>
+      </c>
+      <c r="C880" s="38">
+        <v>12.670000079999999</v>
+      </c>
+      <c r="D880" s="17">
+        <f>SUM(C$3:C880)/A880</f>
+        <v>11.915607984518385</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4">
+      <c r="A881" s="17">
+        <f t="shared" si="6"/>
+        <v>879</v>
+      </c>
+      <c r="B881" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="C881" s="38">
+        <v>12.31000042</v>
+      </c>
+      <c r="D881" s="17">
+        <f>SUM(C$3:C881)/A881</f>
+        <v>11.916056667607672</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4">
+      <c r="A882" s="17">
+        <f t="shared" si="6"/>
+        <v>880</v>
+      </c>
+      <c r="B882" s="37" t="s">
+        <v>672</v>
+      </c>
+      <c r="C882" s="38">
+        <v>12.27000046</v>
+      </c>
+      <c r="D882" s="17">
+        <f>SUM(C$3:C882)/A882</f>
+        <v>11.916458876462661</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4">
+      <c r="A883" s="17">
+        <f t="shared" si="6"/>
+        <v>881</v>
+      </c>
+      <c r="B883" s="37" t="s">
+        <v>673</v>
+      </c>
+      <c r="C883" s="38">
+        <v>12.27999973</v>
+      </c>
+      <c r="D883" s="17">
+        <f>SUM(C$3:C883)/A883</f>
+        <v>11.916871522153397</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4">
+      <c r="A884" s="17">
+        <f t="shared" si="6"/>
+        <v>882</v>
+      </c>
+      <c r="B884" s="37" t="s">
+        <v>674</v>
+      </c>
+      <c r="C884" s="38">
+        <v>12.44999981</v>
+      </c>
+      <c r="D884" s="17">
+        <f>SUM(C$3:C884)/A884</f>
+        <v>11.917475975994494</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4">
+      <c r="A885" s="17">
+        <f t="shared" si="6"/>
+        <v>883</v>
+      </c>
+      <c r="B885" s="37">
+        <v>45624</v>
+      </c>
+      <c r="C885" s="38">
+        <v>12.350000380000001</v>
+      </c>
+      <c r="D885" s="17">
+        <f>SUM(C$3:C885)/A885</f>
+        <v>11.917965811106617</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4">
+      <c r="A886" s="17">
+        <f t="shared" si="6"/>
+        <v>884</v>
+      </c>
+      <c r="B886" s="37">
+        <v>45625</v>
+      </c>
+      <c r="C886" s="38">
+        <v>12.43999958</v>
+      </c>
+      <c r="D886" s="17">
+        <f>SUM(C$3:C886)/A886</f>
+        <v>11.918556347044278</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="691">
   <si>
     <t>PE</t>
   </si>
@@ -2756,6 +2756,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3397,7 +3401,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="170"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3907,6 +3911,9 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3916,7 +3923,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="170"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4426,6 +4433,9 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>342000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,7 +4478,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="170"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4978,6 +4988,9 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4987,7 +5000,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="170"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5497,6 +5510,9 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>470636.49908030132</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>472985.04172054987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5539,7 +5555,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="170"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6049,6 +6065,9 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6058,7 +6077,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="170"/>
+                <c:ptCount val="171"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6568,6 +6587,9 @@
                 </c:pt>
                 <c:pt idx="169">
                   <c:v>130636.49908030132</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>130985.04172054987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6589,11 +6611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103051648"/>
-        <c:axId val="295399808"/>
+        <c:axId val="472274432"/>
+        <c:axId val="472275968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103051648"/>
+        <c:axId val="472274432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6636,14 +6658,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295399808"/>
+        <c:crossAx val="472275968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="295399808"/>
+        <c:axId val="472275968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6694,7 +6716,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103051648"/>
+        <c:crossAx val="472274432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7100,7 +7122,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB172"/>
+  <dimension ref="A1:AB173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7168,7 +7190,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7210,25 +7232,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>682</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14355,6 +14377,39 @@
       <c r="J172" s="31">
         <f>VLOOKUP(A172,myPEPB!B:C,2)</f>
         <v>12.789999959999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="12.75">
+      <c r="A173" s="13">
+        <v>45625</v>
+      </c>
+      <c r="B173" s="14">
+        <v>2.4350419921875002</v>
+      </c>
+      <c r="C173" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D173" s="16">
+        <v>821.34107190624513</v>
+      </c>
+      <c r="E173" s="16">
+        <v>194241.02058118826</v>
+      </c>
+      <c r="F173" s="16">
+        <v>472985.04172054987</v>
+      </c>
+      <c r="G173" s="16">
+        <v>342000</v>
+      </c>
+      <c r="H173" s="16">
+        <v>472985.04172054987</v>
+      </c>
+      <c r="I173" s="16">
+        <v>130985.04172054987</v>
+      </c>
+      <c r="J173" s="31">
+        <f>VLOOKUP(A173,myPEPB!B:C,2)</f>
+        <v>12.43999958</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="710">
   <si>
     <t>PE</t>
   </si>
@@ -2723,6 +2723,86 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2024/12/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/12/27
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2756,10 +2836,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6611,11 +6687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472274432"/>
-        <c:axId val="472275968"/>
+        <c:axId val="488482304"/>
+        <c:axId val="488483840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472274432"/>
+        <c:axId val="488482304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6658,14 +6734,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472275968"/>
+        <c:crossAx val="488483840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472275968"/>
+        <c:axId val="488483840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6716,7 +6792,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472274432"/>
+        <c:crossAx val="488482304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7152,31 +7228,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7190,7 +7266,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7232,25 +7308,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14425,7 +14501,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D886"/>
+  <dimension ref="A1:D908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -27321,7 +27397,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A886" si="6">A806+1</f>
+        <f t="shared" ref="A807:A908" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -28597,6 +28673,358 @@
       <c r="D886" s="17">
         <f>SUM(C$3:C886)/A886</f>
         <v>11.918556347044278</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4">
+      <c r="A887" s="17">
+        <f t="shared" si="6"/>
+        <v>885</v>
+      </c>
+      <c r="B887" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="C887" s="38">
+        <v>12.539999959999999</v>
+      </c>
+      <c r="D887" s="17">
+        <f>SUM(C$3:C887)/A887</f>
+        <v>11.91925854321711</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4">
+      <c r="A888" s="17">
+        <f t="shared" si="6"/>
+        <v>886</v>
+      </c>
+      <c r="B888" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="C888" s="38">
+        <v>12.579999920000001</v>
+      </c>
+      <c r="D888" s="17">
+        <f>SUM(C$3:C888)/A888</f>
+        <v>11.920004300978716</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4">
+      <c r="A889" s="17">
+        <f t="shared" si="6"/>
+        <v>887</v>
+      </c>
+      <c r="B889" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="C889" s="38">
+        <v>12.56000042</v>
+      </c>
+      <c r="D889" s="17">
+        <f>SUM(C$3:C889)/A889</f>
+        <v>11.920725829861492</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4">
+      <c r="A890" s="17">
+        <f t="shared" si="6"/>
+        <v>888</v>
+      </c>
+      <c r="B890" s="37" t="s">
+        <v>678</v>
+      </c>
+      <c r="C890" s="38">
+        <v>12.510000229999999</v>
+      </c>
+      <c r="D890" s="17">
+        <f>SUM(C$3:C890)/A890</f>
+        <v>11.921389427158946</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4">
+      <c r="A891" s="17">
+        <f t="shared" si="6"/>
+        <v>889</v>
+      </c>
+      <c r="B891" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="C891" s="38">
+        <v>12.670000079999999</v>
+      </c>
+      <c r="D891" s="17">
+        <f>SUM(C$3:C891)/A891</f>
+        <v>11.922231508883176</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4">
+      <c r="A892" s="17">
+        <f t="shared" si="6"/>
+        <v>890</v>
+      </c>
+      <c r="B892" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="C892" s="38">
+        <v>12.68000031</v>
+      </c>
+      <c r="D892" s="17">
+        <f>SUM(C$3:C892)/A892</f>
+        <v>11.923082934502407</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4">
+      <c r="A893" s="17">
+        <f t="shared" si="6"/>
+        <v>891</v>
+      </c>
+      <c r="B893" s="37" t="s">
+        <v>681</v>
+      </c>
+      <c r="C893" s="38">
+        <v>12.77000046</v>
+      </c>
+      <c r="D893" s="17">
+        <f>SUM(C$3:C893)/A893</f>
+        <v>11.924033459222381</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4">
+      <c r="A894" s="17">
+        <f t="shared" si="6"/>
+        <v>892</v>
+      </c>
+      <c r="B894" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="C894" s="38">
+        <v>12.75</v>
+      </c>
+      <c r="D894" s="17">
+        <f>SUM(C$3:C894)/A894</f>
+        <v>11.924959430680651</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4">
+      <c r="A895" s="17">
+        <f t="shared" si="6"/>
+        <v>893</v>
+      </c>
+      <c r="B895" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="C895" s="38">
+        <v>12.880000109999999</v>
+      </c>
+      <c r="D895" s="17">
+        <f>SUM(C$3:C895)/A895</f>
+        <v>11.92602890512558</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4">
+      <c r="A896" s="17">
+        <f t="shared" si="6"/>
+        <v>894</v>
+      </c>
+      <c r="B896" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="C896" s="38">
+        <v>12.600000380000001</v>
+      </c>
+      <c r="D896" s="17">
+        <f>SUM(C$3:C896)/A896</f>
+        <v>11.926782788207095</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4">
+      <c r="A897" s="17">
+        <f t="shared" si="6"/>
+        <v>895</v>
+      </c>
+      <c r="B897" s="37" t="s">
+        <v>685</v>
+      </c>
+      <c r="C897" s="38">
+        <v>13.27999973</v>
+      </c>
+      <c r="D897" s="17">
+        <f>SUM(C$3:C897)/A897</f>
+        <v>11.928294762443736</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4">
+      <c r="A898" s="17">
+        <f t="shared" si="6"/>
+        <v>896</v>
+      </c>
+      <c r="B898" s="37" t="s">
+        <v>686</v>
+      </c>
+      <c r="C898" s="38">
+        <v>13.329999920000001</v>
+      </c>
+      <c r="D898" s="17">
+        <f>SUM(C$3:C898)/A898</f>
+        <v>11.929859165521366</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4">
+      <c r="A899" s="17">
+        <f t="shared" si="6"/>
+        <v>897</v>
+      </c>
+      <c r="B899" s="37" t="s">
+        <v>687</v>
+      </c>
+      <c r="C899" s="38">
+        <v>13.380000109999999</v>
+      </c>
+      <c r="D899" s="17">
+        <f>SUM(C$3:C899)/A899</f>
+        <v>11.931475822092692</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4">
+      <c r="A900" s="17">
+        <f t="shared" si="6"/>
+        <v>898</v>
+      </c>
+      <c r="B900" s="37" t="s">
+        <v>688</v>
+      </c>
+      <c r="C900" s="38">
+        <v>13.34000015</v>
+      </c>
+      <c r="D900" s="17">
+        <f>SUM(C$3:C900)/A900</f>
+        <v>11.933044334707288</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4">
+      <c r="A901" s="17">
+        <f t="shared" si="6"/>
+        <v>899</v>
+      </c>
+      <c r="B901" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="C901" s="38">
+        <v>13.260000229999999</v>
+      </c>
+      <c r="D901" s="17">
+        <f>SUM(C$3:C901)/A901</f>
+        <v>11.934520370185924</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4">
+      <c r="A902" s="17">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="B902" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="C902" s="38">
+        <v>13.31999969</v>
+      </c>
+      <c r="D902" s="17">
+        <f>SUM(C$3:C902)/A902</f>
+        <v>11.936059791652383</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4">
+      <c r="A903" s="17">
+        <f t="shared" si="6"/>
+        <v>901</v>
+      </c>
+      <c r="B903" s="37" t="s">
+        <v>691</v>
+      </c>
+      <c r="C903" s="38">
+        <v>13.489999770000001</v>
+      </c>
+      <c r="D903" s="17">
+        <f>SUM(C$3:C903)/A903</f>
+        <v>11.937784475313146</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4">
+      <c r="A904" s="17">
+        <f t="shared" si="6"/>
+        <v>902</v>
+      </c>
+      <c r="B904" s="37" t="s">
+        <v>692</v>
+      </c>
+      <c r="C904" s="38">
+        <v>13.52999973</v>
+      </c>
+      <c r="D904" s="17">
+        <f>SUM(C$3:C904)/A904</f>
+        <v>11.939549680695283</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4">
+      <c r="A905" s="17">
+        <f t="shared" si="6"/>
+        <v>903</v>
+      </c>
+      <c r="B905" s="37" t="s">
+        <v>693</v>
+      </c>
+      <c r="C905" s="38">
+        <v>13.5</v>
+      </c>
+      <c r="D905" s="17">
+        <f>SUM(C$3:C905)/A905</f>
+        <v>11.941277754138589</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4">
+      <c r="A906" s="17">
+        <f t="shared" si="6"/>
+        <v>904</v>
+      </c>
+      <c r="B906" s="37" t="s">
+        <v>694</v>
+      </c>
+      <c r="C906" s="38">
+        <v>13.489999770000001</v>
+      </c>
+      <c r="D906" s="17">
+        <f>SUM(C$3:C906)/A906</f>
+        <v>11.942990942209232</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4">
+      <c r="A907" s="17">
+        <f t="shared" si="6"/>
+        <v>905</v>
+      </c>
+      <c r="B907" s="37">
+        <v>45656</v>
+      </c>
+      <c r="C907" s="38">
+        <v>13.55000019</v>
+      </c>
+      <c r="D907" s="17">
+        <f>SUM(C$3:C907)/A907</f>
+        <v>11.944766643035519</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4">
+      <c r="A908" s="17">
+        <f t="shared" si="6"/>
+        <v>906</v>
+      </c>
+      <c r="B908" s="37">
+        <v>45657</v>
+      </c>
+      <c r="C908" s="38">
+        <v>13.39000034</v>
+      </c>
+      <c r="D908" s="17">
+        <f>SUM(C$3:C908)/A908</f>
+        <v>11.946361823716495</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="711">
   <si>
     <t>PE</t>
   </si>
@@ -2836,6 +2836,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3258,7 +3262,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3338,6 +3342,7 @@
     <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3477,7 +3482,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -3990,6 +3995,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3999,7 +4007,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4512,6 +4520,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>342000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>344000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4554,7 +4565,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5067,6 +5078,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5076,7 +5090,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5589,6 +5603,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>472985.04172054987</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>474589.16182801768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,7 +5648,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6144,6 +6161,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6153,7 +6173,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="171"/>
+                <c:ptCount val="172"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6666,6 +6686,9 @@
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>130985.04172054987</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>130589.16182801768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6687,11 +6710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488482304"/>
-        <c:axId val="488483840"/>
+        <c:axId val="160741632"/>
+        <c:axId val="160743424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488482304"/>
+        <c:axId val="160741632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6734,14 +6757,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488483840"/>
+        <c:crossAx val="160743424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488483840"/>
+        <c:axId val="160743424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6792,7 +6815,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488482304"/>
+        <c:crossAx val="160741632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7198,7 +7221,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB173"/>
+  <dimension ref="A1:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7266,7 +7289,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7308,25 +7331,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>702</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -8474,6 +8497,27 @@
         <f>VLOOKUP(A18,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
+      <c r="L18" s="24">
+        <v>45657</v>
+      </c>
+      <c r="M18" s="8">
+        <v>24000</v>
+      </c>
+      <c r="N18" s="4">
+        <v>344000</v>
+      </c>
+      <c r="O18" s="4">
+        <v>474589.16182801768</v>
+      </c>
+      <c r="P18" s="4">
+        <v>130589.16182801768</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0.37961965647679558</v>
+      </c>
+      <c r="R18" s="7">
+        <v>4.0952702723976886E-2</v>
+      </c>
       <c r="T18" s="29">
         <v>40543</v>
       </c>
@@ -10116,6 +10160,16 @@
         <f t="shared" ref="V45:V58" si="18">-U45</f>
         <v>-8000</v>
       </c>
+      <c r="W45" s="29">
+        <v>40543</v>
+      </c>
+      <c r="X45" s="1">
+        <v>8000</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" ref="Y45:Y59" si="19">-X45</f>
+        <v>-8000</v>
+      </c>
     </row>
     <row r="46" spans="1:28" ht="14.1" customHeight="1">
       <c r="A46" s="26">
@@ -10159,6 +10213,16 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
+      <c r="W46" s="29">
+        <v>40907</v>
+      </c>
+      <c r="X46" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="47" spans="1:28" ht="14.1" customHeight="1">
       <c r="A47" s="26">
@@ -10202,6 +10266,16 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
+      <c r="W47" s="29">
+        <v>41274</v>
+      </c>
+      <c r="X47" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="48" spans="1:28" ht="14.1" customHeight="1">
       <c r="A48" s="26">
@@ -10245,8 +10319,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W48" s="29">
+        <v>41639</v>
+      </c>
+      <c r="X48" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="14.1" customHeight="1">
       <c r="A49" s="26">
         <v>41851</v>
       </c>
@@ -10288,8 +10372,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W49" s="29">
+        <v>42004</v>
+      </c>
+      <c r="X49" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="14.1" customHeight="1">
       <c r="A50" s="26">
         <v>41880</v>
       </c>
@@ -10331,8 +10425,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W50" s="29">
+        <v>42369</v>
+      </c>
+      <c r="X50" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="14.1" customHeight="1">
       <c r="A51" s="26">
         <v>41912</v>
       </c>
@@ -10374,8 +10478,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W51" s="29">
+        <v>42734</v>
+      </c>
+      <c r="X51" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="14.1" customHeight="1">
       <c r="A52" s="26">
         <v>41943</v>
       </c>
@@ -10417,8 +10531,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W52" s="29">
+        <v>43098</v>
+      </c>
+      <c r="X52" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="14.1" customHeight="1">
       <c r="A53" s="26">
         <v>41971</v>
       </c>
@@ -10460,8 +10584,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W53" s="29">
+        <v>43462</v>
+      </c>
+      <c r="X53" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="14.1" customHeight="1">
       <c r="A54" s="26">
         <v>42004</v>
       </c>
@@ -10503,8 +10637,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W54" s="30">
+        <v>43830</v>
+      </c>
+      <c r="X54" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="14.1" customHeight="1">
       <c r="A55" s="26">
         <v>42034</v>
       </c>
@@ -10547,8 +10691,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W55" s="24">
+        <v>44196</v>
+      </c>
+      <c r="X55" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="14.1" customHeight="1">
       <c r="A56" s="26">
         <v>42062</v>
       </c>
@@ -10590,8 +10744,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W56" s="24">
+        <v>44561</v>
+      </c>
+      <c r="X56" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y56" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="14.1" customHeight="1">
       <c r="A57" s="26">
         <v>42094</v>
       </c>
@@ -10633,8 +10797,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W57" s="24">
+        <v>44925</v>
+      </c>
+      <c r="X57" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y57" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="14.1" customHeight="1">
       <c r="A58" s="26">
         <v>42124</v>
       </c>
@@ -10676,8 +10850,18 @@
         <f t="shared" si="18"/>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W58" s="24">
+        <v>45289</v>
+      </c>
+      <c r="X58" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y58" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="14.1" customHeight="1">
       <c r="A59" s="26">
         <v>42153</v>
       </c>
@@ -10715,8 +10899,18 @@
       <c r="V59" s="1">
         <v>400562.47252632782</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W59" s="24">
+        <v>45657</v>
+      </c>
+      <c r="X59" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y59" s="1">
+        <f t="shared" si="19"/>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="14.1" customHeight="1">
       <c r="A60" s="26">
         <v>42185</v>
       </c>
@@ -10751,8 +10945,14 @@
       <c r="V60" s="2">
         <v>3.0809364237756043E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W60" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>474589.16182801768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="14.1" customHeight="1">
       <c r="A61" s="26">
         <v>42216</v>
       </c>
@@ -10784,8 +10984,11 @@
         <f>VLOOKUP(A61,myPEPB!B:C,2)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="14.1" customHeight="1">
+      <c r="Y61" s="2">
+        <v>4.0952702723976886E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="14.1" customHeight="1">
       <c r="A62" s="26">
         <v>42247</v>
       </c>
@@ -10818,7 +11021,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="14.1" customHeight="1">
+    <row r="63" spans="1:25" ht="14.1" customHeight="1">
       <c r="A63" s="26">
         <v>42277</v>
       </c>
@@ -10851,7 +11054,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="14.1" customHeight="1">
+    <row r="64" spans="1:25" ht="14.1" customHeight="1">
       <c r="A64" s="26">
         <v>42307</v>
       </c>
@@ -14487,6 +14690,42 @@
         <f>VLOOKUP(A173,myPEPB!B:C,2)</f>
         <v>12.43999958</v>
       </c>
+    </row>
+    <row r="174" spans="1:10" ht="12.75">
+      <c r="A174" s="13">
+        <v>45657</v>
+      </c>
+      <c r="B174" s="14">
+        <v>2.4330039062500002</v>
+      </c>
+      <c r="C174" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D174" s="16">
+        <v>822.02909533450315</v>
+      </c>
+      <c r="E174" s="16">
+        <v>195063.04967652276</v>
+      </c>
+      <c r="F174" s="16">
+        <v>474589.16182801768</v>
+      </c>
+      <c r="G174" s="16">
+        <v>344000</v>
+      </c>
+      <c r="H174" s="16">
+        <v>474589.16182801768</v>
+      </c>
+      <c r="I174" s="16">
+        <v>130589.16182801768</v>
+      </c>
+      <c r="J174" s="31">
+        <f>VLOOKUP(A174,myPEPB!B:C,2)</f>
+        <v>13.39000034</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14516,7 +14755,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="23">
@@ -14524,7 +14763,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
       </c>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="710">
   <si>
     <t>PE</t>
   </si>
@@ -2836,10 +2836,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3262,7 +3258,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3342,7 +3338,6 @@
     <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6710,11 +6705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160741632"/>
-        <c:axId val="160743424"/>
+        <c:axId val="93246592"/>
+        <c:axId val="93248512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160741632"/>
+        <c:axId val="93246592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6757,14 +6752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160743424"/>
+        <c:crossAx val="93248512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160743424"/>
+        <c:axId val="93248512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6815,7 +6810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160741632"/>
+        <c:crossAx val="93246592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7221,7 +7216,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB175"/>
+  <dimension ref="A1:AB174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7289,7 +7284,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7331,25 +7326,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="M3" s="36" t="s">
         <v>704</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>705</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>706</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>702</v>
       </c>
       <c r="P3" s="36" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q3" s="36" t="s">
         <v>707</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="R3" s="36" t="s">
         <v>708</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>709</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14723,9 +14718,6 @@
         <f>VLOOKUP(A174,myPEPB!B:C,2)</f>
         <v>13.39000034</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14742,7 +14734,7 @@
   </sheetPr>
   <dimension ref="A1:D908"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -14755,7 +14747,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="23">
@@ -14763,7 +14755,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="40"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="18" t="s">
         <v>0</v>
       </c>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="726">
   <si>
     <t>PE</t>
   </si>
@@ -2800,6 +2800,70 @@
   </si>
   <si>
     <t xml:space="preserve">2024/12/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/1/23
 </t>
   </si>
   <si>
@@ -6705,11 +6769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93246592"/>
-        <c:axId val="93248512"/>
+        <c:axId val="446819712"/>
+        <c:axId val="448660608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93246592"/>
+        <c:axId val="446819712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6752,14 +6816,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93248512"/>
+        <c:crossAx val="448660608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93248512"/>
+        <c:axId val="448660608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6810,7 +6874,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93246592"/>
+        <c:crossAx val="446819712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7246,31 +7310,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7284,7 +7348,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7326,25 +7390,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14732,9 +14796,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D908"/>
+  <dimension ref="A1:D926"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -27628,7 +27692,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A908" si="6">A806+1</f>
+        <f t="shared" ref="A807:A926" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -29256,6 +29320,294 @@
       <c r="D908" s="17">
         <f>SUM(C$3:C908)/A908</f>
         <v>11.946361823716495</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4">
+      <c r="A909" s="17">
+        <f t="shared" si="6"/>
+        <v>907</v>
+      </c>
+      <c r="B909" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="C909" s="38">
+        <v>13.010000229999999</v>
+      </c>
+      <c r="D909" s="17">
+        <f>SUM(C$3:C909)/A909</f>
+        <v>11.947534523172155</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4">
+      <c r="A910" s="17">
+        <f t="shared" si="6"/>
+        <v>908</v>
+      </c>
+      <c r="B910" s="37" t="s">
+        <v>696</v>
+      </c>
+      <c r="C910" s="38">
+        <v>12.89000034</v>
+      </c>
+      <c r="D910" s="17">
+        <f>SUM(C$3:C910)/A910</f>
+        <v>11.948572481120204</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4">
+      <c r="A911" s="17">
+        <f t="shared" si="6"/>
+        <v>909</v>
+      </c>
+      <c r="B911" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="C911" s="38">
+        <v>12.869999890000001</v>
+      </c>
+      <c r="D911" s="17">
+        <f>SUM(C$3:C911)/A911</f>
+        <v>11.949586152637121</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4">
+      <c r="A912" s="17">
+        <f t="shared" si="6"/>
+        <v>910</v>
+      </c>
+      <c r="B912" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="C912" s="38">
+        <v>12.90999985</v>
+      </c>
+      <c r="D912" s="17">
+        <f>SUM(C$3:C912)/A912</f>
+        <v>11.950641552304553</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4">
+      <c r="A913" s="17">
+        <f t="shared" si="6"/>
+        <v>911</v>
+      </c>
+      <c r="B913" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="C913" s="38">
+        <v>12.880000109999999</v>
+      </c>
+      <c r="D913" s="17">
+        <f>SUM(C$3:C913)/A913</f>
+        <v>11.951661704398623</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4">
+      <c r="A914" s="17">
+        <f t="shared" si="6"/>
+        <v>912</v>
+      </c>
+      <c r="B914" s="37" t="s">
+        <v>700</v>
+      </c>
+      <c r="C914" s="38">
+        <v>12.81000042</v>
+      </c>
+      <c r="D914" s="17">
+        <f>SUM(C$3:C914)/A914</f>
+        <v>11.952602865270993</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4">
+      <c r="A915" s="17">
+        <f t="shared" si="6"/>
+        <v>913</v>
+      </c>
+      <c r="B915" s="37" t="s">
+        <v>701</v>
+      </c>
+      <c r="C915" s="38">
+        <v>12.65999985</v>
+      </c>
+      <c r="D915" s="17">
+        <f>SUM(C$3:C915)/A915</f>
+        <v>11.953377670292602</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4">
+      <c r="A916" s="17">
+        <f t="shared" si="6"/>
+        <v>914</v>
+      </c>
+      <c r="B916" s="37" t="s">
+        <v>702</v>
+      </c>
+      <c r="C916" s="38">
+        <v>12.630000109999999</v>
+      </c>
+      <c r="D916" s="17">
+        <f>SUM(C$3:C916)/A916</f>
+        <v>11.954117957425762</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4">
+      <c r="A917" s="17">
+        <f t="shared" si="6"/>
+        <v>915</v>
+      </c>
+      <c r="B917" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="C917" s="38">
+        <v>12.90999985</v>
+      </c>
+      <c r="D917" s="17">
+        <f>SUM(C$3:C917)/A917</f>
+        <v>11.955162637089778</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4">
+      <c r="A918" s="17">
+        <f t="shared" si="6"/>
+        <v>916</v>
+      </c>
+      <c r="B918" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="C918" s="38">
+        <v>12.84000015</v>
+      </c>
+      <c r="D918" s="17">
+        <f>SUM(C$3:C918)/A918</f>
+        <v>11.956128616907366</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4">
+      <c r="A919" s="17">
+        <f t="shared" si="6"/>
+        <v>917</v>
+      </c>
+      <c r="B919" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="C919" s="38">
+        <v>12.869999890000001</v>
+      </c>
+      <c r="D919" s="17">
+        <f>SUM(C$3:C919)/A919</f>
+        <v>11.957125204991435</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4">
+      <c r="A920" s="17">
+        <f t="shared" si="6"/>
+        <v>918</v>
+      </c>
+      <c r="B920" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="C920" s="38">
+        <v>12.89000034</v>
+      </c>
+      <c r="D920" s="17">
+        <f>SUM(C$3:C920)/A920</f>
+        <v>11.958141408842206</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4">
+      <c r="A921" s="17">
+        <f t="shared" si="6"/>
+        <v>919</v>
+      </c>
+      <c r="B921" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="C921" s="38">
+        <v>12.93000031</v>
+      </c>
+      <c r="D921" s="17">
+        <f>SUM(C$3:C921)/A921</f>
+        <v>11.95919892668895</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4">
+      <c r="A922" s="17">
+        <f t="shared" si="6"/>
+        <v>920</v>
+      </c>
+      <c r="B922" s="37" t="s">
+        <v>708</v>
+      </c>
+      <c r="C922" s="38">
+        <v>12.920000079999999</v>
+      </c>
+      <c r="D922" s="17">
+        <f>SUM(C$3:C922)/A922</f>
+        <v>11.960243275768635</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4">
+      <c r="A923" s="17">
+        <f t="shared" si="6"/>
+        <v>921</v>
+      </c>
+      <c r="B923" s="37" t="s">
+        <v>709</v>
+      </c>
+      <c r="C923" s="38">
+        <v>12.789999959999999</v>
+      </c>
+      <c r="D923" s="17">
+        <f>SUM(C$3:C923)/A923</f>
+        <v>11.961144205936096</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4">
+      <c r="A924" s="17">
+        <f t="shared" si="6"/>
+        <v>922</v>
+      </c>
+      <c r="B924" s="37" t="s">
+        <v>710</v>
+      </c>
+      <c r="C924" s="38">
+        <v>12.850000380000001</v>
+      </c>
+      <c r="D924" s="17">
+        <f>SUM(C$3:C924)/A924</f>
+        <v>11.962108258185623</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4">
+      <c r="A925" s="17">
+        <f t="shared" si="6"/>
+        <v>923</v>
+      </c>
+      <c r="B925" s="37">
+        <v>45681</v>
+      </c>
+      <c r="C925" s="38">
+        <v>12.920000079999999</v>
+      </c>
+      <c r="D925" s="17">
+        <f>SUM(C$3:C925)/A925</f>
+        <v>11.963146060809473</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4">
+      <c r="A926" s="17">
+        <f t="shared" si="6"/>
+        <v>924</v>
+      </c>
+      <c r="B926" s="37">
+        <v>45684</v>
+      </c>
+      <c r="C926" s="38">
+        <v>12.920000079999999</v>
+      </c>
+      <c r="D926" s="17">
+        <f>SUM(C$3:C926)/A926</f>
+        <v>11.964181617107297</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -3541,7 +3541,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4057,6 +4057,9 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,7 +4069,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4582,6 +4585,9 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>344000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>346000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4624,7 +4630,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5140,6 +5146,9 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5149,7 +5158,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5665,6 +5674,9 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>474589.16182801768</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>461559.16334335972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5707,7 +5719,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6223,6 +6235,9 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6232,7 +6247,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6748,6 +6763,9 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>130589.16182801768</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>115559.16334335972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6769,11 +6787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446819712"/>
-        <c:axId val="448660608"/>
+        <c:axId val="388237184"/>
+        <c:axId val="471092608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446819712"/>
+        <c:axId val="388237184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6816,14 +6834,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448660608"/>
+        <c:crossAx val="471092608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448660608"/>
+        <c:axId val="471092608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6874,7 +6892,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446819712"/>
+        <c:crossAx val="388237184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7280,7 +7298,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB174"/>
+  <dimension ref="A1:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14783,6 +14801,39 @@
         <v>13.39000034</v>
       </c>
     </row>
+    <row r="175" spans="1:10" ht="12.75">
+      <c r="A175" s="13">
+        <v>45684</v>
+      </c>
+      <c r="B175" s="14">
+        <v>2.3559519042968748</v>
+      </c>
+      <c r="C175" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D175" s="16">
+        <v>848.91376447554967</v>
+      </c>
+      <c r="E175" s="16">
+        <v>195911.96344099831</v>
+      </c>
+      <c r="F175" s="16">
+        <v>461559.16334335972</v>
+      </c>
+      <c r="G175" s="16">
+        <v>346000</v>
+      </c>
+      <c r="H175" s="16">
+        <v>461559.16334335972</v>
+      </c>
+      <c r="I175" s="16">
+        <v>115559.16334335972</v>
+      </c>
+      <c r="J175" s="31">
+        <f>VLOOKUP(A175,myPEPB!B:C,2)</f>
+        <v>12.920000079999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14798,7 +14849,7 @@
   </sheetPr>
   <dimension ref="A1:D926"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="742">
   <si>
     <t>PE</t>
   </si>
@@ -2864,6 +2864,70 @@
   </si>
   <si>
     <t xml:space="preserve">2025/1/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/2/26
 </t>
   </si>
   <si>
@@ -6787,11 +6851,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="388237184"/>
-        <c:axId val="471092608"/>
+        <c:axId val="87950848"/>
+        <c:axId val="87954560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="388237184"/>
+        <c:axId val="87950848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6834,14 +6898,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471092608"/>
+        <c:crossAx val="87954560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471092608"/>
+        <c:axId val="87954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6892,7 +6956,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388237184"/>
+        <c:crossAx val="87950848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7328,31 +7392,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7366,7 +7430,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7408,25 +7472,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14847,7 +14911,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D926"/>
+  <dimension ref="A1:D944"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -27743,7 +27807,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A926" si="6">A806+1</f>
+        <f t="shared" ref="A807:A944" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -29659,6 +29723,294 @@
       <c r="D926" s="17">
         <f>SUM(C$3:C926)/A926</f>
         <v>11.964181617107297</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4">
+      <c r="A927" s="17">
+        <f t="shared" si="6"/>
+        <v>925</v>
+      </c>
+      <c r="B927" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="C927" s="38">
+        <v>12.77999973</v>
+      </c>
+      <c r="D927" s="17">
+        <f>SUM(C$3:C927)/A927</f>
+        <v>11.96506358263475</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4">
+      <c r="A928" s="17">
+        <f t="shared" si="6"/>
+        <v>926</v>
+      </c>
+      <c r="B928" s="37" t="s">
+        <v>712</v>
+      </c>
+      <c r="C928" s="38">
+        <v>12.90999985</v>
+      </c>
+      <c r="D928" s="17">
+        <f>SUM(C$3:C928)/A928</f>
+        <v>11.966084032167542</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4">
+      <c r="A929" s="17">
+        <f t="shared" si="6"/>
+        <v>927</v>
+      </c>
+      <c r="B929" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="C929" s="38">
+        <v>13.06999969</v>
+      </c>
+      <c r="D929" s="17">
+        <f>SUM(C$3:C929)/A929</f>
+        <v>11.96727487969487</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4">
+      <c r="A930" s="17">
+        <f t="shared" si="6"/>
+        <v>928</v>
+      </c>
+      <c r="B930" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="C930" s="38">
+        <v>13.079999920000001</v>
+      </c>
+      <c r="D930" s="17">
+        <f>SUM(C$3:C930)/A930</f>
+        <v>11.968473936850371</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4">
+      <c r="A931" s="17">
+        <f t="shared" si="6"/>
+        <v>929</v>
+      </c>
+      <c r="B931" s="37" t="s">
+        <v>715</v>
+      </c>
+      <c r="C931" s="38">
+        <v>13.05000019</v>
+      </c>
+      <c r="D931" s="17">
+        <f>SUM(C$3:C931)/A931</f>
+        <v>11.969638120115333</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4">
+      <c r="A932" s="17">
+        <f t="shared" si="6"/>
+        <v>930</v>
+      </c>
+      <c r="B932" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="C932" s="38">
+        <v>13.15999985</v>
+      </c>
+      <c r="D932" s="17">
+        <f>SUM(C$3:C932)/A932</f>
+        <v>11.970918078964672</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4">
+      <c r="A933" s="17">
+        <f t="shared" si="6"/>
+        <v>931</v>
+      </c>
+      <c r="B933" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="C933" s="38">
+        <v>13.149999619999999</v>
+      </c>
+      <c r="D933" s="17">
+        <f>SUM(C$3:C933)/A933</f>
+        <v>11.972184546785334</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4">
+      <c r="A934" s="17">
+        <f t="shared" si="6"/>
+        <v>932</v>
+      </c>
+      <c r="B934" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="C934" s="38">
+        <v>13.239999770000001</v>
+      </c>
+      <c r="D934" s="17">
+        <f>SUM(C$3:C934)/A934</f>
+        <v>11.973544863548438</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4">
+      <c r="A935" s="17">
+        <f t="shared" si="6"/>
+        <v>933</v>
+      </c>
+      <c r="B935" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="C935" s="38">
+        <v>13.25</v>
+      </c>
+      <c r="D935" s="17">
+        <f>SUM(C$3:C935)/A935</f>
+        <v>11.974912982665749</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4">
+      <c r="A936" s="17">
+        <f t="shared" si="6"/>
+        <v>934</v>
+      </c>
+      <c r="B936" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="C936" s="38">
+        <v>13.18000031</v>
+      </c>
+      <c r="D936" s="17">
+        <f>SUM(C$3:C936)/A936</f>
+        <v>11.976203226056899</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4">
+      <c r="A937" s="17">
+        <f t="shared" si="6"/>
+        <v>935</v>
+      </c>
+      <c r="B937" s="37" t="s">
+        <v>721</v>
+      </c>
+      <c r="C937" s="38">
+        <v>13.25</v>
+      </c>
+      <c r="D937" s="17">
+        <f>SUM(C$3:C937)/A937</f>
+        <v>11.977565575547748</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4">
+      <c r="A938" s="17">
+        <f t="shared" si="6"/>
+        <v>936</v>
+      </c>
+      <c r="B938" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="C938" s="38">
+        <v>13.22000027</v>
+      </c>
+      <c r="D938" s="17">
+        <f>SUM(C$3:C938)/A938</f>
+        <v>11.978892963041821</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4">
+      <c r="A939" s="17">
+        <f t="shared" si="6"/>
+        <v>937</v>
+      </c>
+      <c r="B939" s="37" t="s">
+        <v>723</v>
+      </c>
+      <c r="C939" s="38">
+        <v>13.30000019</v>
+      </c>
+      <c r="D939" s="17">
+        <f>SUM(C$3:C939)/A939</f>
+        <v>11.98030289604818</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4">
+      <c r="A940" s="17">
+        <f t="shared" si="6"/>
+        <v>938</v>
+      </c>
+      <c r="B940" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="C940" s="38">
+        <v>13.260000229999999</v>
+      </c>
+      <c r="D940" s="17">
+        <f>SUM(C$3:C940)/A940</f>
+        <v>11.981667178920196</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4">
+      <c r="A941" s="17">
+        <f t="shared" si="6"/>
+        <v>939</v>
+      </c>
+      <c r="B941" s="37" t="s">
+        <v>725</v>
+      </c>
+      <c r="C941" s="38">
+        <v>13.10999966</v>
+      </c>
+      <c r="D941" s="17">
+        <f>SUM(C$3:C941)/A941</f>
+        <v>11.982868810955425</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4">
+      <c r="A942" s="17">
+        <f t="shared" si="6"/>
+        <v>940</v>
+      </c>
+      <c r="B942" s="37" t="s">
+        <v>726</v>
+      </c>
+      <c r="C942" s="38">
+        <v>13.19999981</v>
+      </c>
+      <c r="D942" s="17">
+        <f>SUM(C$3:C942)/A942</f>
+        <v>11.984163631167176</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4">
+      <c r="A943" s="17">
+        <f t="shared" si="6"/>
+        <v>941</v>
+      </c>
+      <c r="B943" s="37">
+        <v>45715</v>
+      </c>
+      <c r="C943" s="38">
+        <v>13.260000229999999</v>
+      </c>
+      <c r="D943" s="17">
+        <f>SUM(C$3:C943)/A943</f>
+        <v>11.985519461771673</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4">
+      <c r="A944" s="17">
+        <f t="shared" si="6"/>
+        <v>942</v>
+      </c>
+      <c r="B944" s="37">
+        <v>45716</v>
+      </c>
+      <c r="C944" s="38">
+        <v>13.050000190734863</v>
+      </c>
+      <c r="D944" s="17">
+        <f>SUM(C$3:C944)/A944</f>
+        <v>11.986649483776942</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="743">
   <si>
     <t>PE</t>
   </si>
@@ -2964,6 +2964,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3605,7 +3609,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4124,6 +4128,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,7 +4140,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4652,6 +4659,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>346000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>348000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4694,7 +4704,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5213,6 +5223,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5222,7 +5235,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5741,6 +5754,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>461559.16334335972</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>474504.02241813432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5783,7 +5799,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6302,6 +6318,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6311,7 +6330,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6830,6 +6849,9 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>115559.16334335972</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>126504.02241813432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6851,11 +6873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87950848"/>
-        <c:axId val="87954560"/>
+        <c:axId val="89722880"/>
+        <c:axId val="89724416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87950848"/>
+        <c:axId val="89722880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,14 +6920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87954560"/>
+        <c:crossAx val="89724416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87954560"/>
+        <c:axId val="89724416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6956,7 +6978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87950848"/>
+        <c:crossAx val="89722880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7362,7 +7384,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB175"/>
+  <dimension ref="A1:AB176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7430,7 +7452,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7472,25 +7494,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>734</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -14896,6 +14918,39 @@
       <c r="J175" s="31">
         <f>VLOOKUP(A175,myPEPB!B:C,2)</f>
         <v>12.920000079999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="12.75">
+      <c r="A176" s="13">
+        <v>45716</v>
+      </c>
+      <c r="B176" s="14">
+        <v>2.4118181152343752</v>
+      </c>
+      <c r="C176" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D176" s="16">
+        <v>829.24992866041407</v>
+      </c>
+      <c r="E176" s="16">
+        <v>196741.21336965871</v>
+      </c>
+      <c r="F176" s="16">
+        <v>474504.02241813432</v>
+      </c>
+      <c r="G176" s="16">
+        <v>348000</v>
+      </c>
+      <c r="H176" s="16">
+        <v>474504.02241813432</v>
+      </c>
+      <c r="I176" s="16">
+        <v>126504.02241813432</v>
+      </c>
+      <c r="J176" s="31">
+        <f>VLOOKUP(A176,myPEPB!B:C,2)</f>
+        <v>13.050000190734863</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="762">
   <si>
     <t>PE</t>
   </si>
@@ -3040,6 +3040,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3681,7 +3685,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4203,6 +4207,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4212,7 +4219,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4734,6 +4741,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>348000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>350000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4776,7 +4786,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5298,6 +5308,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5307,7 +5320,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5829,6 +5842,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>474504.02241813432</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>477386.76412206679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5871,7 +5887,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6393,6 +6409,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6402,7 +6421,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="174"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6924,6 +6943,9 @@
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>126504.02241813432</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>127386.76412206679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6945,11 +6967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435134848"/>
-        <c:axId val="435136384"/>
+        <c:axId val="161389184"/>
+        <c:axId val="454689920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435134848"/>
+        <c:axId val="161389184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6992,14 +7014,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435136384"/>
+        <c:crossAx val="454689920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435136384"/>
+        <c:axId val="454689920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7050,7 +7072,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435134848"/>
+        <c:crossAx val="161389184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7456,7 +7478,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB176"/>
+  <dimension ref="A1:AB177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7524,7 +7546,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7566,25 +7588,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>753</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15023,6 +15045,39 @@
       <c r="J176" s="31">
         <f>VLOOKUP(A176,myPEPB!B:C,2)</f>
         <v>13.050000190734863</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="12.75">
+      <c r="A177" s="13">
+        <v>45747</v>
+      </c>
+      <c r="B177" s="14">
+        <v>2.4163049316406249</v>
+      </c>
+      <c r="C177" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D177" s="16">
+        <v>827.71010140762246</v>
+      </c>
+      <c r="E177" s="16">
+        <v>197568.92347106634</v>
+      </c>
+      <c r="F177" s="16">
+        <v>477386.76412206679</v>
+      </c>
+      <c r="G177" s="16">
+        <v>350000</v>
+      </c>
+      <c r="H177" s="16">
+        <v>477386.76412206679</v>
+      </c>
+      <c r="I177" s="16">
+        <v>127386.76412206679</v>
+      </c>
+      <c r="J177" s="31">
+        <f>VLOOKUP(A177,myPEPB!B:C,2)</f>
+        <v>13.170000079999999</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="780">
   <si>
     <t>PE</t>
   </si>
@@ -3007,6 +3007,82 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2025/4/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/4/28
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3040,10 +3116,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6967,11 +7039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161389184"/>
-        <c:axId val="454689920"/>
+        <c:axId val="462245248"/>
+        <c:axId val="462260480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161389184"/>
+        <c:axId val="462245248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7014,14 +7086,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454689920"/>
+        <c:crossAx val="462260480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454689920"/>
+        <c:axId val="462260480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7072,7 +7144,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161389184"/>
+        <c:crossAx val="462245248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7508,31 +7580,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7546,7 +7618,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7588,25 +7660,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15093,7 +15165,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D965"/>
+  <dimension ref="A1:D986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -27989,7 +28061,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A965" si="6">A806+1</f>
+        <f t="shared" ref="A807:A986" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -30529,6 +30601,342 @@
       <c r="D965" s="17">
         <f>SUM(C$3:C965)/A965</f>
         <v>12.013846120028953</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4">
+      <c r="A966" s="17">
+        <f t="shared" si="6"/>
+        <v>964</v>
+      </c>
+      <c r="B966" s="37" t="s">
+        <v>746</v>
+      </c>
+      <c r="C966" s="38">
+        <v>13.18000031</v>
+      </c>
+      <c r="D966" s="17">
+        <f>SUM(C$3:C966)/A966</f>
+        <v>12.01505582354552</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4">
+      <c r="A967" s="17">
+        <f t="shared" si="6"/>
+        <v>965</v>
+      </c>
+      <c r="B967" s="37" t="s">
+        <v>747</v>
+      </c>
+      <c r="C967" s="38">
+        <v>13.15999985</v>
+      </c>
+      <c r="D967" s="17">
+        <f>SUM(C$3:C967)/A967</f>
+        <v>12.016242294039257</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4">
+      <c r="A968" s="17">
+        <f t="shared" si="6"/>
+        <v>966</v>
+      </c>
+      <c r="B968" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="C968" s="38">
+        <v>14.149999619999999</v>
+      </c>
+      <c r="D968" s="17">
+        <f>SUM(C$3:C968)/A968</f>
+        <v>12.018451152554743</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4">
+      <c r="A969" s="17">
+        <f t="shared" si="6"/>
+        <v>967</v>
+      </c>
+      <c r="B969" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C969" s="38">
+        <v>12.899999619999999</v>
+      </c>
+      <c r="D969" s="17">
+        <f>SUM(C$3:C969)/A969</f>
+        <v>12.019362784889227</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4">
+      <c r="A970" s="17">
+        <f t="shared" si="6"/>
+        <v>968</v>
+      </c>
+      <c r="B970" s="37" t="s">
+        <v>750</v>
+      </c>
+      <c r="C970" s="38">
+        <v>13.14000034</v>
+      </c>
+      <c r="D970" s="17">
+        <f>SUM(C$3:C970)/A970</f>
+        <v>12.020520468313928</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4">
+      <c r="A971" s="17">
+        <f t="shared" si="6"/>
+        <v>969</v>
+      </c>
+      <c r="B971" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="C971" s="38">
+        <v>13.14000034</v>
+      </c>
+      <c r="D971" s="17">
+        <f>SUM(C$3:C971)/A971</f>
+        <v>12.021675762299155</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4">
+      <c r="A972" s="17">
+        <f t="shared" si="6"/>
+        <v>970</v>
+      </c>
+      <c r="B972" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="C972" s="38">
+        <v>13.5</v>
+      </c>
+      <c r="D972" s="17">
+        <f>SUM(C$3:C972)/A972</f>
+        <v>12.023199807905032</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4">
+      <c r="A973" s="17">
+        <f t="shared" si="6"/>
+        <v>971</v>
+      </c>
+      <c r="B973" s="37" t="s">
+        <v>753</v>
+      </c>
+      <c r="C973" s="38">
+        <v>13.460000040000001</v>
+      </c>
+      <c r="D973" s="17">
+        <f>SUM(C$3:C973)/A973</f>
+        <v>12.024679519781547</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4">
+      <c r="A974" s="17">
+        <f t="shared" si="6"/>
+        <v>972</v>
+      </c>
+      <c r="B974" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="C974" s="38">
+        <v>13.579999920000001</v>
+      </c>
+      <c r="D974" s="17">
+        <f>SUM(C$3:C974)/A974</f>
+        <v>12.026279643650085</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4">
+      <c r="A975" s="17">
+        <f t="shared" si="6"/>
+        <v>973</v>
+      </c>
+      <c r="B975" s="37" t="s">
+        <v>755</v>
+      </c>
+      <c r="C975" s="38">
+        <v>13.55000019</v>
+      </c>
+      <c r="D975" s="17">
+        <f>SUM(C$3:C975)/A975</f>
+        <v>12.027845646267094</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4">
+      <c r="A976" s="17">
+        <f t="shared" si="6"/>
+        <v>974</v>
+      </c>
+      <c r="B976" s="37" t="s">
+        <v>756</v>
+      </c>
+      <c r="C976" s="38">
+        <v>13.55000019</v>
+      </c>
+      <c r="D976" s="17">
+        <f>SUM(C$3:C976)/A976</f>
+        <v>12.02940843327298</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4">
+      <c r="A977" s="17">
+        <f t="shared" si="6"/>
+        <v>975</v>
+      </c>
+      <c r="B977" s="37" t="s">
+        <v>757</v>
+      </c>
+      <c r="C977" s="38">
+        <v>13.460000040000001</v>
+      </c>
+      <c r="D977" s="17">
+        <f>SUM(C$3:C977)/A977</f>
+        <v>12.030875706715777</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4">
+      <c r="A978" s="17">
+        <f t="shared" si="6"/>
+        <v>976</v>
+      </c>
+      <c r="B978" s="37" t="s">
+        <v>758</v>
+      </c>
+      <c r="C978" s="38">
+        <v>13.43999958</v>
+      </c>
+      <c r="D978" s="17">
+        <f>SUM(C$3:C978)/A978</f>
+        <v>12.03231948117611</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4">
+      <c r="A979" s="17">
+        <f t="shared" si="6"/>
+        <v>977</v>
+      </c>
+      <c r="B979" s="37" t="s">
+        <v>759</v>
+      </c>
+      <c r="C979" s="38">
+        <v>14.18999958</v>
+      </c>
+      <c r="D979" s="17">
+        <f>SUM(C$3:C979)/A979</f>
+        <v>12.034527956200494</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4">
+      <c r="A980" s="17">
+        <f t="shared" si="6"/>
+        <v>978</v>
+      </c>
+      <c r="B980" s="37" t="s">
+        <v>760</v>
+      </c>
+      <c r="C980" s="38">
+        <v>14.260000229999999</v>
+      </c>
+      <c r="D980" s="17">
+        <f>SUM(C$3:C980)/A980</f>
+        <v>12.036803490222784</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4">
+      <c r="A981" s="17">
+        <f t="shared" si="6"/>
+        <v>979</v>
+      </c>
+      <c r="B981" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="C981" s="38">
+        <v>14.25</v>
+      </c>
+      <c r="D981" s="17">
+        <f>SUM(C$3:C981)/A981</f>
+        <v>12.039064160814998</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4">
+      <c r="A982" s="17">
+        <f t="shared" si="6"/>
+        <v>980</v>
+      </c>
+      <c r="B982" s="37" t="s">
+        <v>762</v>
+      </c>
+      <c r="C982" s="38">
+        <v>14.25</v>
+      </c>
+      <c r="D982" s="17">
+        <f>SUM(C$3:C982)/A982</f>
+        <v>12.041320217793757</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4">
+      <c r="A983" s="17">
+        <f t="shared" si="6"/>
+        <v>981</v>
+      </c>
+      <c r="B983" s="37" t="s">
+        <v>763</v>
+      </c>
+      <c r="C983" s="38">
+        <v>14.289999959999999</v>
+      </c>
+      <c r="D983" s="17">
+        <f>SUM(C$3:C983)/A983</f>
+        <v>12.043612449946872</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4">
+      <c r="A984" s="17">
+        <f t="shared" si="6"/>
+        <v>982</v>
+      </c>
+      <c r="B984" s="37" t="s">
+        <v>764</v>
+      </c>
+      <c r="C984" s="38">
+        <v>14.19999981</v>
+      </c>
+      <c r="D984" s="17">
+        <f>SUM(C$3:C984)/A984</f>
+        <v>12.04580836375548</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4">
+      <c r="A985" s="17">
+        <f t="shared" si="6"/>
+        <v>983</v>
+      </c>
+      <c r="B985" s="37">
+        <v>45776</v>
+      </c>
+      <c r="C985" s="38">
+        <v>14.14000034</v>
+      </c>
+      <c r="D985" s="17">
+        <f>SUM(C$3:C985)/A985</f>
+        <v>12.047938772683501</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4">
+      <c r="A986" s="17">
+        <f t="shared" si="6"/>
+        <v>984</v>
+      </c>
+      <c r="B986" s="37">
+        <v>45777</v>
+      </c>
+      <c r="C986" s="38">
+        <v>14.100000380000001</v>
+      </c>
+      <c r="D986" s="17">
+        <f>SUM(C$3:C986)/A986</f>
+        <v>12.050024201146222</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="781">
   <si>
     <t>PE</t>
   </si>
@@ -3116,6 +3116,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3757,7 +3761,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4282,6 +4286,9 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4291,7 +4298,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4816,6 +4823,9 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>352000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,7 +4868,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5383,6 +5393,9 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5392,7 +5405,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5917,6 +5930,9 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>477386.76412206679</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>461041.11971512536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5959,7 +5975,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6484,6 +6500,9 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6493,7 +6512,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="175"/>
+                <c:ptCount val="176"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7018,6 +7037,9 @@
                 </c:pt>
                 <c:pt idx="174">
                   <c:v>127386.76412206679</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>109041.11971512536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7039,11 +7061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462245248"/>
-        <c:axId val="462260480"/>
+        <c:axId val="431435776"/>
+        <c:axId val="431438080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462245248"/>
+        <c:axId val="431435776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7086,14 +7108,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462260480"/>
+        <c:crossAx val="431438080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462260480"/>
+        <c:axId val="431438080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7144,7 +7166,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462245248"/>
+        <c:crossAx val="431435776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7550,7 +7572,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB177"/>
+  <dimension ref="A1:AB178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7618,7 +7640,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7660,25 +7682,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>772</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15150,6 +15172,39 @@
       <c r="J177" s="31">
         <f>VLOOKUP(A177,myPEPB!B:C,2)</f>
         <v>13.170000079999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="12.75">
+      <c r="A178" s="13">
+        <v>45777</v>
+      </c>
+      <c r="B178" s="14">
+        <v>2.3234479980468752</v>
+      </c>
+      <c r="C178" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D178" s="16">
+        <v>860.78965472058326</v>
+      </c>
+      <c r="E178" s="16">
+        <v>198429.71312578692</v>
+      </c>
+      <c r="F178" s="16">
+        <v>461041.11971512536</v>
+      </c>
+      <c r="G178" s="16">
+        <v>352000</v>
+      </c>
+      <c r="H178" s="16">
+        <v>461041.11971512536</v>
+      </c>
+      <c r="I178" s="16">
+        <v>109041.11971512536</v>
+      </c>
+      <c r="J178" s="31">
+        <f>VLOOKUP(A178,myPEPB!B:C,2)</f>
+        <v>14.100000380000001</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="797">
   <si>
     <t>PE</t>
   </si>
@@ -3083,6 +3083,74 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2025/5/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/5/28
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3116,10 +3184,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7061,11 +7125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431435776"/>
-        <c:axId val="431438080"/>
+        <c:axId val="87378944"/>
+        <c:axId val="88978176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="431435776"/>
+        <c:axId val="87378944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7108,14 +7172,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431438080"/>
+        <c:crossAx val="88978176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="431438080"/>
+        <c:axId val="88978176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7166,7 +7230,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431435776"/>
+        <c:crossAx val="87378944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7602,31 +7666,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7640,7 +7704,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7682,25 +7746,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15220,7 +15284,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D986"/>
+  <dimension ref="A1:D1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -28116,7 +28180,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A986" si="6">A806+1</f>
+        <f t="shared" ref="A807:A1005" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -30992,6 +31056,310 @@
       <c r="D986" s="17">
         <f>SUM(C$3:C986)/A986</f>
         <v>12.050024201146222</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4">
+      <c r="A987" s="17">
+        <f t="shared" si="6"/>
+        <v>985</v>
+      </c>
+      <c r="B987" s="37" t="s">
+        <v>765</v>
+      </c>
+      <c r="C987" s="38">
+        <v>14.60999966</v>
+      </c>
+      <c r="D987" s="17">
+        <f>SUM(C$3:C987)/A987</f>
+        <v>12.052623161002925</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4">
+      <c r="A988" s="17">
+        <f t="shared" si="6"/>
+        <v>986</v>
+      </c>
+      <c r="B988" s="37" t="s">
+        <v>766</v>
+      </c>
+      <c r="C988" s="38">
+        <v>14.68000031</v>
+      </c>
+      <c r="D988" s="17">
+        <f>SUM(C$3:C988)/A988</f>
+        <v>12.05528784370982</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4">
+      <c r="A989" s="17">
+        <f t="shared" si="6"/>
+        <v>987</v>
+      </c>
+      <c r="B989" s="37" t="s">
+        <v>767</v>
+      </c>
+      <c r="C989" s="38">
+        <v>14.72000027</v>
+      </c>
+      <c r="D989" s="17">
+        <f>SUM(C$3:C989)/A989</f>
+        <v>12.057987653665533</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4">
+      <c r="A990" s="17">
+        <f t="shared" si="6"/>
+        <v>988</v>
+      </c>
+      <c r="B990" s="37" t="s">
+        <v>768</v>
+      </c>
+      <c r="C990" s="38">
+        <v>14.68999958</v>
+      </c>
+      <c r="D990" s="17">
+        <f>SUM(C$3:C990)/A990</f>
+        <v>12.060651633348057</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4">
+      <c r="A991" s="17">
+        <f t="shared" si="6"/>
+        <v>989</v>
+      </c>
+      <c r="B991" s="37" t="s">
+        <v>769</v>
+      </c>
+      <c r="C991" s="38">
+        <v>14.81000042</v>
+      </c>
+      <c r="D991" s="17">
+        <f>SUM(C$3:C991)/A991</f>
+        <v>12.06343156134265</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4">
+      <c r="A992" s="17">
+        <f t="shared" si="6"/>
+        <v>990</v>
+      </c>
+      <c r="B992" s="37" t="s">
+        <v>770</v>
+      </c>
+      <c r="C992" s="38">
+        <v>14.85999966</v>
+      </c>
+      <c r="D992" s="17">
+        <f>SUM(C$3:C992)/A992</f>
+        <v>12.066256377603921</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4">
+      <c r="A993" s="17">
+        <f t="shared" si="6"/>
+        <v>991</v>
+      </c>
+      <c r="B993" s="37" t="s">
+        <v>771</v>
+      </c>
+      <c r="C993" s="38">
+        <v>14.94999981</v>
+      </c>
+      <c r="D993" s="17">
+        <f>SUM(C$3:C993)/A993</f>
+        <v>12.069166310431768</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4">
+      <c r="A994" s="17">
+        <f t="shared" si="6"/>
+        <v>992</v>
+      </c>
+      <c r="B994" s="37" t="s">
+        <v>772</v>
+      </c>
+      <c r="C994" s="38">
+        <v>14.81999969</v>
+      </c>
+      <c r="D994" s="17">
+        <f>SUM(C$3:C994)/A994</f>
+        <v>12.071939327951494</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4">
+      <c r="A995" s="17">
+        <f t="shared" si="6"/>
+        <v>993</v>
+      </c>
+      <c r="B995" s="37" t="s">
+        <v>773</v>
+      </c>
+      <c r="C995" s="38">
+        <v>14.81000042</v>
+      </c>
+      <c r="D995" s="17">
+        <f>SUM(C$3:C995)/A995</f>
+        <v>12.074696690581955</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4">
+      <c r="A996" s="17">
+        <f t="shared" si="6"/>
+        <v>994</v>
+      </c>
+      <c r="B996" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="C996" s="38">
+        <v>14.899999619999999</v>
+      </c>
+      <c r="D996" s="17">
+        <f>SUM(C$3:C996)/A996</f>
+        <v>12.077539047653806</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4">
+      <c r="A997" s="17">
+        <f t="shared" si="6"/>
+        <v>995</v>
+      </c>
+      <c r="B997" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="C997" s="38">
+        <v>14.93000031</v>
+      </c>
+      <c r="D997" s="17">
+        <f>SUM(C$3:C997)/A997</f>
+        <v>12.080405842892343</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4">
+      <c r="A998" s="17">
+        <f t="shared" si="6"/>
+        <v>996</v>
+      </c>
+      <c r="B998" s="37" t="s">
+        <v>776</v>
+      </c>
+      <c r="C998" s="38">
+        <v>14.97999954</v>
+      </c>
+      <c r="D998" s="17">
+        <f>SUM(C$3:C998)/A998</f>
+        <v>12.08331708154406</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4">
+      <c r="A999" s="17">
+        <f t="shared" si="6"/>
+        <v>997</v>
+      </c>
+      <c r="B999" s="37" t="s">
+        <v>777</v>
+      </c>
+      <c r="C999" s="38">
+        <v>14.829999920000001</v>
+      </c>
+      <c r="D999" s="17">
+        <f>SUM(C$3:C999)/A999</f>
+        <v>12.08607202922556</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4">
+      <c r="A1000" s="17">
+        <f t="shared" si="6"/>
+        <v>998</v>
+      </c>
+      <c r="B1000" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="C1000" s="38">
+        <v>14.69999981</v>
+      </c>
+      <c r="D1000" s="17">
+        <f>SUM(C$3:C1000)/A1000</f>
+        <v>12.08869119533856</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4">
+      <c r="A1001" s="17">
+        <f t="shared" si="6"/>
+        <v>999</v>
+      </c>
+      <c r="B1001" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1001" s="38">
+        <v>14.72000027</v>
+      </c>
+      <c r="D1001" s="17">
+        <f>SUM(C$3:C1001)/A1001</f>
+        <v>12.09132513835624</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4">
+      <c r="A1002" s="17">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="C1002" s="38">
+        <v>14.72000027</v>
+      </c>
+      <c r="D1002" s="17">
+        <f>SUM(C$3:C1002)/A1002</f>
+        <v>12.093953813487882</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4">
+      <c r="A1003" s="17">
+        <f t="shared" si="6"/>
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1003" s="38">
+        <v>14.760000229999999</v>
+      </c>
+      <c r="D1003" s="17">
+        <f>SUM(C$3:C1003)/A1003</f>
+        <v>12.096617196521361</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4">
+      <c r="A1004" s="17">
+        <f t="shared" si="6"/>
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="37">
+        <v>45806</v>
+      </c>
+      <c r="C1004" s="38">
+        <v>14.85999966</v>
+      </c>
+      <c r="D1004" s="17">
+        <f>SUM(C$3:C1004)/A1004</f>
+        <v>12.099375063251381</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4">
+      <c r="A1005" s="17">
+        <f t="shared" si="6"/>
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="37">
+        <v>45807</v>
+      </c>
+      <c r="C1005" s="38">
+        <v>14.789999959999999</v>
+      </c>
+      <c r="D1005" s="17">
+        <f>SUM(C$3:C1005)/A1005</f>
+        <v>12.102057640416632</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -3825,7 +3825,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="176"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4353,6 +4353,9 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4362,7 +4365,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="176"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4890,6 +4893,9 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>352000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>354000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4932,7 +4938,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="176"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5460,6 +5466,9 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5469,7 +5478,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="176"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5997,6 +6006,9 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>461041.11971512536</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>471435.67516438052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6039,7 +6051,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="176"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6567,6 +6579,9 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6576,7 +6591,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="176"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7104,6 +7119,9 @@
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>109041.11971512536</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>117435.67516438052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7125,11 +7143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87378944"/>
-        <c:axId val="88978176"/>
+        <c:axId val="107058688"/>
+        <c:axId val="577537920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87378944"/>
+        <c:axId val="107058688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7172,14 +7190,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88978176"/>
+        <c:crossAx val="577537920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88978176"/>
+        <c:axId val="577537920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7230,7 +7248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87378944"/>
+        <c:crossAx val="107058688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7636,7 +7654,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB178"/>
+  <dimension ref="A1:AB179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15268,7 +15286,40 @@
       </c>
       <c r="J178" s="31">
         <f>VLOOKUP(A178,myPEPB!B:C,2)</f>
-        <v>14.100000380000001</v>
+        <v>12.770000457763672</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="12.75">
+      <c r="A179" s="13">
+        <v>45807</v>
+      </c>
+      <c r="B179" s="14">
+        <v>2.3657529296875</v>
+      </c>
+      <c r="C179" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D179" s="16">
+        <v>845.39681845144605</v>
+      </c>
+      <c r="E179" s="16">
+        <v>199275.10994423836</v>
+      </c>
+      <c r="F179" s="16">
+        <v>471435.67516438052</v>
+      </c>
+      <c r="G179" s="16">
+        <v>354000</v>
+      </c>
+      <c r="H179" s="16">
+        <v>471435.67516438052</v>
+      </c>
+      <c r="I179" s="16">
+        <v>117435.67516438052</v>
+      </c>
+      <c r="J179" s="31">
+        <f>VLOOKUP(A179,myPEPB!B:C,2)</f>
+        <v>12.689999580383301</v>
       </c>
     </row>
   </sheetData>
@@ -15286,7 +15337,7 @@
   </sheetPr>
   <dimension ref="A1:D1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -30763,11 +30814,11 @@
         <v>748</v>
       </c>
       <c r="C968" s="38">
-        <v>14.149999619999999</v>
+        <v>13.109999656677246</v>
       </c>
       <c r="D968" s="17">
         <f>SUM(C$3:C968)/A968</f>
-        <v>12.018451152554743</v>
+        <v>12.017374548037846</v>
       </c>
     </row>
     <row r="969" spans="1:4">
@@ -30779,11 +30830,11 @@
         <v>749</v>
       </c>
       <c r="C969" s="38">
-        <v>12.899999619999999</v>
+        <v>12.229999542236328</v>
       </c>
       <c r="D969" s="17">
         <f>SUM(C$3:C969)/A969</f>
-        <v>12.019362784889227</v>
+        <v>12.017594429107339</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -30795,11 +30846,11 @@
         <v>750</v>
       </c>
       <c r="C970" s="38">
-        <v>13.14000034</v>
+        <v>12.460000038146973</v>
       </c>
       <c r="D970" s="17">
         <f>SUM(C$3:C970)/A970</f>
-        <v>12.020520468313928</v>
+        <v>12.018051459695188</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -30811,11 +30862,11 @@
         <v>751</v>
       </c>
       <c r="C971" s="38">
-        <v>13.14000034</v>
+        <v>12.460000038146973</v>
       </c>
       <c r="D971" s="17">
         <f>SUM(C$3:C971)/A971</f>
-        <v>12.021675762299155</v>
+        <v>12.018507546979453</v>
       </c>
     </row>
     <row r="972" spans="1:4">
@@ -30827,11 +30878,11 @@
         <v>752</v>
       </c>
       <c r="C972" s="38">
-        <v>13.5</v>
+        <v>12.659999847412109</v>
       </c>
       <c r="D972" s="17">
         <f>SUM(C$3:C972)/A972</f>
-        <v>12.023199807905032</v>
+        <v>12.019168879247941</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -30843,11 +30894,11 @@
         <v>753</v>
       </c>
       <c r="C973" s="38">
-        <v>13.460000040000001</v>
+        <v>12.689999580383301</v>
       </c>
       <c r="D973" s="17">
         <f>SUM(C$3:C973)/A973</f>
-        <v>12.024679519781547</v>
+        <v>12.019859745057554</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -30859,11 +30910,11 @@
         <v>754</v>
       </c>
       <c r="C974" s="38">
-        <v>13.579999920000001</v>
+        <v>12.739999771118164</v>
       </c>
       <c r="D974" s="17">
         <f>SUM(C$3:C974)/A974</f>
-        <v>12.026279643650085</v>
+        <v>12.020600629858029</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -30875,11 +30926,11 @@
         <v>755</v>
       </c>
       <c r="C975" s="38">
-        <v>13.55000019</v>
+        <v>12.770000457763672</v>
       </c>
       <c r="D975" s="17">
         <f>SUM(C$3:C975)/A975</f>
-        <v>12.027845646267094</v>
+        <v>12.021370824953513</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -30891,11 +30942,11 @@
         <v>756</v>
       </c>
       <c r="C976" s="38">
-        <v>13.55000019</v>
+        <v>12.770000457763672</v>
       </c>
       <c r="D976" s="17">
         <f>SUM(C$3:C976)/A976</f>
-        <v>12.02940843327298</v>
+        <v>12.022139438539559</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -30907,11 +30958,11 @@
         <v>757</v>
       </c>
       <c r="C977" s="38">
-        <v>13.460000040000001</v>
+        <v>12.819999694824219</v>
       </c>
       <c r="D977" s="17">
         <f>SUM(C$3:C977)/A977</f>
-        <v>12.030875706715777</v>
+        <v>12.022957756751133</v>
       </c>
     </row>
     <row r="978" spans="1:4">
@@ -30923,11 +30974,11 @@
         <v>758</v>
       </c>
       <c r="C978" s="38">
-        <v>13.43999958</v>
+        <v>12.819999694824219</v>
       </c>
       <c r="D978" s="17">
         <f>SUM(C$3:C978)/A978</f>
-        <v>12.03231948117611</v>
+        <v>12.023774398081127</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -30939,11 +30990,11 @@
         <v>759</v>
       </c>
       <c r="C979" s="38">
-        <v>14.18999958</v>
+        <v>12.829999923706055</v>
       </c>
       <c r="D979" s="17">
         <f>SUM(C$3:C979)/A979</f>
-        <v>12.034527956200494</v>
+        <v>12.024599603327417</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -30955,11 +31006,11 @@
         <v>760</v>
       </c>
       <c r="C980" s="38">
-        <v>14.260000229999999</v>
+        <v>12.859999656677246</v>
       </c>
       <c r="D980" s="17">
         <f>SUM(C$3:C980)/A980</f>
-        <v>12.036803490222784</v>
+        <v>12.025453795611005</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -30971,11 +31022,11 @@
         <v>761</v>
       </c>
       <c r="C981" s="38">
-        <v>14.25</v>
+        <v>12.869999885559082</v>
       </c>
       <c r="D981" s="17">
         <f>SUM(C$3:C981)/A981</f>
-        <v>12.039064160814998</v>
+        <v>12.02631645760278</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -30987,11 +31038,11 @@
         <v>762</v>
       </c>
       <c r="C982" s="38">
-        <v>14.25</v>
+        <v>12.869999885559082</v>
       </c>
       <c r="D982" s="17">
         <f>SUM(C$3:C982)/A982</f>
-        <v>12.041320217793757</v>
+        <v>12.027177359059879</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -31003,11 +31054,11 @@
         <v>763</v>
       </c>
       <c r="C983" s="38">
-        <v>14.289999959999999</v>
+        <v>12.880000114440918</v>
       </c>
       <c r="D983" s="17">
         <f>SUM(C$3:C983)/A983</f>
-        <v>12.043612449946872</v>
+        <v>12.028046699279431</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -31019,11 +31070,11 @@
         <v>764</v>
       </c>
       <c r="C984" s="38">
-        <v>14.19999981</v>
+        <v>12.859999656677246</v>
       </c>
       <c r="D984" s="17">
         <f>SUM(C$3:C984)/A984</f>
-        <v>12.04580836375548</v>
+        <v>12.028893901883706</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -31035,11 +31086,11 @@
         <v>45776</v>
       </c>
       <c r="C985" s="38">
-        <v>14.14000034</v>
+        <v>12.819999694824219</v>
       </c>
       <c r="D985" s="17">
         <f>SUM(C$3:C985)/A985</f>
-        <v>12.047938772683501</v>
+        <v>12.02969868905862</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -31051,11 +31102,11 @@
         <v>45777</v>
       </c>
       <c r="C986" s="38">
-        <v>14.100000380000001</v>
+        <v>12.770000457763672</v>
       </c>
       <c r="D986" s="17">
         <f>SUM(C$3:C986)/A986</f>
-        <v>12.050024201146222</v>
+        <v>12.030451028254458</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -31067,11 +31118,11 @@
         <v>765</v>
       </c>
       <c r="C987" s="38">
-        <v>14.60999966</v>
+        <v>12.529999732971191</v>
       </c>
       <c r="D987" s="17">
         <f>SUM(C$3:C987)/A987</f>
-        <v>12.052623161002925</v>
+        <v>12.030958184299855</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -31083,11 +31134,11 @@
         <v>766</v>
       </c>
       <c r="C988" s="38">
-        <v>14.68000031</v>
+        <v>12.630000114440918</v>
       </c>
       <c r="D988" s="17">
         <f>SUM(C$3:C988)/A988</f>
-        <v>12.05528784370982</v>
+        <v>12.031565731896348</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -31099,11 +31150,11 @@
         <v>767</v>
       </c>
       <c r="C989" s="38">
-        <v>14.72000027</v>
+        <v>12.689999580383301</v>
       </c>
       <c r="D989" s="17">
         <f>SUM(C$3:C989)/A989</f>
-        <v>12.057987653665533</v>
+        <v>12.032232838125818</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -31115,11 +31166,11 @@
         <v>768</v>
       </c>
       <c r="C990" s="38">
-        <v>14.68999958</v>
+        <v>12.699999809265137</v>
       </c>
       <c r="D990" s="17">
         <f>SUM(C$3:C990)/A990</f>
-        <v>12.060651633348057</v>
+        <v>12.032908715626972</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -31131,11 +31182,11 @@
         <v>769</v>
       </c>
       <c r="C991" s="38">
-        <v>14.81000042</v>
+        <v>12.819999694824219</v>
       </c>
       <c r="D991" s="17">
         <f>SUM(C$3:C991)/A991</f>
-        <v>12.06343156134265</v>
+        <v>12.033704560904217</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -31147,11 +31198,11 @@
         <v>770</v>
       </c>
       <c r="C992" s="38">
-        <v>14.85999966</v>
+        <v>12.850000381469727</v>
       </c>
       <c r="D992" s="17">
         <f>SUM(C$3:C992)/A992</f>
-        <v>12.066256377603921</v>
+        <v>12.034529102137112</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -31163,11 +31214,11 @@
         <v>771</v>
       </c>
       <c r="C993" s="38">
-        <v>14.94999981</v>
+        <v>13.010000228881836</v>
       </c>
       <c r="D993" s="17">
         <f>SUM(C$3:C993)/A993</f>
-        <v>12.069166310431768</v>
+        <v>12.035513432234735</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -31179,11 +31230,11 @@
         <v>772</v>
       </c>
       <c r="C994" s="38">
-        <v>14.81999969</v>
+        <v>12.930000305175781</v>
       </c>
       <c r="D994" s="17">
         <f>SUM(C$3:C994)/A994</f>
-        <v>12.071939327951494</v>
+        <v>12.036415132711491</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -31195,11 +31246,11 @@
         <v>773</v>
       </c>
       <c r="C995" s="38">
-        <v>14.81000042</v>
+        <v>12.859999656677246</v>
       </c>
       <c r="D995" s="17">
         <f>SUM(C$3:C995)/A995</f>
-        <v>12.074696690581955</v>
+        <v>12.037244522967248</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -31211,11 +31262,11 @@
         <v>774</v>
       </c>
       <c r="C996" s="38">
-        <v>14.899999619999999</v>
+        <v>12.819999694824219</v>
       </c>
       <c r="D996" s="17">
         <f>SUM(C$3:C996)/A996</f>
-        <v>12.077539047653806</v>
+        <v>12.038032003019417</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -31227,11 +31278,11 @@
         <v>775</v>
       </c>
       <c r="C997" s="38">
-        <v>14.93000031</v>
+        <v>12.880000114440918</v>
       </c>
       <c r="D997" s="17">
         <f>SUM(C$3:C997)/A997</f>
-        <v>12.080405842892343</v>
+        <v>12.038878202126373</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -31243,11 +31294,11 @@
         <v>776</v>
       </c>
       <c r="C998" s="38">
-        <v>14.97999954</v>
+        <v>12.949999809265137</v>
       </c>
       <c r="D998" s="17">
         <f>SUM(C$3:C998)/A998</f>
-        <v>12.08331708154406</v>
+        <v>12.039792982856433</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -31259,11 +31310,11 @@
         <v>777</v>
       </c>
       <c r="C999" s="38">
-        <v>14.829999920000001</v>
+        <v>12.939999580383301</v>
       </c>
       <c r="D999" s="17">
         <f>SUM(C$3:C999)/A999</f>
-        <v>12.08607202922556</v>
+        <v>12.04069589819999</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -31275,11 +31326,11 @@
         <v>778</v>
       </c>
       <c r="C1000" s="38">
-        <v>14.69999981</v>
+        <v>12.829999923706055</v>
       </c>
       <c r="D1000" s="17">
         <f>SUM(C$3:C1000)/A1000</f>
-        <v>12.08869119533856</v>
+        <v>12.04148678399709</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -31291,11 +31342,11 @@
         <v>779</v>
       </c>
       <c r="C1001" s="38">
-        <v>14.72000027</v>
+        <v>12.739999771118164</v>
       </c>
       <c r="D1001" s="17">
         <f>SUM(C$3:C1001)/A1001</f>
-        <v>12.09132513835624</v>
+        <v>12.042185996196411</v>
       </c>
     </row>
     <row r="1002" spans="1:4">
@@ -31307,11 +31358,11 @@
         <v>780</v>
       </c>
       <c r="C1002" s="38">
-        <v>14.72000027</v>
+        <v>12.739999771118164</v>
       </c>
       <c r="D1002" s="17">
         <f>SUM(C$3:C1002)/A1002</f>
-        <v>12.093953813487882</v>
+        <v>12.042883809971332</v>
       </c>
     </row>
     <row r="1003" spans="1:4">
@@ -31323,11 +31374,11 @@
         <v>781</v>
       </c>
       <c r="C1003" s="38">
-        <v>14.760000229999999</v>
+        <v>12.699999809265137</v>
       </c>
       <c r="D1003" s="17">
         <f>SUM(C$3:C1003)/A1003</f>
-        <v>12.096617196521361</v>
+        <v>12.043540269511086</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
@@ -31339,11 +31390,11 @@
         <v>45806</v>
       </c>
       <c r="C1004" s="38">
-        <v>14.85999966</v>
+        <v>12.75</v>
       </c>
       <c r="D1004" s="17">
         <f>SUM(C$3:C1004)/A1004</f>
-        <v>12.099375063251381</v>
+        <v>12.044245319142313</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
@@ -31355,11 +31406,11 @@
         <v>45807</v>
       </c>
       <c r="C1005" s="38">
-        <v>14.789999959999999</v>
+        <v>12.689999580383301</v>
       </c>
       <c r="D1005" s="17">
         <f>SUM(C$3:C1005)/A1005</f>
-        <v>12.102057640416632</v>
+        <v>12.044889141935174</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="815">
   <si>
     <t>PE</t>
   </si>
@@ -3148,6 +3148,78 @@
   </si>
   <si>
     <t xml:space="preserve">2025/5/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/6/26
 </t>
   </si>
   <si>
@@ -7143,11 +7215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107058688"/>
-        <c:axId val="577537920"/>
+        <c:axId val="540615808"/>
+        <c:axId val="540617344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="107058688"/>
+        <c:axId val="540615808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7190,14 +7262,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577537920"/>
+        <c:crossAx val="540617344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577537920"/>
+        <c:axId val="540617344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7248,7 +7320,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107058688"/>
+        <c:crossAx val="540615808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7684,31 +7756,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7722,7 +7794,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7764,25 +7836,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15335,9 +15407,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1005"/>
+  <dimension ref="A1:D1025"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -28231,7 +28303,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A1005" si="6">A806+1</f>
+        <f t="shared" ref="A807:A1025" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -31411,6 +31483,326 @@
       <c r="D1005" s="17">
         <f>SUM(C$3:C1005)/A1005</f>
         <v>12.044889141935174</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4">
+      <c r="A1006" s="17">
+        <f t="shared" si="6"/>
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1006" s="38">
+        <v>12.68999958</v>
+      </c>
+      <c r="D1006" s="17">
+        <f>SUM(C$3:C1006)/A1006</f>
+        <v>12.045531682212131</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4">
+      <c r="A1007" s="17">
+        <f t="shared" si="6"/>
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="37" t="s">
+        <v>783</v>
+      </c>
+      <c r="C1007" s="38">
+        <v>12.77000046</v>
+      </c>
+      <c r="D1007" s="17">
+        <f>SUM(C$3:C1007)/A1007</f>
+        <v>12.046252546667642</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4">
+      <c r="A1008" s="17">
+        <f t="shared" si="6"/>
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="37" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1008" s="38">
+        <v>12.80000019</v>
+      </c>
+      <c r="D1008" s="17">
+        <f>SUM(C$3:C1008)/A1008</f>
+        <v>12.04700179879819</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4">
+      <c r="A1009" s="17">
+        <f t="shared" si="6"/>
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="37" t="s">
+        <v>785</v>
+      </c>
+      <c r="C1009" s="38">
+        <v>12.80000019</v>
+      </c>
+      <c r="D1009" s="17">
+        <f>SUM(C$3:C1009)/A1009</f>
+        <v>12.047749562841092</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4">
+      <c r="A1010" s="17">
+        <f t="shared" si="6"/>
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="C1010" s="38">
+        <v>12.81000042</v>
+      </c>
+      <c r="D1010" s="17">
+        <f>SUM(C$3:C1010)/A1010</f>
+        <v>12.048505764088274</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4">
+      <c r="A1011" s="17">
+        <f t="shared" si="6"/>
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1011" s="38">
+        <v>12.77000046</v>
+      </c>
+      <c r="D1011" s="17">
+        <f>SUM(C$3:C1011)/A1011</f>
+        <v>12.049220823251714</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4">
+      <c r="A1012" s="17">
+        <f t="shared" si="6"/>
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="37" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1012" s="38">
+        <v>12.880000109999999</v>
+      </c>
+      <c r="D1012" s="17">
+        <f>SUM(C$3:C1012)/A1012</f>
+        <v>12.05004337700097</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4">
+      <c r="A1013" s="17">
+        <f t="shared" si="6"/>
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="37" t="s">
+        <v>789</v>
+      </c>
+      <c r="C1013" s="38">
+        <v>12.85999966</v>
+      </c>
+      <c r="D1013" s="17">
+        <f>SUM(C$3:C1013)/A1013</f>
+        <v>12.050844520703244</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4">
+      <c r="A1014" s="17">
+        <f t="shared" si="6"/>
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="37" t="s">
+        <v>790</v>
+      </c>
+      <c r="C1014" s="38">
+        <v>12.77000046</v>
+      </c>
+      <c r="D1014" s="17">
+        <f>SUM(C$3:C1014)/A1014</f>
+        <v>12.051555149101759</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4">
+      <c r="A1015" s="17">
+        <f t="shared" si="6"/>
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1015" s="38">
+        <v>12.93000031</v>
+      </c>
+      <c r="D1015" s="17">
+        <f>SUM(C$3:C1015)/A1015</f>
+        <v>12.05242232102762</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4">
+      <c r="A1016" s="17">
+        <f t="shared" si="6"/>
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="37" t="s">
+        <v>792</v>
+      </c>
+      <c r="C1016" s="38">
+        <v>12.93999958</v>
+      </c>
+      <c r="D1016" s="17">
+        <f>SUM(C$3:C1016)/A1016</f>
+        <v>12.053297643768223</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4">
+      <c r="A1017" s="17">
+        <f t="shared" si="6"/>
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="37" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1017" s="38">
+        <v>12.960000040000001</v>
+      </c>
+      <c r="D1017" s="17">
+        <f>SUM(C$3:C1017)/A1017</f>
+        <v>12.054190946621654</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4">
+      <c r="A1018" s="17">
+        <f t="shared" si="6"/>
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1018" s="38">
+        <v>12.93000031</v>
+      </c>
+      <c r="D1018" s="17">
+        <f>SUM(C$3:C1018)/A1018</f>
+        <v>12.055052963711594</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4">
+      <c r="A1019" s="17">
+        <f t="shared" si="6"/>
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="37" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1019" s="38">
+        <v>12.93999958</v>
+      </c>
+      <c r="D1019" s="17">
+        <f>SUM(C$3:C1019)/A1019</f>
+        <v>12.055923117709909</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4">
+      <c r="A1020" s="17">
+        <f t="shared" si="6"/>
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="37" t="s">
+        <v>796</v>
+      </c>
+      <c r="C1020" s="38">
+        <v>13.02000046</v>
+      </c>
+      <c r="D1020" s="17">
+        <f>SUM(C$3:C1020)/A1020</f>
+        <v>12.056870148498014</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4">
+      <c r="A1021" s="17">
+        <f t="shared" si="6"/>
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="C1021" s="38">
+        <v>13.149999619999999</v>
+      </c>
+      <c r="D1021" s="17">
+        <f>SUM(C$3:C1021)/A1021</f>
+        <v>12.057942895771323</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4">
+      <c r="A1022" s="17">
+        <f t="shared" si="6"/>
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="37" t="s">
+        <v>798</v>
+      </c>
+      <c r="C1022" s="38">
+        <v>13.289999959999999</v>
+      </c>
+      <c r="D1022" s="17">
+        <f>SUM(C$3:C1022)/A1022</f>
+        <v>12.059150794853899</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4">
+      <c r="A1023" s="17">
+        <f t="shared" si="6"/>
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1023" s="38">
+        <v>13.289999959999999</v>
+      </c>
+      <c r="D1023" s="17">
+        <f>SUM(C$3:C1023)/A1023</f>
+        <v>12.060356327826618</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4">
+      <c r="A1024" s="17">
+        <f t="shared" si="6"/>
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="37">
+        <v>45835</v>
+      </c>
+      <c r="C1024" s="38">
+        <v>13.170000079999999</v>
+      </c>
+      <c r="D1024" s="17">
+        <f>SUM(C$3:C1024)/A1024</f>
+        <v>12.061442084922676</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4">
+      <c r="A1025" s="17">
+        <f t="shared" si="6"/>
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="37">
+        <v>45838</v>
+      </c>
+      <c r="C1025" s="38">
+        <v>13.210000040000001</v>
+      </c>
+      <c r="D1025" s="17">
+        <f>SUM(C$3:C1025)/A1025</f>
+        <v>12.062564819971628</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="816">
   <si>
     <t>PE</t>
   </si>
@@ -3256,6 +3256,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3897,7 +3901,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="177"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4428,6 +4432,9 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4437,7 +4444,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="177"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4968,6 +4975,9 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>354000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>356000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5010,7 +5020,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="177"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5541,6 +5551,9 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5550,7 +5563,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="177"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6081,6 +6094,9 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>471435.67516438052</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>483037.75801331969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6123,7 +6139,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="177"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6654,6 +6670,9 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6663,7 +6682,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="177"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7194,6 +7213,9 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>117435.67516438052</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>127037.75801331969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7215,11 +7237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540615808"/>
-        <c:axId val="540617344"/>
+        <c:axId val="341362560"/>
+        <c:axId val="345969024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540615808"/>
+        <c:axId val="341362560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7262,14 +7284,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540617344"/>
+        <c:crossAx val="345969024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540617344"/>
+        <c:axId val="345969024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7320,7 +7342,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540615808"/>
+        <c:crossAx val="341362560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7726,7 +7748,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB179"/>
+  <dimension ref="A1:AB180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7794,7 +7816,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7836,25 +7858,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>807</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15392,6 +15414,39 @@
       <c r="J179" s="31">
         <f>VLOOKUP(A179,myPEPB!B:C,2)</f>
         <v>12.689999580383301</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="12.75">
+      <c r="A180" s="13">
+        <v>45838</v>
+      </c>
+      <c r="B180" s="14">
+        <v>2.4139379882812499</v>
+      </c>
+      <c r="C180" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D180" s="16">
+        <v>828.52169761992172</v>
+      </c>
+      <c r="E180" s="16">
+        <v>200103.63164185829</v>
+      </c>
+      <c r="F180" s="16">
+        <v>483037.75801331969</v>
+      </c>
+      <c r="G180" s="16">
+        <v>356000</v>
+      </c>
+      <c r="H180" s="16">
+        <v>483037.75801331969</v>
+      </c>
+      <c r="I180" s="16">
+        <v>127037.75801331969</v>
+      </c>
+      <c r="J180" s="31">
+        <f>VLOOKUP(A180,myPEPB!B:C,2)</f>
+        <v>13.210000040000001</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="836">
   <si>
     <t>PE</t>
   </si>
@@ -3223,6 +3223,90 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2025/7/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/7/29
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3256,10 +3340,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7237,11 +7317,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="341362560"/>
-        <c:axId val="345969024"/>
+        <c:axId val="469252352"/>
+        <c:axId val="472260992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="341362560"/>
+        <c:axId val="469252352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7284,14 +7364,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345969024"/>
+        <c:crossAx val="472260992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345969024"/>
+        <c:axId val="472260992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7342,7 +7422,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341362560"/>
+        <c:crossAx val="469252352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7778,31 +7858,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7816,7 +7896,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7858,25 +7938,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15462,7 +15542,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1025"/>
+  <dimension ref="A1:D1048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -28358,7 +28438,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A1025" si="6">A806+1</f>
+        <f t="shared" ref="A807:A1048" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -31858,6 +31938,374 @@
       <c r="D1025" s="17">
         <f>SUM(C$3:C1025)/A1025</f>
         <v>12.062564819971628</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4">
+      <c r="A1026" s="17">
+        <f t="shared" si="6"/>
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="37" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1026" s="38">
+        <v>13.260000229999999</v>
+      </c>
+      <c r="D1026" s="17">
+        <f>SUM(C$3:C1026)/A1026</f>
+        <v>12.063734190489235</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4">
+      <c r="A1027" s="17">
+        <f t="shared" si="6"/>
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="C1027" s="38">
+        <v>13.260000229999999</v>
+      </c>
+      <c r="D1027" s="17">
+        <f>SUM(C$3:C1027)/A1027</f>
+        <v>12.064901279308271</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4">
+      <c r="A1028" s="17">
+        <f t="shared" si="6"/>
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="37" t="s">
+        <v>802</v>
+      </c>
+      <c r="C1028" s="38">
+        <v>13.34000015</v>
+      </c>
+      <c r="D1028" s="17">
+        <f>SUM(C$3:C1028)/A1028</f>
+        <v>12.066144065731946</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4">
+      <c r="A1029" s="17">
+        <f t="shared" si="6"/>
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="C1029" s="38">
+        <v>13.399999619999999</v>
+      </c>
+      <c r="D1029" s="17">
+        <f>SUM(C$3:C1029)/A1029</f>
+        <v>12.067442854002898</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4">
+      <c r="A1030" s="17">
+        <f t="shared" si="6"/>
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="37" t="s">
+        <v>804</v>
+      </c>
+      <c r="C1030" s="38">
+        <v>13.350000380000001</v>
+      </c>
+      <c r="D1030" s="17">
+        <f>SUM(C$3:C1030)/A1030</f>
+        <v>12.068690478055425</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4">
+      <c r="A1031" s="17">
+        <f t="shared" si="6"/>
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="37" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1031" s="38">
+        <v>13.460000040000001</v>
+      </c>
+      <c r="D1031" s="17">
+        <f>SUM(C$3:C1031)/A1031</f>
+        <v>12.07004257675508</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4">
+      <c r="A1032" s="17">
+        <f t="shared" si="6"/>
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1032" s="38">
+        <v>13.460000040000001</v>
+      </c>
+      <c r="D1032" s="17">
+        <f>SUM(C$3:C1032)/A1032</f>
+        <v>12.071392050020368</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4">
+      <c r="A1033" s="17">
+        <f t="shared" si="6"/>
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="37" t="s">
+        <v>807</v>
+      </c>
+      <c r="C1033" s="38">
+        <v>13.52999973</v>
+      </c>
+      <c r="D1033" s="17">
+        <f>SUM(C$3:C1033)/A1033</f>
+        <v>12.072806800437419</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4">
+      <c r="A1034" s="17">
+        <f t="shared" si="6"/>
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="37" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1034" s="38">
+        <v>13.52000046</v>
+      </c>
+      <c r="D1034" s="17">
+        <f>SUM(C$3:C1034)/A1034</f>
+        <v>12.074209119874979</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4">
+      <c r="A1035" s="17">
+        <f t="shared" si="6"/>
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="37" t="s">
+        <v>809</v>
+      </c>
+      <c r="C1035" s="38">
+        <v>13.56000042</v>
+      </c>
+      <c r="D1035" s="17">
+        <f>SUM(C$3:C1035)/A1035</f>
+        <v>12.075647446399785</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4">
+      <c r="A1036" s="17">
+        <f t="shared" si="6"/>
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="37" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1036" s="38">
+        <v>18.010000229999999</v>
+      </c>
+      <c r="D1036" s="17">
+        <f>SUM(C$3:C1036)/A1036</f>
+        <v>12.081386665726285</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4">
+      <c r="A1037" s="17">
+        <f t="shared" si="6"/>
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="37" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1037" s="38">
+        <v>13.52000046</v>
+      </c>
+      <c r="D1037" s="17">
+        <f>SUM(C$3:C1037)/A1037</f>
+        <v>12.082776630744906</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4">
+      <c r="A1038" s="17">
+        <f t="shared" si="6"/>
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="37" t="s">
+        <v>812</v>
+      </c>
+      <c r="C1038" s="38">
+        <v>13.579999920000001</v>
+      </c>
+      <c r="D1038" s="17">
+        <f>SUM(C$3:C1038)/A1038</f>
+        <v>12.084221826970056</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4">
+      <c r="A1039" s="17">
+        <f t="shared" si="6"/>
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="C1039" s="38">
+        <v>13.649999619999999</v>
+      </c>
+      <c r="D1039" s="17">
+        <f>SUM(C$3:C1039)/A1039</f>
+        <v>12.085731738053017</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4">
+      <c r="A1040" s="17">
+        <f t="shared" si="6"/>
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="37" t="s">
+        <v>814</v>
+      </c>
+      <c r="C1040" s="38">
+        <v>13.739999771118164</v>
+      </c>
+      <c r="D1040" s="17">
+        <f>SUM(C$3:C1040)/A1040</f>
+        <v>12.087325445213967</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4">
+      <c r="A1041" s="17">
+        <f t="shared" si="6"/>
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="C1041" s="38">
+        <v>13.859999656677246</v>
+      </c>
+      <c r="D1041" s="17">
+        <f>SUM(C$3:C1041)/A1041</f>
+        <v>12.089031580162439</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4">
+      <c r="A1042" s="17">
+        <f t="shared" si="6"/>
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1042" s="38">
+        <v>13.859999656677246</v>
+      </c>
+      <c r="D1042" s="17">
+        <f>SUM(C$3:C1042)/A1042</f>
+        <v>12.090734434082165</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4">
+      <c r="A1043" s="17">
+        <f t="shared" si="6"/>
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="37" t="s">
+        <v>817</v>
+      </c>
+      <c r="C1043" s="38">
+        <v>13.930000305175781</v>
+      </c>
+      <c r="D1043" s="17">
+        <f>SUM(C$3:C1043)/A1043</f>
+        <v>12.092501260087058</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4">
+      <c r="A1044" s="17">
+        <f t="shared" si="6"/>
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="C1044" s="38">
+        <v>13.930000305175781</v>
+      </c>
+      <c r="D1044" s="17">
+        <f>SUM(C$3:C1044)/A1044</f>
+        <v>12.094264694871212</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4">
+      <c r="A1045" s="17">
+        <f t="shared" si="6"/>
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="C1045" s="38">
+        <v>13.880000114440918</v>
+      </c>
+      <c r="D1045" s="17">
+        <f>SUM(C$3:C1045)/A1045</f>
+        <v>12.095976809367444</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4">
+      <c r="A1046" s="17">
+        <f t="shared" si="6"/>
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1046" s="38">
+        <v>13.909999847412109</v>
+      </c>
+      <c r="D1046" s="17">
+        <f>SUM(C$3:C1046)/A1046</f>
+        <v>12.097714379327257</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4">
+      <c r="A1047" s="17">
+        <f t="shared" si="6"/>
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="37">
+        <v>45868</v>
+      </c>
+      <c r="C1047" s="38">
+        <v>13.949999809265137</v>
+      </c>
+      <c r="D1047" s="17">
+        <f>SUM(C$3:C1047)/A1047</f>
+        <v>12.099486901269781</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4">
+      <c r="A1048" s="17">
+        <f t="shared" si="6"/>
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="37">
+        <v>45869</v>
+      </c>
+      <c r="C1048" s="38">
+        <v>13.75</v>
+      </c>
+      <c r="D1048" s="17">
+        <f>SUM(C$3:C1048)/A1048</f>
+        <v>12.101064829662448</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="837">
   <si>
     <t>PE</t>
   </si>
@@ -3340,6 +3340,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3981,7 +3985,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4515,6 +4519,9 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4524,7 +4531,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5058,6 +5065,9 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>356000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>358000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5100,7 +5110,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5634,6 +5644,9 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5643,7 +5656,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6177,6 +6190,9 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>483037.75801331969</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>505058.72237088112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6219,7 +6235,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6753,6 +6769,9 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6762,7 +6781,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7296,6 +7315,9 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>127037.75801331969</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>147058.72237088112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7317,11 +7339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469252352"/>
-        <c:axId val="472260992"/>
+        <c:axId val="88204416"/>
+        <c:axId val="88217856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469252352"/>
+        <c:axId val="88204416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7364,14 +7386,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472260992"/>
+        <c:crossAx val="88217856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472260992"/>
+        <c:axId val="88217856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7422,7 +7444,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469252352"/>
+        <c:crossAx val="88204416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7828,7 +7850,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7896,7 +7918,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7938,25 +7960,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>828</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15527,6 +15549,39 @@
       <c r="J180" s="31">
         <f>VLOOKUP(A180,myPEPB!B:C,2)</f>
         <v>13.210000040000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="12.75">
+      <c r="A181" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B181" s="14">
+        <v>2.5139909667968752</v>
+      </c>
+      <c r="C181" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D181" s="16">
+        <v>795.54780681978298</v>
+      </c>
+      <c r="E181" s="16">
+        <v>200899.17944867807</v>
+      </c>
+      <c r="F181" s="16">
+        <v>505058.72237088112</v>
+      </c>
+      <c r="G181" s="16">
+        <v>358000</v>
+      </c>
+      <c r="H181" s="16">
+        <v>505058.72237088112</v>
+      </c>
+      <c r="I181" s="16">
+        <v>147058.72237088112</v>
+      </c>
+      <c r="J181" s="31">
+        <f>VLOOKUP(A181,myPEPB!B:C,2)</f>
+        <v>13.75</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="855">
   <si>
     <t>PE</t>
   </si>
@@ -3307,6 +3307,82 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2025/8/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/8/27
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3340,10 +3416,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7339,11 +7411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88204416"/>
-        <c:axId val="88217856"/>
+        <c:axId val="492115072"/>
+        <c:axId val="492117376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88204416"/>
+        <c:axId val="492115072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7386,14 +7458,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88217856"/>
+        <c:crossAx val="492117376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88217856"/>
+        <c:axId val="492117376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7444,7 +7516,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88204416"/>
+        <c:crossAx val="492115072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7880,31 +7952,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -7918,7 +7990,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7960,25 +8032,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15597,7 +15669,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1048"/>
+  <dimension ref="A1:D1069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -28493,7 +28565,7 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="17">
-        <f t="shared" ref="A807:A1048" si="6">A806+1</f>
+        <f t="shared" ref="A807:A1061" si="6">A806+1</f>
         <v>805</v>
       </c>
       <c r="B807" s="37" t="s">
@@ -32361,6 +32433,342 @@
       <c r="D1048" s="17">
         <f>SUM(C$3:C1048)/A1048</f>
         <v>12.101064829662448</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4">
+      <c r="A1049" s="17">
+        <f t="shared" si="6"/>
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="37" t="s">
+        <v>821</v>
+      </c>
+      <c r="C1049" s="38">
+        <v>13.649999619999999</v>
+      </c>
+      <c r="D1049" s="17">
+        <f>SUM(C$3:C1049)/A1049</f>
+        <v>12.10254423251855</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4">
+      <c r="A1050" s="17">
+        <f t="shared" si="6"/>
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="37" t="s">
+        <v>822</v>
+      </c>
+      <c r="C1050" s="38">
+        <v>13.69999981</v>
+      </c>
+      <c r="D1050" s="17">
+        <f>SUM(C$3:C1050)/A1050</f>
+        <v>12.104068522191719</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4">
+      <c r="A1051" s="17">
+        <f t="shared" si="6"/>
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="C1051" s="38">
+        <v>13.829999920000001</v>
+      </c>
+      <c r="D1051" s="17">
+        <f>SUM(C$3:C1051)/A1051</f>
+        <v>12.10571383334311</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4">
+      <c r="A1052" s="17">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1052" s="38">
+        <v>13.869999890000001</v>
+      </c>
+      <c r="D1052" s="17">
+        <f>SUM(C$3:C1052)/A1052</f>
+        <v>12.10739410577802</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4">
+      <c r="A1053" s="17">
+        <f t="shared" si="6"/>
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="C1053" s="38">
+        <v>13.880000109999999</v>
+      </c>
+      <c r="D1053" s="17">
+        <f>SUM(C$3:C1053)/A1053</f>
+        <v>12.109080695696406</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4">
+      <c r="A1054" s="17">
+        <f t="shared" si="6"/>
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1054" s="38">
+        <v>13.869999890000001</v>
+      </c>
+      <c r="D1054" s="17">
+        <f>SUM(C$3:C1054)/A1054</f>
+        <v>12.11075457325753</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4">
+      <c r="A1055" s="17">
+        <f t="shared" si="6"/>
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="37" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1055" s="38">
+        <v>13.899999619999999</v>
+      </c>
+      <c r="D1055" s="17">
+        <f>SUM(C$3:C1055)/A1055</f>
+        <v>12.112453761336107</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4">
+      <c r="A1056" s="17">
+        <f t="shared" si="6"/>
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1056" s="38">
+        <v>13.899999619999999</v>
+      </c>
+      <c r="D1056" s="17">
+        <f>SUM(C$3:C1056)/A1056</f>
+        <v>12.114149725148883</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4">
+      <c r="A1057" s="17">
+        <f t="shared" si="6"/>
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="C1057" s="38">
+        <v>14.09000015</v>
+      </c>
+      <c r="D1057" s="17">
+        <f>SUM(C$3:C1057)/A1057</f>
+        <v>12.116022569153479</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4">
+      <c r="A1058" s="17">
+        <f t="shared" si="6"/>
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="37" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1058" s="38">
+        <v>14.06999969</v>
+      </c>
+      <c r="D1058" s="17">
+        <f>SUM(C$3:C1058)/A1058</f>
+        <v>12.117872926275494</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4">
+      <c r="A1059" s="17">
+        <f t="shared" si="6"/>
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="C1059" s="38">
+        <v>14.14000034</v>
+      </c>
+      <c r="D1059" s="17">
+        <f>SUM(C$3:C1059)/A1059</f>
+        <v>12.119786008029253</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4">
+      <c r="A1060" s="17">
+        <f t="shared" si="6"/>
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="37" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1060" s="38">
+        <v>14.25</v>
+      </c>
+      <c r="D1060" s="17">
+        <f>SUM(C$3:C1060)/A1060</f>
+        <v>12.121799442804273</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4">
+      <c r="A1061" s="17">
+        <f t="shared" si="6"/>
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="37" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1061" s="38">
+        <v>14.239999770000001</v>
+      </c>
+      <c r="D1061" s="17">
+        <f>SUM(C$3:C1061)/A1061</f>
+        <v>12.123799631970652</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4">
+      <c r="A1062" s="17">
+        <f t="shared" ref="A1062:A1069" si="7">A1061+1</f>
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="37" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1062" s="38">
+        <v>14.399999619999999</v>
+      </c>
+      <c r="D1062" s="17">
+        <f>SUM(C$3:C1062)/A1062</f>
+        <v>12.125946990449924</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4">
+      <c r="A1063" s="17">
+        <f t="shared" si="7"/>
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1063" s="38">
+        <v>14.399999619999999</v>
+      </c>
+      <c r="D1063" s="17">
+        <f>SUM(C$3:C1063)/A1063</f>
+        <v>12.128090301128106</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4">
+      <c r="A1064" s="17">
+        <f t="shared" si="7"/>
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="37" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1064" s="38">
+        <v>14.64000034</v>
+      </c>
+      <c r="D1064" s="17">
+        <f>SUM(C$3:C1064)/A1064</f>
+        <v>12.130455564818192</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4">
+      <c r="A1065" s="17">
+        <f t="shared" si="7"/>
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="37" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1065" s="38">
+        <v>14.89000034</v>
+      </c>
+      <c r="D1065" s="17">
+        <f>SUM(C$3:C1065)/A1065</f>
+        <v>12.133051561784496</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4">
+      <c r="A1066" s="17">
+        <f t="shared" si="7"/>
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="37" t="s">
+        <v>838</v>
+      </c>
+      <c r="C1066" s="38">
+        <v>14.85999966</v>
+      </c>
+      <c r="D1066" s="17">
+        <f>SUM(C$3:C1066)/A1066</f>
+        <v>12.135614482929435</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4">
+      <c r="A1067" s="17">
+        <f t="shared" si="7"/>
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="37" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1067" s="38">
+        <v>14.85999966</v>
+      </c>
+      <c r="D1067" s="17">
+        <f>SUM(C$3:C1067)/A1067</f>
+        <v>12.13817259107692</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4">
+      <c r="A1068" s="17">
+        <f t="shared" si="7"/>
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="37">
+        <v>45897</v>
+      </c>
+      <c r="C1068" s="38">
+        <v>14.760000229999999</v>
+      </c>
+      <c r="D1068" s="17">
+        <f>SUM(C$3:C1068)/A1068</f>
+        <v>12.140632091676286</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4">
+      <c r="A1069" s="17">
+        <f t="shared" si="7"/>
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="37">
+        <v>45898</v>
+      </c>
+      <c r="C1069" s="38">
+        <v>14.94999981</v>
+      </c>
+      <c r="D1069" s="17">
+        <f>SUM(C$3:C1069)/A1069</f>
+        <v>12.14326505111239</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -4057,7 +4057,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="180"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4594,6 +4594,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4603,7 +4606,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="180"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5140,6 +5143,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>358000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>360000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5182,7 +5188,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="180"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5719,6 +5725,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5728,7 +5737,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="180"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6265,6 +6274,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>505058.72237088112</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>558046.94392448571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6307,7 +6319,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="180"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6844,6 +6856,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6853,7 +6868,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="180"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7390,6 +7405,9 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>147058.72237088112</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>198046.94392448571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7411,11 +7429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492115072"/>
-        <c:axId val="492117376"/>
+        <c:axId val="93823360"/>
+        <c:axId val="93824896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492115072"/>
+        <c:axId val="93823360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7458,14 +7476,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492117376"/>
+        <c:crossAx val="93824896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492117376"/>
+        <c:axId val="93824896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7516,7 +7534,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492115072"/>
+        <c:crossAx val="93823360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7922,7 +7940,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15656,6 +15674,39 @@
         <v>13.75</v>
       </c>
     </row>
+    <row r="182" spans="1:10" ht="12.75">
+      <c r="A182" s="13">
+        <v>45898</v>
+      </c>
+      <c r="B182" s="14">
+        <v>2.7677910156249999</v>
+      </c>
+      <c r="C182" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D182" s="16">
+        <v>722.59790884116887</v>
+      </c>
+      <c r="E182" s="16">
+        <v>201621.77735751923</v>
+      </c>
+      <c r="F182" s="16">
+        <v>558046.94392448571</v>
+      </c>
+      <c r="G182" s="16">
+        <v>360000</v>
+      </c>
+      <c r="H182" s="16">
+        <v>558046.94392448571</v>
+      </c>
+      <c r="I182" s="16">
+        <v>198046.94392448571</v>
+      </c>
+      <c r="J182" s="31">
+        <f>VLOOKUP(A182,myPEPB!B:C,2)</f>
+        <v>14.94999981</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="875">
   <si>
     <t>PE</t>
   </si>
@@ -3380,6 +3380,86 @@
   </si>
   <si>
     <t xml:space="preserve">2025/8/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/9/26
 </t>
   </si>
   <si>
@@ -7429,11 +7509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93823360"/>
-        <c:axId val="93824896"/>
+        <c:axId val="460801920"/>
+        <c:axId val="475205632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93823360"/>
+        <c:axId val="460801920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7476,14 +7556,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93824896"/>
+        <c:crossAx val="475205632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93824896"/>
+        <c:axId val="475205632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7534,7 +7614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93823360"/>
+        <c:crossAx val="460801920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7970,31 +8050,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>843</v>
+        <v>863</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>844</v>
+        <v>864</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -8008,7 +8088,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8050,25 +8130,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>849</v>
+        <v>869</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15720,7 +15800,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1069"/>
+  <dimension ref="A1:D1091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -32696,7 +32776,7 @@
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" s="17">
-        <f t="shared" ref="A1062:A1069" si="7">A1061+1</f>
+        <f t="shared" ref="A1062:A1091" si="7">A1061+1</f>
         <v>1060</v>
       </c>
       <c r="B1062" s="37" t="s">
@@ -32820,6 +32900,358 @@
       <c r="D1069" s="17">
         <f>SUM(C$3:C1069)/A1069</f>
         <v>12.14326505111239</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4">
+      <c r="A1070" s="17">
+        <f t="shared" si="7"/>
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="37" t="s">
+        <v>840</v>
+      </c>
+      <c r="C1070" s="38">
+        <v>14.85999966</v>
+      </c>
+      <c r="D1070" s="17">
+        <f>SUM(C$3:C1070)/A1070</f>
+        <v>12.145808810109477</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4">
+      <c r="A1071" s="17">
+        <f t="shared" si="7"/>
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="37" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1071" s="38">
+        <v>14.81999969</v>
+      </c>
+      <c r="D1071" s="17">
+        <f>SUM(C$3:C1071)/A1071</f>
+        <v>12.148310391849318</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4">
+      <c r="A1072" s="17">
+        <f t="shared" si="7"/>
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="37" t="s">
+        <v>842</v>
+      </c>
+      <c r="C1072" s="38">
+        <v>14.72999954</v>
+      </c>
+      <c r="D1072" s="17">
+        <f>SUM(C$3:C1072)/A1072</f>
+        <v>12.150723185445722</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4">
+      <c r="A1073" s="17">
+        <f t="shared" si="7"/>
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="37" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1073" s="38">
+        <v>14.579999920000001</v>
+      </c>
+      <c r="D1073" s="17">
+        <f>SUM(C$3:C1073)/A1073</f>
+        <v>12.15299141769087</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4">
+      <c r="A1074" s="17">
+        <f t="shared" si="7"/>
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1074" s="38">
+        <v>14.579999920000001</v>
+      </c>
+      <c r="D1074" s="17">
+        <f>SUM(C$3:C1074)/A1074</f>
+        <v>12.155255418159443</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4">
+      <c r="A1075" s="17">
+        <f t="shared" si="7"/>
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="37" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1075" s="38">
+        <v>14.850000380000001</v>
+      </c>
+      <c r="D1075" s="17">
+        <f>SUM(C$3:C1075)/A1075</f>
+        <v>12.157766830053051</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4">
+      <c r="A1076" s="17">
+        <f t="shared" si="7"/>
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="37" t="s">
+        <v>846</v>
+      </c>
+      <c r="C1076" s="38">
+        <v>14.75</v>
+      </c>
+      <c r="D1076" s="17">
+        <f>SUM(C$3:C1076)/A1076</f>
+        <v>12.160180454978514</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4">
+      <c r="A1077" s="17">
+        <f t="shared" si="7"/>
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="37" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1077" s="38">
+        <v>14.789999959999999</v>
+      </c>
+      <c r="D1077" s="17">
+        <f>SUM(C$3:C1077)/A1077</f>
+        <v>12.162626798704114</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4">
+      <c r="A1078" s="17">
+        <f t="shared" si="7"/>
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="37" t="s">
+        <v>848</v>
+      </c>
+      <c r="C1078" s="38">
+        <v>15.05000019</v>
+      </c>
+      <c r="D1078" s="17">
+        <f>SUM(C$3:C1078)/A1078</f>
+        <v>12.165310231223906</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4">
+      <c r="A1079" s="17">
+        <f t="shared" si="7"/>
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="C1079" s="38">
+        <v>14.97999954</v>
+      </c>
+      <c r="D1079" s="17">
+        <f>SUM(C$3:C1079)/A1079</f>
+        <v>12.167923684621099</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4">
+      <c r="A1080" s="17">
+        <f t="shared" si="7"/>
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="37" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1080" s="38">
+        <v>15.010000229999999</v>
+      </c>
+      <c r="D1080" s="17">
+        <f>SUM(C$3:C1080)/A1080</f>
+        <v>12.170560119264309</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4">
+      <c r="A1081" s="17">
+        <f t="shared" si="7"/>
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="C1081" s="38">
+        <v>14.97000027</v>
+      </c>
+      <c r="D1081" s="17">
+        <f>SUM(C$3:C1081)/A1081</f>
+        <v>12.173154595771013</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4">
+      <c r="A1082" s="17">
+        <f t="shared" si="7"/>
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="37" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1082" s="38">
+        <v>15.06999969</v>
+      </c>
+      <c r="D1082" s="17">
+        <f>SUM(C$3:C1082)/A1082</f>
+        <v>12.175836859747152</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4">
+      <c r="A1083" s="17">
+        <f t="shared" si="7"/>
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1083" s="38">
+        <v>14.899999619999999</v>
+      </c>
+      <c r="D1083" s="17">
+        <f>SUM(C$3:C1083)/A1083</f>
+        <v>12.178356899303353</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4">
+      <c r="A1084" s="17">
+        <f t="shared" si="7"/>
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1084" s="38">
+        <v>14.899999619999999</v>
+      </c>
+      <c r="D1084" s="17">
+        <f>SUM(C$3:C1084)/A1084</f>
+        <v>12.180872280745771</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4">
+      <c r="A1085" s="17">
+        <f t="shared" si="7"/>
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="37" t="s">
+        <v>855</v>
+      </c>
+      <c r="C1085" s="38">
+        <v>14.93000031</v>
+      </c>
+      <c r="D1085" s="17">
+        <f>SUM(C$3:C1085)/A1085</f>
+        <v>12.183410718445913</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4">
+      <c r="A1086" s="17">
+        <f t="shared" si="7"/>
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="37" t="s">
+        <v>856</v>
+      </c>
+      <c r="C1086" s="38">
+        <v>14.960000040000001</v>
+      </c>
+      <c r="D1086" s="17">
+        <f>SUM(C$3:C1086)/A1086</f>
+        <v>12.185972147709339</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4">
+      <c r="A1087" s="17">
+        <f t="shared" si="7"/>
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="37" t="s">
+        <v>857</v>
+      </c>
+      <c r="C1087" s="38">
+        <v>15.02999973</v>
+      </c>
+      <c r="D1087" s="17">
+        <f>SUM(C$3:C1087)/A1087</f>
+        <v>12.188593371287489</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4">
+      <c r="A1088" s="17">
+        <f t="shared" si="7"/>
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="37" t="s">
+        <v>858</v>
+      </c>
+      <c r="C1088" s="38">
+        <v>15.079999920000001</v>
+      </c>
+      <c r="D1088" s="17">
+        <f>SUM(C$3:C1088)/A1088</f>
+        <v>12.191255808256837</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4">
+      <c r="A1089" s="17">
+        <f t="shared" si="7"/>
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="37" t="s">
+        <v>859</v>
+      </c>
+      <c r="C1089" s="38">
+        <v>14.93999958</v>
+      </c>
+      <c r="D1089" s="17">
+        <f>SUM(C$3:C1089)/A1089</f>
+        <v>12.193784551377115</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4">
+      <c r="A1090" s="17">
+        <f t="shared" si="7"/>
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="37">
+        <v>45929</v>
+      </c>
+      <c r="C1090" s="38">
+        <v>15.14000034</v>
+      </c>
+      <c r="D1090" s="17">
+        <f>SUM(C$3:C1090)/A1090</f>
+        <v>12.196492470300482</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4">
+      <c r="A1091" s="17">
+        <f t="shared" si="7"/>
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="37">
+        <v>45930</v>
+      </c>
+      <c r="C1091" s="38">
+        <v>15.18999958</v>
+      </c>
+      <c r="D1091" s="17">
+        <f>SUM(C$3:C1091)/A1091</f>
+        <v>12.199241328987075</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="876">
   <si>
     <t>PE</t>
   </si>
@@ -3496,6 +3496,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4137,7 +4141,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="180"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4677,6 +4681,9 @@
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4686,7 +4693,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="180"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5226,6 +5233,9 @@
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>362000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5268,7 +5278,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="180"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5808,6 +5818,9 @@
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5817,7 +5830,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="180"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6357,6 +6370,9 @@
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>558046.94392448571</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>589634.74285543477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6399,7 +6415,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="180"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -6939,6 +6955,9 @@
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6948,7 +6967,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="180"/>
+                <c:ptCount val="181"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7488,6 +7507,9 @@
                 </c:pt>
                 <c:pt idx="179">
                   <c:v>198046.94392448571</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>227634.74285543477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7509,11 +7531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460801920"/>
-        <c:axId val="475205632"/>
+        <c:axId val="87809024"/>
+        <c:axId val="106071168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460801920"/>
+        <c:axId val="87809024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,14 +7578,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475205632"/>
+        <c:crossAx val="106071168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475205632"/>
+        <c:axId val="106071168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7614,7 +7636,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460801920"/>
+        <c:crossAx val="87809024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8020,7 +8042,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8088,7 +8110,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8130,25 +8152,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>867</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15785,6 +15807,39 @@
       <c r="J182" s="31">
         <f>VLOOKUP(A182,myPEPB!B:C,2)</f>
         <v>14.94999981</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="12.75">
+      <c r="A183" s="13">
+        <v>45930</v>
+      </c>
+      <c r="B183" s="14">
+        <v>2.9145400390625</v>
+      </c>
+      <c r="C183" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D183" s="16">
+        <v>686.21462501620874</v>
+      </c>
+      <c r="E183" s="16">
+        <v>202307.99198253543</v>
+      </c>
+      <c r="F183" s="16">
+        <v>589634.74285543477</v>
+      </c>
+      <c r="G183" s="16">
+        <v>362000</v>
+      </c>
+      <c r="H183" s="16">
+        <v>589634.74285543477</v>
+      </c>
+      <c r="I183" s="16">
+        <v>227634.74285543477</v>
+      </c>
+      <c r="J183" s="31">
+        <f>VLOOKUP(A183,myPEPB!B:C,2)</f>
+        <v>15.18999958</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="890">
   <si>
     <t>PE</t>
   </si>
@@ -3463,6 +3463,66 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2025/10/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/10/29
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3496,10 +3556,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7531,11 +7587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87809024"/>
-        <c:axId val="106071168"/>
+        <c:axId val="88189952"/>
+        <c:axId val="91380736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87809024"/>
+        <c:axId val="88189952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7578,14 +7634,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106071168"/>
+        <c:crossAx val="91380736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106071168"/>
+        <c:axId val="91380736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7636,7 +7692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87809024"/>
+        <c:crossAx val="88189952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8072,31 +8128,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -8110,7 +8166,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8152,25 +8208,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15855,7 +15911,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1091"/>
+  <dimension ref="A1:D1108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -32831,7 +32887,7 @@
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" s="17">
-        <f t="shared" ref="A1062:A1091" si="7">A1061+1</f>
+        <f t="shared" ref="A1062:A1108" si="7">A1061+1</f>
         <v>1060</v>
       </c>
       <c r="B1062" s="37" t="s">
@@ -33307,6 +33363,278 @@
       <c r="D1091" s="17">
         <f>SUM(C$3:C1091)/A1091</f>
         <v>12.199241328987075</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4">
+      <c r="A1092" s="17">
+        <f t="shared" si="7"/>
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="37" t="s">
+        <v>860</v>
+      </c>
+      <c r="C1092" s="38">
+        <v>15.420000079999999</v>
+      </c>
+      <c r="D1092" s="17">
+        <f>SUM(C$3:C1092)/A1092</f>
+        <v>12.202196153529288</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4">
+      <c r="A1093" s="17">
+        <f t="shared" si="7"/>
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="37" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1093" s="38">
+        <v>15.19999981</v>
+      </c>
+      <c r="D1093" s="17">
+        <f>SUM(C$3:C1093)/A1093</f>
+        <v>12.204943911234578</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4">
+      <c r="A1094" s="17">
+        <f t="shared" si="7"/>
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="37" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1094" s="38">
+        <v>15.079999920000001</v>
+      </c>
+      <c r="D1094" s="17">
+        <f>SUM(C$3:C1094)/A1094</f>
+        <v>12.20757674640744</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4">
+      <c r="A1095" s="17">
+        <f t="shared" si="7"/>
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="37" t="s">
+        <v>863</v>
+      </c>
+      <c r="C1095" s="38">
+        <v>14.97999954</v>
+      </c>
+      <c r="D1095" s="17">
+        <f>SUM(C$3:C1095)/A1095</f>
+        <v>12.210113272293619</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4">
+      <c r="A1096" s="17">
+        <f t="shared" si="7"/>
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="37" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1096" s="38">
+        <v>15.18999958</v>
+      </c>
+      <c r="D1096" s="17">
+        <f>SUM(C$3:C1096)/A1096</f>
+        <v>12.212837117181833</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4">
+      <c r="A1097" s="17">
+        <f t="shared" si="7"/>
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="37" t="s">
+        <v>865</v>
+      </c>
+      <c r="C1097" s="38">
+        <v>15.289999959999999</v>
+      </c>
+      <c r="D1097" s="17">
+        <f>SUM(C$3:C1097)/A1097</f>
+        <v>12.215647311558834</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4">
+      <c r="A1098" s="17">
+        <f t="shared" si="7"/>
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="37" t="s">
+        <v>866</v>
+      </c>
+      <c r="C1098" s="38">
+        <v>14.97000027</v>
+      </c>
+      <c r="D1098" s="17">
+        <f>SUM(C$3:C1098)/A1098</f>
+        <v>12.218160407323834</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4">
+      <c r="A1099" s="17">
+        <f t="shared" si="7"/>
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="37" t="s">
+        <v>867</v>
+      </c>
+      <c r="C1099" s="38">
+        <v>15.09000015</v>
+      </c>
+      <c r="D1099" s="17">
+        <f>SUM(C$3:C1099)/A1099</f>
+        <v>12.2207783104621</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4">
+      <c r="A1100" s="17">
+        <f t="shared" si="7"/>
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="37" t="s">
+        <v>868</v>
+      </c>
+      <c r="C1100" s="38">
+        <v>15.329999920000001</v>
+      </c>
+      <c r="D1100" s="17">
+        <f>SUM(C$3:C1100)/A1100</f>
+        <v>12.223610024131988</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4">
+      <c r="A1101" s="17">
+        <f t="shared" si="7"/>
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1101" s="38">
+        <v>15.31999969</v>
+      </c>
+      <c r="D1101" s="17">
+        <f>SUM(C$3:C1101)/A1101</f>
+        <v>12.226427485156437</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4">
+      <c r="A1102" s="17">
+        <f t="shared" si="7"/>
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="37" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1102" s="38">
+        <v>15.369999890000001</v>
+      </c>
+      <c r="D1102" s="17">
+        <f>SUM(C$3:C1102)/A1102</f>
+        <v>12.229285278251748</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4">
+      <c r="A1103" s="17">
+        <f t="shared" si="7"/>
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="37" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1103" s="38">
+        <v>15.52000046</v>
+      </c>
+      <c r="D1103" s="17">
+        <f>SUM(C$3:C1103)/A1103</f>
+        <v>12.232274120378676</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4">
+      <c r="A1104" s="17">
+        <f t="shared" si="7"/>
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="37" t="s">
+        <v>872</v>
+      </c>
+      <c r="C1104" s="38">
+        <v>15.72999954</v>
+      </c>
+      <c r="D1104" s="17">
+        <f>SUM(C$3:C1104)/A1104</f>
+        <v>12.235448099888314</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4">
+      <c r="A1105" s="17">
+        <f t="shared" si="7"/>
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="37" t="s">
+        <v>873</v>
+      </c>
+      <c r="C1105" s="38">
+        <v>15.69999981</v>
+      </c>
+      <c r="D1105" s="17">
+        <f>SUM(C$3:C1105)/A1105</f>
+        <v>12.238589125917429</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4">
+      <c r="A1106" s="17">
+        <f t="shared" si="7"/>
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="37" t="s">
+        <v>874</v>
+      </c>
+      <c r="C1106" s="38">
+        <v>15.880000109999999</v>
+      </c>
+      <c r="D1106" s="17">
+        <f>SUM(C$3:C1106)/A1106</f>
+        <v>12.241887505431997</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4">
+      <c r="A1107" s="17">
+        <f t="shared" si="7"/>
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="37">
+        <v>45960</v>
+      </c>
+      <c r="C1107" s="38">
+        <v>15.77999973</v>
+      </c>
+      <c r="D1107" s="17">
+        <f>SUM(C$3:C1107)/A1107</f>
+        <v>12.245089416947444</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4">
+      <c r="A1108" s="17">
+        <f t="shared" si="7"/>
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="37">
+        <v>45961</v>
+      </c>
+      <c r="C1108" s="38">
+        <v>15.55000019</v>
+      </c>
+      <c r="D1108" s="17">
+        <f>SUM(C$3:C1108)/A1108</f>
+        <v>12.248077582203367</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="891">
   <si>
     <t>PE</t>
   </si>
@@ -3556,6 +3556,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4197,7 +4201,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="181"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4740,6 +4744,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4749,7 +4756,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="181"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5292,6 +5299,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>362000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>364000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5334,7 +5344,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="181"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5877,6 +5887,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5886,7 +5899,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="181"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6429,6 +6442,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>589634.74285543477</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>592474.30126552237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6471,7 +6487,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="181"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -7014,6 +7030,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7023,7 +7042,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="181"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7566,6 +7585,9 @@
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>227634.74285543477</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>228474.30126552237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7587,11 +7609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88189952"/>
-        <c:axId val="91380736"/>
+        <c:axId val="87388928"/>
+        <c:axId val="87390848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88189952"/>
+        <c:axId val="87388928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7634,14 +7656,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91380736"/>
+        <c:crossAx val="87390848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91380736"/>
+        <c:axId val="87390848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7692,7 +7714,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88189952"/>
+        <c:crossAx val="87388928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8098,7 +8120,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8166,7 +8188,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8208,25 +8230,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>882</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15896,6 +15918,39 @@
       <c r="J183" s="31">
         <f>VLOOKUP(A183,myPEPB!B:C,2)</f>
         <v>15.18999958</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="12.75">
+      <c r="A184" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B184" s="14">
+        <v>2.9186899414062499</v>
+      </c>
+      <c r="C184" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D184" s="16">
+        <v>685.23893943883013</v>
+      </c>
+      <c r="E184" s="16">
+        <v>202993.23092197426</v>
+      </c>
+      <c r="F184" s="16">
+        <v>592474.30126552237</v>
+      </c>
+      <c r="G184" s="16">
+        <v>364000</v>
+      </c>
+      <c r="H184" s="16">
+        <v>592474.30126552237</v>
+      </c>
+      <c r="I184" s="16">
+        <v>228474.30126552237</v>
+      </c>
+      <c r="J184" s="31">
+        <f>VLOOKUP(A184,myPEPB!B:C,2)</f>
+        <v>15.55000019</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="908">
   <si>
     <t>PE</t>
   </si>
@@ -3523,6 +3523,78 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2025/11/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/25
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/11/26
+</t>
+  </si>
+  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3556,10 +3628,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7609,11 +7677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87388928"/>
-        <c:axId val="87390848"/>
+        <c:axId val="431008384"/>
+        <c:axId val="431949312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87388928"/>
+        <c:axId val="431008384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7656,14 +7724,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87390848"/>
+        <c:crossAx val="431949312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87390848"/>
+        <c:axId val="431949312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7714,7 +7782,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87388928"/>
+        <c:crossAx val="431008384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8150,31 +8218,31 @@
   <sheetData>
     <row r="1" spans="1:28" s="9" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>0</v>
@@ -8188,7 +8256,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8230,25 +8298,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -15966,7 +16034,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1108"/>
+  <dimension ref="A1:D1128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -32942,7 +33010,7 @@
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" s="17">
-        <f t="shared" ref="A1062:A1108" si="7">A1061+1</f>
+        <f t="shared" ref="A1062:A1128" si="7">A1061+1</f>
         <v>1060</v>
       </c>
       <c r="B1062" s="37" t="s">
@@ -33690,6 +33758,326 @@
       <c r="D1108" s="17">
         <f>SUM(C$3:C1108)/A1108</f>
         <v>12.248077582203367</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4">
+      <c r="A1109" s="17">
+        <f t="shared" si="7"/>
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="37" t="s">
+        <v>875</v>
+      </c>
+      <c r="C1109" s="38">
+        <v>15.02999973</v>
+      </c>
+      <c r="D1109" s="17">
+        <f>SUM(C$3:C1109)/A1109</f>
+        <v>12.250590610340492</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4">
+      <c r="A1110" s="17">
+        <f t="shared" si="7"/>
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="37" t="s">
+        <v>876</v>
+      </c>
+      <c r="C1110" s="38">
+        <v>14.93000031</v>
+      </c>
+      <c r="D1110" s="17">
+        <f>SUM(C$3:C1110)/A1110</f>
+        <v>12.253008850141629</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4">
+      <c r="A1111" s="17">
+        <f t="shared" si="7"/>
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="37" t="s">
+        <v>877</v>
+      </c>
+      <c r="C1111" s="38">
+        <v>14.97999954</v>
+      </c>
+      <c r="D1111" s="17">
+        <f>SUM(C$3:C1111)/A1111</f>
+        <v>12.255467813793441</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4">
+      <c r="A1112" s="17">
+        <f t="shared" si="7"/>
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1112" s="38">
+        <v>15.14000034</v>
+      </c>
+      <c r="D1112" s="17">
+        <f>SUM(C$3:C1112)/A1112</f>
+        <v>12.258066491744978</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4">
+      <c r="A1113" s="17">
+        <f t="shared" si="7"/>
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="37" t="s">
+        <v>879</v>
+      </c>
+      <c r="C1113" s="38">
+        <v>15.079999920000001</v>
+      </c>
+      <c r="D1113" s="17">
+        <f>SUM(C$3:C1113)/A1113</f>
+        <v>12.260606485829816</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4">
+      <c r="A1114" s="17">
+        <f t="shared" si="7"/>
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="37" t="s">
+        <v>880</v>
+      </c>
+      <c r="C1114" s="38">
+        <v>15.14000034</v>
+      </c>
+      <c r="D1114" s="17">
+        <f>SUM(C$3:C1114)/A1114</f>
+        <v>12.263195868792199</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4">
+      <c r="A1115" s="17">
+        <f t="shared" si="7"/>
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="C1115" s="38">
+        <v>15.039999959999999</v>
+      </c>
+      <c r="D1115" s="17">
+        <f>SUM(C$3:C1115)/A1115</f>
+        <v>12.265690751174237</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4">
+      <c r="A1116" s="17">
+        <f t="shared" si="7"/>
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="C1116" s="38">
+        <v>15.100000380000001</v>
+      </c>
+      <c r="D1116" s="17">
+        <f>SUM(C$3:C1116)/A1116</f>
+        <v>12.26823501475487</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4">
+      <c r="A1117" s="17">
+        <f t="shared" si="7"/>
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="37" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1117" s="38">
+        <v>15.22999954</v>
+      </c>
+      <c r="D1117" s="17">
+        <f>SUM(C$3:C1117)/A1117</f>
+        <v>12.270891305808902</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4">
+      <c r="A1118" s="17">
+        <f t="shared" si="7"/>
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="C1118" s="38">
+        <v>15.02000046</v>
+      </c>
+      <c r="D1118" s="17">
+        <f>SUM(C$3:C1118)/A1118</f>
+        <v>12.273354665266062</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4">
+      <c r="A1119" s="17">
+        <f t="shared" si="7"/>
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="C1119" s="38">
+        <v>14.90999985</v>
+      </c>
+      <c r="D1119" s="17">
+        <f>SUM(C$3:C1119)/A1119</f>
+        <v>12.275715135440398</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4">
+      <c r="A1120" s="17">
+        <f t="shared" si="7"/>
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="C1120" s="38">
+        <v>14.77999973</v>
+      </c>
+      <c r="D1120" s="17">
+        <f>SUM(C$3:C1120)/A1120</f>
+        <v>12.277955103771848</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4">
+      <c r="A1121" s="17">
+        <f t="shared" si="7"/>
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="37" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1121" s="38">
+        <v>14.899999619999999</v>
+      </c>
+      <c r="D1121" s="17">
+        <f>SUM(C$3:C1121)/A1121</f>
+        <v>12.280298307092874</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4">
+      <c r="A1122" s="17">
+        <f t="shared" si="7"/>
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="37" t="s">
+        <v>888</v>
+      </c>
+      <c r="C1122" s="38">
+        <v>14.84000015</v>
+      </c>
+      <c r="D1122" s="17">
+        <f>SUM(C$3:C1122)/A1122</f>
+        <v>12.282583755166899</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4">
+      <c r="A1123" s="17">
+        <f t="shared" si="7"/>
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="37" t="s">
+        <v>889</v>
+      </c>
+      <c r="C1123" s="38">
+        <v>14.539999959999999</v>
+      </c>
+      <c r="D1123" s="17">
+        <f>SUM(C$3:C1123)/A1123</f>
+        <v>12.284597507356757</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4">
+      <c r="A1124" s="17">
+        <f t="shared" si="7"/>
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="37" t="s">
+        <v>890</v>
+      </c>
+      <c r="C1124" s="38">
+        <v>14.44999981</v>
+      </c>
+      <c r="D1124" s="17">
+        <f>SUM(C$3:C1124)/A1124</f>
+        <v>12.286527455933088</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4">
+      <c r="A1125" s="17">
+        <f t="shared" si="7"/>
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="37" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1125" s="38">
+        <v>14.59000015</v>
+      </c>
+      <c r="D1125" s="17">
+        <f>SUM(C$3:C1125)/A1125</f>
+        <v>12.288578633755053</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4">
+      <c r="A1126" s="17">
+        <f t="shared" si="7"/>
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="37" t="s">
+        <v>892</v>
+      </c>
+      <c r="C1126" s="38">
+        <v>14.630000109999999</v>
+      </c>
+      <c r="D1126" s="17">
+        <f>SUM(C$3:C1126)/A1126</f>
+        <v>12.290661748947443</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4">
+      <c r="A1127" s="17">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="37">
+        <v>45988</v>
+      </c>
+      <c r="C1127" s="38">
+        <v>14.65999985</v>
+      </c>
+      <c r="D1127" s="17">
+        <f>SUM(C$3:C1127)/A1127</f>
+        <v>12.292767827259491</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4">
+      <c r="A1128" s="17">
+        <f t="shared" si="7"/>
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="37">
+        <v>45989</v>
+      </c>
+      <c r="C1128" s="38">
+        <v>14.670000079999999</v>
+      </c>
+      <c r="D1128" s="17">
+        <f>SUM(C$3:C1128)/A1128</f>
+        <v>12.294879045956417</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="909">
   <si>
     <t>PE</t>
   </si>
@@ -3628,6 +3628,10 @@
   </si>
   <si>
     <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4269,7 +4273,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="182"/>
+                <c:ptCount val="183"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -4815,6 +4819,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,7 +4831,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="182"/>
+                <c:ptCount val="183"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5370,6 +5377,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>364000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>366000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5412,7 +5422,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="182"/>
+                <c:ptCount val="183"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -5958,6 +5968,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5967,7 +5980,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="182"/>
+                <c:ptCount val="183"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6513,6 +6526,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>592474.30126552237</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>578877.12606147851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6555,7 +6571,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="182"/>
+                <c:ptCount val="183"/>
                 <c:pt idx="0">
                   <c:v>40451</c:v>
                 </c:pt>
@@ -7101,6 +7117,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7110,7 +7129,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="182"/>
+                <c:ptCount val="183"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7656,6 +7675,9 @@
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>228474.30126552237</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>212877.12606147851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7677,11 +7699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431008384"/>
-        <c:axId val="431949312"/>
+        <c:axId val="87215104"/>
+        <c:axId val="87217664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="431008384"/>
+        <c:axId val="87215104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7724,14 +7746,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431949312"/>
+        <c:crossAx val="87217664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="431949312"/>
+        <c:axId val="87217664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7782,7 +7804,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431008384"/>
+        <c:crossAx val="87215104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8188,7 +8210,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB184"/>
+  <dimension ref="A1:AB185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8256,7 +8278,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8298,25 +8320,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>900</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -16019,6 +16041,39 @@
       <c r="J184" s="31">
         <f>VLOOKUP(A184,myPEPB!B:C,2)</f>
         <v>15.55000019</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="12.75">
+      <c r="A185" s="13">
+        <v>45989</v>
+      </c>
+      <c r="B185" s="14">
+        <v>2.8418540039062501</v>
+      </c>
+      <c r="C185" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D185" s="16">
+        <v>703.76592085691743</v>
+      </c>
+      <c r="E185" s="16">
+        <v>203696.99684283117</v>
+      </c>
+      <c r="F185" s="16">
+        <v>578877.12606147851</v>
+      </c>
+      <c r="G185" s="16">
+        <v>366000</v>
+      </c>
+      <c r="H185" s="16">
+        <v>578877.12606147851</v>
+      </c>
+      <c r="I185" s="16">
+        <v>212877.12606147851</v>
+      </c>
+      <c r="J185" s="31">
+        <f>VLOOKUP(A185,myPEPB!B:C,2)</f>
+        <v>14.670000079999999</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
+++ b/lai/valuationquan/CNIESG300index/CNIESG300indexmodel1cn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="908">
   <si>
     <t>PE</t>
   </si>
@@ -3628,10 +3628,6 @@
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7699,11 +7695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87215104"/>
-        <c:axId val="87217664"/>
+        <c:axId val="532128512"/>
+        <c:axId val="532130432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87215104"/>
+        <c:axId val="532128512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7746,14 +7742,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87217664"/>
+        <c:crossAx val="532130432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87217664"/>
+        <c:axId val="532130432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7804,7 +7800,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87215104"/>
+        <c:crossAx val="532128512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8278,7 +8274,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8320,25 +8316,25 @@
         <v>#N/A</v>
       </c>
       <c r="L3" s="35" t="s">
+        <v>893</v>
+      </c>
+      <c r="M3" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>903</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>904</v>
       </c>
       <c r="O3" s="36" t="s">
         <v>900</v>
       </c>
       <c r="P3" s="36" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q3" s="36" t="s">
         <v>905</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="R3" s="36" t="s">
         <v>906</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>907</v>
       </c>
       <c r="T3" s="29">
         <v>40543</v>
@@ -16089,7 +16085,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1128"/>
+  <dimension ref="A1:D1151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -34135,6 +34131,374 @@
         <v>12.294879045956417</v>
       </c>
     </row>
+    <row r="1129" spans="1:4">
+      <c r="A1129" s="17">
+        <f t="shared" ref="A1129:A1151" si="8">A1128+1</f>
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="37">
+        <v>45992</v>
+      </c>
+      <c r="C1129" s="38">
+        <v>14.800000190734863</v>
+      </c>
+      <c r="D1129" s="17">
+        <f>SUM(C$3:C1129)/A1129</f>
+        <v>12.29710186862259</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4">
+      <c r="A1130" s="17">
+        <f t="shared" si="8"/>
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="37">
+        <v>45993</v>
+      </c>
+      <c r="C1130" s="38">
+        <v>14.770000457763672</v>
+      </c>
+      <c r="D1130" s="17">
+        <f>SUM(C$3:C1130)/A1130</f>
+        <v>12.299294154605873</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4">
+      <c r="A1131" s="17">
+        <f t="shared" si="8"/>
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="37">
+        <v>45994</v>
+      </c>
+      <c r="C1131" s="38">
+        <v>14.689999580383301</v>
+      </c>
+      <c r="D1131" s="17">
+        <f>SUM(C$3:C1131)/A1131</f>
+        <v>12.301411697055631</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4">
+      <c r="A1132" s="17">
+        <f t="shared" si="8"/>
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="37">
+        <v>45995</v>
+      </c>
+      <c r="C1132" s="38">
+        <v>14.710000038146973</v>
+      </c>
+      <c r="D1132" s="17">
+        <f>SUM(C$3:C1132)/A1132</f>
+        <v>12.303543191162792</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4">
+      <c r="A1133" s="17">
+        <f t="shared" si="8"/>
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="37">
+        <v>45996</v>
+      </c>
+      <c r="C1133" s="38">
+        <v>14.800000190734863</v>
+      </c>
+      <c r="D1133" s="17">
+        <f>SUM(C$3:C1133)/A1133</f>
+        <v>12.305750491781334</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4">
+      <c r="A1134" s="17">
+        <f t="shared" si="8"/>
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="37">
+        <v>45999</v>
+      </c>
+      <c r="C1134" s="38">
+        <v>14.869999885559082</v>
+      </c>
+      <c r="D1134" s="17">
+        <f>SUM(C$3:C1134)/A1134</f>
+        <v>12.308015729761703</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4">
+      <c r="A1135" s="17">
+        <f t="shared" si="8"/>
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="37">
+        <v>46000</v>
+      </c>
+      <c r="C1135" s="38">
+        <v>14.829999923706055</v>
+      </c>
+      <c r="D1135" s="17">
+        <f>SUM(C$3:C1135)/A1135</f>
+        <v>12.310241664619554</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4">
+      <c r="A1136" s="17">
+        <f t="shared" si="8"/>
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="37">
+        <v>46001</v>
+      </c>
+      <c r="C1136" s="38">
+        <v>14.760000228881836</v>
+      </c>
+      <c r="D1136" s="17">
+        <f>SUM(C$3:C1136)/A1136</f>
+        <v>12.312401945540421</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4">
+      <c r="A1137" s="17">
+        <f t="shared" si="8"/>
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="37">
+        <v>46002</v>
+      </c>
+      <c r="C1137" s="38">
+        <v>14.680000305175781</v>
+      </c>
+      <c r="D1137" s="17">
+        <f>SUM(C$3:C1137)/A1137</f>
+        <v>12.314487935284593</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4">
+      <c r="A1138" s="17">
+        <f t="shared" si="8"/>
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="37">
+        <v>46003</v>
+      </c>
+      <c r="C1138" s="38">
+        <v>14.720000267028809</v>
+      </c>
+      <c r="D1138" s="17">
+        <f>SUM(C$3:C1138)/A1138</f>
+        <v>12.316605463745635</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4">
+      <c r="A1139" s="17">
+        <f t="shared" si="8"/>
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="37">
+        <v>46006</v>
+      </c>
+      <c r="C1139" s="38">
+        <v>15.130000114440918</v>
+      </c>
+      <c r="D1139" s="17">
+        <f>SUM(C$3:C1139)/A1139</f>
+        <v>12.319079865373334</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4">
+      <c r="A1140" s="17">
+        <f t="shared" si="8"/>
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="37">
+        <v>46007</v>
+      </c>
+      <c r="C1140" s="38">
+        <v>14.970000267028809</v>
+      </c>
+      <c r="D1140" s="17">
+        <f>SUM(C$3:C1140)/A1140</f>
+        <v>12.321409320910817</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4">
+      <c r="A1141" s="17">
+        <f t="shared" si="8"/>
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="37">
+        <v>46008</v>
+      </c>
+      <c r="C1141" s="38">
+        <v>15.220000267028809</v>
+      </c>
+      <c r="D1141" s="17">
+        <f>SUM(C$3:C1141)/A1141</f>
+        <v>12.323954176877558</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4">
+      <c r="A1142" s="17">
+        <f t="shared" si="8"/>
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="37">
+        <v>46009</v>
+      </c>
+      <c r="C1142" s="38">
+        <v>15.170000076293945</v>
+      </c>
+      <c r="D1142" s="17">
+        <f>SUM(C$3:C1142)/A1142</f>
+        <v>12.326450708368274</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4">
+      <c r="A1143" s="17">
+        <f t="shared" si="8"/>
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="37">
+        <v>46010</v>
+      </c>
+      <c r="C1143" s="38">
+        <v>15.199999809265137</v>
+      </c>
+      <c r="D1143" s="17">
+        <f>SUM(C$3:C1143)/A1143</f>
+        <v>12.328969156309464</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4">
+      <c r="A1144" s="17">
+        <f t="shared" si="8"/>
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="37">
+        <v>46013</v>
+      </c>
+      <c r="C1144" s="38">
+        <v>15.340000152587891</v>
+      </c>
+      <c r="D1144" s="17">
+        <f>SUM(C$3:C1144)/A1144</f>
+        <v>12.331605785903403</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4">
+      <c r="A1145" s="17">
+        <f t="shared" si="8"/>
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="37">
+        <v>46014</v>
+      </c>
+      <c r="C1145" s="38">
+        <v>15.390000343322754</v>
+      </c>
+      <c r="D1145" s="17">
+        <f>SUM(C$3:C1145)/A1145</f>
+        <v>12.334281546671049</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4">
+      <c r="A1146" s="17">
+        <f t="shared" si="8"/>
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="37">
+        <v>46015</v>
+      </c>
+      <c r="C1146" s="38">
+        <v>15.449999809265137</v>
+      </c>
+      <c r="D1146" s="17">
+        <f>SUM(C$3:C1146)/A1146</f>
+        <v>12.337005076620869</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4">
+      <c r="A1147" s="17">
+        <f t="shared" si="8"/>
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="37">
+        <v>46016</v>
+      </c>
+      <c r="C1147" s="38">
+        <v>15.489999771118164</v>
+      </c>
+      <c r="D1147" s="17">
+        <f>SUM(C$3:C1147)/A1147</f>
+        <v>12.339758783777635</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4">
+      <c r="A1148" s="17">
+        <f t="shared" si="8"/>
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="37">
+        <v>46017</v>
+      </c>
+      <c r="C1148" s="38">
+        <v>15.520000457763672</v>
+      </c>
+      <c r="D1148" s="17">
+        <f>SUM(C$3:C1148)/A1148</f>
+        <v>12.342533863772386</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4">
+      <c r="A1149" s="17">
+        <f t="shared" si="8"/>
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="37">
+        <v>46020</v>
+      </c>
+      <c r="C1149" s="38">
+        <v>15.5</v>
+      </c>
+      <c r="D1149" s="17">
+        <f>SUM(C$3:C1149)/A1149</f>
+        <v>12.345286667727249</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4">
+      <c r="A1150" s="17">
+        <f t="shared" si="8"/>
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="37">
+        <v>46021</v>
+      </c>
+      <c r="C1150" s="38">
+        <v>15.529999732971191</v>
+      </c>
+      <c r="D1150" s="17">
+        <f>SUM(C$3:C1150)/A1150</f>
+        <v>12.348060808027984</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4">
+      <c r="A1151" s="17">
+        <f t="shared" si="8"/>
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="37">
+        <v>46022</v>
+      </c>
+      <c r="C1151" s="38">
+        <v>15.5</v>
+      </c>
+      <c r="D1151" s="17">
+        <f>SUM(C$3:C1151)/A1151</f>
+        <v>12.350804010109771</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:B2"/>
